--- a/finetuning/it_datasets/qa_dataset/qa_it_kelibia_dataset.xlsx
+++ b/finetuning/it_datasets/qa_dataset/qa_it_kelibia_dataset.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA79"/>
+  <dimension ref="A1:AB79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -561,7 +561,12 @@
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>question</t>
+          <t>plan</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>choices</t>
         </is>
       </c>
     </row>
@@ -667,14 +672,69 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>If you're in kelibia and looking for a great cafe, check out Story coffee kelibia located at 8090 Avenu Militant Abdelkader Dardouri. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 36.848013989197, 11.098336416111. For more details, visit their website at  or call them at 56 066 947.</t>
+          <t>Story coffee kelibia is a cafe located in Kelibia, Tunisia. It has a 5.0 rating based on 4 reviews. The cafe is open 24 hours a day and is located at the address Story coffee kelibia, 8090 Avenu Militant Abdelkader Dardouri, Kelibia. The cafe's main category is Cafe.</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>Where in Kelibia can you find a highly-rated cafe with 24/7 availability, located at GPS coordinates 36.848013989197, 11.098336416111?</t>
+          <t>Day Plan:
+Morning: Explore the historical Fort de Kelibia, offering stunning views of the sea.
+Mid-Morning: Visit the Institut superieur des etudes technologiques de Kelibia for insights into the city's higher education.
+Midday: Enjoy a delicious seafood lunch at the highly-rated El Bahri Restaurant.
+Afternoon: Relax on the scenic Plage Kelibia, indulging in swimming, sunbathing, or beach volleyball.
+Evening: Head to Pizzeria LOFT ROMA for a delightful dinner of authentic Italian pizzas.
+Night: Experience the vibrant atmosphere of Marbrerie Hafefh Kacem, a popular discotheque known for its lively music and energetic crowd.</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Café dar el chaaeb is a cafe situated in kelibia, Tunisia, at coordinates (36.8472589, 11.091058). The café is open from 6:15 am to midnight, and closed on Wednesdays and Saturdays. It offers a variety of services, including food and drinks.
+Hannibal coffee kelibia is a tea room located in kelibia, Tunisia. It offers a variety of teas, coffees, and pastries. The tea room is located at 36.8363146, 11.1113262.
+Located in the heart of Kelibia, "L'benna" is a highly-rated restaurant (4.6/5 stars) that delights locals and tourists alike. Open 24 hours a day, "L'benna" offers a convenient and welcoming atmosphere. Its precise location at (36.842587762817, 11.099081841049) makes it easily accessible.
+Kelibia Paradise is a lodging facility located in Kelibia, Tunisia. It has a rating of 4.6 and has received 18 reviews. The facility offers accommodation with a main focus on comfort and relaxation. Its geolocation is at longitude 11.098431810317 and latitude 36.846063992403.
+Maison d'hotes / Restaurant L'Hirondelle de Kelibia offers a pleasant stay in a beautiful location just steps from the beach. The hotel features comfortable rooms, a relaxing atmosphere, and welcoming staff. Guests can enjoy delicious meals at the on-site restaurant while admiring the panoramic views of the Mediterranean Sea. With its convenient location and excellent amenities, Maison d'hotes / Restaurant L'Hirondelle de Kelibia is the perfect place for a memorable vacation.
+Dar Meriem - Maison d'hôtes is a guest house located in Kelibia, Tunisia. It offers comfortable accommodation and a warm and welcoming atmosphere. The guest house is perfectly situated for exploring the city and its surroundings, and is close to a variety of amenities. The guest house is managed by a friendly and helpful team of staff who are always on hand to assist guests with any queries or needs.
+Residence Asma is a 4.4-rated residence located in Kelibia, Tunisia. It is a great place to stay for tourists and business travelers alike. The residence offers a variety of amenities, including a swimming pool, a fitness center, and a restaurant. It is also conveniently located near the beach, the city center, and the airport. The residence has 14 reviews, all of which are positive. Guests praise the residence's cleanliness, comfort, and friendly staff.
+Pension Anis is a 4-star family-run guesthouse located in Kelibia, Tunisia. It features a prime location on Av du Dr Mongi Ben Hmida. Guests can enjoy comfortable accommodations with great value. The guesthouse offers a range of amenities to ensure a pleasant stay, including free Wi-Fi, laundry service, and a friendly atmosphere. Its central location provides easy access to local attractions and points of interest.
+The Casa Del Mar Residence is a 4.3-rated guesthouse located in Kelibia, Tunisia. It is situated near the beach and offers a relaxing getaway for guests. The Residence has received positive reviews for its comfortable accommodations and friendly staff.
+Dar Lebharr is a cozy accommodation located in Kelibia, Tunisia. It offers a comfortable stay with a rating of 4.1 out of 5. Situated at 36.835428078688 latitude and 11.091149597327 longitude, it's easily accessible. Contact them at +33 7 81 09 91 78 for bookings or inquiries.
+Luxus Apartements is a 5-star lodge located in Kelibia, Tunisia. It offers a luxurious and comfortable stay for its guests. The lodge is situated near the beach, making it a great place to relax and enjoy the beautiful scenery. Luxus Apartements is also close to many restaurants, shops, and attractions. The lodge's staff is friendly and helpful, and they are always willing to go the extra mile to make sure that their guests have a memorable stay.
+Plage Kelibia, located at (36.84757, 11.09386), offers a picturesque beachfront experience in the city of Kelibia.
+Fort de Kelibia, located in Kelibia, is a historical fortress with an average rating of 4.4 out of 5 based on 460 reviews. It offers a stunning view of the sea, making it a great spot to enjoy the scenery. Visitors can also delve into the history of the fort or simply admire its architectural beauty. With its convenient opening hours from 9:00 AM to 6:00 PM, it's a perfect destination for tourists and history enthusiasts alike.
+Plage Kelibia is a tourist attraction located at the coordinates (36.84757, 11.09386) in Kelibia, Tunisia. With a rating of 4.6 based on 37 reviews, it is a popular destination for tourists. The beach offers a range of activities and amenities, including swimming, sunbathing, and beach volleyball. It is also home to a number of restaurants and cafes, making it a great place to relax and enjoy the scenery.
+The Port of Kelibia is a maritime port located in Kelibia, Tunisia. The port offers a variety of services to its customers, including fishing, cargo, and passenger transport. It is also a popular tourist destination, with many visitors coming to enjoy the beautiful scenery and the fresh seafood. The port is located at (36.8351444, 11.1116178).
+Discover the stunning Phare de Kelibia, a captivating viewpoint located at (36.8363146, 11.1113262) in Kelibia, Tunisia. Immerse yourself in the breathtaking panoramic views from the lighthouse's vantage point, making it an ideal spot for photography enthusiasts and nature lovers alike.
+The Institut superieur des etudes technologiques de Kelibia is a higher education institute located in Kelibia, Tunisia. It offers a range of technological programs and has a rating of 4.4 stars. The institute is situated at the coordinates (36.8363146, 11.1113262) and can be contacted by phone at 72 277 090. Its website is http://www.isetkl.rnu.tn/.
+Kelibia is a place located in Kelibia, Tunisia. It has a bike rental service, with a 4.2 rating based on 6 reviews. It is located at coordinates (36.836660524289, 11.111146140921).
+Marbrerie Hafefh Kacem is a popular discotheque located in Kelibia, Tunisia. It has a rating of 4.0 out of 5 on Google Maps and is known for its vibrant atmosphere and lively music. The discotheque is located at (36.8472589, 11.091058) and offers a variety of music genres to cater to different tastes. It is a popular destination for locals and tourists alike, and is a great place to dance the night away.
+El Bahri Restaurant is a seafood restaurant located in Kelibia, Tunisia. It is a popular spot for tourists and locals alike, and it offers a variety of seafood dishes, including fresh fish, grilled octopus, and seafood platters. The restaurant is open 24 hours a day, and it is closed on Tuesdays. The average rating for El Bahri Restaurant is 4.7 stars, and it has received positive reviews for its delicious food, friendly staff, and reasonable prices.
+Pizzeria LOFT ROMA is a 4.2-rated pizzeria located in kelibia, Tunisia. It operates from 08:00 to 00:00 every day and offers a wide range of pizzas. Its exact location is at R3VW+83Q Rue de Tripoli, Kelibia, Tunisia.
+Restaurant is a family-friendly restaurant located in Kelibia, Tunisia. It offers a variety of dishes, including traditional Tunisian cuisine and international fare. The restaurant is located at the coordinates (36.8472589, 11.091058) and has a rating of 5.0 out of 5 stars on Google Maps.
+Station Louage Kelibia is a taxi service located in Kelibia, Tunisia (36.84757, 11.09386). With a rating of 3.7 out of 5 based on 28 reviews, it offers reliable transportation services to its customers.
+SRTGN (station Kelibia) is a bus station located in Kelibia, Tunisia. It offers basic amenities and services for travelers, and is conveniently situated at (36.84757, 11.09386).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -780,14 +840,71 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>If you're in kelibia and looking for a top-rated Cafe, check out Workshop Bistro located at Av. de l'environnement, Kelibia. 
-This destination is perfect for Cafe lovers and offers a range of categories to choose from. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: 07:00-23:00. To get there, use these GPS coordinates: 36.835428078688, 11.091149597327. For more details, visit their website at https://www.google.com/maps/place/Workshop+Bistro/data=!4m7!3m6!1s0x131d33b89234ea45:0xb5a3de3ba875f1a5!8m2!3d36.8396227!4d11.1013993!16s%2Fg%2F11hcw2sbx3!19sChIJReo0krgzHRMRpfF1qDveo7U?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 46 227 400.</t>
+          <t>Nestled in the vibrant city of Kelibia, Workshop Bistro awaits with its cozy ambiance and delectable offerings. This cafe is renowned for its delectable cuisine and warm hospitality. Located at coordinates (36.835428078688, 11.091149597327), patrons can easily find this popular establishment.</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>For those seeking a highly-rated Cafe in Kelibia, what is the name and location of the establishment that offers a range of categories and boasts a 4.0 rating?</t>
+          <t>Day Plan:
+Morning: Explore Fort de Kelibia, a historical fortress in Kelibia, for stunning views of the Mediterranean Sea and the port.
+Mid-Morning: Try local cuisine at El Bahri Restaurant, a popular spot for seafood dishes.
+Midday: Relax with a massage at DAR COLIBRI, a 4.6-rated guesthouse with a swimming pool and hammam.
+Afternoon: Go swimming and enjoy water sports at Plage kelibia, a popular tourist attraction for swimming, sunbathing, and windsurfing.
+Evening: Take a guided tour of the Phare de Kelibia, a captivating viewpoint for panoramic views.
+Night: Enjoy a delicious pizza at Pizzeria LOFT ROMA, a 4.2-rated pizzeria with a wide range of options.</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe El Kssar is a cafe located in Kelibia, Tunisia. The cafe is known for its delicious coffee and pastries. Cafe El Kssar is a great place to relax and enjoy a cup of coffee with friends. The cafe is open from 5:30am to 12:00am, seven days a week.
+Hannibal coffee kelibia is a tea room located in kelibia, Tunisia. It offers a variety of teas, coffees, and pastries. The tea room is located at 36.8363146, 11.1113262.
+Barhoumi Center is a 4.0-rated restaurant situated in Kelibia, Tunisia, serving delicious food. Open from 8:00 AM to midnight, the restaurant offers a welcoming ambiance and friendly service. Located at coordinates (36.8472589, 11.091058), it's easily accessible and boasts a convenient location.
+Myriam Bel Air is a popular hotel located in Kelibia, Tunisia. It offers a comfortable and convenient stay for its guests, with a 4.2-star rating on Google. The hotel has 14 reviews, with an overall positive feedback from its guests. It provides a range of amenities, including comfortable rooms, a swimming pool, and a restaurant. The hotel's website features additional information and booking options, and it is well-connected with major tourist attractions in the area.
+Nestled in the picturesque Kelibia region, Cap-Bon Kelibia Beach Hotel &amp; Spa is an upscale resort offering 562 warmly designed rooms and suites. With its stunning beachfront location and serene ambiance, the hotel is an ideal destination for leisure and relaxation. It features an array of amenities, including a rejuvenating spa, three refined dining options, and an inviting swimming pool, ensuring an unforgettable stay in the heart of Kelibia.
+DAR COLIBRI, a 4.6-rated guesthouse located in Kelibia (36.8363146, 11.1113262), offers a unique stay in a charming setting. It features a swimming pool, hammam, and massage services, promising a relaxing and rejuvenating experience. With its proximity to the beautiful beaches of Kelibia, this guesthouse is an ideal base for exploring the region's natural wonders.
+Residence Asma is a 4.4-rated residence located in Kelibia, Tunisia. It is a great place to stay for tourists and business travelers alike. The residence offers a variety of amenities, including a swimming pool, a fitness center, and a restaurant. It is also conveniently located near the beach, the city center, and the airport. The residence has 14 reviews, all of which are positive. Guests praise the residence's cleanliness, comfort, and friendly staff.
+Pension Anis is a 4-star family-run guesthouse located in Kelibia, Tunisia. It features a prime location on Av du Dr Mongi Ben Hmida. Guests can enjoy comfortable accommodations with great value. The guesthouse offers a range of amenities to ensure a pleasant stay, including free Wi-Fi, laundry service, and a friendly atmosphere. Its central location provides easy access to local attractions and points of interest.
+The Casa Del Mar Residence is a 4.3-rated guesthouse located in Kelibia, Tunisia. It is situated near the beach and offers a relaxing getaway for guests. The Residence has received positive reviews for its comfortable accommodations and friendly staff.
+Dar Lebharr is a cozy accommodation located in Kelibia, Tunisia. It offers a comfortable stay with a rating of 4.1 out of 5. Situated at 36.835428078688 latitude and 11.091149597327 longitude, it's easily accessible. Contact them at +33 7 81 09 91 78 for bookings or inquiries.
+Luxus Apartements is a 5-star lodge located in Kelibia, Tunisia at (36.835428078688, 11.091149597327). It has a rating of 5.0 based on 1 review and is owned by Luxus Apartements (proprietaire). Luxus Apartements offers a variety of amenities and services, making it the perfect place to stay for both business and leisure travelers.
+Plage Kelibia, located at (36.84757, 11.09386), offers a picturesque beachfront experience in the city of Kelibia.
+Fort de Kelibia is a historical fortress located in Kelibia, Tunisia. It offers stunning views of the Mediterranean Sea and the port. The castle boasts a rich history and architectural significance. Visitors can explore the castle's ramparts, towers, and courtyards, and delve into the region's captivating past. With a 4.4-star rating, the fort is a popular destination for tourists and history enthusiasts alike. Its strategic location makes it a great spot to capture panoramic shots of the surrounding area.
+Plage kelibia is a popular tourist attraction located in Kelibia, Tunisia. It offers a wide range of activities, including swimming, sunbathing, and windsurfing. The beach is also home to a number of restaurants and cafes.
+The beach is located just a short drive from the city center and is easily accessible by public transportation. The beach is well-maintained and features clear blue waters and soft white sand.
+Plage kelibia is a great place to relax and enjoy the beautiful weather of Tunisia. It is also a great location to enjoy some water sports.
+The Port of Kelibia is a maritime port located in Kelibia, Tunisia. The port offers a variety of services to its customers, including fishing, cargo, and passenger transport. It is also a popular tourist destination, with many visitors coming to enjoy the beautiful scenery and the fresh seafood. The port is located at (36.8351444, 11.1116178).
+Discover the stunning Phare de Kelibia, a captivating viewpoint located at (36.8363146, 11.1113262) in Kelibia, Tunisia. Immerse yourself in the breathtaking panoramic views from the lighthouse's vantage point, making it an ideal spot for photography enthusiasts and nature lovers alike.
+The Institut superieur des etudes technologiques de Kelibia is a higher education institute located in Kelibia, Tunisia. It offers a range of technological programs and has a rating of 4.4 stars. The institute is situated at the coordinates (36.8363146, 11.1113262) and can be contacted by phone at 72 277 090. Its website is http://www.isetkl.rnu.tn/.
+Kelibia is a place located in Kelibia, Tunisia. It has a bike rental service, with a 4.2 rating based on 6 reviews. It is located at coordinates (36.836660524289, 11.111146140921).
+Marbrerie Hafefh Kacem is a popular discotheque located in Kelibia, Tunisia. It has a rating of 4.0 out of 5 on Google Maps and is known for its vibrant atmosphere and lively music. The discotheque is located at (36.8472589, 11.091058) and offers a variety of music genres to cater to different tastes. It is a popular destination for locals and tourists alike, and is a great place to dance the night away.
+El Bahri Restaurant is a seafood restaurant located in Kelibia, Tunisia. It is a popular spot for tourists and locals alike, and it offers a variety of seafood dishes, including fresh fish, grilled octopus, and seafood platters. The restaurant is open 24 hours a day, and it is closed on Tuesdays. The average rating for El Bahri Restaurant is 4.7 stars, and it has received positive reviews for its delicious food, friendly staff, and reasonable prices.
+Pizzeria LOFT ROMA is a 4.2-rated pizzeria located in kelibia, Tunisia. It operates from 08:00 to 00:00 every day and offers a wide range of pizzas. Its exact location is at R3VW+83Q Rue de Tripoli, Kelibia, Tunisia.
+Restaurant is a family-friendly restaurant located in Kelibia, Tunisia. It offers a variety of dishes, including traditional Tunisian cuisine and international fare. The restaurant is located at the coordinates (36.8472589, 11.091058) and has a rating of 5.0 out of 5 stars on Google Maps.
+Station Louage Kelibia is a taxi service located in Kelibia, Tunisia (36.84757, 11.09386). With a rating of 3.7 out of 5 based on 28 reviews, it offers reliable transportation services to its customers.
+SRTGN (station Kelibia) is a bus station located in Kelibia with the coordinates (36.84757, 11.09386). It offers bus services to various destinations.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -889,12 +1006,71 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>If you're in kelibia and looking for a great Cafe, check out L'instant Cafe located at 8090 Av. de Martyrs. This top-rated destination is perfect for Cafe lovers and has a rating of 4.5. It's open during these hours: 08:00-19:00 but closed on []. To get there, use these GPS coordinates: 36.842587762817, 11.099081841049. For more details, visit their website at https://www.google.com/maps/place/L%E2%80%99instant+Caf%C3%A9/data=!4m7!3m6!1s0x131d33dc949e2bf9:0xf48349548abb17cc!8m2!3d36.8372911!4d11.1101721!16s%2Fg%2F11n0cxpkgk!19sChIJ-SuelNwzHRMRzBe7ilRJg_Q?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>L'instant Cafe is a highly rated cafe located in Kelibia, Tunisia. It offers a cozy atmosphere and serves delicious breakfasts, as evidenced by the numerous positive reviews mentioning "petit dejeuner." The cafe is open from 8 am to 7 pm, providing locals and tourists with a convenient place to relax and enjoy a cup of coffee or a light meal.</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>Which top-rated Cafe with a 4.5 rating in Kelibia, known specifically for its Cafe and located at 8090 Av. de Martyrs, is a must-visit destination?</t>
+          <t>Day Plan:
+Morning: Explore the historical Fort de Kelibia, offering stunning views of the Mediterranean.
+Mid-Morning: Visit the Phare de Kelibia, a captivating viewpoint with breathtaking panoramic views.
+Midday: Indulge in a delightful seafood feast at El Bahri Restaurant, renowned for its fresh catches and excellent service.
+Afternoon: Unwind at DAR COLIBRI, a charming guesthouse with a swimming pool, hammam, and massage services.
+Evening: Experience the vibrant atmosphere of Marbrerie Hafefh Kacem, a popular discotheque known for its lively music and entertaining ambiance.
+Night: Savor authentic Tunisian cuisine at Restaurant Beb Bhar, a highly-rated local restaurant offering a diverse menu.</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Chikh Hammouda, located in Kelibia at 8090 ave Ali Belhouane, is a 4.3-rated cafe open from 4 AM to 10 PM, offering a cozy ambiance for coffee and relaxation. With three reviews and a featured image showcasing its inviting atmosphere, this cafe is a popular spot in the Kelibia area.
+Located in Kelibia (latitude 36.836660524289, and longitude 11.111146140921), Big Ben is a teahouse offering a pleasant setting to relax and enjoy a break.
+Restaurant Beb Bhar is a local restaurant located in Kelibia, Tunisia. It is rated 4.1 out of 5 stars on Google and has received 14 reviews. The restaurant offers a variety of dishes, including traditional Tunisian cuisine and international favorites. The restaurant is open from 9:00am to 12:00am every day of the week.
+Myriam Bel Air is a popular hotel located in Kelibia, Tunisia. It offers a comfortable and convenient stay for its guests, with a 4.2-star rating on Google. The hotel has 14 reviews, with an overall positive feedback from its guests. It provides a range of amenities, including comfortable rooms, a swimming pool, and a restaurant. The hotel's website features additional information and booking options, and it is well-connected with major tourist attractions in the area.
+Nestled in the picturesque Kelibia region, Cap-Bon Kelibia Beach Hotel &amp; Spa is an upscale resort offering 562 warmly designed rooms and suites. With its stunning beachfront location and serene ambiance, the hotel is an ideal destination for leisure and relaxation. It features an array of amenities, including a rejuvenating spa, three refined dining options, and an inviting swimming pool, ensuring an unforgettable stay in the heart of Kelibia.
+DAR COLIBRI, a 4.6-rated guesthouse located in Kelibia (36.8363146, 11.1113262), offers a unique stay in a charming setting. It features a swimming pool, hammam, and massage services, promising a relaxing and rejuvenating experience. With its proximity to the beautiful beaches of Kelibia, this guesthouse is an ideal base for exploring the region's natural wonders.
+Residence Asma is a 4.4-rated residence located in Kelibia, Tunisia. It is a great place to stay for tourists and business travelers alike. The residence offers a variety of amenities, including a swimming pool, a fitness center, and a restaurant. It is also conveniently located near the beach, the city center, and the airport. The residence has 14 reviews, all of which are positive. Guests praise the residence's cleanliness, comfort, and friendly staff.
+Pension Anis is a 4-star family-run guesthouse located in Kelibia, Tunisia. It features a prime location on Av du Dr Mongi Ben Hmida. Guests can enjoy comfortable accommodations with great value. The guesthouse offers a range of amenities to ensure a pleasant stay, including free Wi-Fi, laundry service, and a friendly atmosphere. Its central location provides easy access to local attractions and points of interest.
+The Casa Del Mar Residence is a 4.3-rated guesthouse located in Kelibia, Tunisia. It is situated near the beach and offers a relaxing getaway for guests. The Residence has received positive reviews for its comfortable accommodations and friendly staff.
+Dar Lebharr is a cozy accommodation located in Kelibia, Tunisia. It offers a comfortable stay with a rating of 4.1 out of 5. Situated at 36.835428078688 latitude and 11.091149597327 longitude, it's easily accessible. Contact them at +33 7 81 09 91 78 for bookings or inquiries.
+Luxus Apartements is a 5-star lodge located in Kelibia, Tunisia at (36.835428078688, 11.091149597327). It has a rating of 5.0 based on 1 review and is owned by Luxus Apartements (proprietaire). Luxus Apartements offers a variety of amenities and services, making it the perfect place to stay for both business and leisure travelers.
+Plage Kelibia, located at (36.84757, 11.09386), offers a picturesque beachfront experience in the city of Kelibia.
+Fort de Kelibia is a historical fortress located in Kelibia, Tunisia. It offers stunning views of the Mediterranean Sea and the port. The castle boasts a rich history and architectural significance. Visitors can explore the castle's ramparts, towers, and courtyards, and delve into the region's captivating past. With a 4.4-star rating, the fort is a popular destination for tourists and history enthusiasts alike. Its strategic location makes it a great spot to capture panoramic shots of the surrounding area.
+Plage kelibia is a popular tourist attraction located in Kelibia, Tunisia. It offers a wide range of activities, including swimming, sunbathing, and windsurfing. The beach is also home to a number of restaurants and cafes.
+The beach is located just a short drive from the city center and is easily accessible by public transportation. The beach is well-maintained and features clear blue waters and soft white sand.
+Plage kelibia is a great place to relax and enjoy the beautiful weather of Tunisia. It is also a great location to enjoy some water sports.
+The Port of Kelibia is a maritime port located in Kelibia, Tunisia. The port offers a variety of services to its customers, including fishing, cargo, and passenger transport. It is also a popular tourist destination, with many visitors coming to enjoy the beautiful scenery and the fresh seafood. The port is located at (36.8351444, 11.1116178).
+Discover the stunning Phare de Kelibia, a captivating viewpoint located at (36.8363146, 11.1113262) in Kelibia, Tunisia. Immerse yourself in the breathtaking panoramic views from the lighthouse's vantage point, making it an ideal spot for photography enthusiasts and nature lovers alike.
+The Institut superieur des etudes technologiques de Kelibia is a higher education institute located in Kelibia, Tunisia. It offers a range of technological programs and has a rating of 4.4 stars. The institute is situated at the coordinates (36.8363146, 11.1113262) and can be contacted by phone at 72 277 090. Its website is http://www.isetkl.rnu.tn/.
+Kelibia is a place located in Kelibia, Tunisia. It has a bike rental service, with a 4.2 rating based on 6 reviews. It is located at coordinates (36.836660524289, 11.111146140921).
+Marbrerie Hafefh Kacem is a popular discotheque located in Kelibia, Tunisia. It has a rating of 4.0 out of 5 on Google Maps and is known for its vibrant atmosphere and lively music. The discotheque is located at (36.8472589, 11.091058) and offers a variety of music genres to cater to different tastes. It is a popular destination for locals and tourists alike, and is a great place to dance the night away.
+El Bahri Restaurant is a seafood restaurant located in Kelibia, Tunisia. It is a popular spot for tourists and locals alike, and it offers a variety of seafood dishes, including fresh fish, grilled octopus, and seafood platters. The restaurant is open 24 hours a day, and it is closed on Tuesdays. The average rating for El Bahri Restaurant is 4.7 stars, and it has received positive reviews for its delicious food, friendly staff, and reasonable prices.
+"La Luna", a 4-star Pizzeria, located in Kelibia, Tunisia. It's reachable by phone and has a website. It's open daily from 08:00-22:00, and its coordinates are (36.8472589, 11.091058).
+Restaurant is a family-friendly restaurant located in Kelibia, Tunisia. It offers a variety of dishes, including traditional Tunisian cuisine and international fare. The restaurant is located at the coordinates (36.8472589, 11.091058) and has a rating of 5.0 out of 5 stars on Google Maps.
+Station Louage Kelibia is a taxi service located in Kelibia, Tunisia (36.84757, 11.09386). With a rating of 3.7 out of 5 based on 28 reviews, it offers reliable transportation services to its customers.
+SRTGN's station is located in Kelibia, Tunisia. It offers bus services to various destinations. The station is located at the coordinates (36.84757, 11.09386).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -996,14 +1172,69 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>If you're in kelibia and looking for something to do, check out Magnifique coffee located at Rue Clupea, Kelibia 8090. 
-This top-rated destination is perfect for Cafe lovers. 
-With a rating of 4.6, it's a must-visit spot. It's open during these hours: 07:00-01:00. To get there, use these GPS coordinates: 36.840640203809, 11.115995219474.</t>
+          <t>Magnifique coffee is a cafe located in Kelibia, Tunisia. It offers a variety of coffee drinks, as well as pastries and other snacks. The cafe is located at Rue Clupea, Kelibia 8090. It is open from 07:00-01:00 and is closed on Sunday. The cafe has a 4.6-star rating on Google Maps.</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>Where in Kelibia can you find a highly rated cafe destination (4.6/5) perfect for coffee enthusiasts?</t>
+          <t>Day Plan:
+Morning: Explore Fort de Kelibia
+Mid-Morning: Try local cuisine at El Bahri Restaurant
+Midday: Visit Phare de Kelibia for scenic views
+Afternoon: Enjoy beach activities at Plage Kelibia
+Evening: Participate in a nightlife event at Marbrerie Hafefh Kacem
+Night: Relax with a massage at DAR COLIBRI</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Coffee King Kelibia, located in the bustling town of Kelibia, is a haven for coffee enthusiasts. With a cozy and inviting atmosphere, the cafe is the perfect spot to unwind and savor a cup of freshly brewed coffee. Its convenient location and high ratings make it a must-visit destination for locals and tourists alike.
+Hannibal coffee kelibia is a tea room located in kelibia, Tunisia. It offers a variety of teas, coffees, and pastries. The tea room is located at 36.8363146, 11.1113262.
+bistro doner is a restaurant located in Kelibia, Tunisia. It is open late, from 7pm to 4am. It offers a variety of dishes, and has a rating of 4.2 out of 5 stars on Google Maps. The restaurant is located at coordinates (36.8472589, 11.091058).
+Myriam Bel Air is a popular hotel located in Kelibia, Tunisia. It offers a comfortable and convenient stay for its guests, with a 4.2-star rating on Google. The hotel has 14 reviews, with an overall positive feedback from its guests. It provides a range of amenities, including comfortable rooms, a swimming pool, and a restaurant. The hotel's website features additional information and booking options, and it is well-connected with major tourist attractions in the area.
+The Cap-Bon Kelibia Beach Hotel &amp; Spa is a 4-star hotel located in Kelibia, Tunisia. It is a luxury seaside hotel offering comfortable rooms and suites, a spa and 3 refined restaurants. It is known for its beautiful beach, its large swimming pool and its animations.
+DAR COLIBRI, a 4.6-rated guesthouse located in Kelibia (36.8363146, 11.1113262), offers a unique stay in a charming setting. It features a swimming pool, hammam, and massage services, promising a relaxing and rejuvenating experience. With its proximity to the beautiful beaches of Kelibia, this guesthouse is an ideal base for exploring the region's natural wonders.
+Residence Asma is a 4.4-rated residence located in Kelibia, Tunisia. It is a great place to stay for tourists and business travelers alike. The residence offers a variety of amenities, including a swimming pool, a fitness center, and a restaurant. It is also conveniently located near the beach, the city center, and the airport. The residence has 14 reviews, all of which are positive. Guests praise the residence's cleanliness, comfort, and friendly staff.
+Pension Anis is a 4-star family-run guesthouse located in Kelibia, Tunisia. It features a prime location on Av du Dr Mongi Ben Hmida. Guests can enjoy comfortable accommodations with great value. The guesthouse offers a range of amenities to ensure a pleasant stay, including free Wi-Fi, laundry service, and a friendly atmosphere. Its central location provides easy access to local attractions and points of interest.
+The Casa Del Mar Residence is a 4.3-rated guesthouse located in Kelibia, Tunisia. It is situated near the beach and offers a relaxing getaway for guests. The Residence has received positive reviews for its comfortable accommodations and friendly staff.
+Dar Lebharr is a cozy accommodation located in Kelibia, Tunisia. It offers a comfortable stay with a rating of 4.1 out of 5. Situated at 36.835428078688 latitude and 11.091149597327 longitude, it's easily accessible. Contact them at +33 7 81 09 91 78 for bookings or inquiries.
+Luxus Apartements is a 5-star lodge located in Kelibia, Tunisia at (36.835428078688, 11.091149597327). It has a rating of 5.0 based on 1 review and is owned by Luxus Apartements (proprietaire). Luxus Apartements offers a variety of amenities and services, making it the perfect place to stay for both business and leisure travelers.
+Plage Kelibia, located at (36.84757, 11.09386), offers a picturesque beachfront experience in the city of Kelibia.
+Fort de Kelibia is a historical fortress located in Kelibia, Tunisia. It offers stunning views of the Mediterranean Sea and the port. The castle boasts a rich history and architectural significance. Visitors can explore the castle's ramparts, towers, and courtyards, and delve into the region's captivating past. With a 4.4-star rating, the fort is a popular destination for tourists and history enthusiasts alike. Its strategic location makes it a great spot to capture panoramic shots of the surrounding area.
+Plage Kelibia is a tourist attraction located at the coordinates (36.84757, 11.09386) in Kelibia, Tunisia. With a rating of 4.6 based on 37 reviews, it is a popular destination for tourists. The beach offers a range of activities and amenities, including swimming, sunbathing, and beach volleyball. It is also home to a number of restaurants and cafes, making it a great place to relax and enjoy the scenery.
+The Port of Kelibia is a maritime port located in Kelibia, Tunisia. The port offers a variety of services to its customers, including fishing, cargo, and passenger transport. It is also a popular tourist destination, with many visitors coming to enjoy the beautiful scenery and the fresh seafood. The port is located at (36.8351444, 11.1116178).
+Discover the stunning Phare de Kelibia, a captivating viewpoint located at (36.8363146, 11.1113262) in Kelibia, Tunisia. Immerse yourself in the breathtaking panoramic views from the lighthouse's vantage point, making it an ideal spot for photography enthusiasts and nature lovers alike.
+The Institut superieur des etudes technologiques de Kelibia is a higher education institute located in Kelibia, Tunisia. It offers a range of technological programs and has a rating of 4.4 stars. The institute is situated at the coordinates (36.8363146, 11.1113262) and can be contacted by phone at 72 277 090. Its website is http://www.isetkl.rnu.tn/.
+Kelibia is a place located in Kelibia, Tunisia. It has a bike rental service, with a 4.2 rating based on 6 reviews. It is located at coordinates (36.836660524289, 11.111146140921).
+Marbrerie Hafefh Kacem is a popular discotheque located in Kelibia, Tunisia. It has a rating of 4.0 out of 5 on Google Maps and is known for its vibrant atmosphere and lively music. The discotheque is located at (36.8472589, 11.091058) and offers a variety of music genres to cater to different tastes. It is a popular destination for locals and tourists alike, and is a great place to dance the night away.
+El Bahri Restaurant is a seafood restaurant located in Kelibia, Tunisia. It is a popular spot for tourists and locals alike, and it offers a variety of seafood dishes, including fresh fish, grilled octopus, and seafood platters. The restaurant is open 24 hours a day, and it is closed on Tuesdays. The average rating for El Bahri Restaurant is 4.7 stars, and it has received positive reviews for its delicious food, friendly staff, and reasonable prices.
+Del Capo is a 5-star rated pizzeria located in Kelibia, Tunisia. It is situated at the address: 8090 Av. de Martyrs with coordinates (36.842587762817, 11.099081841049). This highly-rated spot operates from 12:00 to 00:00 during the week and offers a delectable range of pizzas.
+Restaurant is a family-friendly restaurant located in Kelibia, Tunisia. It offers a variety of dishes, including traditional Tunisian cuisine and international fare. The restaurant is located at the coordinates (36.8472589, 11.091058) and has a rating of 5.0 out of 5 stars on Google Maps.
+Station Louage Kelibia is a taxi service located in Kelibia, Tunisia (36.84757, 11.09386). With a rating of 3.7 out of 5 based on 28 reviews, it offers reliable transportation services to its customers.
+SRTGN's station is located in Kelibia, Tunisia. It offers bus services to various destinations. The station is located at the coordinates (36.84757, 11.09386).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1105,12 +1336,71 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>If you're in kelibia and looking for a top-rated Cafe, check out Dolce Vita Glace italienne located at 8090 Av. de Martyrs, Kelibia 8090. This popular destination is perfect for Cafe lovers and offers a range of related categories to choose from. With a rating of 4.2, it's a must-visit spot. It's open during these hours: 06:00-00:00. To get there, use these GPS coordinates: 36.836660524289, 11.111146140921. For more details, visit their website at https://www.google.com/maps/place/Dolce+Vita+Glace+italienne/data=!4m7!3m6!1s0x131d33c1a53a78a7:0x54ef239f2c49107!8m2!3d36.8446083!4d11.0959741!16s%2Fg%2F11c0tb21st!19sChIJp3g6pcEzHRMRB5HE8jnyTgU?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Dolce Vita Glace italienne is a café located in Kelibia, Tunisia (lon: 11.111146140921, lat: 36.836660524289). It opens from 06:00 to 00:00 and is known for its delicious Italian ice cream (glaces) among its 13 reviews.</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>Where in Kelibia can you find the top-rated Cafe, Dolce Vita Glace italienne, known for its Cafe offerings and popular with a 4.2 rating?</t>
+          <t>Day Plan:
+Morning: Explore the ancient Fort de Kelibia, offering stunning sea views and historical insights.
+Mid-Morning: Try local cuisine at Restaurant El Bahri, renowned for its delectable seafood dishes.
+Midday: Visit the Phare de Kelibia lighthouse, capturing breathtaking panoramic views from its vantage point.
+Afternoon: Enjoy a relaxing beach day at Plage Kelibia, indulging in swimming, sunbathing, and water sports.
+Evening: Experience the vibrant atmosphere at Marbrerie Hafefh Kacem discotheque, dancing the night away amidst lively music.
+Night: Unwind at Casa Del Mar Residence, a cozy accommodation offering a peaceful retreat near the beach.</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Nestled in the heart of El Garage 8090 in Kelibia, this esteemed cafe tantalizes taste buds with a symphony of flavors. Located at coordinates (36.843061894639, 11.101993789385), this culinary haven operates from 08:00 to 21:00, beckoning patrons to indulge in its delectable offerings.
+Hannibal coffee kelibia is a tea room located in kelibia, Tunisia. It offers a variety of teas, coffees, and pastries. The tea room is located at 36.8363146, 11.1113262.
+Pizzaria Nino's is a restaurant located in kelibia, Tunisia at the coordinates (36.8472589, 11.091058). It has a rating of 5.0 out of 5 stars and offers a variety of pizzas.
+Myriam Bel Air is a popular hotel located in Kelibia, Tunisia. It offers a comfortable and convenient stay for its guests, with a 4.2-star rating on Google. The hotel has 14 reviews, with an overall positive feedback from its guests. It provides a range of amenities, including comfortable rooms, a swimming pool, and a restaurant. The hotel's website features additional information and booking options, and it is well-connected with major tourist attractions in the area.
+Maison d'hotes / Restaurant L'Hirondelle de Kelibia offers a pleasant stay in a beautiful location just steps from the beach. The hotel features comfortable rooms, a relaxing atmosphere, and welcoming staff. Guests can enjoy delicious meals at the on-site restaurant while admiring the panoramic views of the Mediterranean Sea. With its convenient location and excellent amenities, Maison d'hotes / Restaurant L'Hirondelle de Kelibia is the perfect place for a memorable vacation.
+Dar Meriem - Maison d'hôtes is a guest house located in Kelibia, Tunisia. It offers comfortable accommodation and a warm and welcoming atmosphere. The guest house is perfectly situated for exploring the city and its surroundings, and is close to a variety of amenities. The guest house is managed by a friendly and helpful team of staff who are always on hand to assist guests with any queries or needs.
+Residence Asma is a 4.4-rated residence located in Kelibia, Tunisia. It is a great place to stay for tourists and business travelers alike. The residence offers a variety of amenities, including a swimming pool, a fitness center, and a restaurant. It is also conveniently located near the beach, the city center, and the airport. The residence has 14 reviews, all of which are positive. Guests praise the residence's cleanliness, comfort, and friendly staff.
+Pension Anis is a 4-star family-run guesthouse located in Kelibia, Tunisia. It features a prime location on Av du Dr Mongi Ben Hmida. Guests can enjoy comfortable accommodations with great value. The guesthouse offers a range of amenities to ensure a pleasant stay, including free Wi-Fi, laundry service, and a friendly atmosphere. Its central location provides easy access to local attractions and points of interest.
+The Casa Del Mar Residence is a 4.3-rated guesthouse located in Kelibia, Tunisia. It is situated near the beach and offers a relaxing getaway for guests. The Residence has received positive reviews for its comfortable accommodations and friendly staff.
+Dar Lebharr is a cozy accommodation located in Kelibia, Tunisia. It offers a comfortable stay with a rating of 4.1 out of 5. Situated at 36.835428078688 latitude and 11.091149597327 longitude, it's easily accessible. Contact them at +33 7 81 09 91 78 for bookings or inquiries.
+Luxus Apartements is a 5-star lodge located in Kelibia, Tunisia. It offers a luxurious and comfortable stay for its guests. The lodge is situated near the beach, making it a great place to relax and enjoy the beautiful scenery. Luxus Apartements is also close to many restaurants, shops, and attractions. The lodge's staff is friendly and helpful, and they are always willing to go the extra mile to make sure that their guests have a memorable stay.
+Plage Kelibia, located at (36.84757, 11.09386), offers a picturesque beachfront experience in the city of Kelibia.
+Fort de Kelibia, located in Kelibia, is a historical fortress with an average rating of 4.4 out of 5 based on 460 reviews. It offers a stunning view of the sea, making it a great spot to enjoy the scenery. Visitors can also delve into the history of the fort or simply admire its architectural beauty. With its convenient opening hours from 9:00 AM to 6:00 PM, it's a perfect destination for tourists and history enthusiasts alike.
+Plage kelibia is a popular tourist attraction located in Kelibia, Tunisia. It offers a wide range of activities, including swimming, sunbathing, and windsurfing. The beach is also home to a number of restaurants and cafes.
+The beach is located just a short drive from the city center and is easily accessible by public transportation. The beach is well-maintained and features clear blue waters and soft white sand.
+Plage kelibia is a great place to relax and enjoy the beautiful weather of Tunisia. It is also a great location to enjoy some water sports.
+The Port of Kelibia is a maritime port located in Kelibia, Tunisia. The port offers a variety of services to its customers, including fishing, cargo, and passenger transport. It is also a popular tourist destination, with many visitors coming to enjoy the beautiful scenery and the fresh seafood. The port is located at (36.8351444, 11.1116178).
+Discover the stunning Phare de Kelibia, a captivating viewpoint located at (36.8363146, 11.1113262) in Kelibia, Tunisia. Immerse yourself in the breathtaking panoramic views from the lighthouse's vantage point, making it an ideal spot for photography enthusiasts and nature lovers alike.
+The Institut superieur des etudes technologiques de Kelibia is a higher education institute located in Kelibia, Tunisia. It offers a range of technological programs and has a rating of 4.4 stars. The institute is situated at the coordinates (36.8363146, 11.1113262) and can be contacted by phone at 72 277 090. Its website is http://www.isetkl.rnu.tn/.
+Kelibia is a place located in Kelibia, Tunisia. It has a bike rental service, with a 4.2 rating based on 6 reviews. It is located at coordinates (36.836660524289, 11.111146140921).
+Marbrerie Hafefh Kacem is a popular discotheque located in Kelibia, Tunisia. It has a rating of 4.0 out of 5 on Google Maps and is known for its vibrant atmosphere and lively music. The discotheque is located at (36.8472589, 11.091058) and offers a variety of music genres to cater to different tastes. It is a popular destination for locals and tourists alike, and is a great place to dance the night away.
+El Bahri Restaurant is a seafood restaurant located in Kelibia, Tunisia. It is a popular spot for tourists and locals alike, and it offers a variety of seafood dishes, including fresh fish, grilled octopus, and seafood platters. The restaurant is open 24 hours a day, and it is closed on Tuesdays. The average rating for El Bahri Restaurant is 4.7 stars, and it has received positive reviews for its delicious food, friendly staff, and reasonable prices.
+"La Luna", a 4-star Pizzeria, located in Kelibia, Tunisia. It's reachable by phone and has a website. It's open daily from 08:00-22:00, and its coordinates are (36.8472589, 11.091058).
+Restaurant is a family-friendly restaurant located in Kelibia, Tunisia. It offers a variety of dishes, including traditional Tunisian cuisine and international fare. The restaurant is located at the coordinates (36.8472589, 11.091058) and has a rating of 5.0 out of 5 stars on Google Maps.
+Station Louage Kelibia is a taxi service located in Kelibia, Tunisia (36.84757, 11.09386). With a rating of 3.7 out of 5 based on 28 reviews, it offers reliable transportation services to its customers.
+SRTGN (station Kelibia) is a bus station located in Kelibia, Tunisia. It offers basic amenities and services for travelers, and is conveniently situated at (36.84757, 11.09386).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1216,12 +1506,69 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>If you're in kelibia and looking for a top-rated Cafe, head to Coffee Shop Kelibia located at V35R+P7R Coffee Shop Kelibia, Kelibia. Open from 5 am to 12 am daily, this popular spot has earned an impressive rating of 4.7. Get directions using the GPS coordinates: 36.84757, 11.09386. For more info, call 25 104 041.</t>
+          <t>Coffee Shop Kelibia is a highly-rated cafe located in Kelibia, Tunisia. It operates from 5 AM to midnight every day and is known for its excellent service and atmosphere. With a 4.7-star rating based on 12 reviews, Coffee Shop Kelibia is a popular spot for locals and tourists alike. It is conveniently situated at V35R+P7R, making it easily accessible to visitors.</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated cafe with a 4.7 rating in Kelibia, open from 5 am to 12 am daily?</t>
+          <t>Day Plan:
+Morning: Exploring Plage Kelibia, a picturesque beachfront with swimming, sunbathing, and beach volleyball.
+Mid-Morning: Trying local cuisine at Restaurant Tulipe, specializing in Restaurant cuisine with a 4.1 rating.
+Midday: Visiting Fort de Kelibia, a historical fortress offering stunning Mediterranean Sea views and insights into the region's past.
+Afternoon: Relaxing with a swim and enjoying scenic views at Casa Del Mar Residence, a 4.3-rated guesthouse near the beach.
+Evening: Participating in the vibrant atmosphere and dancing the night away at Marbrerie Hafefh Kacem, a popular discotheque with a 4.0 rating.
+Night: Enjoying a delicious seafood dinner at El Bahri Restaurant, a popular spot with a 4.7-star rating and known for its fresh seafood dishes.</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Chikh Hammouda, located in Kelibia at 8090 ave Ali Belhouane, is a 4.3-rated cafe open from 4 AM to 10 PM, offering a cozy ambiance for coffee and relaxation. With three reviews and a featured image showcasing its inviting atmosphere, this cafe is a popular spot in the Kelibia area.
+Hannibal coffee kelibia is a tea room located in kelibia, Tunisia. It offers a variety of teas, coffees, and pastries. The tea room is located at 36.8363146, 11.1113262.
+Restaurant Tulipe is located in Kelibia, Tunisia at the coordinates (36.835428078688, 11.091149597327). The restaurant has received a 4.1 rating based on 7 reviews and specializes in Restaurant cuisine. It is open from 12:00-02:00 and is closed on . The restaurant's phone number is 26 205 522.
+Kelibia Paradise is a popular accommodation option in Kelibia, Tunisia. It is located at 47 Rue d'orange Cite Ezzouhour, 8090, Kelibia, and offers a range of amenities to its guests. These include a restaurant, bar, and swimming pool, as well as free Wi-Fi and parking. The hotel is situated within easy reach of the beach and other local attractions, making it an ideal base for exploring the area.
+Maison d'hotes / Restaurant L'Hirondelle de Kelibia offers a pleasant stay in a beautiful location just steps from the beach. The hotel features comfortable rooms, a relaxing atmosphere, and welcoming staff. Guests can enjoy delicious meals at the on-site restaurant while admiring the panoramic views of the Mediterranean Sea. With its convenient location and excellent amenities, Maison d'hotes / Restaurant L'Hirondelle de Kelibia is the perfect place for a memorable vacation.
+DAR COLIBRI, a 4.6-rated guesthouse located in Kelibia (36.8363146, 11.1113262), offers a unique stay in a charming setting. It features a swimming pool, hammam, and massage services, promising a relaxing and rejuvenating experience. With its proximity to the beautiful beaches of Kelibia, this guesthouse is an ideal base for exploring the region's natural wonders.
+Residence Asma is a 4.4-rated residence located in Kelibia, Tunisia. It is a great place to stay for tourists and business travelers alike. The residence offers a variety of amenities, including a swimming pool, a fitness center, and a restaurant. It is also conveniently located near the beach, the city center, and the airport. The residence has 14 reviews, all of which are positive. Guests praise the residence's cleanliness, comfort, and friendly staff.
+Pension Anis is a 4-star family-run guesthouse located in Kelibia, Tunisia. It features a prime location on Av du Dr Mongi Ben Hmida. Guests can enjoy comfortable accommodations with great value. The guesthouse offers a range of amenities to ensure a pleasant stay, including free Wi-Fi, laundry service, and a friendly atmosphere. Its central location provides easy access to local attractions and points of interest.
+The Casa Del Mar Residence is a 4.3-rated guesthouse located in Kelibia, Tunisia. It is situated near the beach and offers a relaxing getaway for guests. The Residence has received positive reviews for its comfortable accommodations and friendly staff.
+Dar Lebharr is a cozy accommodation located in Kelibia, Tunisia. It offers a comfortable stay with a rating of 4.1 out of 5. Situated at 36.835428078688 latitude and 11.091149597327 longitude, it's easily accessible. Contact them at +33 7 81 09 91 78 for bookings or inquiries.
+Luxus Apartements is a 5-star lodge located in Kelibia, Tunisia. It offers a luxurious and comfortable stay for its guests. The lodge is situated near the beach, making it a great place to relax and enjoy the beautiful scenery. Luxus Apartements is also close to many restaurants, shops, and attractions. The lodge's staff is friendly and helpful, and they are always willing to go the extra mile to make sure that their guests have a memorable stay.
+Plage Kelibia, located at (36.84757, 11.09386), offers a picturesque beachfront experience in the city of Kelibia.
+Fort de Kelibia is a historical fortress located in Kelibia, Tunisia. It offers stunning views of the Mediterranean Sea and the port. The castle boasts a rich history and architectural significance. Visitors can explore the castle's ramparts, towers, and courtyards, and delve into the region's captivating past. With a 4.4-star rating, the fort is a popular destination for tourists and history enthusiasts alike. Its strategic location makes it a great spot to capture panoramic shots of the surrounding area.
+Plage Kelibia is a tourist attraction located at the coordinates (36.84757, 11.09386) in Kelibia, Tunisia. With a rating of 4.6 based on 37 reviews, it is a popular destination for tourists. The beach offers a range of activities and amenities, including swimming, sunbathing, and beach volleyball. It is also home to a number of restaurants and cafes, making it a great place to relax and enjoy the scenery.
+The Port of Kelibia is a maritime port located in Kelibia, Tunisia. The port offers a variety of services to its customers, including fishing, cargo, and passenger transport. It is also a popular tourist destination, with many visitors coming to enjoy the beautiful scenery and the fresh seafood. The port is located at (36.8351444, 11.1116178).
+Discover the stunning Phare de Kelibia, a captivating viewpoint located at (36.8363146, 11.1113262) in Kelibia, Tunisia. Immerse yourself in the breathtaking panoramic views from the lighthouse's vantage point, making it an ideal spot for photography enthusiasts and nature lovers alike.
+The Institut superieur des etudes technologiques de Kelibia is a higher education institute located in Kelibia, Tunisia. It offers a range of technological programs and has a rating of 4.4 stars. The institute is situated at the coordinates (36.8363146, 11.1113262) and can be contacted by phone at 72 277 090. Its website is http://www.isetkl.rnu.tn/.
+Kelibia is a place located in Kelibia, Tunisia. It has a bike rental service, with a 4.2 rating based on 6 reviews. It is located at coordinates (36.836660524289, 11.111146140921).
+Marbrerie Hafefh Kacem is a popular discotheque located in Kelibia, Tunisia. It has a rating of 4.0 out of 5 on Google Maps and is known for its vibrant atmosphere and lively music. The discotheque is located at (36.8472589, 11.091058) and offers a variety of music genres to cater to different tastes. It is a popular destination for locals and tourists alike, and is a great place to dance the night away.
+El Bahri Restaurant is a seafood restaurant located in Kelibia, Tunisia. It is a popular spot for tourists and locals alike, and it offers a variety of seafood dishes, including fresh fish, grilled octopus, and seafood platters. The restaurant is open 24 hours a day, and it is closed on Tuesdays. The average rating for El Bahri Restaurant is 4.7 stars, and it has received positive reviews for its delicious food, friendly staff, and reasonable prices.
+Del Capo is a 5-star rated pizzeria located in Kelibia, Tunisia. It is situated at the address: 8090 Av. de Martyrs with coordinates (36.842587762817, 11.099081841049). This highly-rated spot operates from 12:00 to 00:00 during the week and offers a delectable range of pizzas.
+Restaurant is a family-friendly restaurant located in Kelibia, Tunisia. It offers a variety of dishes, including traditional Tunisian cuisine and international fare. The restaurant is located at the coordinates (36.8472589, 11.091058) and has a rating of 5.0 out of 5 stars on Google Maps.
+Station Louage Kelibia is a taxi service located in Kelibia, Tunisia (36.84757, 11.09386). With a rating of 3.7 out of 5 based on 28 reviews, it offers reliable transportation services to its customers.
+SRTGN (station Kelibia) is a bus station located in Kelibia with the coordinates (36.84757, 11.09386). It offers bus services to various destinations.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1327,12 +1674,75 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>If you're in kelibia and looking for a top-rated Cafe, check out Cafe Charbabbou-Chez Jhonny located at 8090 Rue Ennasim, Kelibia 8090. This must-visit spot offers a range of Cafe to choose from. With a rating of 4.8, it's a must-visit spot. It's open during these hours: 07:00-00:00. To get there, use these GPS coordinates: 36.8363146, 11.1113262. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Charbabbou-Chez+Jhonny/data=!4m7!3m6!1s0x131d33b784f105fb:0x15adb742054adb7c!8m2!3d36.8380011!4d11.1056885!16s%2Fg%2F11f3r0t10y!19sChIJ-wXxhLczHRMRfNtKBUK3rRU?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 20 854 555.</t>
+          <t>Cafe Charbabbou-Chez Jhonny in Kelibia (36.8363146, 11.1113262) is a highly-rated (4.8/5) cafe known for its warm and inviting atmosphere. Open daily from 7 AM to midnight, it's the perfect spot to relax and enjoy a delicious cup of coffee or tea. Cafe Charbabbou-Chez Jhonny welcomes you with open arms and awaits your visit!</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated cafe in Kelibia with GPS coordinates and a customer rating of 4.8?</t>
+          <t>**Day Plan:**
+**Morning:**
+* Explore the historical Fort de Kelibia for stunning sea views.
+**Mid-Morning:**
+* Visit the Plage Kelibia for swimming, sunbathing, or trying local cuisine at El Bahri Restaurant.
+**Midday:**
+* Relax with a spa treatment or massage at DAR COLIBRI.
+**Afternoon:**
+* Engage in outdoor activities like biking at the bike rental service in Kelibia.
+**Evening:**
+* Participate in a guided tour of the Phare de Kelibia for panoramic views.
+**Night:**
+* Experience cultural immersion at the Institut superieur des etudes technologiques de Kelibia.</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Story coffee kelibia is a cafe located in Kelibia, Tunisia. It has a 5.0 rating based on 4 reviews. The cafe is open 24 hours a day and is located at the address Story coffee kelibia, 8090 Avenu Militant Abdelkader Dardouri, Kelibia. The cafe's main category is Cafe.
+Hannibal coffee kelibia is a tea room located in kelibia, Tunisia. It offers a variety of teas, coffees, and pastries. The tea room is located at 36.8363146, 11.1113262.
+TOGOO FOOD kelibia is a restaurant located in Rue zouhour, Kelibia 8090. It offers a variety of dishes and is highly rated by customers. The restaurant is open from 11:30-02:00 and closed on Sundays. It offers a variety of dishes, including sandwiches, salads, and pizzas.
+Kelibia Paradise is a lodging facility located in Kelibia, Tunisia. It has a rating of 4.6 and has received 18 reviews. The facility offers accommodation with a main focus on comfort and relaxation. Its geolocation is at longitude 11.098431810317 and latitude 36.846063992403.
+The Cap-Bon Kelibia Beach Hotel &amp; Spa is a 4-star hotel located in Kelibia, Tunisia. It is a luxury seaside hotel offering comfortable rooms and suites, a spa and 3 refined restaurants. It is known for its beautiful beach, its large swimming pool and its animations.
+DAR COLIBRI, a 4.6-rated guesthouse located in Kelibia (36.8363146, 11.1113262), offers a unique stay in a charming setting. It features a swimming pool, hammam, and massage services, promising a relaxing and rejuvenating experience. With its proximity to the beautiful beaches of Kelibia, this guesthouse is an ideal base for exploring the region's natural wonders.
+Residence Asma is a 4.4-rated residence located in Kelibia, Tunisia. It is a great place to stay for tourists and business travelers alike. The residence offers a variety of amenities, including a swimming pool, a fitness center, and a restaurant. It is also conveniently located near the beach, the city center, and the airport. The residence has 14 reviews, all of which are positive. Guests praise the residence's cleanliness, comfort, and friendly staff.
+Pension Anis is a 4-star family-run guesthouse located in Kelibia, Tunisia. It features a prime location on Av du Dr Mongi Ben Hmida. Guests can enjoy comfortable accommodations with great value. The guesthouse offers a range of amenities to ensure a pleasant stay, including free Wi-Fi, laundry service, and a friendly atmosphere. Its central location provides easy access to local attractions and points of interest.
+The Casa Del Mar Residence is a 4.3-rated guesthouse located in Kelibia, Tunisia. It is situated near the beach and offers a relaxing getaway for guests. The Residence has received positive reviews for its comfortable accommodations and friendly staff.
+Dar Lebharr is a cozy accommodation located in Kelibia, Tunisia. It offers a comfortable stay with a rating of 4.1 out of 5. Situated at 36.835428078688 latitude and 11.091149597327 longitude, it's easily accessible. Contact them at +33 7 81 09 91 78 for bookings or inquiries.
+Luxus Apartements is a 5-star lodge located in Kelibia, Tunisia at (36.835428078688, 11.091149597327). It has a rating of 5.0 based on 1 review and is owned by Luxus Apartements (proprietaire). Luxus Apartements offers a variety of amenities and services, making it the perfect place to stay for both business and leisure travelers.
+Plage Kelibia, located at (36.84757, 11.09386), offers a picturesque beachfront experience in the city of Kelibia.
+Fort de Kelibia, located in Kelibia, is a historical fortress with an average rating of 4.4 out of 5 based on 460 reviews. It offers a stunning view of the sea, making it a great spot to enjoy the scenery. Visitors can also delve into the history of the fort or simply admire its architectural beauty. With its convenient opening hours from 9:00 AM to 6:00 PM, it's a perfect destination for tourists and history enthusiasts alike.
+Plage Kelibia is a tourist attraction located at the coordinates (36.84757, 11.09386) in Kelibia, Tunisia. With a rating of 4.6 based on 37 reviews, it is a popular destination for tourists. The beach offers a range of activities and amenities, including swimming, sunbathing, and beach volleyball. It is also home to a number of restaurants and cafes, making it a great place to relax and enjoy the scenery.
+The Port of Kelibia is a maritime port located in Kelibia, Tunisia. The port offers a variety of services to its customers, including fishing, cargo, and passenger transport. It is also a popular tourist destination, with many visitors coming to enjoy the beautiful scenery and the fresh seafood. The port is located at (36.8351444, 11.1116178).
+Discover the stunning Phare de Kelibia, a captivating viewpoint located at (36.8363146, 11.1113262) in Kelibia, Tunisia. Immerse yourself in the breathtaking panoramic views from the lighthouse's vantage point, making it an ideal spot for photography enthusiasts and nature lovers alike.
+The Institut superieur des etudes technologiques de Kelibia is a higher education institute located in Kelibia, Tunisia. It offers a range of technological programs and has a rating of 4.4 stars. The institute is situated at the coordinates (36.8363146, 11.1113262) and can be contacted by phone at 72 277 090. Its website is http://www.isetkl.rnu.tn/.
+Kelibia is a place located in Kelibia, Tunisia. It has a bike rental service, with a 4.2 rating based on 6 reviews. It is located at coordinates (36.836660524289, 11.111146140921).
+Marbrerie Hafefh Kacem is a popular discotheque located in Kelibia, Tunisia. It has a rating of 4.0 out of 5 on Google Maps and is known for its vibrant atmosphere and lively music. The discotheque is located at (36.8472589, 11.091058) and offers a variety of music genres to cater to different tastes. It is a popular destination for locals and tourists alike, and is a great place to dance the night away.
+El Bahri Restaurant is a seafood restaurant located in Kelibia, Tunisia. It is a popular spot for tourists and locals alike, and it offers a variety of seafood dishes, including fresh fish, grilled octopus, and seafood platters. The restaurant is open 24 hours a day, and it is closed on Tuesdays. The average rating for El Bahri Restaurant is 4.7 stars, and it has received positive reviews for its delicious food, friendly staff, and reasonable prices.
+"La Luna", a 4-star Pizzeria, located in Kelibia, Tunisia. It's reachable by phone and has a website. It's open daily from 08:00-22:00, and its coordinates are (36.8472589, 11.091058).
+Restaurant is a family-friendly restaurant located in Kelibia, Tunisia. It offers a variety of dishes, including traditional Tunisian cuisine and international fare. The restaurant is located at the coordinates (36.8472589, 11.091058) and has a rating of 5.0 out of 5 stars on Google Maps.
+Station Louage Kelibia is a taxi service located in Kelibia, Tunisia (36.84757, 11.09386). With a rating of 3.7 out of 5 based on 28 reviews, it offers reliable transportation services to its customers.
+SRTGN (station Kelibia) is a bus station located in Kelibia with the coordinates (36.84757, 11.09386). It offers bus services to various destinations.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1438,12 +1848,69 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>If you're in kelibia and looking for a great cafe, check out Cafe El Kssar located at R3RQ+WF8 Cafe El Kssar, Unnamed Road, Kelibia. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe options to choose from. With a rating of 4.6, it's a must-visit spot. It's open during these hours: 05:30-00:00. To get there, use these GPS coordinates: 36.8472589, 11.091058. For more details, visit their website at or call them at 97 979 400.</t>
+          <t>Cafe El Kssar is a cafe located in Kelibia, Tunisia. The cafe is known for its delicious coffee and pastries. Cafe El Kssar is a great place to relax and enjoy a cup of coffee with friends. The cafe is open from 5:30am to 12:00am, seven days a week.</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>Where in Kelibia can you visit a top-rated cafe with a cozy atmosphere and a wide selection of coffee options?</t>
+          <t>Day Plan:
+Morning: Kick off your day with a visit to the historical Fort de Kelibia (Historical Landmark), boasting stunning views of the Mediterranean Sea. Embark on a guided tour to explore its ramparts, towers, and courtyards, delving into the captivating history of the region.
+Mid-Morning: Afterwards, head to the mesmerizing Phare de Kelibia (Scenic Spot). Ascend the lighthouse and soak in the breathtaking panoramic vistas from its vantage point. Capture picturesque moments as you relish the beauty of the surrounding landscape.
+Midday: Indulge in the local culinary delights at El Bahri Restaurant (Seafood Restaurant), renowned for its delectable seafood dishes. Savor the freshness of grilled octopus, savor the flavors of seafood platters, or relish the catch of the day.
+Afternoon: Spend the afternoon enjoying a leisurely stroll along Plage Kelibia (Beach). Stretch out on the golden sands, bask in the warm sunshine, and take a refreshing dip in the inviting waters. Participate in exhilarating beach volleyball matches or simply relax and soak up the serene atmosphere.
+Evening: Explore the vibrant streets and immerse yourself in the local culture at the bustling Kelibia Market (Shopping). Discover a plethora of unique souvenirs, handcrafted goods, and traditional Tunisian textiles. Engage with the friendly vendors and experience the authentic charm of the city.
+Night: Conclude your day with a delightful dinner at "La Luna" Pizzeria (Pizzeria), a popular dining spot offering an array of delectable pizzas. Relish the authentic flavors of Italy amidst a cozy and inviting ambiance. As you savor each bite, reflect on the memorable experiences of your day in Kelibia.</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Café dar el chaaeb is a cafe situated in kelibia, Tunisia, at coordinates (36.8472589, 11.091058). The café is open from 6:15 am to midnight, and closed on Wednesdays and Saturdays. It offers a variety of services, including food and drinks.
+Located in Kelibia (latitude 36.836660524289, and longitude 11.111146140921), Big Ben is a teahouse offering a pleasant setting to relax and enjoy a break.
+Barhoumi Center is a 4.0-rated restaurant situated in Kelibia, Tunisia, serving delicious food. Open from 8:00 AM to midnight, the restaurant offers a welcoming ambiance and friendly service. Located at coordinates (36.8472589, 11.091058), it's easily accessible and boasts a convenient location.
+Myriam Bel Air is a popular hotel located in Kelibia, Tunisia. It offers a comfortable and convenient stay for its guests, with a 4.2-star rating on Google. The hotel has 14 reviews, with an overall positive feedback from its guests. It provides a range of amenities, including comfortable rooms, a swimming pool, and a restaurant. The hotel's website features additional information and booking options, and it is well-connected with major tourist attractions in the area.
+The Cap-Bon Kelibia Beach Hotel &amp; Spa is a 4-star hotel located in Kelibia, Tunisia. It is a luxury seaside hotel offering comfortable rooms and suites, a spa and 3 refined restaurants. It is known for its beautiful beach, its large swimming pool and its animations.
+Dar Meriem - Maison d'hôtes is a guest house located in Kelibia, Tunisia. It offers comfortable accommodation and a warm and welcoming atmosphere. The guest house is perfectly situated for exploring the city and its surroundings, and is close to a variety of amenities. The guest house is managed by a friendly and helpful team of staff who are always on hand to assist guests with any queries or needs.
+Residence Asma is a 4.4-rated residence located in Kelibia, Tunisia. It is a great place to stay for tourists and business travelers alike. The residence offers a variety of amenities, including a swimming pool, a fitness center, and a restaurant. It is also conveniently located near the beach, the city center, and the airport. The residence has 14 reviews, all of which are positive. Guests praise the residence's cleanliness, comfort, and friendly staff.
+Pension Anis is a 4-star family-run guesthouse located in Kelibia, Tunisia. It features a prime location on Av du Dr Mongi Ben Hmida. Guests can enjoy comfortable accommodations with great value. The guesthouse offers a range of amenities to ensure a pleasant stay, including free Wi-Fi, laundry service, and a friendly atmosphere. Its central location provides easy access to local attractions and points of interest.
+The Casa Del Mar Residence is a 4.3-rated guesthouse located in Kelibia, Tunisia. It is situated near the beach and offers a relaxing getaway for guests. The Residence has received positive reviews for its comfortable accommodations and friendly staff.
+Dar Lebharr is a cozy accommodation located in Kelibia, Tunisia. It offers a comfortable stay with a rating of 4.1 out of 5. Situated at 36.835428078688 latitude and 11.091149597327 longitude, it's easily accessible. Contact them at +33 7 81 09 91 78 for bookings or inquiries.
+Luxus Apartements is a 5-star lodge located in Kelibia, Tunisia. It offers a luxurious and comfortable stay for its guests. The lodge is situated near the beach, making it a great place to relax and enjoy the beautiful scenery. Luxus Apartements is also close to many restaurants, shops, and attractions. The lodge's staff is friendly and helpful, and they are always willing to go the extra mile to make sure that their guests have a memorable stay.
+Plage Kelibia, located at (36.84757, 11.09386), offers a picturesque beachfront experience in the city of Kelibia.
+Fort de Kelibia is a historical fortress located in Kelibia, Tunisia. It offers stunning views of the Mediterranean Sea and the port. The castle boasts a rich history and architectural significance. Visitors can explore the castle's ramparts, towers, and courtyards, and delve into the region's captivating past. With a 4.4-star rating, the fort is a popular destination for tourists and history enthusiasts alike. Its strategic location makes it a great spot to capture panoramic shots of the surrounding area.
+Plage Kelibia is a tourist attraction located at the coordinates (36.84757, 11.09386) in Kelibia, Tunisia. With a rating of 4.6 based on 37 reviews, it is a popular destination for tourists. The beach offers a range of activities and amenities, including swimming, sunbathing, and beach volleyball. It is also home to a number of restaurants and cafes, making it a great place to relax and enjoy the scenery.
+The Port of Kelibia is a maritime port located in Kelibia, Tunisia. The port offers a variety of services to its customers, including fishing, cargo, and passenger transport. It is also a popular tourist destination, with many visitors coming to enjoy the beautiful scenery and the fresh seafood. The port is located at (36.8351444, 11.1116178).
+Discover the stunning Phare de Kelibia, a captivating viewpoint located at (36.8363146, 11.1113262) in Kelibia, Tunisia. Immerse yourself in the breathtaking panoramic views from the lighthouse's vantage point, making it an ideal spot for photography enthusiasts and nature lovers alike.
+The Institut superieur des etudes technologiques de Kelibia is a higher education institute located in Kelibia, Tunisia. It offers a range of technological programs and has a rating of 4.4 stars. The institute is situated at the coordinates (36.8363146, 11.1113262) and can be contacted by phone at 72 277 090. Its website is http://www.isetkl.rnu.tn/.
+Kelibia is a place located in Kelibia, Tunisia. It has a bike rental service, with a 4.2 rating based on 6 reviews. It is located at coordinates (36.836660524289, 11.111146140921).
+Marbrerie Hafefh Kacem is a popular discotheque located in Kelibia, Tunisia. It has a rating of 4.0 out of 5 on Google Maps and is known for its vibrant atmosphere and lively music. The discotheque is located at (36.8472589, 11.091058) and offers a variety of music genres to cater to different tastes. It is a popular destination for locals and tourists alike, and is a great place to dance the night away.
+El Bahri Restaurant is a seafood restaurant located in Kelibia, Tunisia. It is a popular spot for tourists and locals alike, and it offers a variety of seafood dishes, including fresh fish, grilled octopus, and seafood platters. The restaurant is open 24 hours a day, and it is closed on Tuesdays. The average rating for El Bahri Restaurant is 4.7 stars, and it has received positive reviews for its delicious food, friendly staff, and reasonable prices.
+"La Luna", a 4-star Pizzeria, located in Kelibia, Tunisia. It's reachable by phone and has a website. It's open daily from 08:00-22:00, and its coordinates are (36.8472589, 11.091058).
+Restaurant is a family-friendly restaurant located in Kelibia, Tunisia. It offers a variety of dishes, including traditional Tunisian cuisine and international fare. The restaurant is located at the coordinates (36.8472589, 11.091058) and has a rating of 5.0 out of 5 stars on Google Maps.
+Station Louage Kelibia is a taxi service located in Kelibia, Tunisia (36.84757, 11.09386). With a rating of 3.7 out of 5 based on 28 reviews, it offers reliable transportation services to its customers.
+SRTGN's station is located in Kelibia, Tunisia. It offers bus services to various destinations. The station is located at the coordinates (36.84757, 11.09386).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1545,16 +2012,71 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>If you're in Kelibia and looking for a great cafe, Salon de the Mallorca is the place to go. 
-Located at R3QX+53H Salon de the Mallorca, Av. de l'environnement, Kelibia, this top-rated destination is perfect for Cafe lovers.
-With a rating of 4.3, it's a must-visit spot. 
-To get there, use these GPS coordinates: 36.835428078688, 11.091149597327. 
-For more details, visit their website or call them at 93 767 881.</t>
+          <t>Nestled in the heart of Kelibia, Salon de the Mallorca invites you to savor delightful coffee and tea creations in a charming ambiance. Located at R3QX+53H Salon de the Mallorca, Av. de l'environnement, the cafe has earned a commendable 4.3-star rating based on 6 reviews. With its convenient hours and friendly staff, Salon de the Mallorca is the perfect spot to unwind and enjoy a moment of indulgence.</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>Where in Kelibia can you find a top-rated cafe with a rating of 4.3 that offers a must-visit experience for cafe enthusiasts?</t>
+          <t>Day Plan:
+Morning: Explore Fort de Kelibia for stunning views and historical significance.
+Mid-Morning: Try local cuisine at El Bahri Restaurant, known for its delicious seafood dishes.
+Midday: Visit the Institut superieur des etudes technologiques de Kelibia to learn about the region's higher education.
+Afternoon: Relax with a bike ride at the Kelibia bike rental service, enjoying the beautiful scenery.
+Evening: Participate in a guided tour of Phare de Kelibia, capturing breathtaking panoramic views.
+Night: Enjoy dinner at Restaurant, a family-friendly spot offering a diverse menu.</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe El Kssar is a cafe located in Kelibia, Tunisia. The cafe is known for its delicious coffee and pastries. Cafe El Kssar is a great place to relax and enjoy a cup of coffee with friends. The cafe is open from 5:30am to 12:00am, seven days a week.
+Hannibal coffee kelibia is a tea room located in kelibia, Tunisia. It offers a variety of teas, coffees, and pastries. The tea room is located at 36.8363146, 11.1113262.
+Clandestino is a highly-rated restaurant located in Kelibia, Tunisia. With a 4.2-star rating based on 11 reviews, it's a popular spot for locals and tourists alike. The restaurant is situated at Av. de Martyrs, making it easily accessible. Open from 7:00 AM to 8:00 PM, Clandestino serves a menu that is unfortunately not available online. Its main category is Restaurant, and it falls under the categories of Restaurants.
+Kelibia Paradise is a lodging facility located in Kelibia, Tunisia. It has a rating of 4.6 and has received 18 reviews. The facility offers accommodation with a main focus on comfort and relaxation. Its geolocation is at longitude 11.098431810317 and latitude 36.846063992403.
+Maison d'hotes / Restaurant L'Hirondelle de Kelibia offers a pleasant stay in a beautiful location just steps from the beach. The hotel features comfortable rooms, a relaxing atmosphere, and welcoming staff. Guests can enjoy delicious meals at the on-site restaurant while admiring the panoramic views of the Mediterranean Sea. With its convenient location and excellent amenities, Maison d'hotes / Restaurant L'Hirondelle de Kelibia is the perfect place for a memorable vacation.
+Dar Meriem - Maison d'hôtes is a guest house located in Kelibia, Tunisia. It offers comfortable accommodation and a warm and welcoming atmosphere. The guest house is perfectly situated for exploring the city and its surroundings, and is close to a variety of amenities. The guest house is managed by a friendly and helpful team of staff who are always on hand to assist guests with any queries or needs.
+Residence Asma is a 4.4-rated residence located in Kelibia, Tunisia. It is a great place to stay for tourists and business travelers alike. The residence offers a variety of amenities, including a swimming pool, a fitness center, and a restaurant. It is also conveniently located near the beach, the city center, and the airport. The residence has 14 reviews, all of which are positive. Guests praise the residence's cleanliness, comfort, and friendly staff.
+Pension Anis is a 4-star family-run guesthouse located in Kelibia, Tunisia. It features a prime location on Av du Dr Mongi Ben Hmida. Guests can enjoy comfortable accommodations with great value. The guesthouse offers a range of amenities to ensure a pleasant stay, including free Wi-Fi, laundry service, and a friendly atmosphere. Its central location provides easy access to local attractions and points of interest.
+The Casa Del Mar Residence is a 4.3-rated guesthouse located in Kelibia, Tunisia. It is situated near the beach and offers a relaxing getaway for guests. The Residence has received positive reviews for its comfortable accommodations and friendly staff.
+Dar Lebharr is a cozy accommodation located in Kelibia, Tunisia. It offers a comfortable stay with a rating of 4.1 out of 5. Situated at 36.835428078688 latitude and 11.091149597327 longitude, it's easily accessible. Contact them at +33 7 81 09 91 78 for bookings or inquiries.
+Luxus Apartements is a 5-star lodge located in Kelibia, Tunisia at (36.835428078688, 11.091149597327). It has a rating of 5.0 based on 1 review and is owned by Luxus Apartements (proprietaire). Luxus Apartements offers a variety of amenities and services, making it the perfect place to stay for both business and leisure travelers.
+Plage Kelibia, located at (36.84757, 11.09386), offers a picturesque beachfront experience in the city of Kelibia.
+Fort de Kelibia is a historical fortress located in Kelibia, Tunisia. It offers stunning views of the Mediterranean Sea and the port. The castle boasts a rich history and architectural significance. Visitors can explore the castle's ramparts, towers, and courtyards, and delve into the region's captivating past. With a 4.4-star rating, the fort is a popular destination for tourists and history enthusiasts alike. Its strategic location makes it a great spot to capture panoramic shots of the surrounding area.
+Plage kelibia is a popular tourist attraction located in Kelibia, Tunisia. It offers a wide range of activities, including swimming, sunbathing, and windsurfing. The beach is also home to a number of restaurants and cafes.
+The beach is located just a short drive from the city center and is easily accessible by public transportation. The beach is well-maintained and features clear blue waters and soft white sand.
+Plage kelibia is a great place to relax and enjoy the beautiful weather of Tunisia. It is also a great location to enjoy some water sports.
+The Port of Kelibia is a maritime port located in Kelibia, Tunisia. The port offers a variety of services to its customers, including fishing, cargo, and passenger transport. It is also a popular tourist destination, with many visitors coming to enjoy the beautiful scenery and the fresh seafood. The port is located at (36.8351444, 11.1116178).
+Discover the stunning Phare de Kelibia, a captivating viewpoint located at (36.8363146, 11.1113262) in Kelibia, Tunisia. Immerse yourself in the breathtaking panoramic views from the lighthouse's vantage point, making it an ideal spot for photography enthusiasts and nature lovers alike.
+The Institut superieur des etudes technologiques de Kelibia is a higher education institute located in Kelibia, Tunisia. It offers a range of technological programs and has a rating of 4.4 stars. The institute is situated at the coordinates (36.8363146, 11.1113262) and can be contacted by phone at 72 277 090. Its website is http://www.isetkl.rnu.tn/.
+Kelibia is a place located in Kelibia, Tunisia. It has a bike rental service, with a 4.2 rating based on 6 reviews. It is located at coordinates (36.836660524289, 11.111146140921).
+Marbrerie Hafefh Kacem is a popular discotheque located in Kelibia, Tunisia. It has a rating of 4.0 out of 5 on Google Maps and is known for its vibrant atmosphere and lively music. The discotheque is located at (36.8472589, 11.091058) and offers a variety of music genres to cater to different tastes. It is a popular destination for locals and tourists alike, and is a great place to dance the night away.
+El Bahri Restaurant is a seafood restaurant located in Kelibia, Tunisia. It is a popular spot for tourists and locals alike, and it offers a variety of seafood dishes, including fresh fish, grilled octopus, and seafood platters. The restaurant is open 24 hours a day, and it is closed on Tuesdays. The average rating for El Bahri Restaurant is 4.7 stars, and it has received positive reviews for its delicious food, friendly staff, and reasonable prices.
+Del Capo is a 5-star rated pizzeria located in Kelibia, Tunisia. It is situated at the address: 8090 Av. de Martyrs with coordinates (36.842587762817, 11.099081841049). This highly-rated spot operates from 12:00 to 00:00 during the week and offers a delectable range of pizzas.
+Restaurant is a family-friendly restaurant located in Kelibia, Tunisia. It offers a variety of dishes, including traditional Tunisian cuisine and international fare. The restaurant is located at the coordinates (36.8472589, 11.091058) and has a rating of 5.0 out of 5 stars on Google Maps.
+Station Louage Kelibia is a taxi service located in Kelibia, Tunisia (36.84757, 11.09386). With a rating of 3.7 out of 5 based on 28 reviews, it offers reliable transportation services to its customers.
+SRTGN's station is located in Kelibia, Tunisia. It offers bus services to various destinations. The station is located at the coordinates (36.84757, 11.09386).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1656,14 +2178,71 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>If you're in Kelibia, check out Cafe Aziz located at R3XX+JCR Cafe Aziz. 
-This top-rated destination is perfect for Cafe enthusiasts. 
-With a rating of 4.6, it's a must-visit spot. It's open during these hours: 07:00-10:00. To get there, use these GPS coordinates: 36.8472589, 11.091058.</t>
+          <t>Café Aziz is a highly-rated café located in Kelibia, Tunisia. Situated at (36.8472589, 11.091058), the café offers a warm and inviting atmosphere for customers to enjoy their favorite beverages. With a rating of 4.6 out of 5 based on 5 reviews, Café Aziz is a popular spot among locals and tourists alike.</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated cafe in Kelibia that serves breakfast from 7:00 AM to 10:00 AM?</t>
+          <t>Day Plan:
+Morning: Explore the historical Fort de Kelibia, offering stunning views of the sea.
+Mid-Morning: Immerse yourself in the panoramic views from the Phare de Kelibia's captivating viewpoint.
+Midday: Savor the delicious seafood delights at El Bahri Restaurant, renowned for its fresh fish and grilled octopus.
+Afternoon: Enjoy a relaxing afternoon with a hammam and massage experience at DAR COLIBRI, a charming guesthouse with a swimming pool and a range of rejuvenating services.
+Evening: Experience the vibrant atmosphere and lively music at Marbrerie Hafefh Kacem, a popular discotheque known for its energetic ambiance.
+Night: Indulge in authentic Tunisian cuisine at Restaurant Tulipe, specializing in traditional dishes and offering a cozy dining experience.</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Dolce Vita Glace italienne is a café located in Kelibia, Tunisia (lon: 11.111146140921, lat: 36.836660524289). It opens from 06:00 to 00:00 and is known for its delicious Italian ice cream (glaces) among its 13 reviews.
+Located in Kelibia (latitude 36.836660524289, and longitude 11.111146140921), Big Ben is a teahouse offering a pleasant setting to relax and enjoy a break.
+Restaurant Tulipe is located in Kelibia, Tunisia at the coordinates (36.835428078688, 11.091149597327). The restaurant has received a 4.1 rating based on 7 reviews and specializes in Restaurant cuisine. It is open from 12:00-02:00 and is closed on . The restaurant's phone number is 26 205 522.
+Kelibia Paradise is a lodging facility located in Kelibia, Tunisia. It has a rating of 4.6 and has received 18 reviews. The facility offers accommodation with a main focus on comfort and relaxation. Its geolocation is at longitude 11.098431810317 and latitude 36.846063992403.
+The Cap-Bon Kelibia Beach Hotel &amp; Spa is a 4-star hotel located in Kelibia, Tunisia. It is a luxury seaside hotel offering comfortable rooms and suites, a spa and 3 refined restaurants. It is known for its beautiful beach, its large swimming pool and its animations.
+DAR COLIBRI, a 4.6-rated guesthouse located in Kelibia (36.8363146, 11.1113262), offers a unique stay in a charming setting. It features a swimming pool, hammam, and massage services, promising a relaxing and rejuvenating experience. With its proximity to the beautiful beaches of Kelibia, this guesthouse is an ideal base for exploring the region's natural wonders.
+Residence Asma is a 4.4-rated residence located in Kelibia, Tunisia. It is a great place to stay for tourists and business travelers alike. The residence offers a variety of amenities, including a swimming pool, a fitness center, and a restaurant. It is also conveniently located near the beach, the city center, and the airport. The residence has 14 reviews, all of which are positive. Guests praise the residence's cleanliness, comfort, and friendly staff.
+Pension Anis is a 4-star family-run guesthouse located in Kelibia, Tunisia. It features a prime location on Av du Dr Mongi Ben Hmida. Guests can enjoy comfortable accommodations with great value. The guesthouse offers a range of amenities to ensure a pleasant stay, including free Wi-Fi, laundry service, and a friendly atmosphere. Its central location provides easy access to local attractions and points of interest.
+The Casa Del Mar Residence is a 4.3-rated guesthouse located in Kelibia, Tunisia. It is situated near the beach and offers a relaxing getaway for guests. The Residence has received positive reviews for its comfortable accommodations and friendly staff.
+Dar Lebharr is a cozy accommodation located in Kelibia, Tunisia. It offers a comfortable stay with a rating of 4.1 out of 5. Situated at 36.835428078688 latitude and 11.091149597327 longitude, it's easily accessible. Contact them at +33 7 81 09 91 78 for bookings or inquiries.
+Luxus Apartements is a 5-star lodge located in Kelibia, Tunisia at (36.835428078688, 11.091149597327). It has a rating of 5.0 based on 1 review and is owned by Luxus Apartements (proprietaire). Luxus Apartements offers a variety of amenities and services, making it the perfect place to stay for both business and leisure travelers.
+Plage Kelibia, located at (36.84757, 11.09386), offers a picturesque beachfront experience in the city of Kelibia.
+Fort de Kelibia, located in Kelibia, is a historical fortress with an average rating of 4.4 out of 5 based on 460 reviews. It offers a stunning view of the sea, making it a great spot to enjoy the scenery. Visitors can also delve into the history of the fort or simply admire its architectural beauty. With its convenient opening hours from 9:00 AM to 6:00 PM, it's a perfect destination for tourists and history enthusiasts alike.
+Plage kelibia is a popular tourist attraction located in Kelibia, Tunisia. It offers a wide range of activities, including swimming, sunbathing, and windsurfing. The beach is also home to a number of restaurants and cafes.
+The beach is located just a short drive from the city center and is easily accessible by public transportation. The beach is well-maintained and features clear blue waters and soft white sand.
+Plage kelibia is a great place to relax and enjoy the beautiful weather of Tunisia. It is also a great location to enjoy some water sports.
+The Port of Kelibia is a maritime port located in Kelibia, Tunisia. The port offers a variety of services to its customers, including fishing, cargo, and passenger transport. It is also a popular tourist destination, with many visitors coming to enjoy the beautiful scenery and the fresh seafood. The port is located at (36.8351444, 11.1116178).
+Discover the stunning Phare de Kelibia, a captivating viewpoint located at (36.8363146, 11.1113262) in Kelibia, Tunisia. Immerse yourself in the breathtaking panoramic views from the lighthouse's vantage point, making it an ideal spot for photography enthusiasts and nature lovers alike.
+The Institut superieur des etudes technologiques de Kelibia is a higher education institute located in Kelibia, Tunisia. It offers a range of technological programs and has a rating of 4.4 stars. The institute is situated at the coordinates (36.8363146, 11.1113262) and can be contacted by phone at 72 277 090. Its website is http://www.isetkl.rnu.tn/.
+Kelibia is a place located in Kelibia, Tunisia. It has a bike rental service, with a 4.2 rating based on 6 reviews. It is located at coordinates (36.836660524289, 11.111146140921).
+Marbrerie Hafefh Kacem is a popular discotheque located in Kelibia, Tunisia. It has a rating of 4.0 out of 5 on Google Maps and is known for its vibrant atmosphere and lively music. The discotheque is located at (36.8472589, 11.091058) and offers a variety of music genres to cater to different tastes. It is a popular destination for locals and tourists alike, and is a great place to dance the night away.
+El Bahri Restaurant is a seafood restaurant located in Kelibia, Tunisia. It is a popular spot for tourists and locals alike, and it offers a variety of seafood dishes, including fresh fish, grilled octopus, and seafood platters. The restaurant is open 24 hours a day, and it is closed on Tuesdays. The average rating for El Bahri Restaurant is 4.7 stars, and it has received positive reviews for its delicious food, friendly staff, and reasonable prices.
+Pizzeria LOFT ROMA is a 4.2-rated pizzeria located in kelibia, Tunisia. It operates from 08:00 to 00:00 every day and offers a wide range of pizzas. Its exact location is at R3VW+83Q Rue de Tripoli, Kelibia, Tunisia.
+Restaurant is a family-friendly restaurant located in Kelibia, Tunisia. It offers a variety of dishes, including traditional Tunisian cuisine and international fare. The restaurant is located at the coordinates (36.8472589, 11.091058) and has a rating of 5.0 out of 5 stars on Google Maps.
+Station Louage Kelibia is a taxi service located in Kelibia, Tunisia (36.84757, 11.09386). With a rating of 3.7 out of 5 based on 28 reviews, it offers reliable transportation services to its customers.
+SRTGN (station Kelibia) is a bus station located in Kelibia, Tunisia. It offers basic amenities and services for travelers, and is conveniently situated at (36.84757, 11.09386).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1765,12 +2344,71 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>If you're in Kelibia, check out Cafe Farabi at 103 C27. This top-rated spot is perfect for Cafe lovers. With a rating of 4.6, it's a must-visit location. It's open during these hours: 07:30-22:00.  To get there, use these GPS coordinates: 36.847461866537, 11.083275342698.</t>
+          <t>Located in the heart of Kelibia, Tunisia (36.847461866537, 11.083275342698), Cafe Farabi is a popular spot for locals and tourists alike. Serving delicious coffee, pastries, and a variety of snacks, the cafe offers a cozy and inviting atmosphere. With a rating of 4.6 stars and numerous positive reviews, Cafe Farabi is highly recommended for anyone seeking a great cup of coffee and a relaxing ambiance.</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>Where in Kelibia can you find a highly rated Cafe with GPS coordinates of 36.847461866537, 11.083275342698?</t>
+          <t>Day Plan:
+Morning: Explore the historical Fort de Kelibia, offering stunning views of the Mediterranean Sea.
+Mid-Morning: Immerse yourself in the local culture by visiting the Institut superieur des etudes technologiques de Kelibia for a glimpse into higher education in Kelibia.
+Midday: Indulge in the flavors of Kelibia by trying local cuisine at the highly-rated El Bahri Restaurant, known for its delectable seafood dishes.
+Afternoon: Enjoy a refreshing swim and sunbathe at the picturesque Plage Kelibia, where you can also engage in exciting water sports like windsurfing.
+Evening: Visit the vibrant Marbrerie Hafefh Kacem discotheque to dance the night away and experience Kelibia's lively nightlife.
+Night: Relax and savor the ambiance at Pizzeria LOFT ROMA, savoring their delicious pizzas while enjoying the friendly atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Buvette el Mansoura is a Cafe located in Kelibia, Tunisia. It offers a wide range of drinks and snacks in a relaxed and friendly atmosphere. The cafe is conveniently located near the beach, making it a great place to relax and enjoy the views.
+Hannibal coffee kelibia is a tea room located in kelibia, Tunisia. It offers a variety of teas, coffees, and pastries. The tea room is located at 36.8363146, 11.1113262.
+La Padella Kelibia is a reputable restaurant located in Kelibia. It boasts an impressive 4.6 rating based on 8 reviews, indicating its popularity and high quality. Open from 8 AM to midnight every day, La Padella Kelibia offers a wide range of dishes to cater to its diverse clientele. The restaurant's prime location at 36.8363146 latitude and 11.1113262 longitude makes it easily accessible to both locals and tourists. With its convenient hours and delicious offerings, La Padella Kelibia is the go-to destination for dining in Kelibia.
+Myriam Bel Air is a popular hotel located in Kelibia, Tunisia. It offers a comfortable and convenient stay for its guests, with a 4.2-star rating on Google. The hotel has 14 reviews, with an overall positive feedback from its guests. It provides a range of amenities, including comfortable rooms, a swimming pool, and a restaurant. The hotel's website features additional information and booking options, and it is well-connected with major tourist attractions in the area.
+Nestled in the picturesque Kelibia region, Cap-Bon Kelibia Beach Hotel &amp; Spa is an upscale resort offering 562 warmly designed rooms and suites. With its stunning beachfront location and serene ambiance, the hotel is an ideal destination for leisure and relaxation. It features an array of amenities, including a rejuvenating spa, three refined dining options, and an inviting swimming pool, ensuring an unforgettable stay in the heart of Kelibia.
+Dar Meriem - Maison d'hôtes is a guest house located in Kelibia, Tunisia. It offers comfortable accommodation and a warm and welcoming atmosphere. The guest house is perfectly situated for exploring the city and its surroundings, and is close to a variety of amenities. The guest house is managed by a friendly and helpful team of staff who are always on hand to assist guests with any queries or needs.
+Residence Asma is a 4.4-rated residence located in Kelibia, Tunisia. It is a great place to stay for tourists and business travelers alike. The residence offers a variety of amenities, including a swimming pool, a fitness center, and a restaurant. It is also conveniently located near the beach, the city center, and the airport. The residence has 14 reviews, all of which are positive. Guests praise the residence's cleanliness, comfort, and friendly staff.
+Pension Anis is a 4-star family-run guesthouse located in Kelibia, Tunisia. It features a prime location on Av du Dr Mongi Ben Hmida. Guests can enjoy comfortable accommodations with great value. The guesthouse offers a range of amenities to ensure a pleasant stay, including free Wi-Fi, laundry service, and a friendly atmosphere. Its central location provides easy access to local attractions and points of interest.
+The Casa Del Mar Residence is a 4.3-rated guesthouse located in Kelibia, Tunisia. It is situated near the beach and offers a relaxing getaway for guests. The Residence has received positive reviews for its comfortable accommodations and friendly staff.
+Dar Lebharr is a cozy accommodation located in Kelibia, Tunisia. It offers a comfortable stay with a rating of 4.1 out of 5. Situated at 36.835428078688 latitude and 11.091149597327 longitude, it's easily accessible. Contact them at +33 7 81 09 91 78 for bookings or inquiries.
+Luxus Apartements is a 5-star lodge located in Kelibia, Tunisia. It offers a luxurious and comfortable stay for its guests. The lodge is situated near the beach, making it a great place to relax and enjoy the beautiful scenery. Luxus Apartements is also close to many restaurants, shops, and attractions. The lodge's staff is friendly and helpful, and they are always willing to go the extra mile to make sure that their guests have a memorable stay.
+Plage Kelibia, located at (36.84757, 11.09386), offers a picturesque beachfront experience in the city of Kelibia.
+Fort de Kelibia is a historical fortress located in Kelibia, Tunisia. It offers stunning views of the Mediterranean Sea and the port. The castle boasts a rich history and architectural significance. Visitors can explore the castle's ramparts, towers, and courtyards, and delve into the region's captivating past. With a 4.4-star rating, the fort is a popular destination for tourists and history enthusiasts alike. Its strategic location makes it a great spot to capture panoramic shots of the surrounding area.
+Plage kelibia is a popular tourist attraction located in Kelibia, Tunisia. It offers a wide range of activities, including swimming, sunbathing, and windsurfing. The beach is also home to a number of restaurants and cafes.
+The beach is located just a short drive from the city center and is easily accessible by public transportation. The beach is well-maintained and features clear blue waters and soft white sand.
+Plage kelibia is a great place to relax and enjoy the beautiful weather of Tunisia. It is also a great location to enjoy some water sports.
+The Port of Kelibia is a maritime port located in Kelibia, Tunisia. The port offers a variety of services to its customers, including fishing, cargo, and passenger transport. It is also a popular tourist destination, with many visitors coming to enjoy the beautiful scenery and the fresh seafood. The port is located at (36.8351444, 11.1116178).
+Discover the stunning Phare de Kelibia, a captivating viewpoint located at (36.8363146, 11.1113262) in Kelibia, Tunisia. Immerse yourself in the breathtaking panoramic views from the lighthouse's vantage point, making it an ideal spot for photography enthusiasts and nature lovers alike.
+The Institut superieur des etudes technologiques de Kelibia is a higher education institute located in Kelibia, Tunisia. It offers a range of technological programs and has a rating of 4.4 stars. The institute is situated at the coordinates (36.8363146, 11.1113262) and can be contacted by phone at 72 277 090. Its website is http://www.isetkl.rnu.tn/.
+Kelibia is a place located in Kelibia, Tunisia. It has a bike rental service, with a 4.2 rating based on 6 reviews. It is located at coordinates (36.836660524289, 11.111146140921).
+Marbrerie Hafefh Kacem is a popular discotheque located in Kelibia, Tunisia. It has a rating of 4.0 out of 5 on Google Maps and is known for its vibrant atmosphere and lively music. The discotheque is located at (36.8472589, 11.091058) and offers a variety of music genres to cater to different tastes. It is a popular destination for locals and tourists alike, and is a great place to dance the night away.
+El Bahri Restaurant is a seafood restaurant located in Kelibia, Tunisia. It is a popular spot for tourists and locals alike, and it offers a variety of seafood dishes, including fresh fish, grilled octopus, and seafood platters. The restaurant is open 24 hours a day, and it is closed on Tuesdays. The average rating for El Bahri Restaurant is 4.7 stars, and it has received positive reviews for its delicious food, friendly staff, and reasonable prices.
+Pizzeria LOFT ROMA is a 4.2-rated pizzeria located in kelibia, Tunisia. It operates from 08:00 to 00:00 every day and offers a wide range of pizzas. Its exact location is at R3VW+83Q Rue de Tripoli, Kelibia, Tunisia.
+Restaurant is a family-friendly restaurant located in Kelibia, Tunisia. It offers a variety of dishes, including traditional Tunisian cuisine and international fare. The restaurant is located at the coordinates (36.8472589, 11.091058) and has a rating of 5.0 out of 5 stars on Google Maps.
+Station Louage Kelibia is a taxi service located in Kelibia, Tunisia (36.84757, 11.09386). With a rating of 3.7 out of 5 based on 28 reviews, it offers reliable transportation services to its customers.
+SRTGN (station Kelibia) is a bus station located in Kelibia, Tunisia. It offers basic amenities and services for travelers, and is conveniently situated at (36.84757, 11.09386).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1872,12 +2510,69 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>If you're in Kelibia and looking for a top-rated cafe, check out CAFE CORNICHE located at R3QX+66M CAFE CORNICHE, Av. de l'environnement, Kelibia 8090. This cafe has a rating of 4.4 and offers a range of categories to choose from. To get there, use these GPS coordinates: 36.834792105762, 11.089380180852. For more details, visit their website or call them at 24 074 279.</t>
+          <t>CAFE CORNICHE is a cafe located in Kelibia, Tunisia. It has a 4.4-star rating on Google, with 5 reviews. The cafe is open during the week and closed on Sundays. It is located at R3QX+66M CAFE CORNICHE, Av. de l'environnement, Kelibia 8090.</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>Which highly-rated cafe, known for its diverse offerings, can be found at CAFE CORNICHE in Kelibia?</t>
+          <t>Day Plan:
+Morning: Explore the historical Fort de Kelibia for its stunning views and rich history.
+Mid-Morning: Relax and enjoy a refreshing swim at Plage Kelibia, while soaking up the Mediterranean sun.
+Midday: Savor traditional Tunisian cuisine at El Bahri Restaurant, renowned for its delectable seafood dishes.
+Afternoon: Indulge in retail therapy at the local market, discovering unique souvenirs and authentic products.
+Evening: Visit the captivating Phare de Kelibia, capturing breathtaking panoramic shots of the surrounding landscape.
+Night: Experience the lively atmosphere at Marbrerie Hafefh Kacem, a popular discotheque known for its vibrant music scene.</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Chikh Hammouda, located in Kelibia at 8090 ave Ali Belhouane, is a 4.3-rated cafe open from 4 AM to 10 PM, offering a cozy ambiance for coffee and relaxation. With three reviews and a featured image showcasing its inviting atmosphere, this cafe is a popular spot in the Kelibia area.
+Located in Kelibia (latitude 36.836660524289, and longitude 11.111146140921), Big Ben is a teahouse offering a pleasant setting to relax and enjoy a break.
+Lounge Cafe, rated 5.0 out of 5 by 1 reviewer, is a restaurant located at R3WQ+H9M, Av. Habib-Bourguiba, Kelibia, Tunisia. It is open from 6:00 am to 2:00 pm daily, and its main category is Restaurant. Its featured image can be found at https://lh5.googleusercontent.com/p/AF1QipOvbL7FtV4P7-K_sbXDNGp51x8sIv60Kakq6a4-=w408-h408-k-no.
+Kelibia Paradise is a popular accommodation option in Kelibia, Tunisia. It is located at 47 Rue d'orange Cite Ezzouhour, 8090, Kelibia, and offers a range of amenities to its guests. These include a restaurant, bar, and swimming pool, as well as free Wi-Fi and parking. The hotel is situated within easy reach of the beach and other local attractions, making it an ideal base for exploring the area.
+Nestled in the picturesque Kelibia region, Cap-Bon Kelibia Beach Hotel &amp; Spa is an upscale resort offering 562 warmly designed rooms and suites. With its stunning beachfront location and serene ambiance, the hotel is an ideal destination for leisure and relaxation. It features an array of amenities, including a rejuvenating spa, three refined dining options, and an inviting swimming pool, ensuring an unforgettable stay in the heart of Kelibia.
+DAR COLIBRI, a 4.6-rated guesthouse located in Kelibia (36.8363146, 11.1113262), offers a unique stay in a charming setting. It features a swimming pool, hammam, and massage services, promising a relaxing and rejuvenating experience. With its proximity to the beautiful beaches of Kelibia, this guesthouse is an ideal base for exploring the region's natural wonders.
+Residence Asma is a 4.4-rated residence located in Kelibia, Tunisia. It is a great place to stay for tourists and business travelers alike. The residence offers a variety of amenities, including a swimming pool, a fitness center, and a restaurant. It is also conveniently located near the beach, the city center, and the airport. The residence has 14 reviews, all of which are positive. Guests praise the residence's cleanliness, comfort, and friendly staff.
+Pension Anis is a 4-star family-run guesthouse located in Kelibia, Tunisia. It features a prime location on Av du Dr Mongi Ben Hmida. Guests can enjoy comfortable accommodations with great value. The guesthouse offers a range of amenities to ensure a pleasant stay, including free Wi-Fi, laundry service, and a friendly atmosphere. Its central location provides easy access to local attractions and points of interest.
+The Casa Del Mar Residence is a 4.3-rated guesthouse located in Kelibia, Tunisia. It is situated near the beach and offers a relaxing getaway for guests. The Residence has received positive reviews for its comfortable accommodations and friendly staff.
+Dar Lebharr is a cozy accommodation located in Kelibia, Tunisia. It offers a comfortable stay with a rating of 4.1 out of 5. Situated at 36.835428078688 latitude and 11.091149597327 longitude, it's easily accessible. Contact them at +33 7 81 09 91 78 for bookings or inquiries.
+Luxus Apartements is a 5-star lodge located in Kelibia, Tunisia at (36.835428078688, 11.091149597327). It has a rating of 5.0 based on 1 review and is owned by Luxus Apartements (proprietaire). Luxus Apartements offers a variety of amenities and services, making it the perfect place to stay for both business and leisure travelers.
+Plage Kelibia, located at (36.84757, 11.09386), offers a picturesque beachfront experience in the city of Kelibia.
+Fort de Kelibia is a historical fortress located in Kelibia, Tunisia. It offers stunning views of the Mediterranean Sea and the port. The castle boasts a rich history and architectural significance. Visitors can explore the castle's ramparts, towers, and courtyards, and delve into the region's captivating past. With a 4.4-star rating, the fort is a popular destination for tourists and history enthusiasts alike. Its strategic location makes it a great spot to capture panoramic shots of the surrounding area.
+Plage Kelibia is a tourist attraction located at the coordinates (36.84757, 11.09386) in Kelibia, Tunisia. With a rating of 4.6 based on 37 reviews, it is a popular destination for tourists. The beach offers a range of activities and amenities, including swimming, sunbathing, and beach volleyball. It is also home to a number of restaurants and cafes, making it a great place to relax and enjoy the scenery.
+The Port of Kelibia is a maritime port located in Kelibia, Tunisia. The port offers a variety of services to its customers, including fishing, cargo, and passenger transport. It is also a popular tourist destination, with many visitors coming to enjoy the beautiful scenery and the fresh seafood. The port is located at (36.8351444, 11.1116178).
+Discover the stunning Phare de Kelibia, a captivating viewpoint located at (36.8363146, 11.1113262) in Kelibia, Tunisia. Immerse yourself in the breathtaking panoramic views from the lighthouse's vantage point, making it an ideal spot for photography enthusiasts and nature lovers alike.
+The Institut superieur des etudes technologiques de Kelibia is a higher education institute located in Kelibia, Tunisia. It offers a range of technological programs and has a rating of 4.4 stars. The institute is situated at the coordinates (36.8363146, 11.1113262) and can be contacted by phone at 72 277 090. Its website is http://www.isetkl.rnu.tn/.
+Kelibia is a place located in Kelibia, Tunisia. It has a bike rental service, with a 4.2 rating based on 6 reviews. It is located at coordinates (36.836660524289, 11.111146140921).
+Marbrerie Hafefh Kacem is a popular discotheque located in Kelibia, Tunisia. It has a rating of 4.0 out of 5 on Google Maps and is known for its vibrant atmosphere and lively music. The discotheque is located at (36.8472589, 11.091058) and offers a variety of music genres to cater to different tastes. It is a popular destination for locals and tourists alike, and is a great place to dance the night away.
+El Bahri Restaurant is a seafood restaurant located in Kelibia, Tunisia. It is a popular spot for tourists and locals alike, and it offers a variety of seafood dishes, including fresh fish, grilled octopus, and seafood platters. The restaurant is open 24 hours a day, and it is closed on Tuesdays. The average rating for El Bahri Restaurant is 4.7 stars, and it has received positive reviews for its delicious food, friendly staff, and reasonable prices.
+Del Capo is a 5-star rated pizzeria located in Kelibia, Tunisia. It is situated at the address: 8090 Av. de Martyrs with coordinates (36.842587762817, 11.099081841049). This highly-rated spot operates from 12:00 to 00:00 during the week and offers a delectable range of pizzas.
+Restaurant is a family-friendly restaurant located in Kelibia, Tunisia. It offers a variety of dishes, including traditional Tunisian cuisine and international fare. The restaurant is located at the coordinates (36.8472589, 11.091058) and has a rating of 5.0 out of 5 stars on Google Maps.
+Station Louage Kelibia is a taxi service located in Kelibia, Tunisia (36.84757, 11.09386). With a rating of 3.7 out of 5 based on 28 reviews, it offers reliable transportation services to its customers.
+SRTGN's station is located in Kelibia, Tunisia. It offers bus services to various destinations. The station is located at the coordinates (36.84757, 11.09386).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1971,12 +2666,69 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>If you're in kelibia and looking for something fun to do, check out El Barraka located at R4P6+GHM El Barraka, Av. de Martyrs, Kelibia 8090. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.836660524289, 11.111146140921. For more details, visit their website at https://www.google.com/maps/place/El+Barraka/data=!4m7!3m6!1s0x131d33b425565c0b:0x7cac4cb001fc1bba!8m2!3d36.8363348!4d11.1114235!16s%2Fg%2F11b75fwpsh!19sChIJC1xWJbQzHRMRuhv8AbBMrHw?authuser=0&amp;hl=fr&amp;rclk=1 or call them at None.</t>
+          <t>**El Barraka** is a popular cafe located in Kelibia, Tunisia. It offers a wide range of drinks and snacks, making it a great place to relax and unwind. The cafe is conveniently located on Av. de Martyrs, with coordinates (36.836660524289, 11.111146140921). With its cozy ambiance and friendly staff, El Barraka is a perfect spot to meet friends, catch up on work, or simply enjoy a cup of coffee.</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>Where in Kelibia can you find a popular Cafe destination with a 4.0 rating, known for its range of Cafe options?</t>
+          <t>Day Plan:
+Morning: Exploring Fort de Kelibia for its historical significance and stunning sea views.
+Mid-Morning: Visiting the Phare de Kelibia for captivating panoramic vistas and nature's beauty.
+Midday: Trying local cuisine at El Bahri Restaurant, renowned for its delectable seafood dishes and positive reviews.
+Afternoon: Enjoying the picturesque beachfront experience at Plage Kelibia, engaging in swimming, sunbathing, or beach volleyball.
+Evening: Indulging in a relaxing spa session at Myriam Bel Air, complete with comfortable accommodations and excellent amenities.
+Night: Experiencing the vibrant atmosphere and lively music at Marbrerie Hafefh Kacem, a popular discotheque.</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Jeune is a highly-rated (5/5) cafe in Kelibia, Tunisia. Located at coordinates (36.8472589, 11.091058), it is easily accessible and offers a cozy ambiance perfect for enjoying a cup of coffee or tea. The cafe is known for its friendly owner and excellent service, making it a popular spot among locals and visitors alike.
+Hannibal coffee kelibia is a tea room located in kelibia, Tunisia. It offers a variety of teas, coffees, and pastries. The tea room is located at 36.8363146, 11.1113262.
+Restaurant Tulipe is located in Kelibia, Tunisia at the coordinates (36.835428078688, 11.091149597327). The restaurant has received a 4.1 rating based on 7 reviews and specializes in Restaurant cuisine. It is open from 12:00-02:00 and is closed on . The restaurant's phone number is 26 205 522.
+Myriam Bel Air is a popular hotel located in Kelibia, Tunisia. It offers a comfortable and convenient stay for its guests, with a 4.2-star rating on Google. The hotel has 14 reviews, with an overall positive feedback from its guests. It provides a range of amenities, including comfortable rooms, a swimming pool, and a restaurant. The hotel's website features additional information and booking options, and it is well-connected with major tourist attractions in the area.
+Maison d'hotes / Restaurant L'Hirondelle de Kelibia offers a pleasant stay in a beautiful location just steps from the beach. The hotel features comfortable rooms, a relaxing atmosphere, and welcoming staff. Guests can enjoy delicious meals at the on-site restaurant while admiring the panoramic views of the Mediterranean Sea. With its convenient location and excellent amenities, Maison d'hotes / Restaurant L'Hirondelle de Kelibia is the perfect place for a memorable vacation.
+Dar Meriem - Maison d'hôtes is a guest house located in Kelibia, Tunisia. It offers comfortable accommodation and a warm and welcoming atmosphere. The guest house is perfectly situated for exploring the city and its surroundings, and is close to a variety of amenities. The guest house is managed by a friendly and helpful team of staff who are always on hand to assist guests with any queries or needs.
+Residence Asma is a 4.4-rated residence located in Kelibia, Tunisia. It is a great place to stay for tourists and business travelers alike. The residence offers a variety of amenities, including a swimming pool, a fitness center, and a restaurant. It is also conveniently located near the beach, the city center, and the airport. The residence has 14 reviews, all of which are positive. Guests praise the residence's cleanliness, comfort, and friendly staff.
+Pension Anis is a 4-star family-run guesthouse located in Kelibia, Tunisia. It features a prime location on Av du Dr Mongi Ben Hmida. Guests can enjoy comfortable accommodations with great value. The guesthouse offers a range of amenities to ensure a pleasant stay, including free Wi-Fi, laundry service, and a friendly atmosphere. Its central location provides easy access to local attractions and points of interest.
+The Casa Del Mar Residence is a 4.3-rated guesthouse located in Kelibia, Tunisia. It is situated near the beach and offers a relaxing getaway for guests. The Residence has received positive reviews for its comfortable accommodations and friendly staff.
+Dar Lebharr is a cozy accommodation located in Kelibia, Tunisia. It offers a comfortable stay with a rating of 4.1 out of 5. Situated at 36.835428078688 latitude and 11.091149597327 longitude, it's easily accessible. Contact them at +33 7 81 09 91 78 for bookings or inquiries.
+Luxus Apartements is a 5-star lodge located in Kelibia, Tunisia. It offers a luxurious and comfortable stay for its guests. The lodge is situated near the beach, making it a great place to relax and enjoy the beautiful scenery. Luxus Apartements is also close to many restaurants, shops, and attractions. The lodge's staff is friendly and helpful, and they are always willing to go the extra mile to make sure that their guests have a memorable stay.
+Plage Kelibia, located at (36.84757, 11.09386), offers a picturesque beachfront experience in the city of Kelibia.
+Fort de Kelibia, located in Kelibia, is a historical fortress with an average rating of 4.4 out of 5 based on 460 reviews. It offers a stunning view of the sea, making it a great spot to enjoy the scenery. Visitors can also delve into the history of the fort or simply admire its architectural beauty. With its convenient opening hours from 9:00 AM to 6:00 PM, it's a perfect destination for tourists and history enthusiasts alike.
+Plage Kelibia is a tourist attraction located at the coordinates (36.84757, 11.09386) in Kelibia, Tunisia. With a rating of 4.6 based on 37 reviews, it is a popular destination for tourists. The beach offers a range of activities and amenities, including swimming, sunbathing, and beach volleyball. It is also home to a number of restaurants and cafes, making it a great place to relax and enjoy the scenery.
+The Port of Kelibia is a maritime port located in Kelibia, Tunisia. The port offers a variety of services to its customers, including fishing, cargo, and passenger transport. It is also a popular tourist destination, with many visitors coming to enjoy the beautiful scenery and the fresh seafood. The port is located at (36.8351444, 11.1116178).
+Discover the stunning Phare de Kelibia, a captivating viewpoint located at (36.8363146, 11.1113262) in Kelibia, Tunisia. Immerse yourself in the breathtaking panoramic views from the lighthouse's vantage point, making it an ideal spot for photography enthusiasts and nature lovers alike.
+The Institut superieur des etudes technologiques de Kelibia is a higher education institute located in Kelibia, Tunisia. It offers a range of technological programs and has a rating of 4.4 stars. The institute is situated at the coordinates (36.8363146, 11.1113262) and can be contacted by phone at 72 277 090. Its website is http://www.isetkl.rnu.tn/.
+Kelibia is a place located in Kelibia, Tunisia. It has a bike rental service, with a 4.2 rating based on 6 reviews. It is located at coordinates (36.836660524289, 11.111146140921).
+Marbrerie Hafefh Kacem is a popular discotheque located in Kelibia, Tunisia. It has a rating of 4.0 out of 5 on Google Maps and is known for its vibrant atmosphere and lively music. The discotheque is located at (36.8472589, 11.091058) and offers a variety of music genres to cater to different tastes. It is a popular destination for locals and tourists alike, and is a great place to dance the night away.
+El Bahri Restaurant is a seafood restaurant located in Kelibia, Tunisia. It is a popular spot for tourists and locals alike, and it offers a variety of seafood dishes, including fresh fish, grilled octopus, and seafood platters. The restaurant is open 24 hours a day, and it is closed on Tuesdays. The average rating for El Bahri Restaurant is 4.7 stars, and it has received positive reviews for its delicious food, friendly staff, and reasonable prices.
+Del Capo is a 5-star rated pizzeria located in Kelibia, Tunisia. It is situated at the address: 8090 Av. de Martyrs with coordinates (36.842587762817, 11.099081841049). This highly-rated spot operates from 12:00 to 00:00 during the week and offers a delectable range of pizzas.
+Restaurant is a family-friendly restaurant located in Kelibia, Tunisia. It offers a variety of dishes, including traditional Tunisian cuisine and international fare. The restaurant is located at the coordinates (36.8472589, 11.091058) and has a rating of 5.0 out of 5 stars on Google Maps.
+Station Louage Kelibia is a taxi service located in Kelibia, Tunisia (36.84757, 11.09386). With a rating of 3.7 out of 5 based on 28 reviews, it offers reliable transportation services to its customers.
+SRTGN (station Kelibia) is a bus station located in Kelibia with the coordinates (36.84757, 11.09386). It offers bus services to various destinations.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2082,14 +2834,71 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>If you're in kelibia and looking for something fun to do, check out El Garage 8090, a top-rated Cafe lovers destination. It's located at R4V2+6PG El Garage 8090, Rue 1er Juin, Kelibia. 
-With a rating of 5.0, it's a must-visit spot. 
-It's open during these hours: 08:00-21:00. To get there, use these GPS coordinates: (36.843061894639, 11.101993789385). For more details, visit their website at https://www.google.com/maps/place/El+Garage+8090/data=!4m7!3m6!1s0x131d338c0f0705f7:0x66d282f0427f8c4a!8m2!3d36.8430536!4d11.1018164!16s%2Fg%2F11fk0mq6kk!19sChIJ9wUHD4wzHRMRSox_QvCC0mY?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 26 642 772.</t>
+          <t>Nestled in the heart of El Garage 8090 in Kelibia, this esteemed cafe tantalizes taste buds with a symphony of flavors. Located at coordinates (36.843061894639, 11.101993789385), this culinary haven operates from 08:00 to 21:00, beckoning patrons to indulge in its delectable offerings.</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated café called El Garage 8090 in Kelibia?</t>
+          <t>Day Plan:
+Morning: Explore the historical Fort de Kelibia, offering stunning views of the Mediterranean Sea.
+Mid-Morning: Visit the nearby Phare de Kelibia for breathtaking panoramic vistas, ideal for picturesque photos.
+Midday: Savor a delicious seafood lunch at El Bahri Restaurant, known for its fresh and flavorful dishes.
+Afternoon: Relax and unwind at the Casa Del Mar Residence, a charming guesthouse near the beach.
+Evening: Indulge in an authentic Tunisian dinner at Restaurant Beb Bhar, rated 4.1 out of 5 for its traditional cuisine.
+Night: Experience the lively atmosphere of Marbrerie Hafefh Kacem, a popular discotheque with a vibrant music scene.</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Nestled in the vibrant city of Kelibia, Workshop Bistro awaits with its cozy ambiance and delectable offerings. This cafe is renowned for its delectable cuisine and warm hospitality. Located at coordinates (36.835428078688, 11.091149597327), patrons can easily find this popular establishment.
+Located in Kelibia (latitude 36.836660524289, and longitude 11.111146140921), Big Ben is a teahouse offering a pleasant setting to relax and enjoy a break.
+Restaurant Beb Bhar is a local restaurant located in Kelibia, Tunisia. It is rated 4.1 out of 5 stars on Google and has received 14 reviews. The restaurant offers a variety of dishes, including traditional Tunisian cuisine and international favorites. The restaurant is open from 9:00am to 12:00am every day of the week.
+Kelibia Paradise is a lodging facility located in Kelibia, Tunisia. It has a rating of 4.6 and has received 18 reviews. The facility offers accommodation with a main focus on comfort and relaxation. Its geolocation is at longitude 11.098431810317 and latitude 36.846063992403.
+Nestled in the picturesque Kelibia region, Cap-Bon Kelibia Beach Hotel &amp; Spa is an upscale resort offering 562 warmly designed rooms and suites. With its stunning beachfront location and serene ambiance, the hotel is an ideal destination for leisure and relaxation. It features an array of amenities, including a rejuvenating spa, three refined dining options, and an inviting swimming pool, ensuring an unforgettable stay in the heart of Kelibia.
+DAR COLIBRI, a 4.6-rated guesthouse located in Kelibia (36.8363146, 11.1113262), offers a unique stay in a charming setting. It features a swimming pool, hammam, and massage services, promising a relaxing and rejuvenating experience. With its proximity to the beautiful beaches of Kelibia, this guesthouse is an ideal base for exploring the region's natural wonders.
+Residence Asma is a 4.4-rated residence located in Kelibia, Tunisia. It is a great place to stay for tourists and business travelers alike. The residence offers a variety of amenities, including a swimming pool, a fitness center, and a restaurant. It is also conveniently located near the beach, the city center, and the airport. The residence has 14 reviews, all of which are positive. Guests praise the residence's cleanliness, comfort, and friendly staff.
+Pension Anis is a 4-star family-run guesthouse located in Kelibia, Tunisia. It features a prime location on Av du Dr Mongi Ben Hmida. Guests can enjoy comfortable accommodations with great value. The guesthouse offers a range of amenities to ensure a pleasant stay, including free Wi-Fi, laundry service, and a friendly atmosphere. Its central location provides easy access to local attractions and points of interest.
+The Casa Del Mar Residence is a 4.3-rated guesthouse located in Kelibia, Tunisia. It is situated near the beach and offers a relaxing getaway for guests. The Residence has received positive reviews for its comfortable accommodations and friendly staff.
+Dar Lebharr is a cozy accommodation located in Kelibia, Tunisia. It offers a comfortable stay with a rating of 4.1 out of 5. Situated at 36.835428078688 latitude and 11.091149597327 longitude, it's easily accessible. Contact them at +33 7 81 09 91 78 for bookings or inquiries.
+Luxus Apartements is a 5-star lodge located in Kelibia, Tunisia. It offers a luxurious and comfortable stay for its guests. The lodge is situated near the beach, making it a great place to relax and enjoy the beautiful scenery. Luxus Apartements is also close to many restaurants, shops, and attractions. The lodge's staff is friendly and helpful, and they are always willing to go the extra mile to make sure that their guests have a memorable stay.
+Plage Kelibia, located at (36.84757, 11.09386), offers a picturesque beachfront experience in the city of Kelibia.
+Fort de Kelibia is a historical fortress located in Kelibia, Tunisia. It offers stunning views of the Mediterranean Sea and the port. The castle boasts a rich history and architectural significance. Visitors can explore the castle's ramparts, towers, and courtyards, and delve into the region's captivating past. With a 4.4-star rating, the fort is a popular destination for tourists and history enthusiasts alike. Its strategic location makes it a great spot to capture panoramic shots of the surrounding area.
+Plage kelibia is a popular tourist attraction located in Kelibia, Tunisia. It offers a wide range of activities, including swimming, sunbathing, and windsurfing. The beach is also home to a number of restaurants and cafes.
+The beach is located just a short drive from the city center and is easily accessible by public transportation. The beach is well-maintained and features clear blue waters and soft white sand.
+Plage kelibia is a great place to relax and enjoy the beautiful weather of Tunisia. It is also a great location to enjoy some water sports.
+The Port of Kelibia is a maritime port located in Kelibia, Tunisia. The port offers a variety of services to its customers, including fishing, cargo, and passenger transport. It is also a popular tourist destination, with many visitors coming to enjoy the beautiful scenery and the fresh seafood. The port is located at (36.8351444, 11.1116178).
+Discover the stunning Phare de Kelibia, a captivating viewpoint located at (36.8363146, 11.1113262) in Kelibia, Tunisia. Immerse yourself in the breathtaking panoramic views from the lighthouse's vantage point, making it an ideal spot for photography enthusiasts and nature lovers alike.
+The Institut superieur des etudes technologiques de Kelibia is a higher education institute located in Kelibia, Tunisia. It offers a range of technological programs and has a rating of 4.4 stars. The institute is situated at the coordinates (36.8363146, 11.1113262) and can be contacted by phone at 72 277 090. Its website is http://www.isetkl.rnu.tn/.
+Kelibia is a place located in Kelibia, Tunisia. It has a bike rental service, with a 4.2 rating based on 6 reviews. It is located at coordinates (36.836660524289, 11.111146140921).
+Marbrerie Hafefh Kacem is a popular discotheque located in Kelibia, Tunisia. It has a rating of 4.0 out of 5 on Google Maps and is known for its vibrant atmosphere and lively music. The discotheque is located at (36.8472589, 11.091058) and offers a variety of music genres to cater to different tastes. It is a popular destination for locals and tourists alike, and is a great place to dance the night away.
+El Bahri Restaurant is a seafood restaurant located in Kelibia, Tunisia. It is a popular spot for tourists and locals alike, and it offers a variety of seafood dishes, including fresh fish, grilled octopus, and seafood platters. The restaurant is open 24 hours a day, and it is closed on Tuesdays. The average rating for El Bahri Restaurant is 4.7 stars, and it has received positive reviews for its delicious food, friendly staff, and reasonable prices.
+Del Capo is a 5-star rated pizzeria located in Kelibia, Tunisia. It is situated at the address: 8090 Av. de Martyrs with coordinates (36.842587762817, 11.099081841049). This highly-rated spot operates from 12:00 to 00:00 during the week and offers a delectable range of pizzas.
+Restaurant is a family-friendly restaurant located in Kelibia, Tunisia. It offers a variety of dishes, including traditional Tunisian cuisine and international fare. The restaurant is located at the coordinates (36.8472589, 11.091058) and has a rating of 5.0 out of 5 stars on Google Maps.
+Station Louage Kelibia is a taxi service located in Kelibia, Tunisia (36.84757, 11.09386). With a rating of 3.7 out of 5 based on 28 reviews, it offers reliable transportation services to its customers.
+SRTGN's station is located in Kelibia, Tunisia. It offers bus services to various destinations. The station is located at the coordinates (36.84757, 11.09386).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2195,12 +3004,69 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>If you're in kelibia and looking for something fun to do, check out Story coffee kelibia located at 8090 Avenu Militant Abdelkader Dardouri, Kelibia. This top-rated destination is perfect for Cafe lovers and offers a range of categories to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 36.848013989197, 11.098336416111. For more details, visit their website at nan or call them at 56 066 947.</t>
+          <t>Story coffee kelibia is a popular cafe in kelibia, located at the coordinates (36.848013989197, 11.098336416111). Open 24 hours a day, it offers a welcoming atmosphere with a rating of 5.0 based on 4 reviews.</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>Where in Kelibia can you find a top-rated cafe offering a wide range of options for coffee enthusiasts?</t>
+          <t>Day Plan:
+Morning: Explore the historical Fort de Kelibia for stunning views of the Mediterranean Sea and delve into its captivating past.
+Mid-Morning: Visit the Phare de Kelibia, a captivating viewpoint, and capture breathtaking panoramic shots of the surrounding area.
+Midday: Try local cuisine at Restaurant, a family-friendly spot offering traditional Tunisian dishes and international fare.
+Afternoon: Relax and enjoy the picturesque Plage Kelibia, engage in swimming, sunbathing, or beach volleyball.
+Evening: Embark on a guided tour of Institut superieur des etudes technologiques de Kelibia, a higher education institute with technological programs.
+Night: Head to Marbrerie Hafefh Kacem, a popular discotheque known for its lively atmosphere and vibrant music, and dance the night away.</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Located in the heart of Kelibia, Tunisia (36.847461866537, 11.083275342698), Cafe Farabi is a popular spot for locals and tourists alike. Serving delicious coffee, pastries, and a variety of snacks, the cafe offers a cozy and inviting atmosphere. With a rating of 4.6 stars and numerous positive reviews, Cafe Farabi is highly recommended for anyone seeking a great cup of coffee and a relaxing ambiance.
+Located in Kelibia (latitude 36.836660524289, and longitude 11.111146140921), Big Ben is a teahouse offering a pleasant setting to relax and enjoy a break.
+La Padella Kelibia is a reputable restaurant located in Kelibia. It boasts an impressive 4.6 rating based on 8 reviews, indicating its popularity and high quality. Open from 8 AM to midnight every day, La Padella Kelibia offers a wide range of dishes to cater to its diverse clientele. The restaurant's prime location at 36.8363146 latitude and 11.1113262 longitude makes it easily accessible to both locals and tourists. With its convenient hours and delicious offerings, La Padella Kelibia is the go-to destination for dining in Kelibia.
+Myriam Bel Air is a popular hotel located in Kelibia, Tunisia. It offers a comfortable and convenient stay for its guests, with a 4.2-star rating on Google. The hotel has 14 reviews, with an overall positive feedback from its guests. It provides a range of amenities, including comfortable rooms, a swimming pool, and a restaurant. The hotel's website features additional information and booking options, and it is well-connected with major tourist attractions in the area.
+Nestled in the picturesque Kelibia region, Cap-Bon Kelibia Beach Hotel &amp; Spa is an upscale resort offering 562 warmly designed rooms and suites. With its stunning beachfront location and serene ambiance, the hotel is an ideal destination for leisure and relaxation. It features an array of amenities, including a rejuvenating spa, three refined dining options, and an inviting swimming pool, ensuring an unforgettable stay in the heart of Kelibia.
+Dar Meriem - Maison d'hôtes is a guest house located in Kelibia, Tunisia. It offers comfortable accommodation and a warm and welcoming atmosphere. The guest house is perfectly situated for exploring the city and its surroundings, and is close to a variety of amenities. The guest house is managed by a friendly and helpful team of staff who are always on hand to assist guests with any queries or needs.
+Residence Asma is a 4.4-rated residence located in Kelibia, Tunisia. It is a great place to stay for tourists and business travelers alike. The residence offers a variety of amenities, including a swimming pool, a fitness center, and a restaurant. It is also conveniently located near the beach, the city center, and the airport. The residence has 14 reviews, all of which are positive. Guests praise the residence's cleanliness, comfort, and friendly staff.
+Pension Anis is a 4-star family-run guesthouse located in Kelibia, Tunisia. It features a prime location on Av du Dr Mongi Ben Hmida. Guests can enjoy comfortable accommodations with great value. The guesthouse offers a range of amenities to ensure a pleasant stay, including free Wi-Fi, laundry service, and a friendly atmosphere. Its central location provides easy access to local attractions and points of interest.
+The Casa Del Mar Residence is a 4.3-rated guesthouse located in Kelibia, Tunisia. It is situated near the beach and offers a relaxing getaway for guests. The Residence has received positive reviews for its comfortable accommodations and friendly staff.
+Dar Lebharr is a cozy accommodation located in Kelibia, Tunisia. It offers a comfortable stay with a rating of 4.1 out of 5. Situated at 36.835428078688 latitude and 11.091149597327 longitude, it's easily accessible. Contact them at +33 7 81 09 91 78 for bookings or inquiries.
+Luxus Apartements is a 5-star lodge located in Kelibia, Tunisia at (36.835428078688, 11.091149597327). It has a rating of 5.0 based on 1 review and is owned by Luxus Apartements (proprietaire). Luxus Apartements offers a variety of amenities and services, making it the perfect place to stay for both business and leisure travelers.
+Plage Kelibia, located at (36.84757, 11.09386), offers a picturesque beachfront experience in the city of Kelibia.
+Fort de Kelibia is a historical fortress located in Kelibia, Tunisia. It offers stunning views of the Mediterranean Sea and the port. The castle boasts a rich history and architectural significance. Visitors can explore the castle's ramparts, towers, and courtyards, and delve into the region's captivating past. With a 4.4-star rating, the fort is a popular destination for tourists and history enthusiasts alike. Its strategic location makes it a great spot to capture panoramic shots of the surrounding area.
+Plage Kelibia is a tourist attraction located at the coordinates (36.84757, 11.09386) in Kelibia, Tunisia. With a rating of 4.6 based on 37 reviews, it is a popular destination for tourists. The beach offers a range of activities and amenities, including swimming, sunbathing, and beach volleyball. It is also home to a number of restaurants and cafes, making it a great place to relax and enjoy the scenery.
+The Port of Kelibia is a maritime port located in Kelibia, Tunisia. The port offers a variety of services to its customers, including fishing, cargo, and passenger transport. It is also a popular tourist destination, with many visitors coming to enjoy the beautiful scenery and the fresh seafood. The port is located at (36.8351444, 11.1116178).
+Discover the stunning Phare de Kelibia, a captivating viewpoint located at (36.8363146, 11.1113262) in Kelibia, Tunisia. Immerse yourself in the breathtaking panoramic views from the lighthouse's vantage point, making it an ideal spot for photography enthusiasts and nature lovers alike.
+The Institut superieur des etudes technologiques de Kelibia is a higher education institute located in Kelibia, Tunisia. It offers a range of technological programs and has a rating of 4.4 stars. The institute is situated at the coordinates (36.8363146, 11.1113262) and can be contacted by phone at 72 277 090. Its website is http://www.isetkl.rnu.tn/.
+Kelibia is a place located in Kelibia, Tunisia. It has a bike rental service, with a 4.2 rating based on 6 reviews. It is located at coordinates (36.836660524289, 11.111146140921).
+Marbrerie Hafefh Kacem is a popular discotheque located in Kelibia, Tunisia. It has a rating of 4.0 out of 5 on Google Maps and is known for its vibrant atmosphere and lively music. The discotheque is located at (36.8472589, 11.091058) and offers a variety of music genres to cater to different tastes. It is a popular destination for locals and tourists alike, and is a great place to dance the night away.
+El Bahri Restaurant is a seafood restaurant located in Kelibia, Tunisia. It is a popular spot for tourists and locals alike, and it offers a variety of seafood dishes, including fresh fish, grilled octopus, and seafood platters. The restaurant is open 24 hours a day, and it is closed on Tuesdays. The average rating for El Bahri Restaurant is 4.7 stars, and it has received positive reviews for its delicious food, friendly staff, and reasonable prices.
+Del Capo is a 5-star rated pizzeria located in Kelibia, Tunisia. It is situated at the address: 8090 Av. de Martyrs with coordinates (36.842587762817, 11.099081841049). This highly-rated spot operates from 12:00 to 00:00 during the week and offers a delectable range of pizzas.
+Restaurant is a family-friendly restaurant located in Kelibia, Tunisia. It offers a variety of dishes, including traditional Tunisian cuisine and international fare. The restaurant is located at the coordinates (36.8472589, 11.091058) and has a rating of 5.0 out of 5 stars on Google Maps.
+Station Louage Kelibia is a taxi service located in Kelibia, Tunisia (36.84757, 11.09386). With a rating of 3.7 out of 5 based on 28 reviews, it offers reliable transportation services to its customers.
+SRTGN (station Kelibia) is a bus station located in Kelibia, Tunisia. It offers basic amenities and services for travelers, and is conveniently situated at (36.84757, 11.09386).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2306,12 +3172,71 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>If you're in kelibia and looking for something fun to do, check out Big Ben located at R4R2+JWP Big Ben, Av. de Martyrs, Kelibia 8090. This top-rated destination is perfect for Salon de the lovers and offers a range of Salon de the to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 07:00-00:00. To get there, use these GPS coordinates: 36.836660524289, 11.111146140921. For more details, visit their website at https://www.google.com/maps/place/Big+Ben/data=!4m7!3m6!1s0x131d33060925f2ff:0x2320c7ed4455e8fa!8m2!3d36.8415823!4d11.1023132!16s%2Fg%2F11gv281213!19sChIJ__IlCQYzHRMR-uhVRO3HICM?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 55 220 983.</t>
+          <t>Located in Kelibia (latitude 36.836660524289, and longitude 11.111146140921), Big Ben is a teahouse offering a pleasant setting to relax and enjoy a break.</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>Where in Kelibia can you find Big Ben, a highly rated Salon de the with extended hours and a prime location?</t>
+          <t>**Day Plan:**
+**Morning:** Explore Fort de Kelibia, immersing yourself in its historical significance and breathtaking sea views.
+**Mid-Morning:** Indulge in a delightful local breakfast at El Bahri Restaurant, savoring the flavors of Tunisia's fresh seafood delicacies.
+**Midday:** Visit the Institut superieur des etudes technologiques de Kelibia, delving into the world of technology and innovation.
+**Afternoon:** Escape to Plage Kelibia, spending the afternoon swimming, sunbathing, or windsurfing amidst the stunning coastal beauty.
+**Evening:** Take a romantic stroll along the scenic boardwalk of Plage de Kelibia, soaking in the picturesque ambiance as the sun sets.
+**Night:** Experience the vibrant nightlife at Marbrerie Hafefh Kacem, dancing the night away to the rhythm of lively music and mingling with locals and tourists alike.</t>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CAFE CORNICHE is a cafe located in Kelibia, Tunisia. It has a 4.4-star rating on Google, with 5 reviews. The cafe is open during the week and closed on Sundays. It is located at R3QX+66M CAFE CORNICHE, Av. de l'environnement, Kelibia 8090.
+Located in Kelibia (latitude 36.836660524289, and longitude 11.111146140921), Big Ben is a teahouse offering a pleasant setting to relax and enjoy a break.
+Pizzaria Nino's is a restaurant located in kelibia, Tunisia at the coordinates (36.8472589, 11.091058). It has a rating of 5.0 out of 5 stars and offers a variety of pizzas.
+Myriam Bel Air is a popular hotel located in Kelibia, Tunisia. It offers a comfortable and convenient stay for its guests, with a 4.2-star rating on Google. The hotel has 14 reviews, with an overall positive feedback from its guests. It provides a range of amenities, including comfortable rooms, a swimming pool, and a restaurant. The hotel's website features additional information and booking options, and it is well-connected with major tourist attractions in the area.
+The Cap-Bon Kelibia Beach Hotel &amp; Spa is a 4-star hotel located in Kelibia, Tunisia. It is a luxury seaside hotel offering comfortable rooms and suites, a spa and 3 refined restaurants. It is known for its beautiful beach, its large swimming pool and its animations.
+Dar Meriem - Maison d'hôtes is a guest house located in Kelibia, Tunisia. It offers comfortable accommodation and a warm and welcoming atmosphere. The guest house is perfectly situated for exploring the city and its surroundings, and is close to a variety of amenities. The guest house is managed by a friendly and helpful team of staff who are always on hand to assist guests with any queries or needs.
+Residence Asma is a 4.4-rated residence located in Kelibia, Tunisia. It is a great place to stay for tourists and business travelers alike. The residence offers a variety of amenities, including a swimming pool, a fitness center, and a restaurant. It is also conveniently located near the beach, the city center, and the airport. The residence has 14 reviews, all of which are positive. Guests praise the residence's cleanliness, comfort, and friendly staff.
+Pension Anis is a 4-star family-run guesthouse located in Kelibia, Tunisia. It features a prime location on Av du Dr Mongi Ben Hmida. Guests can enjoy comfortable accommodations with great value. The guesthouse offers a range of amenities to ensure a pleasant stay, including free Wi-Fi, laundry service, and a friendly atmosphere. Its central location provides easy access to local attractions and points of interest.
+The Casa Del Mar Residence is a 4.3-rated guesthouse located in Kelibia, Tunisia. It is situated near the beach and offers a relaxing getaway for guests. The Residence has received positive reviews for its comfortable accommodations and friendly staff.
+Dar Lebharr is a cozy accommodation located in Kelibia, Tunisia. It offers a comfortable stay with a rating of 4.1 out of 5. Situated at 36.835428078688 latitude and 11.091149597327 longitude, it's easily accessible. Contact them at +33 7 81 09 91 78 for bookings or inquiries.
+Luxus Apartements is a 5-star lodge located in Kelibia, Tunisia. It offers a luxurious and comfortable stay for its guests. The lodge is situated near the beach, making it a great place to relax and enjoy the beautiful scenery. Luxus Apartements is also close to many restaurants, shops, and attractions. The lodge's staff is friendly and helpful, and they are always willing to go the extra mile to make sure that their guests have a memorable stay.
+Plage Kelibia, located at (36.84757, 11.09386), offers a picturesque beachfront experience in the city of Kelibia.
+Fort de Kelibia, located in Kelibia, is a historical fortress with an average rating of 4.4 out of 5 based on 460 reviews. It offers a stunning view of the sea, making it a great spot to enjoy the scenery. Visitors can also delve into the history of the fort or simply admire its architectural beauty. With its convenient opening hours from 9:00 AM to 6:00 PM, it's a perfect destination for tourists and history enthusiasts alike.
+Plage kelibia is a popular tourist attraction located in Kelibia, Tunisia. It offers a wide range of activities, including swimming, sunbathing, and windsurfing. The beach is also home to a number of restaurants and cafes.
+The beach is located just a short drive from the city center and is easily accessible by public transportation. The beach is well-maintained and features clear blue waters and soft white sand.
+Plage kelibia is a great place to relax and enjoy the beautiful weather of Tunisia. It is also a great location to enjoy some water sports.
+The Port of Kelibia is a maritime port located in Kelibia, Tunisia. The port offers a variety of services to its customers, including fishing, cargo, and passenger transport. It is also a popular tourist destination, with many visitors coming to enjoy the beautiful scenery and the fresh seafood. The port is located at (36.8351444, 11.1116178).
+Discover the stunning Phare de Kelibia, a captivating viewpoint located at (36.8363146, 11.1113262) in Kelibia, Tunisia. Immerse yourself in the breathtaking panoramic views from the lighthouse's vantage point, making it an ideal spot for photography enthusiasts and nature lovers alike.
+The Institut superieur des etudes technologiques de Kelibia is a higher education institute located in Kelibia, Tunisia. It offers a range of technological programs and has a rating of 4.4 stars. The institute is situated at the coordinates (36.8363146, 11.1113262) and can be contacted by phone at 72 277 090. Its website is http://www.isetkl.rnu.tn/.
+Kelibia is a place located in Kelibia, Tunisia. It has a bike rental service, with a 4.2 rating based on 6 reviews. It is located at coordinates (36.836660524289, 11.111146140921).
+Marbrerie Hafefh Kacem is a popular discotheque located in Kelibia, Tunisia. It has a rating of 4.0 out of 5 on Google Maps and is known for its vibrant atmosphere and lively music. The discotheque is located at (36.8472589, 11.091058) and offers a variety of music genres to cater to different tastes. It is a popular destination for locals and tourists alike, and is a great place to dance the night away.
+El Bahri Restaurant is a seafood restaurant located in Kelibia, Tunisia. It is a popular spot for tourists and locals alike, and it offers a variety of seafood dishes, including fresh fish, grilled octopus, and seafood platters. The restaurant is open 24 hours a day, and it is closed on Tuesdays. The average rating for El Bahri Restaurant is 4.7 stars, and it has received positive reviews for its delicious food, friendly staff, and reasonable prices.
+Del Capo is a 5-star rated pizzeria located in Kelibia, Tunisia. It is situated at the address: 8090 Av. de Martyrs with coordinates (36.842587762817, 11.099081841049). This highly-rated spot operates from 12:00 to 00:00 during the week and offers a delectable range of pizzas.
+Restaurant is a family-friendly restaurant located in Kelibia, Tunisia. It offers a variety of dishes, including traditional Tunisian cuisine and international fare. The restaurant is located at the coordinates (36.8472589, 11.091058) and has a rating of 5.0 out of 5 stars on Google Maps.
+Station Louage Kelibia is a taxi service located in Kelibia, Tunisia (36.84757, 11.09386). With a rating of 3.7 out of 5 based on 28 reviews, it offers reliable transportation services to its customers.
+SRTGN (station Kelibia) is a bus station located in Kelibia with the coordinates (36.84757, 11.09386). It offers bus services to various destinations.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2409,12 +3334,71 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>If you're in kelibia and looking for a great cafe, check out Cafe Duplex ,Kelibia located at 58 Rue Taieb Sardouk, Kelibia. This top-rated destination is perfect for Cafe lovers and offers a range of categories to choose from. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.84757, 11.09386. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Dupl%C3%A9x+,K%C3%A9libia/data=!4m7!3m6!1s0x131d3363d3e912b7:0xd83778e61f3d753e!8m2!3d36.8465233!4d11.0885872!16s%2Fg%2F11pc1txvg8!19sChIJtxLp02MzHRMRPnU9H-Z4N9g?authuser=0&amp;hl=fr&amp;rclk=1 or call them at the provided number.</t>
+          <t>Café Duplex is a popular café located in Kelibia, known for its cozy atmosphere and delicious coffee. Café Duplex is a popular destination for locals and tourists alike, and it offers a variety of coffees, teas, and snacks. The café is located at 58 Rue Taieb Sardouk, Kelibia, and it is open from 8am to 10pm, seven days a week.</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>Where in Kelibia can you find Cafe Duplex+, a top-rated cafe with a rating of 5.0, offering a range of categories?</t>
+          <t>Day Plan:
+Morning: Explore the historical Fort de Kelibia, offering stunning views of the Mediterranean Sea.
+Mid-Morning: Visit Plage Kelibia, a scenic beach popular for swimming and windsurfing.
+Midday: Try local seafood cuisine at El Bahri Restaurant, known for its fresh fish and seafood platters.
+Afternoon: Take a guided tour of the Institut superieur des etudes technologiques de Kelibia, a higher education institute focused on technology.
+Evening: Enjoy a relaxing evening at Myriam Bel Air, a comfortable hotel with a swimming pool and restaurant.
+Night: Experience the vibrant nightlife at Marbrerie Hafefh Kacem, a popular discotheque with lively music and dance.</t>
+        </is>
+      </c>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Magnifique coffee is a cafe located in Kelibia, Tunisia. It offers a variety of coffee drinks, as well as pastries and other snacks. The cafe is located at Rue Clupea, Kelibia 8090. It is open from 07:00-01:00 and is closed on Sunday. The cafe has a 4.6-star rating on Google Maps.
+Hannibal coffee kelibia is a tea room located in kelibia, Tunisia. It offers a variety of teas, coffees, and pastries. The tea room is located at 36.8363146, 11.1113262.
+Restaurant Tulipe is located in Kelibia, Tunisia at the coordinates (36.835428078688, 11.091149597327). The restaurant has received a 4.1 rating based on 7 reviews and specializes in Restaurant cuisine. It is open from 12:00-02:00 and is closed on . The restaurant's phone number is 26 205 522.
+Myriam Bel Air is a popular hotel located in Kelibia, Tunisia. It offers a comfortable and convenient stay for its guests, with a 4.2-star rating on Google. The hotel has 14 reviews, with an overall positive feedback from its guests. It provides a range of amenities, including comfortable rooms, a swimming pool, and a restaurant. The hotel's website features additional information and booking options, and it is well-connected with major tourist attractions in the area.
+Maison d'hotes / Restaurant L'Hirondelle de Kelibia offers a pleasant stay in a beautiful location just steps from the beach. The hotel features comfortable rooms, a relaxing atmosphere, and welcoming staff. Guests can enjoy delicious meals at the on-site restaurant while admiring the panoramic views of the Mediterranean Sea. With its convenient location and excellent amenities, Maison d'hotes / Restaurant L'Hirondelle de Kelibia is the perfect place for a memorable vacation.
+Dar Meriem - Maison d'hôtes is a guest house located in Kelibia, Tunisia. It offers comfortable accommodation and a warm and welcoming atmosphere. The guest house is perfectly situated for exploring the city and its surroundings, and is close to a variety of amenities. The guest house is managed by a friendly and helpful team of staff who are always on hand to assist guests with any queries or needs.
+Residence Asma is a 4.4-rated residence located in Kelibia, Tunisia. It is a great place to stay for tourists and business travelers alike. The residence offers a variety of amenities, including a swimming pool, a fitness center, and a restaurant. It is also conveniently located near the beach, the city center, and the airport. The residence has 14 reviews, all of which are positive. Guests praise the residence's cleanliness, comfort, and friendly staff.
+Pension Anis is a 4-star family-run guesthouse located in Kelibia, Tunisia. It features a prime location on Av du Dr Mongi Ben Hmida. Guests can enjoy comfortable accommodations with great value. The guesthouse offers a range of amenities to ensure a pleasant stay, including free Wi-Fi, laundry service, and a friendly atmosphere. Its central location provides easy access to local attractions and points of interest.
+The Casa Del Mar Residence is a 4.3-rated guesthouse located in Kelibia, Tunisia. It is situated near the beach and offers a relaxing getaway for guests. The Residence has received positive reviews for its comfortable accommodations and friendly staff.
+Dar Lebharr is a cozy accommodation located in Kelibia, Tunisia. It offers a comfortable stay with a rating of 4.1 out of 5. Situated at 36.835428078688 latitude and 11.091149597327 longitude, it's easily accessible. Contact them at +33 7 81 09 91 78 for bookings or inquiries.
+Luxus Apartements is a 5-star lodge located in Kelibia, Tunisia at (36.835428078688, 11.091149597327). It has a rating of 5.0 based on 1 review and is owned by Luxus Apartements (proprietaire). Luxus Apartements offers a variety of amenities and services, making it the perfect place to stay for both business and leisure travelers.
+Plage Kelibia, located at (36.84757, 11.09386), offers a picturesque beachfront experience in the city of Kelibia.
+Fort de Kelibia is a historical fortress located in Kelibia, Tunisia. It offers stunning views of the Mediterranean Sea and the port. The castle boasts a rich history and architectural significance. Visitors can explore the castle's ramparts, towers, and courtyards, and delve into the region's captivating past. With a 4.4-star rating, the fort is a popular destination for tourists and history enthusiasts alike. Its strategic location makes it a great spot to capture panoramic shots of the surrounding area.
+Plage kelibia is a popular tourist attraction located in Kelibia, Tunisia. It offers a wide range of activities, including swimming, sunbathing, and windsurfing. The beach is also home to a number of restaurants and cafes.
+The beach is located just a short drive from the city center and is easily accessible by public transportation. The beach is well-maintained and features clear blue waters and soft white sand.
+Plage kelibia is a great place to relax and enjoy the beautiful weather of Tunisia. It is also a great location to enjoy some water sports.
+The Port of Kelibia is a maritime port located in Kelibia, Tunisia. The port offers a variety of services to its customers, including fishing, cargo, and passenger transport. It is also a popular tourist destination, with many visitors coming to enjoy the beautiful scenery and the fresh seafood. The port is located at (36.8351444, 11.1116178).
+Discover the stunning Phare de Kelibia, a captivating viewpoint located at (36.8363146, 11.1113262) in Kelibia, Tunisia. Immerse yourself in the breathtaking panoramic views from the lighthouse's vantage point, making it an ideal spot for photography enthusiasts and nature lovers alike.
+The Institut superieur des etudes technologiques de Kelibia is a higher education institute located in Kelibia, Tunisia. It offers a range of technological programs and has a rating of 4.4 stars. The institute is situated at the coordinates (36.8363146, 11.1113262) and can be contacted by phone at 72 277 090. Its website is http://www.isetkl.rnu.tn/.
+Kelibia is a place located in Kelibia, Tunisia. It has a bike rental service, with a 4.2 rating based on 6 reviews. It is located at coordinates (36.836660524289, 11.111146140921).
+Marbrerie Hafefh Kacem is a popular discotheque located in Kelibia, Tunisia. It has a rating of 4.0 out of 5 on Google Maps and is known for its vibrant atmosphere and lively music. The discotheque is located at (36.8472589, 11.091058) and offers a variety of music genres to cater to different tastes. It is a popular destination for locals and tourists alike, and is a great place to dance the night away.
+El Bahri Restaurant is a seafood restaurant located in Kelibia, Tunisia. It is a popular spot for tourists and locals alike, and it offers a variety of seafood dishes, including fresh fish, grilled octopus, and seafood platters. The restaurant is open 24 hours a day, and it is closed on Tuesdays. The average rating for El Bahri Restaurant is 4.7 stars, and it has received positive reviews for its delicious food, friendly staff, and reasonable prices.
+"La Luna", a 4-star Pizzeria, located in Kelibia, Tunisia. It's reachable by phone and has a website. It's open daily from 08:00-22:00, and its coordinates are (36.8472589, 11.091058).
+Restaurant is a family-friendly restaurant located in Kelibia, Tunisia. It offers a variety of dishes, including traditional Tunisian cuisine and international fare. The restaurant is located at the coordinates (36.8472589, 11.091058) and has a rating of 5.0 out of 5 stars on Google Maps.
+Station Louage Kelibia is a taxi service located in Kelibia, Tunisia (36.84757, 11.09386). With a rating of 3.7 out of 5 based on 28 reviews, it offers reliable transportation services to its customers.
+SRTGN (station Kelibia) is a bus station located in Kelibia, Tunisia. It offers basic amenities and services for travelers, and is conveniently situated at (36.84757, 11.09386).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2516,12 +3500,71 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>If you're in kelibia and looking for something fun to do, check out Hannibal coffee kelibia located at 8090 Rue Ennasim, Kelibia 8090. This top-rated destination is perfect for Salon de the lovers and offers a range of Salon de the to choose from. With a rating of 4.7, it's a must-visit spot. To get there, use these GPS coordinates: 36.8363146, 11.1113262. For more details, visit their website.</t>
+          <t>Hannibal coffee kelibia is a tea room located in kelibia, Tunisia. It offers a variety of teas, coffees, and pastries. The tea room is located at 36.8363146, 11.1113262.</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>What is the highly-rated Salon de the destination in Kelibia, located at 8090 Rue Ennasim and boasting a 4.7 rating?</t>
+          <t>Day Plan:
+Morning: Exploring Plage Kelibia
+Mid-Morning: Trying local cuisine at El Bahri Restaurant
+Midday: Visiting Fort de Kelibia
+Afternoon: Enjoying water sports at Plage Kelibia
+Evening: Taking a guided tour of Institut superieur des etudes technologiques de Kelibia
+Night: Relaxing at Casa Del Mar Residence</t>
+        </is>
+      </c>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>Given these locations:
+L'instant Cafe is a highly rated cafe located in Kelibia, Tunisia. It offers a cozy atmosphere and serves delicious breakfasts, as evidenced by the numerous positive reviews mentioning "petit dejeuner." The cafe is open from 8 am to 7 pm, providing locals and tourists with a convenient place to relax and enjoy a cup of coffee or a light meal.
+Located in Kelibia (latitude 36.836660524289, and longitude 11.111146140921), Big Ben is a teahouse offering a pleasant setting to relax and enjoy a break.
+Street Food Kelibia is a restaurant located in Kelibia, Tunisia at the following coordinates: (36.848013989197, 11.098336416111). The restaurant serves a variety of dishes and is rated 4.0 out of 5 stars based on 1 review. It is open from 09:00 to 00:00 and closed on .
+Myriam Bel Air is a popular hotel located in Kelibia, Tunisia. It offers a comfortable and convenient stay for its guests, with a 4.2-star rating on Google. The hotel has 14 reviews, with an overall positive feedback from its guests. It provides a range of amenities, including comfortable rooms, a swimming pool, and a restaurant. The hotel's website features additional information and booking options, and it is well-connected with major tourist attractions in the area.
+The Cap-Bon Kelibia Beach Hotel &amp; Spa is a 4-star hotel located in Kelibia, Tunisia. It is a luxury seaside hotel offering comfortable rooms and suites, a spa and 3 refined restaurants. It is known for its beautiful beach, its large swimming pool and its animations.
+Dar Meriem - Maison d'hôtes is a guest house located in Kelibia, Tunisia. It offers comfortable accommodation and a warm and welcoming atmosphere. The guest house is perfectly situated for exploring the city and its surroundings, and is close to a variety of amenities. The guest house is managed by a friendly and helpful team of staff who are always on hand to assist guests with any queries or needs.
+Residence Asma is a 4.4-rated residence located in Kelibia, Tunisia. It is a great place to stay for tourists and business travelers alike. The residence offers a variety of amenities, including a swimming pool, a fitness center, and a restaurant. It is also conveniently located near the beach, the city center, and the airport. The residence has 14 reviews, all of which are positive. Guests praise the residence's cleanliness, comfort, and friendly staff.
+Pension Anis is a 4-star family-run guesthouse located in Kelibia, Tunisia. It features a prime location on Av du Dr Mongi Ben Hmida. Guests can enjoy comfortable accommodations with great value. The guesthouse offers a range of amenities to ensure a pleasant stay, including free Wi-Fi, laundry service, and a friendly atmosphere. Its central location provides easy access to local attractions and points of interest.
+The Casa Del Mar Residence is a 4.3-rated guesthouse located in Kelibia, Tunisia. It is situated near the beach and offers a relaxing getaway for guests. The Residence has received positive reviews for its comfortable accommodations and friendly staff.
+Dar Lebharr is a cozy accommodation located in Kelibia, Tunisia. It offers a comfortable stay with a rating of 4.1 out of 5. Situated at 36.835428078688 latitude and 11.091149597327 longitude, it's easily accessible. Contact them at +33 7 81 09 91 78 for bookings or inquiries.
+Luxus Apartements is a 5-star lodge located in Kelibia, Tunisia at (36.835428078688, 11.091149597327). It has a rating of 5.0 based on 1 review and is owned by Luxus Apartements (proprietaire). Luxus Apartements offers a variety of amenities and services, making it the perfect place to stay for both business and leisure travelers.
+Plage Kelibia, located at (36.84757, 11.09386), offers a picturesque beachfront experience in the city of Kelibia.
+Fort de Kelibia, located in Kelibia, is a historical fortress with an average rating of 4.4 out of 5 based on 460 reviews. It offers a stunning view of the sea, making it a great spot to enjoy the scenery. Visitors can also delve into the history of the fort or simply admire its architectural beauty. With its convenient opening hours from 9:00 AM to 6:00 PM, it's a perfect destination for tourists and history enthusiasts alike.
+Plage kelibia is a popular tourist attraction located in Kelibia, Tunisia. It offers a wide range of activities, including swimming, sunbathing, and windsurfing. The beach is also home to a number of restaurants and cafes.
+The beach is located just a short drive from the city center and is easily accessible by public transportation. The beach is well-maintained and features clear blue waters and soft white sand.
+Plage kelibia is a great place to relax and enjoy the beautiful weather of Tunisia. It is also a great location to enjoy some water sports.
+The Port of Kelibia is a maritime port located in Kelibia, Tunisia. The port offers a variety of services to its customers, including fishing, cargo, and passenger transport. It is also a popular tourist destination, with many visitors coming to enjoy the beautiful scenery and the fresh seafood. The port is located at (36.8351444, 11.1116178).
+Discover the stunning Phare de Kelibia, a captivating viewpoint located at (36.8363146, 11.1113262) in Kelibia, Tunisia. Immerse yourself in the breathtaking panoramic views from the lighthouse's vantage point, making it an ideal spot for photography enthusiasts and nature lovers alike.
+The Institut superieur des etudes technologiques de Kelibia is a higher education institute located in Kelibia, Tunisia. It offers a range of technological programs and has a rating of 4.4 stars. The institute is situated at the coordinates (36.8363146, 11.1113262) and can be contacted by phone at 72 277 090. Its website is http://www.isetkl.rnu.tn/.
+Kelibia is a place located in Kelibia, Tunisia. It has a bike rental service, with a 4.2 rating based on 6 reviews. It is located at coordinates (36.836660524289, 11.111146140921).
+Marbrerie Hafefh Kacem is a popular discotheque located in Kelibia, Tunisia. It has a rating of 4.0 out of 5 on Google Maps and is known for its vibrant atmosphere and lively music. The discotheque is located at (36.8472589, 11.091058) and offers a variety of music genres to cater to different tastes. It is a popular destination for locals and tourists alike, and is a great place to dance the night away.
+El Bahri Restaurant is a seafood restaurant located in Kelibia, Tunisia. It is a popular spot for tourists and locals alike, and it offers a variety of seafood dishes, including fresh fish, grilled octopus, and seafood platters. The restaurant is open 24 hours a day, and it is closed on Tuesdays. The average rating for El Bahri Restaurant is 4.7 stars, and it has received positive reviews for its delicious food, friendly staff, and reasonable prices.
+"La Luna", a 4-star Pizzeria, located in Kelibia, Tunisia. It's reachable by phone and has a website. It's open daily from 08:00-22:00, and its coordinates are (36.8472589, 11.091058).
+Restaurant is a family-friendly restaurant located in Kelibia, Tunisia. It offers a variety of dishes, including traditional Tunisian cuisine and international fare. The restaurant is located at the coordinates (36.8472589, 11.091058) and has a rating of 5.0 out of 5 stars on Google Maps.
+Station Louage Kelibia is a taxi service located in Kelibia, Tunisia (36.84757, 11.09386). With a rating of 3.7 out of 5 based on 28 reviews, it offers reliable transportation services to its customers.
+SRTGN (station Kelibia) is a bus station located in Kelibia with the coordinates (36.84757, 11.09386). It offers bus services to various destinations.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2627,12 +3670,71 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>If you're in Kelibia and looking for a delightful cafe, visit Cafe Chikh Hammouda situated at 8090 ave Ali Belhouane. This top-rated cafe offers a cozy ambiance perfect for coffee enthusiasts. It's open from 4 AM to 10 PM daily, providing a convenient spot to unwind. With a 4.3-star rating, Cafe Chikh Hammouda is a must-visit destination. For more details, call 72 273 090 or visit their website.</t>
+          <t>Cafe Chikh Hammouda, located in Kelibia at 8090 ave Ali Belhouane, is a 4.3-rated cafe open from 4 AM to 10 PM, offering a cozy ambiance for coffee and relaxation. With three reviews and a featured image showcasing its inviting atmosphere, this cafe is a popular spot in the Kelibia area.</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>Where in Kelibia can you find a highly-rated cafe, Cafe Chikh Hammouda, with an inviting atmosphere and extended hours?</t>
+          <t>Day Plan:
+Morning: Explore the historical Fort de Kelibia, immersing yourself in its captivating history and breathtaking sea views.
+Mid-Morning: Stroll along the picturesque Plage kelibia, indulging in sunbathing, swimming, or perhaps trying your hand at windsurfing.
+Midday: Savor the authentic flavors of Tunisian cuisine at the highly regarded El Bahri Restaurant, delighting in their fresh seafood delicacies.
+Afternoon: Visit the Phare de Kelibia, a scenic viewpoint offering panoramic vistas of the coastline, perfect for capturing stunning photographs.
+Evening: Experience the vibrant nightlife at Marbrerie Hafefh Kacem, a popular discotheque known for its lively ambiance and energetic music.
+Night: Indulge in a relaxing stay at Myriam Bel Air, a comfortable and conveniently located hotel, ensuring a restful night's sleep.</t>
+        </is>
+      </c>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Discover a cozy respite in the heart of Kelibia at SOYASEP ZNAIDI KIOSQUE ET CAFE, located at coordinates (36.8472589, 11.091058). This charming cafe offers a welcoming atmosphere, serving a delectable selection of beverages and delectable treats. Situated conveniently, this cafe invites you to take a break, indulge in the local flavors, and connect with the vibrant community of Kelibia.
+Located in Kelibia (latitude 36.836660524289, and longitude 11.111146140921), Big Ben is a teahouse offering a pleasant setting to relax and enjoy a break.
+TOGOO FOOD kelibia is a restaurant located in kelibia. Their workday timings are everyday from 11:30 AM - 2:00 AM. Their latitude and longitude are 36.84538736086, 11.088400125578 respectively.
+Myriam Bel Air is a popular hotel located in Kelibia, Tunisia. It offers a comfortable and convenient stay for its guests, with a 4.2-star rating on Google. The hotel has 14 reviews, with an overall positive feedback from its guests. It provides a range of amenities, including comfortable rooms, a swimming pool, and a restaurant. The hotel's website features additional information and booking options, and it is well-connected with major tourist attractions in the area.
+Maison d'hotes / Restaurant L'Hirondelle de Kelibia offers a pleasant stay in a beautiful location just steps from the beach. The hotel features comfortable rooms, a relaxing atmosphere, and welcoming staff. Guests can enjoy delicious meals at the on-site restaurant while admiring the panoramic views of the Mediterranean Sea. With its convenient location and excellent amenities, Maison d'hotes / Restaurant L'Hirondelle de Kelibia is the perfect place for a memorable vacation.
+Dar Meriem - Maison d'hôtes is a guest house located in Kelibia, Tunisia. It offers comfortable accommodation and a warm and welcoming atmosphere. The guest house is perfectly situated for exploring the city and its surroundings, and is close to a variety of amenities. The guest house is managed by a friendly and helpful team of staff who are always on hand to assist guests with any queries or needs.
+Residence Asma is a 4.4-rated residence located in Kelibia, Tunisia. It is a great place to stay for tourists and business travelers alike. The residence offers a variety of amenities, including a swimming pool, a fitness center, and a restaurant. It is also conveniently located near the beach, the city center, and the airport. The residence has 14 reviews, all of which are positive. Guests praise the residence's cleanliness, comfort, and friendly staff.
+Pension Anis is a 4-star family-run guesthouse located in Kelibia, Tunisia. It features a prime location on Av du Dr Mongi Ben Hmida. Guests can enjoy comfortable accommodations with great value. The guesthouse offers a range of amenities to ensure a pleasant stay, including free Wi-Fi, laundry service, and a friendly atmosphere. Its central location provides easy access to local attractions and points of interest.
+The Casa Del Mar Residence is a 4.3-rated guesthouse located in Kelibia, Tunisia. It is situated near the beach and offers a relaxing getaway for guests. The Residence has received positive reviews for its comfortable accommodations and friendly staff.
+Dar Lebharr is a cozy accommodation located in Kelibia, Tunisia. It offers a comfortable stay with a rating of 4.1 out of 5. Situated at 36.835428078688 latitude and 11.091149597327 longitude, it's easily accessible. Contact them at +33 7 81 09 91 78 for bookings or inquiries.
+Luxus Apartements is a 5-star lodge located in Kelibia, Tunisia. It offers a luxurious and comfortable stay for its guests. The lodge is situated near the beach, making it a great place to relax and enjoy the beautiful scenery. Luxus Apartements is also close to many restaurants, shops, and attractions. The lodge's staff is friendly and helpful, and they are always willing to go the extra mile to make sure that their guests have a memorable stay.
+Plage Kelibia, located at (36.84757, 11.09386), offers a picturesque beachfront experience in the city of Kelibia.
+Fort de Kelibia, located in Kelibia, is a historical fortress with an average rating of 4.4 out of 5 based on 460 reviews. It offers a stunning view of the sea, making it a great spot to enjoy the scenery. Visitors can also delve into the history of the fort or simply admire its architectural beauty. With its convenient opening hours from 9:00 AM to 6:00 PM, it's a perfect destination for tourists and history enthusiasts alike.
+Plage kelibia is a popular tourist attraction located in Kelibia, Tunisia. It offers a wide range of activities, including swimming, sunbathing, and windsurfing. The beach is also home to a number of restaurants and cafes.
+The beach is located just a short drive from the city center and is easily accessible by public transportation. The beach is well-maintained and features clear blue waters and soft white sand.
+Plage kelibia is a great place to relax and enjoy the beautiful weather of Tunisia. It is also a great location to enjoy some water sports.
+The Port of Kelibia is a maritime port located in Kelibia, Tunisia. The port offers a variety of services to its customers, including fishing, cargo, and passenger transport. It is also a popular tourist destination, with many visitors coming to enjoy the beautiful scenery and the fresh seafood. The port is located at (36.8351444, 11.1116178).
+Discover the stunning Phare de Kelibia, a captivating viewpoint located at (36.8363146, 11.1113262) in Kelibia, Tunisia. Immerse yourself in the breathtaking panoramic views from the lighthouse's vantage point, making it an ideal spot for photography enthusiasts and nature lovers alike.
+The Institut superieur des etudes technologiques de Kelibia is a higher education institute located in Kelibia, Tunisia. It offers a range of technological programs and has a rating of 4.4 stars. The institute is situated at the coordinates (36.8363146, 11.1113262) and can be contacted by phone at 72 277 090. Its website is http://www.isetkl.rnu.tn/.
+Kelibia is a place located in Kelibia, Tunisia. It has a bike rental service, with a 4.2 rating based on 6 reviews. It is located at coordinates (36.836660524289, 11.111146140921).
+Marbrerie Hafefh Kacem is a popular discotheque located in Kelibia, Tunisia. It has a rating of 4.0 out of 5 on Google Maps and is known for its vibrant atmosphere and lively music. The discotheque is located at (36.8472589, 11.091058) and offers a variety of music genres to cater to different tastes. It is a popular destination for locals and tourists alike, and is a great place to dance the night away.
+El Bahri Restaurant is a seafood restaurant located in Kelibia, Tunisia. It is a popular spot for tourists and locals alike, and it offers a variety of seafood dishes, including fresh fish, grilled octopus, and seafood platters. The restaurant is open 24 hours a day, and it is closed on Tuesdays. The average rating for El Bahri Restaurant is 4.7 stars, and it has received positive reviews for its delicious food, friendly staff, and reasonable prices.
+Del Capo is a 5-star rated pizzeria located in Kelibia, Tunisia. It is situated at the address: 8090 Av. de Martyrs with coordinates (36.842587762817, 11.099081841049). This highly-rated spot operates from 12:00 to 00:00 during the week and offers a delectable range of pizzas.
+Restaurant is a family-friendly restaurant located in Kelibia, Tunisia. It offers a variety of dishes, including traditional Tunisian cuisine and international fare. The restaurant is located at the coordinates (36.8472589, 11.091058) and has a rating of 5.0 out of 5 stars on Google Maps.
+Station Louage Kelibia is a taxi service located in Kelibia, Tunisia (36.84757, 11.09386). With a rating of 3.7 out of 5 based on 28 reviews, it offers reliable transportation services to its customers.
+SRTGN (station Kelibia) is a bus station located in Kelibia, Tunisia. It offers basic amenities and services for travelers, and is conveniently situated at (36.84757, 11.09386).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2730,12 +3832,71 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>If you're in kelibia and looking for a top-rated Cafe, check out Cafe Jeune. This must-visit spot offers a range of Cafe options and has a 5.0 rating. To get there, use these GPS coordinates: 36.8472589, 11.091058. For more details, visit their website: https://www.google.com/maps/place/Caf%C3%A9+Jeune/data=!4m7!3m6!1s0x131d33c1bf9cad75:0x221ae5f90f09014f!8m2!3d36.8451207!4d11.0953247!16s%2Fg%2F11dxdyh5_x!19sChIJda2cv8EzHRMRTwEJD_nlGiI?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Cafe Jeune is a highly-rated (5/5) cafe in Kelibia, Tunisia. Located at coordinates (36.8472589, 11.091058), it is easily accessible and offers a cozy ambiance perfect for enjoying a cup of coffee or tea. The cafe is known for its friendly owner and excellent service, making it a popular spot among locals and visitors alike.</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated Cafe with a 5.0 rating in Kelibia using GPS coordinates 36.8472589, 11.091058?</t>
+          <t>Day Plan:
+Morning: Explore the historical Fort de Kelibia
+Mid-Morning: Enjoy the scenic views from Phare de Kelibia
+Midday: Savor local cuisine at the highly-rated El Bahri Restaurant
+Afternoon: Relax and enjoy the sun at Plage Kelibia
+Evening: Visit the lively Marbrerie Hafefh Kacem discotheque
+Night: Indulge in delicious pizza at Pizzeria LOFT ROMA</t>
+        </is>
+      </c>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Nestled in the heart of Kelibia, Salon de the Mallorca invites you to savor delightful coffee and tea creations in a charming ambiance. Located at R3QX+53H Salon de the Mallorca, Av. de l'environnement, the cafe has earned a commendable 4.3-star rating based on 6 reviews. With its convenient hours and friendly staff, Salon de the Mallorca is the perfect spot to unwind and enjoy a moment of indulgence.
+Located in Kelibia (latitude 36.836660524289, and longitude 11.111146140921), Big Ben is a teahouse offering a pleasant setting to relax and enjoy a break.
+TOGOO FOOD kelibia is a restaurant located in kelibia. Their workday timings are everyday from 11:30 AM - 2:00 AM. Their latitude and longitude are 36.84538736086, 11.088400125578 respectively.
+Kelibia Paradise is a lodging facility located in Kelibia, Tunisia. It has a rating of 4.6 and has received 18 reviews. The facility offers accommodation with a main focus on comfort and relaxation. Its geolocation is at longitude 11.098431810317 and latitude 36.846063992403.
+The Cap-Bon Kelibia Beach Hotel &amp; Spa is a 4-star hotel located in Kelibia, Tunisia. It is a luxury seaside hotel offering comfortable rooms and suites, a spa and 3 refined restaurants. It is known for its beautiful beach, its large swimming pool and its animations.
+Dar Meriem - Maison d'hôtes is a guest house located in Kelibia, Tunisia. It offers comfortable accommodation and a warm and welcoming atmosphere. The guest house is perfectly situated for exploring the city and its surroundings, and is close to a variety of amenities. The guest house is managed by a friendly and helpful team of staff who are always on hand to assist guests with any queries or needs.
+Residence Asma is a 4.4-rated residence located in Kelibia, Tunisia. It is a great place to stay for tourists and business travelers alike. The residence offers a variety of amenities, including a swimming pool, a fitness center, and a restaurant. It is also conveniently located near the beach, the city center, and the airport. The residence has 14 reviews, all of which are positive. Guests praise the residence's cleanliness, comfort, and friendly staff.
+Pension Anis is a 4-star family-run guesthouse located in Kelibia, Tunisia. It features a prime location on Av du Dr Mongi Ben Hmida. Guests can enjoy comfortable accommodations with great value. The guesthouse offers a range of amenities to ensure a pleasant stay, including free Wi-Fi, laundry service, and a friendly atmosphere. Its central location provides easy access to local attractions and points of interest.
+The Casa Del Mar Residence is a 4.3-rated guesthouse located in Kelibia, Tunisia. It is situated near the beach and offers a relaxing getaway for guests. The Residence has received positive reviews for its comfortable accommodations and friendly staff.
+Dar Lebharr is a cozy accommodation located in Kelibia, Tunisia. It offers a comfortable stay with a rating of 4.1 out of 5. Situated at 36.835428078688 latitude and 11.091149597327 longitude, it's easily accessible. Contact them at +33 7 81 09 91 78 for bookings or inquiries.
+Luxus Apartements is a 5-star lodge located in Kelibia, Tunisia. It offers a luxurious and comfortable stay for its guests. The lodge is situated near the beach, making it a great place to relax and enjoy the beautiful scenery. Luxus Apartements is also close to many restaurants, shops, and attractions. The lodge's staff is friendly and helpful, and they are always willing to go the extra mile to make sure that their guests have a memorable stay.
+Plage Kelibia, located at (36.84757, 11.09386), offers a picturesque beachfront experience in the city of Kelibia.
+Fort de Kelibia, located in Kelibia, is a historical fortress with an average rating of 4.4 out of 5 based on 460 reviews. It offers a stunning view of the sea, making it a great spot to enjoy the scenery. Visitors can also delve into the history of the fort or simply admire its architectural beauty. With its convenient opening hours from 9:00 AM to 6:00 PM, it's a perfect destination for tourists and history enthusiasts alike.
+Plage kelibia is a popular tourist attraction located in Kelibia, Tunisia. It offers a wide range of activities, including swimming, sunbathing, and windsurfing. The beach is also home to a number of restaurants and cafes.
+The beach is located just a short drive from the city center and is easily accessible by public transportation. The beach is well-maintained and features clear blue waters and soft white sand.
+Plage kelibia is a great place to relax and enjoy the beautiful weather of Tunisia. It is also a great location to enjoy some water sports.
+The Port of Kelibia is a maritime port located in Kelibia, Tunisia. The port offers a variety of services to its customers, including fishing, cargo, and passenger transport. It is also a popular tourist destination, with many visitors coming to enjoy the beautiful scenery and the fresh seafood. The port is located at (36.8351444, 11.1116178).
+Discover the stunning Phare de Kelibia, a captivating viewpoint located at (36.8363146, 11.1113262) in Kelibia, Tunisia. Immerse yourself in the breathtaking panoramic views from the lighthouse's vantage point, making it an ideal spot for photography enthusiasts and nature lovers alike.
+The Institut superieur des etudes technologiques de Kelibia is a higher education institute located in Kelibia, Tunisia. It offers a range of technological programs and has a rating of 4.4 stars. The institute is situated at the coordinates (36.8363146, 11.1113262) and can be contacted by phone at 72 277 090. Its website is http://www.isetkl.rnu.tn/.
+Kelibia is a place located in Kelibia, Tunisia. It has a bike rental service, with a 4.2 rating based on 6 reviews. It is located at coordinates (36.836660524289, 11.111146140921).
+Marbrerie Hafefh Kacem is a popular discotheque located in Kelibia, Tunisia. It has a rating of 4.0 out of 5 on Google Maps and is known for its vibrant atmosphere and lively music. The discotheque is located at (36.8472589, 11.091058) and offers a variety of music genres to cater to different tastes. It is a popular destination for locals and tourists alike, and is a great place to dance the night away.
+El Bahri Restaurant is a seafood restaurant located in Kelibia, Tunisia. It is a popular spot for tourists and locals alike, and it offers a variety of seafood dishes, including fresh fish, grilled octopus, and seafood platters. The restaurant is open 24 hours a day, and it is closed on Tuesdays. The average rating for El Bahri Restaurant is 4.7 stars, and it has received positive reviews for its delicious food, friendly staff, and reasonable prices.
+Pizzeria LOFT ROMA is a 4.2-rated pizzeria located in kelibia, Tunisia. It operates from 08:00 to 00:00 every day and offers a wide range of pizzas. Its exact location is at R3VW+83Q Rue de Tripoli, Kelibia, Tunisia.
+Restaurant is a family-friendly restaurant located in Kelibia, Tunisia. It offers a variety of dishes, including traditional Tunisian cuisine and international fare. The restaurant is located at the coordinates (36.8472589, 11.091058) and has a rating of 5.0 out of 5 stars on Google Maps.
+Station Louage Kelibia is a taxi service located in Kelibia, Tunisia (36.84757, 11.09386). With a rating of 3.7 out of 5 based on 28 reviews, it offers reliable transportation services to its customers.
+SRTGN's station is located in Kelibia, Tunisia. It offers bus services to various destinations. The station is located at the coordinates (36.84757, 11.09386).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2837,12 +3998,71 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>If you're in kelibia and looking for a top-rated Cafe, visit CAFE DALY located at CAFE DALY, C27, Kelibia. With a 4.5 rating and open 24 hours a day, it's a must-visit for Cafe lovers. For more details, visit their website at https://www.google.com/maps/place/CAFE+DALY/data=!4m7!3m6!1s0x131d335666692427:0x6cb50273752a3bc!8m2!3d36.860596!4d11.0901127!16s%2Fg%2F11n5lbb6z6!19sChIJJyRpZlYzHRMRvKNSNydQywY?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>CAFE DALY is a cafe located in Kelibia, Tunisia. It has a 4.5-star rating on Google and is open 24 hours a day. The cafe offers a variety of food and drinks, including coffee, tea, sandwiches, and pastries. CAFE DALY is located at 36.8472589, 11.091058.</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>Where in Kelibia can you find a top-rated Cafe open 24 hours a day?</t>
+          <t>Day Plan:
+Morning: Explore Plage Kelibia, enjoying the clear waters and soft white sand.
+Mid-Morning: Visit the Cap-Bon Kelibia Beach Hotel &amp; Spa for a relaxing swim and sunbathing session.
+Midday: Try local cuisine at El Bahri Restaurant, indulging in fresh seafood delicacies.
+Afternoon: Take a guided tour of Fort de Kelibia, immersing yourself in its historical significance.
+Evening: Engage in outdoor activities like biking or windsurfing at Plage Kelibia, embracing the coastal breeze.
+Night: Enjoy scenic views at Phare de Kelibia, capturing the breathtaking panoramic vistas.</t>
+        </is>
+      </c>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Located in the heart of Kelibia, Tunisia (36.847461866537, 11.083275342698), Cafe Farabi is a popular spot for locals and tourists alike. Serving delicious coffee, pastries, and a variety of snacks, the cafe offers a cozy and inviting atmosphere. With a rating of 4.6 stars and numerous positive reviews, Cafe Farabi is highly recommended for anyone seeking a great cup of coffee and a relaxing ambiance.
+Hannibal coffee kelibia is a tea room located in kelibia, Tunisia. It offers a variety of teas, coffees, and pastries. The tea room is located at 36.8363146, 11.1113262.
+**mT'm mshw~ lmrshy Resterant Machwa Almarch** is a restaurant located in Kelibia, Tunisia. It is known for its delicious food and friendly service. The restaurant is open from 11am to midnight every day of the week, and offers a variety of dishes including traditional Tunisian cuisine, as well as international dishes. mT'm mshw~ lmrshy Resterant Machwa Almarch is located at R3WV+3VJ mT'm mshw~ lmrshy Resterant Machwa Almarch, Kelibia, Tunisia.
+Kelibia Paradise is a lodging facility located in Kelibia, Tunisia. It has a rating of 4.6 and has received 18 reviews. The facility offers accommodation with a main focus on comfort and relaxation. Its geolocation is at longitude 11.098431810317 and latitude 36.846063992403.
+The Cap-Bon Kelibia Beach Hotel &amp; Spa is a 4-star hotel located in Kelibia, Tunisia. It is a luxury seaside hotel offering comfortable rooms and suites, a spa and 3 refined restaurants. It is known for its beautiful beach, its large swimming pool and its animations.
+Dar Meriem - Maison d'hôtes is a guest house located in Kelibia, Tunisia. It offers comfortable accommodation and a warm and welcoming atmosphere. The guest house is perfectly situated for exploring the city and its surroundings, and is close to a variety of amenities. The guest house is managed by a friendly and helpful team of staff who are always on hand to assist guests with any queries or needs.
+Residence Asma is a 4.4-rated residence located in Kelibia, Tunisia. It is a great place to stay for tourists and business travelers alike. The residence offers a variety of amenities, including a swimming pool, a fitness center, and a restaurant. It is also conveniently located near the beach, the city center, and the airport. The residence has 14 reviews, all of which are positive. Guests praise the residence's cleanliness, comfort, and friendly staff.
+Pension Anis is a 4-star family-run guesthouse located in Kelibia, Tunisia. It features a prime location on Av du Dr Mongi Ben Hmida. Guests can enjoy comfortable accommodations with great value. The guesthouse offers a range of amenities to ensure a pleasant stay, including free Wi-Fi, laundry service, and a friendly atmosphere. Its central location provides easy access to local attractions and points of interest.
+The Casa Del Mar Residence is a 4.3-rated guesthouse located in Kelibia, Tunisia. It is situated near the beach and offers a relaxing getaway for guests. The Residence has received positive reviews for its comfortable accommodations and friendly staff.
+Dar Lebharr is a cozy accommodation located in Kelibia, Tunisia. It offers a comfortable stay with a rating of 4.1 out of 5. Situated at 36.835428078688 latitude and 11.091149597327 longitude, it's easily accessible. Contact them at +33 7 81 09 91 78 for bookings or inquiries.
+Luxus Apartements is a 5-star lodge located in Kelibia, Tunisia at (36.835428078688, 11.091149597327). It has a rating of 5.0 based on 1 review and is owned by Luxus Apartements (proprietaire). Luxus Apartements offers a variety of amenities and services, making it the perfect place to stay for both business and leisure travelers.
+Plage Kelibia, located at (36.84757, 11.09386), offers a picturesque beachfront experience in the city of Kelibia.
+Fort de Kelibia, located in Kelibia, is a historical fortress with an average rating of 4.4 out of 5 based on 460 reviews. It offers a stunning view of the sea, making it a great spot to enjoy the scenery. Visitors can also delve into the history of the fort or simply admire its architectural beauty. With its convenient opening hours from 9:00 AM to 6:00 PM, it's a perfect destination for tourists and history enthusiasts alike.
+Plage kelibia is a popular tourist attraction located in Kelibia, Tunisia. It offers a wide range of activities, including swimming, sunbathing, and windsurfing. The beach is also home to a number of restaurants and cafes.
+The beach is located just a short drive from the city center and is easily accessible by public transportation. The beach is well-maintained and features clear blue waters and soft white sand.
+Plage kelibia is a great place to relax and enjoy the beautiful weather of Tunisia. It is also a great location to enjoy some water sports.
+The Port of Kelibia is a maritime port located in Kelibia, Tunisia. The port offers a variety of services to its customers, including fishing, cargo, and passenger transport. It is also a popular tourist destination, with many visitors coming to enjoy the beautiful scenery and the fresh seafood. The port is located at (36.8351444, 11.1116178).
+Discover the stunning Phare de Kelibia, a captivating viewpoint located at (36.8363146, 11.1113262) in Kelibia, Tunisia. Immerse yourself in the breathtaking panoramic views from the lighthouse's vantage point, making it an ideal spot for photography enthusiasts and nature lovers alike.
+The Institut superieur des etudes technologiques de Kelibia is a higher education institute located in Kelibia, Tunisia. It offers a range of technological programs and has a rating of 4.4 stars. The institute is situated at the coordinates (36.8363146, 11.1113262) and can be contacted by phone at 72 277 090. Its website is http://www.isetkl.rnu.tn/.
+Kelibia is a place located in Kelibia, Tunisia. It has a bike rental service, with a 4.2 rating based on 6 reviews. It is located at coordinates (36.836660524289, 11.111146140921).
+Marbrerie Hafefh Kacem is a popular discotheque located in Kelibia, Tunisia. It has a rating of 4.0 out of 5 on Google Maps and is known for its vibrant atmosphere and lively music. The discotheque is located at (36.8472589, 11.091058) and offers a variety of music genres to cater to different tastes. It is a popular destination for locals and tourists alike, and is a great place to dance the night away.
+El Bahri Restaurant is a seafood restaurant located in Kelibia, Tunisia. It is a popular spot for tourists and locals alike, and it offers a variety of seafood dishes, including fresh fish, grilled octopus, and seafood platters. The restaurant is open 24 hours a day, and it is closed on Tuesdays. The average rating for El Bahri Restaurant is 4.7 stars, and it has received positive reviews for its delicious food, friendly staff, and reasonable prices.
+"La Luna", a 4-star Pizzeria, located in Kelibia, Tunisia. It's reachable by phone and has a website. It's open daily from 08:00-22:00, and its coordinates are (36.8472589, 11.091058).
+Restaurant is a family-friendly restaurant located in Kelibia, Tunisia. It offers a variety of dishes, including traditional Tunisian cuisine and international fare. The restaurant is located at the coordinates (36.8472589, 11.091058) and has a rating of 5.0 out of 5 stars on Google Maps.
+Station Louage Kelibia is a taxi service located in Kelibia, Tunisia (36.84757, 11.09386). With a rating of 3.7 out of 5 based on 28 reviews, it offers reliable transportation services to its customers.
+SRTGN's station is located in Kelibia, Tunisia. It offers bus services to various destinations. The station is located at the coordinates (36.84757, 11.09386).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2940,12 +4160,69 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>If you're in kelibia and looking for a great cafe, check out Cafe Maestro located at R4Q2+VH9 Cafe Maestro, Kelibia. This top-rated cafe is perfect for cafe lovers and offers a range of cafe options to choose from. With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.8472589, 11.091058. For more details, visit their website at</t>
+          <t>Café Maestro, a cozy cafe located in Kelibia (coordinates: 36.8472589, 11.091058), invites patrons to indulge in a delightful culinary experience. With a rating of 4.0, this establishment is renowned for its welcoming ambiance and delectable offerings.</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>Where in Kelibia can you find the top-rated Cafe Maestro, known for its café options and must-visit atmosphere?</t>
+          <t>Day Plan:
+Morning: Exploring Fort de Kelibia
+Mid-Morning: Trying local cuisine at Restaurant Beb Bhar
+Midday: Relaxing with a swim at Plage Kelibia
+Afternoon: Enjoying scenic views at Phare de Kelibia
+Evening: Participating in a guided tour of Institut superieur des etudes technologiques de Kelibia
+Night: Experiencing cultural immersion at Marbrerie Hafefh Kacem</t>
+        </is>
+      </c>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Jeune is a highly-rated (5/5) cafe in Kelibia, Tunisia. Located at coordinates (36.8472589, 11.091058), it is easily accessible and offers a cozy ambiance perfect for enjoying a cup of coffee or tea. The cafe is known for its friendly owner and excellent service, making it a popular spot among locals and visitors alike.
+Hannibal coffee kelibia is a tea room located in kelibia, Tunisia. It offers a variety of teas, coffees, and pastries. The tea room is located at 36.8363146, 11.1113262.
+Restaurant Beb Bhar is a local restaurant located in Kelibia, Tunisia. It is rated 4.1 out of 5 stars on Google and has received 14 reviews. The restaurant offers a variety of dishes, including traditional Tunisian cuisine and international favorites. The restaurant is open from 9:00am to 12:00am every day of the week.
+Myriam Bel Air is a popular hotel located in Kelibia, Tunisia. It offers a comfortable and convenient stay for its guests, with a 4.2-star rating on Google. The hotel has 14 reviews, with an overall positive feedback from its guests. It provides a range of amenities, including comfortable rooms, a swimming pool, and a restaurant. The hotel's website features additional information and booking options, and it is well-connected with major tourist attractions in the area.
+The Cap-Bon Kelibia Beach Hotel &amp; Spa is a 4-star hotel located in Kelibia, Tunisia. It is a luxury seaside hotel offering comfortable rooms and suites, a spa and 3 refined restaurants. It is known for its beautiful beach, its large swimming pool and its animations.
+DAR COLIBRI, a 4.6-rated guesthouse located in Kelibia (36.8363146, 11.1113262), offers a unique stay in a charming setting. It features a swimming pool, hammam, and massage services, promising a relaxing and rejuvenating experience. With its proximity to the beautiful beaches of Kelibia, this guesthouse is an ideal base for exploring the region's natural wonders.
+Residence Asma is a 4.4-rated residence located in Kelibia, Tunisia. It is a great place to stay for tourists and business travelers alike. The residence offers a variety of amenities, including a swimming pool, a fitness center, and a restaurant. It is also conveniently located near the beach, the city center, and the airport. The residence has 14 reviews, all of which are positive. Guests praise the residence's cleanliness, comfort, and friendly staff.
+Pension Anis is a 4-star family-run guesthouse located in Kelibia, Tunisia. It features a prime location on Av du Dr Mongi Ben Hmida. Guests can enjoy comfortable accommodations with great value. The guesthouse offers a range of amenities to ensure a pleasant stay, including free Wi-Fi, laundry service, and a friendly atmosphere. Its central location provides easy access to local attractions and points of interest.
+The Casa Del Mar Residence is a 4.3-rated guesthouse located in Kelibia, Tunisia. It is situated near the beach and offers a relaxing getaway for guests. The Residence has received positive reviews for its comfortable accommodations and friendly staff.
+Dar Lebharr is a cozy accommodation located in Kelibia, Tunisia. It offers a comfortable stay with a rating of 4.1 out of 5. Situated at 36.835428078688 latitude and 11.091149597327 longitude, it's easily accessible. Contact them at +33 7 81 09 91 78 for bookings or inquiries.
+Luxus Apartements is a 5-star lodge located in Kelibia, Tunisia. It offers a luxurious and comfortable stay for its guests. The lodge is situated near the beach, making it a great place to relax and enjoy the beautiful scenery. Luxus Apartements is also close to many restaurants, shops, and attractions. The lodge's staff is friendly and helpful, and they are always willing to go the extra mile to make sure that their guests have a memorable stay.
+Plage Kelibia, located at (36.84757, 11.09386), offers a picturesque beachfront experience in the city of Kelibia.
+Fort de Kelibia, located in Kelibia, is a historical fortress with an average rating of 4.4 out of 5 based on 460 reviews. It offers a stunning view of the sea, making it a great spot to enjoy the scenery. Visitors can also delve into the history of the fort or simply admire its architectural beauty. With its convenient opening hours from 9:00 AM to 6:00 PM, it's a perfect destination for tourists and history enthusiasts alike.
+Plage Kelibia is a tourist attraction located at the coordinates (36.84757, 11.09386) in Kelibia, Tunisia. With a rating of 4.6 based on 37 reviews, it is a popular destination for tourists. The beach offers a range of activities and amenities, including swimming, sunbathing, and beach volleyball. It is also home to a number of restaurants and cafes, making it a great place to relax and enjoy the scenery.
+The Port of Kelibia is a maritime port located in Kelibia, Tunisia. The port offers a variety of services to its customers, including fishing, cargo, and passenger transport. It is also a popular tourist destination, with many visitors coming to enjoy the beautiful scenery and the fresh seafood. The port is located at (36.8351444, 11.1116178).
+Discover the stunning Phare de Kelibia, a captivating viewpoint located at (36.8363146, 11.1113262) in Kelibia, Tunisia. Immerse yourself in the breathtaking panoramic views from the lighthouse's vantage point, making it an ideal spot for photography enthusiasts and nature lovers alike.
+The Institut superieur des etudes technologiques de Kelibia is a higher education institute located in Kelibia, Tunisia. It offers a range of technological programs and has a rating of 4.4 stars. The institute is situated at the coordinates (36.8363146, 11.1113262) and can be contacted by phone at 72 277 090. Its website is http://www.isetkl.rnu.tn/.
+Kelibia is a place located in Kelibia, Tunisia. It has a bike rental service, with a 4.2 rating based on 6 reviews. It is located at coordinates (36.836660524289, 11.111146140921).
+Marbrerie Hafefh Kacem is a popular discotheque located in Kelibia, Tunisia. It has a rating of 4.0 out of 5 on Google Maps and is known for its vibrant atmosphere and lively music. The discotheque is located at (36.8472589, 11.091058) and offers a variety of music genres to cater to different tastes. It is a popular destination for locals and tourists alike, and is a great place to dance the night away.
+El Bahri Restaurant is a seafood restaurant located in Kelibia, Tunisia. It is a popular spot for tourists and locals alike, and it offers a variety of seafood dishes, including fresh fish, grilled octopus, and seafood platters. The restaurant is open 24 hours a day, and it is closed on Tuesdays. The average rating for El Bahri Restaurant is 4.7 stars, and it has received positive reviews for its delicious food, friendly staff, and reasonable prices.
+Del Capo is a 5-star rated pizzeria located in Kelibia, Tunisia. It is situated at the address: 8090 Av. de Martyrs with coordinates (36.842587762817, 11.099081841049). This highly-rated spot operates from 12:00 to 00:00 during the week and offers a delectable range of pizzas.
+Restaurant is a family-friendly restaurant located in Kelibia, Tunisia. It offers a variety of dishes, including traditional Tunisian cuisine and international fare. The restaurant is located at the coordinates (36.8472589, 11.091058) and has a rating of 5.0 out of 5 stars on Google Maps.
+Station Louage Kelibia is a taxi service located in Kelibia, Tunisia (36.84757, 11.09386). With a rating of 3.7 out of 5 based on 28 reviews, it offers reliable transportation services to its customers.
+SRTGN's station is located in Kelibia, Tunisia. It offers bus services to various destinations. The station is located at the coordinates (36.84757, 11.09386).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3043,12 +4320,77 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>If you're in Kelibia and looking for a great cafe, check out Cafe'in located at R3XX+G4Q. This top-rated destination is perfect for cafe lovers. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.8472589, 11.091058. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9%27in/data=!4m7!3m6!1s0x131d339fe520434b:0x6e22e064a9a0ed43!8m2!3d36.8486637!4d11.0979268!16s%2Fg%2F11sytz6fqg!19sChIJS0Mg5Z8zHRMRQ-2gqWTgIm4?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Cafe'in is a cafe located in kelibia, Tunisia. It is rated 5.0/5 based on 1 reviews, and it is known for its coffee, desserts, and ambiance. Cafe'in is located at 36.8472589, 11.091058.</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated cafe with GPS coordinates in Kelibia?</t>
+          <t>Day Plan:
+Morning:
+- Explore the historic Fort de Kelibia for stunning views and insight into the region's past.
+Mid-Morning:
+- Try local cuisine at El Bahri Restaurant, known for its fresh seafood and warm ambiance.
+Midday:
+- Visit the Phare de Kelibia for breathtaking panoramic vistas and capture some memorable photos.
+Afternoon:
+- Enjoy the sun and sea at Plage Kelibia, a popular spot for swimming, sunbathing, and windsurfing.
+Evening:
+- Indulge in a relaxing massage or treatment at DAR COLIBRI, a highly-rated guesthouse offering a serene atmosphere.
+Night:
+- Engage in a memorable dining experience at Del Capo, a 5-star pizzeria serving delectable pizzas in a cozy setting.</t>
+        </is>
+      </c>
+      <c r="AB24" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Coffee King Kelibia, located in the bustling town of Kelibia, is a haven for coffee enthusiasts. With a cozy and inviting atmosphere, the cafe is the perfect spot to unwind and savor a cup of freshly brewed coffee. Its convenient location and high ratings make it a must-visit destination for locals and tourists alike.
+Located in Kelibia (latitude 36.836660524289, and longitude 11.111146140921), Big Ben is a teahouse offering a pleasant setting to relax and enjoy a break.
+TOGOO FOOD kelibia is a restaurant located in kelibia. Their workday timings are everyday from 11:30 AM - 2:00 AM. Their latitude and longitude are 36.84538736086, 11.088400125578 respectively.
+Kelibia Paradise is a popular accommodation option in Kelibia, Tunisia. It is located at 47 Rue d'orange Cite Ezzouhour, 8090, Kelibia, and offers a range of amenities to its guests. These include a restaurant, bar, and swimming pool, as well as free Wi-Fi and parking. The hotel is situated within easy reach of the beach and other local attractions, making it an ideal base for exploring the area.
+The Cap-Bon Kelibia Beach Hotel &amp; Spa is a 4-star hotel located in Kelibia, Tunisia. It is a luxury seaside hotel offering comfortable rooms and suites, a spa and 3 refined restaurants. It is known for its beautiful beach, its large swimming pool and its animations.
+DAR COLIBRI, a 4.6-rated guesthouse located in Kelibia (36.8363146, 11.1113262), offers a unique stay in a charming setting. It features a swimming pool, hammam, and massage services, promising a relaxing and rejuvenating experience. With its proximity to the beautiful beaches of Kelibia, this guesthouse is an ideal base for exploring the region's natural wonders.
+Residence Asma is a 4.4-rated residence located in Kelibia, Tunisia. It is a great place to stay for tourists and business travelers alike. The residence offers a variety of amenities, including a swimming pool, a fitness center, and a restaurant. It is also conveniently located near the beach, the city center, and the airport. The residence has 14 reviews, all of which are positive. Guests praise the residence's cleanliness, comfort, and friendly staff.
+Pension Anis is a 4-star family-run guesthouse located in Kelibia, Tunisia. It features a prime location on Av du Dr Mongi Ben Hmida. Guests can enjoy comfortable accommodations with great value. The guesthouse offers a range of amenities to ensure a pleasant stay, including free Wi-Fi, laundry service, and a friendly atmosphere. Its central location provides easy access to local attractions and points of interest.
+The Casa Del Mar Residence is a 4.3-rated guesthouse located in Kelibia, Tunisia. It is situated near the beach and offers a relaxing getaway for guests. The Residence has received positive reviews for its comfortable accommodations and friendly staff.
+Dar Lebharr is a cozy accommodation located in Kelibia, Tunisia. It offers a comfortable stay with a rating of 4.1 out of 5. Situated at 36.835428078688 latitude and 11.091149597327 longitude, it's easily accessible. Contact them at +33 7 81 09 91 78 for bookings or inquiries.
+Luxus Apartements is a 5-star lodge located in Kelibia, Tunisia. It offers a luxurious and comfortable stay for its guests. The lodge is situated near the beach, making it a great place to relax and enjoy the beautiful scenery. Luxus Apartements is also close to many restaurants, shops, and attractions. The lodge's staff is friendly and helpful, and they are always willing to go the extra mile to make sure that their guests have a memorable stay.
+Plage Kelibia, located at (36.84757, 11.09386), offers a picturesque beachfront experience in the city of Kelibia.
+Fort de Kelibia is a historical fortress located in Kelibia, Tunisia. It offers stunning views of the Mediterranean Sea and the port. The castle boasts a rich history and architectural significance. Visitors can explore the castle's ramparts, towers, and courtyards, and delve into the region's captivating past. With a 4.4-star rating, the fort is a popular destination for tourists and history enthusiasts alike. Its strategic location makes it a great spot to capture panoramic shots of the surrounding area.
+Plage kelibia is a popular tourist attraction located in Kelibia, Tunisia. It offers a wide range of activities, including swimming, sunbathing, and windsurfing. The beach is also home to a number of restaurants and cafes.
+The beach is located just a short drive from the city center and is easily accessible by public transportation. The beach is well-maintained and features clear blue waters and soft white sand.
+Plage kelibia is a great place to relax and enjoy the beautiful weather of Tunisia. It is also a great location to enjoy some water sports.
+The Port of Kelibia is a maritime port located in Kelibia, Tunisia. The port offers a variety of services to its customers, including fishing, cargo, and passenger transport. It is also a popular tourist destination, with many visitors coming to enjoy the beautiful scenery and the fresh seafood. The port is located at (36.8351444, 11.1116178).
+Discover the stunning Phare de Kelibia, a captivating viewpoint located at (36.8363146, 11.1113262) in Kelibia, Tunisia. Immerse yourself in the breathtaking panoramic views from the lighthouse's vantage point, making it an ideal spot for photography enthusiasts and nature lovers alike.
+The Institut superieur des etudes technologiques de Kelibia is a higher education institute located in Kelibia, Tunisia. It offers a range of technological programs and has a rating of 4.4 stars. The institute is situated at the coordinates (36.8363146, 11.1113262) and can be contacted by phone at 72 277 090. Its website is http://www.isetkl.rnu.tn/.
+Kelibia is a place located in Kelibia, Tunisia. It has a bike rental service, with a 4.2 rating based on 6 reviews. It is located at coordinates (36.836660524289, 11.111146140921).
+Marbrerie Hafefh Kacem is a popular discotheque located in Kelibia, Tunisia. It has a rating of 4.0 out of 5 on Google Maps and is known for its vibrant atmosphere and lively music. The discotheque is located at (36.8472589, 11.091058) and offers a variety of music genres to cater to different tastes. It is a popular destination for locals and tourists alike, and is a great place to dance the night away.
+El Bahri Restaurant is a seafood restaurant located in Kelibia, Tunisia. It is a popular spot for tourists and locals alike, and it offers a variety of seafood dishes, including fresh fish, grilled octopus, and seafood platters. The restaurant is open 24 hours a day, and it is closed on Tuesdays. The average rating for El Bahri Restaurant is 4.7 stars, and it has received positive reviews for its delicious food, friendly staff, and reasonable prices.
+Del Capo is a 5-star rated pizzeria located in Kelibia, Tunisia. It is situated at the address: 8090 Av. de Martyrs with coordinates (36.842587762817, 11.099081841049). This highly-rated spot operates from 12:00 to 00:00 during the week and offers a delectable range of pizzas.
+Restaurant is a family-friendly restaurant located in Kelibia, Tunisia. It offers a variety of dishes, including traditional Tunisian cuisine and international fare. The restaurant is located at the coordinates (36.8472589, 11.091058) and has a rating of 5.0 out of 5 stars on Google Maps.
+Station Louage Kelibia is a taxi service located in Kelibia, Tunisia (36.84757, 11.09386). With a rating of 3.7 out of 5 based on 28 reviews, it offers reliable transportation services to its customers.
+SRTGN's station is located in Kelibia, Tunisia. It offers bus services to various destinations. The station is located at the coordinates (36.84757, 11.09386).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3150,16 +4492,11 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>If you're in kelibia and looking for something fun to do, check out Coffee king kelibia at 8090 Av. de Martyrs, Kelibia. 
-This top-rated destination is perfect for Cafe lovers. 
-With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.836660524289, 11.111146140921. For more details, visit their website at https://www.google.com/maps/place/Coffee+king+kelibia/data=!4m7!3m6!1s0x131d3300d0c4a5f7:0x3862ae2ec0676737!8m2!3d36.8475925!4d11.0918502!16s%2Fg%2F11m9gh5cll!19sChIJ96XE0AAzHRMRN2dnwC6uYjg?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 20 280 170.</t>
-        </is>
-      </c>
-      <c r="AA25" t="inlineStr">
-        <is>
-          <t>Where in Kelibia can you find a top-rated destination perfect for cafe lovers, known for its impressive 5.0 rating?</t>
-        </is>
-      </c>
+          <t>Coffee King Kelibia, located in the bustling town of Kelibia, is a haven for coffee enthusiasts. With a cozy and inviting atmosphere, the cafe is the perfect spot to unwind and savor a cup of freshly brewed coffee. Its convenient location and high ratings make it a must-visit destination for locals and tourists alike.</t>
+        </is>
+      </c>
+      <c r="AA25" t="inlineStr"/>
+      <c r="AB25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -3263,14 +4600,71 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>If you're in kelibia and looking for a top-rated Cafe, check out Buvette el Mansoura located at Buvette el Mansoura, Mansoura plage. 
-This Cafe destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 09:00-00:00. To get there, use these GPS coordinates: 31.040723, 31.3824668. For more details, call them at 50 921 781.</t>
+          <t>Buvette el Mansoura is a Cafe located in Kelibia, Tunisia. It offers a wide range of drinks and snacks in a relaxed and friendly atmosphere. The cafe is conveniently located near the beach, making it a great place to relax and enjoy the views.</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>What highly-rated Cafe near Kelibia is a must-visit spot for Cafe enthusiasts?</t>
+          <t>Day Plan:
+Morning: Explore Fort de Kelibia for stunning sea views and historical significance.
+Mid-Morning: Visit the Institut superieur des etudes technologiques de Kelibia to learn about technological advancements and research.
+Midday: Try local cuisine at El Bahri Restaurant, known for its exceptional seafood dishes and convivial atmosphere.
+Afternoon: Enjoy recreational activities at Plage Kelibia, such as swimming, sunbathing, or windsurfing.
+Evening: Engage in cultural immersion at the Port of Kelibia, where you can observe fishing, cargo, and passenger transport activities.
+Night: Relax and rejuvenate with a visit to Dar Lebharr for comfortable accommodations and a cozy ambiance.</t>
+        </is>
+      </c>
+      <c r="AB26" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Story coffee kelibia is a popular cafe in kelibia, located at the coordinates (36.848013989197, 11.098336416111). Open 24 hours a day, it offers a welcoming atmosphere with a rating of 5.0 based on 4 reviews.
+Hannibal coffee kelibia is a tea room located in kelibia, Tunisia. It offers a variety of teas, coffees, and pastries. The tea room is located at 36.8363146, 11.1113262.
+TOGOO FOOD kelibia is a restaurant located in kelibia. Their workday timings are everyday from 11:30 AM - 2:00 AM. Their latitude and longitude are 36.84538736086, 11.088400125578 respectively.
+Kelibia Paradise is a popular accommodation option in Kelibia, Tunisia. It is located at 47 Rue d'orange Cite Ezzouhour, 8090, Kelibia, and offers a range of amenities to its guests. These include a restaurant, bar, and swimming pool, as well as free Wi-Fi and parking. The hotel is situated within easy reach of the beach and other local attractions, making it an ideal base for exploring the area.
+Nestled in the picturesque Kelibia region, Cap-Bon Kelibia Beach Hotel &amp; Spa is an upscale resort offering 562 warmly designed rooms and suites. With its stunning beachfront location and serene ambiance, the hotel is an ideal destination for leisure and relaxation. It features an array of amenities, including a rejuvenating spa, three refined dining options, and an inviting swimming pool, ensuring an unforgettable stay in the heart of Kelibia.
+Dar Meriem - Maison d'hôtes is a guest house located in Kelibia, Tunisia. It offers comfortable accommodation and a warm and welcoming atmosphere. The guest house is perfectly situated for exploring the city and its surroundings, and is close to a variety of amenities. The guest house is managed by a friendly and helpful team of staff who are always on hand to assist guests with any queries or needs.
+Residence Asma is a 4.4-rated residence located in Kelibia, Tunisia. It is a great place to stay for tourists and business travelers alike. The residence offers a variety of amenities, including a swimming pool, a fitness center, and a restaurant. It is also conveniently located near the beach, the city center, and the airport. The residence has 14 reviews, all of which are positive. Guests praise the residence's cleanliness, comfort, and friendly staff.
+Pension Anis is a 4-star family-run guesthouse located in Kelibia, Tunisia. It features a prime location on Av du Dr Mongi Ben Hmida. Guests can enjoy comfortable accommodations with great value. The guesthouse offers a range of amenities to ensure a pleasant stay, including free Wi-Fi, laundry service, and a friendly atmosphere. Its central location provides easy access to local attractions and points of interest.
+The Casa Del Mar Residence is a 4.3-rated guesthouse located in Kelibia, Tunisia. It is situated near the beach and offers a relaxing getaway for guests. The Residence has received positive reviews for its comfortable accommodations and friendly staff.
+Dar Lebharr is a cozy accommodation located in Kelibia, Tunisia. It offers a comfortable stay with a rating of 4.1 out of 5. Situated at 36.835428078688 latitude and 11.091149597327 longitude, it's easily accessible. Contact them at +33 7 81 09 91 78 for bookings or inquiries.
+Luxus Apartements is a 5-star lodge located in Kelibia, Tunisia. It offers a luxurious and comfortable stay for its guests. The lodge is situated near the beach, making it a great place to relax and enjoy the beautiful scenery. Luxus Apartements is also close to many restaurants, shops, and attractions. The lodge's staff is friendly and helpful, and they are always willing to go the extra mile to make sure that their guests have a memorable stay.
+Plage Kelibia, located at (36.84757, 11.09386), offers a picturesque beachfront experience in the city of Kelibia.
+Fort de Kelibia, located in Kelibia, is a historical fortress with an average rating of 4.4 out of 5 based on 460 reviews. It offers a stunning view of the sea, making it a great spot to enjoy the scenery. Visitors can also delve into the history of the fort or simply admire its architectural beauty. With its convenient opening hours from 9:00 AM to 6:00 PM, it's a perfect destination for tourists and history enthusiasts alike.
+Plage kelibia is a popular tourist attraction located in Kelibia, Tunisia. It offers a wide range of activities, including swimming, sunbathing, and windsurfing. The beach is also home to a number of restaurants and cafes.
+The beach is located just a short drive from the city center and is easily accessible by public transportation. The beach is well-maintained and features clear blue waters and soft white sand.
+Plage kelibia is a great place to relax and enjoy the beautiful weather of Tunisia. It is also a great location to enjoy some water sports.
+The Port of Kelibia is a maritime port located in Kelibia, Tunisia. The port offers a variety of services to its customers, including fishing, cargo, and passenger transport. It is also a popular tourist destination, with many visitors coming to enjoy the beautiful scenery and the fresh seafood. The port is located at (36.8351444, 11.1116178).
+Discover the stunning Phare de Kelibia, a captivating viewpoint located at (36.8363146, 11.1113262) in Kelibia, Tunisia. Immerse yourself in the breathtaking panoramic views from the lighthouse's vantage point, making it an ideal spot for photography enthusiasts and nature lovers alike.
+The Institut superieur des etudes technologiques de Kelibia is a higher education institute located in Kelibia, Tunisia. It offers a range of technological programs and has a rating of 4.4 stars. The institute is situated at the coordinates (36.8363146, 11.1113262) and can be contacted by phone at 72 277 090. Its website is http://www.isetkl.rnu.tn/.
+Kelibia is a place located in Kelibia, Tunisia. It has a bike rental service, with a 4.2 rating based on 6 reviews. It is located at coordinates (36.836660524289, 11.111146140921).
+Marbrerie Hafefh Kacem is a popular discotheque located in Kelibia, Tunisia. It has a rating of 4.0 out of 5 on Google Maps and is known for its vibrant atmosphere and lively music. The discotheque is located at (36.8472589, 11.091058) and offers a variety of music genres to cater to different tastes. It is a popular destination for locals and tourists alike, and is a great place to dance the night away.
+El Bahri Restaurant is a seafood restaurant located in Kelibia, Tunisia. It is a popular spot for tourists and locals alike, and it offers a variety of seafood dishes, including fresh fish, grilled octopus, and seafood platters. The restaurant is open 24 hours a day, and it is closed on Tuesdays. The average rating for El Bahri Restaurant is 4.7 stars, and it has received positive reviews for its delicious food, friendly staff, and reasonable prices.
+Del Capo is a 5-star rated pizzeria located in Kelibia, Tunisia. It is situated at the address: 8090 Av. de Martyrs with coordinates (36.842587762817, 11.099081841049). This highly-rated spot operates from 12:00 to 00:00 during the week and offers a delectable range of pizzas.
+Restaurant is a family-friendly restaurant located in Kelibia, Tunisia. It offers a variety of dishes, including traditional Tunisian cuisine and international fare. The restaurant is located at the coordinates (36.8472589, 11.091058) and has a rating of 5.0 out of 5 stars on Google Maps.
+Station Louage Kelibia is a taxi service located in Kelibia, Tunisia (36.84757, 11.09386). With a rating of 3.7 out of 5 based on 28 reviews, it offers reliable transportation services to its customers.
+SRTGN (station Kelibia) is a bus station located in Kelibia with the coordinates (36.84757, 11.09386). It offers bus services to various destinations.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3372,14 +4766,69 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>If you're in kelibia and looking for something fun to do, check out Cafe dar el chaaeb located at 8090 shr` lshhyd Hmdy lGrby. 
-This top-rated destination is perfect for Cafe lovers. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: 06:15-00:00, but closed on mercredi, samedi. To get there, use these GPS coordinates: 36.8472589, 11.091058.</t>
+          <t>Café dar el chaaeb is a cafe situated in kelibia, Tunisia, at coordinates (36.8472589, 11.091058). The café is open from 6:15 am to midnight, and closed on Wednesdays and Saturdays. It offers a variety of services, including food and drinks.</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>Where is the highly-rated Cafe dar el chaaeb located, known for its exceptional ambiance and appeal to Cafe enthusiasts?</t>
+          <t>Day Plan:
+Morning: Explore the historical Fort de Kelibia, offering stunning views of the Mediterranean Sea and the port.
+Mid-Morning: Visit the Institut superieur des etudes technologiques de Kelibia, a highly-rated higher education institute.
+Midday: Satisfy your taste buds with a delightful seafood lunch at El Bahri Restaurant, known for its fresh and flavorful dishes.
+Afternoon: Enjoy the picturesque beachfront experience at Plage Kelibia, where you can swim, sunbathe, or engage in beach volleyball.
+Evening: Participate in traditional Tunisian dance and music performances at Marbrerie Hafefh Kacem, a vibrant discotheque.
+Night: Embark on a guided tour of the Phare de Kelibia, providing breathtaking panoramic views from its vantage point.</t>
+        </is>
+      </c>
+      <c r="AB27" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Coffee Shop Kelibia is a highly-rated cafe located in Kelibia, Tunisia. It operates from 5 AM to midnight every day and is known for its excellent service and atmosphere. With a 4.7-star rating based on 12 reviews, Coffee Shop Kelibia is a popular spot for locals and tourists alike. It is conveniently situated at V35R+P7R, making it easily accessible to visitors.
+Located in Kelibia (latitude 36.836660524289, and longitude 11.111146140921), Big Ben is a teahouse offering a pleasant setting to relax and enjoy a break.
+Street Food Kelibia is a restaurant located in Kelibia, Tunisia at the following coordinates: (36.848013989197, 11.098336416111). The restaurant serves a variety of dishes and is rated 4.0 out of 5 stars based on 1 review. It is open from 09:00 to 00:00 and closed on .
+Kelibia Paradise is a popular accommodation option in Kelibia, Tunisia. It is located at 47 Rue d'orange Cite Ezzouhour, 8090, Kelibia, and offers a range of amenities to its guests. These include a restaurant, bar, and swimming pool, as well as free Wi-Fi and parking. The hotel is situated within easy reach of the beach and other local attractions, making it an ideal base for exploring the area.
+The Cap-Bon Kelibia Beach Hotel &amp; Spa is a 4-star hotel located in Kelibia, Tunisia. It is a luxury seaside hotel offering comfortable rooms and suites, a spa and 3 refined restaurants. It is known for its beautiful beach, its large swimming pool and its animations.
+DAR COLIBRI, a 4.6-rated guesthouse located in Kelibia (36.8363146, 11.1113262), offers a unique stay in a charming setting. It features a swimming pool, hammam, and massage services, promising a relaxing and rejuvenating experience. With its proximity to the beautiful beaches of Kelibia, this guesthouse is an ideal base for exploring the region's natural wonders.
+Residence Asma is a 4.4-rated residence located in Kelibia, Tunisia. It is a great place to stay for tourists and business travelers alike. The residence offers a variety of amenities, including a swimming pool, a fitness center, and a restaurant. It is also conveniently located near the beach, the city center, and the airport. The residence has 14 reviews, all of which are positive. Guests praise the residence's cleanliness, comfort, and friendly staff.
+Pension Anis is a 4-star family-run guesthouse located in Kelibia, Tunisia. It features a prime location on Av du Dr Mongi Ben Hmida. Guests can enjoy comfortable accommodations with great value. The guesthouse offers a range of amenities to ensure a pleasant stay, including free Wi-Fi, laundry service, and a friendly atmosphere. Its central location provides easy access to local attractions and points of interest.
+The Casa Del Mar Residence is a 4.3-rated guesthouse located in Kelibia, Tunisia. It is situated near the beach and offers a relaxing getaway for guests. The Residence has received positive reviews for its comfortable accommodations and friendly staff.
+Dar Lebharr is a cozy accommodation located in Kelibia, Tunisia. It offers a comfortable stay with a rating of 4.1 out of 5. Situated at 36.835428078688 latitude and 11.091149597327 longitude, it's easily accessible. Contact them at +33 7 81 09 91 78 for bookings or inquiries.
+Luxus Apartements is a 5-star lodge located in Kelibia, Tunisia. It offers a luxurious and comfortable stay for its guests. The lodge is situated near the beach, making it a great place to relax and enjoy the beautiful scenery. Luxus Apartements is also close to many restaurants, shops, and attractions. The lodge's staff is friendly and helpful, and they are always willing to go the extra mile to make sure that their guests have a memorable stay.
+Plage Kelibia, located at (36.84757, 11.09386), offers a picturesque beachfront experience in the city of Kelibia.
+Fort de Kelibia is a historical fortress located in Kelibia, Tunisia. It offers stunning views of the Mediterranean Sea and the port. The castle boasts a rich history and architectural significance. Visitors can explore the castle's ramparts, towers, and courtyards, and delve into the region's captivating past. With a 4.4-star rating, the fort is a popular destination for tourists and history enthusiasts alike. Its strategic location makes it a great spot to capture panoramic shots of the surrounding area.
+Plage Kelibia is a tourist attraction located at the coordinates (36.84757, 11.09386) in Kelibia, Tunisia. With a rating of 4.6 based on 37 reviews, it is a popular destination for tourists. The beach offers a range of activities and amenities, including swimming, sunbathing, and beach volleyball. It is also home to a number of restaurants and cafes, making it a great place to relax and enjoy the scenery.
+The Port of Kelibia is a maritime port located in Kelibia, Tunisia. The port offers a variety of services to its customers, including fishing, cargo, and passenger transport. It is also a popular tourist destination, with many visitors coming to enjoy the beautiful scenery and the fresh seafood. The port is located at (36.8351444, 11.1116178).
+Discover the stunning Phare de Kelibia, a captivating viewpoint located at (36.8363146, 11.1113262) in Kelibia, Tunisia. Immerse yourself in the breathtaking panoramic views from the lighthouse's vantage point, making it an ideal spot for photography enthusiasts and nature lovers alike.
+The Institut superieur des etudes technologiques de Kelibia is a higher education institute located in Kelibia, Tunisia. It offers a range of technological programs and has a rating of 4.4 stars. The institute is situated at the coordinates (36.8363146, 11.1113262) and can be contacted by phone at 72 277 090. Its website is http://www.isetkl.rnu.tn/.
+Kelibia is a place located in Kelibia, Tunisia. It has a bike rental service, with a 4.2 rating based on 6 reviews. It is located at coordinates (36.836660524289, 11.111146140921).
+Marbrerie Hafefh Kacem is a popular discotheque located in Kelibia, Tunisia. It has a rating of 4.0 out of 5 on Google Maps and is known for its vibrant atmosphere and lively music. The discotheque is located at (36.8472589, 11.091058) and offers a variety of music genres to cater to different tastes. It is a popular destination for locals and tourists alike, and is a great place to dance the night away.
+El Bahri Restaurant is a seafood restaurant located in Kelibia, Tunisia. It is a popular spot for tourists and locals alike, and it offers a variety of seafood dishes, including fresh fish, grilled octopus, and seafood platters. The restaurant is open 24 hours a day, and it is closed on Tuesdays. The average rating for El Bahri Restaurant is 4.7 stars, and it has received positive reviews for its delicious food, friendly staff, and reasonable prices.
+Pizzeria LOFT ROMA is a 4.2-rated pizzeria located in kelibia, Tunisia. It operates from 08:00 to 00:00 every day and offers a wide range of pizzas. Its exact location is at R3VW+83Q Rue de Tripoli, Kelibia, Tunisia.
+Restaurant is a family-friendly restaurant located in Kelibia, Tunisia. It offers a variety of dishes, including traditional Tunisian cuisine and international fare. The restaurant is located at the coordinates (36.8472589, 11.091058) and has a rating of 5.0 out of 5 stars on Google Maps.
+Station Louage Kelibia is a taxi service located in Kelibia, Tunisia (36.84757, 11.09386). With a rating of 3.7 out of 5 based on 28 reviews, it offers reliable transportation services to its customers.
+SRTGN (station Kelibia) is a bus station located in Kelibia, Tunisia. It offers basic amenities and services for travelers, and is conveniently situated at (36.84757, 11.09386).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3485,12 +4934,77 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>If you're in kelibia, check out SOYASEP ZNAIDI KIOSQUE ET CAFE at Kelibia. This top-rated spot is perfect for Cafe lovers. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 09:00-17:00. To get there, use these GPS coordinates: 36.8472589, 11.091058. For more details, visit their website at https://www.google.com/maps/place/SOYASEP+ZNAIDI+KIOSQUE+ET+CAFE/data=!4m7!3m6!1s0x131d33b3c93e9127:0xc0414622163335a1!8m2!3d36.832138!4d11.112027!16s%2Fg%2F12hk_mqpn!19sChIJJ5E-ybMzHRMRoTUzFiJGQcA?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 72 304 657.</t>
+          <t>Discover a cozy respite in the heart of Kelibia at SOYASEP ZNAIDI KIOSQUE ET CAFE, located at coordinates (36.8472589, 11.091058). This charming cafe offers a welcoming atmosphere, serving a delectable selection of beverages and delectable treats. Situated conveniently, this cafe invites you to take a break, indulge in the local flavors, and connect with the vibrant community of Kelibia.</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>What highly-rated café with GPS coordinates 36.8472589, 11.091058 can be found in Kelibia?</t>
+          <t>Day Plan:
+**Morning:**
+* Explore the historic Fort de Kelibia, offering stunning views of the sea.
+**Mid-Morning:**
+* Visit the Phare de Kelibia, a captivating viewpoint with panoramic vistas.
+**Midday:**
+* Enjoy a delightful lunch at El Bahri Restaurant, known for its exceptional seafood dishes.
+**Afternoon:**
+* Relax and sunbathe at Plage Kelibia, a picturesque beach with soft white sand and crystal-clear waters.
+**Evening:**
+* Experience the vibrant nightlife at Marbrerie Hafefh Kacem, a popular discotheque with live music and an energetic atmosphere.
+**Night:**
+* Indulge in a delectable dinner at Del Capo, a 5-star pizzeria serving a wide range of pizzas.</t>
+        </is>
+      </c>
+      <c r="AB28" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Buvette el Mansoura is a Cafe located in Kelibia, Tunisia. It offers a wide range of drinks and snacks in a relaxed and friendly atmosphere. The cafe is conveniently located near the beach, making it a great place to relax and enjoy the views.
+Hannibal coffee kelibia is a tea room located in kelibia, Tunisia. It offers a variety of teas, coffees, and pastries. The tea room is located at 36.8363146, 11.1113262.
+La Padella Kelibia is a reputable restaurant located in Kelibia. It boasts an impressive 4.6 rating based on 8 reviews, indicating its popularity and high quality. Open from 8 AM to midnight every day, La Padella Kelibia offers a wide range of dishes to cater to its diverse clientele. The restaurant's prime location at 36.8363146 latitude and 11.1113262 longitude makes it easily accessible to both locals and tourists. With its convenient hours and delicious offerings, La Padella Kelibia is the go-to destination for dining in Kelibia.
+Myriam Bel Air is a popular hotel located in Kelibia, Tunisia. It offers a comfortable and convenient stay for its guests, with a 4.2-star rating on Google. The hotel has 14 reviews, with an overall positive feedback from its guests. It provides a range of amenities, including comfortable rooms, a swimming pool, and a restaurant. The hotel's website features additional information and booking options, and it is well-connected with major tourist attractions in the area.
+Maison d'hotes / Restaurant L'Hirondelle de Kelibia offers a pleasant stay in a beautiful location just steps from the beach. The hotel features comfortable rooms, a relaxing atmosphere, and welcoming staff. Guests can enjoy delicious meals at the on-site restaurant while admiring the panoramic views of the Mediterranean Sea. With its convenient location and excellent amenities, Maison d'hotes / Restaurant L'Hirondelle de Kelibia is the perfect place for a memorable vacation.
+Dar Meriem - Maison d'hôtes is a guest house located in Kelibia, Tunisia. It offers comfortable accommodation and a warm and welcoming atmosphere. The guest house is perfectly situated for exploring the city and its surroundings, and is close to a variety of amenities. The guest house is managed by a friendly and helpful team of staff who are always on hand to assist guests with any queries or needs.
+Residence Asma is a 4.4-rated residence located in Kelibia, Tunisia. It is a great place to stay for tourists and business travelers alike. The residence offers a variety of amenities, including a swimming pool, a fitness center, and a restaurant. It is also conveniently located near the beach, the city center, and the airport. The residence has 14 reviews, all of which are positive. Guests praise the residence's cleanliness, comfort, and friendly staff.
+Pension Anis is a 4-star family-run guesthouse located in Kelibia, Tunisia. It features a prime location on Av du Dr Mongi Ben Hmida. Guests can enjoy comfortable accommodations with great value. The guesthouse offers a range of amenities to ensure a pleasant stay, including free Wi-Fi, laundry service, and a friendly atmosphere. Its central location provides easy access to local attractions and points of interest.
+The Casa Del Mar Residence is a 4.3-rated guesthouse located in Kelibia, Tunisia. It is situated near the beach and offers a relaxing getaway for guests. The Residence has received positive reviews for its comfortable accommodations and friendly staff.
+Dar Lebharr is a cozy accommodation located in Kelibia, Tunisia. It offers a comfortable stay with a rating of 4.1 out of 5. Situated at 36.835428078688 latitude and 11.091149597327 longitude, it's easily accessible. Contact them at +33 7 81 09 91 78 for bookings or inquiries.
+Luxus Apartements is a 5-star lodge located in Kelibia, Tunisia at (36.835428078688, 11.091149597327). It has a rating of 5.0 based on 1 review and is owned by Luxus Apartements (proprietaire). Luxus Apartements offers a variety of amenities and services, making it the perfect place to stay for both business and leisure travelers.
+Plage Kelibia, located at (36.84757, 11.09386), offers a picturesque beachfront experience in the city of Kelibia.
+Fort de Kelibia, located in Kelibia, is a historical fortress with an average rating of 4.4 out of 5 based on 460 reviews. It offers a stunning view of the sea, making it a great spot to enjoy the scenery. Visitors can also delve into the history of the fort or simply admire its architectural beauty. With its convenient opening hours from 9:00 AM to 6:00 PM, it's a perfect destination for tourists and history enthusiasts alike.
+Plage kelibia is a popular tourist attraction located in Kelibia, Tunisia. It offers a wide range of activities, including swimming, sunbathing, and windsurfing. The beach is also home to a number of restaurants and cafes.
+The beach is located just a short drive from the city center and is easily accessible by public transportation. The beach is well-maintained and features clear blue waters and soft white sand.
+Plage kelibia is a great place to relax and enjoy the beautiful weather of Tunisia. It is also a great location to enjoy some water sports.
+The Port of Kelibia is a maritime port located in Kelibia, Tunisia. The port offers a variety of services to its customers, including fishing, cargo, and passenger transport. It is also a popular tourist destination, with many visitors coming to enjoy the beautiful scenery and the fresh seafood. The port is located at (36.8351444, 11.1116178).
+Discover the stunning Phare de Kelibia, a captivating viewpoint located at (36.8363146, 11.1113262) in Kelibia, Tunisia. Immerse yourself in the breathtaking panoramic views from the lighthouse's vantage point, making it an ideal spot for photography enthusiasts and nature lovers alike.
+The Institut superieur des etudes technologiques de Kelibia is a higher education institute located in Kelibia, Tunisia. It offers a range of technological programs and has a rating of 4.4 stars. The institute is situated at the coordinates (36.8363146, 11.1113262) and can be contacted by phone at 72 277 090. Its website is http://www.isetkl.rnu.tn/.
+Kelibia is a place located in Kelibia, Tunisia. It has a bike rental service, with a 4.2 rating based on 6 reviews. It is located at coordinates (36.836660524289, 11.111146140921).
+Marbrerie Hafefh Kacem is a popular discotheque located in Kelibia, Tunisia. It has a rating of 4.0 out of 5 on Google Maps and is known for its vibrant atmosphere and lively music. The discotheque is located at (36.8472589, 11.091058) and offers a variety of music genres to cater to different tastes. It is a popular destination for locals and tourists alike, and is a great place to dance the night away.
+El Bahri Restaurant is a seafood restaurant located in Kelibia, Tunisia. It is a popular spot for tourists and locals alike, and it offers a variety of seafood dishes, including fresh fish, grilled octopus, and seafood platters. The restaurant is open 24 hours a day, and it is closed on Tuesdays. The average rating for El Bahri Restaurant is 4.7 stars, and it has received positive reviews for its delicious food, friendly staff, and reasonable prices.
+Del Capo is a 5-star rated pizzeria located in Kelibia, Tunisia. It is situated at the address: 8090 Av. de Martyrs with coordinates (36.842587762817, 11.099081841049). This highly-rated spot operates from 12:00 to 00:00 during the week and offers a delectable range of pizzas.
+Restaurant is a family-friendly restaurant located in Kelibia, Tunisia. It offers a variety of dishes, including traditional Tunisian cuisine and international fare. The restaurant is located at the coordinates (36.8472589, 11.091058) and has a rating of 5.0 out of 5 stars on Google Maps.
+Station Louage Kelibia is a taxi service located in Kelibia, Tunisia (36.84757, 11.09386). With a rating of 3.7 out of 5 based on 28 reviews, it offers reliable transportation services to its customers.
+SRTGN (station Kelibia) is a bus station located in Kelibia, Tunisia. It offers basic amenities and services for travelers, and is conveniently situated at (36.84757, 11.09386).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3592,12 +5106,71 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>If you're in kelibia and looking for something fun to do, check out Lounge Cafe located at R3WQ+H9M Lounge Cafe, Av. Habib-Bourguiba, Kelibia. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 06:00-14:00, but closed on []. To get there, use these GPS coordinates: 36.846461922842, 11.088591520371. For more details, visit their website at https://www.google.com/maps/place/Lounge+Cafe/data=!4m7!3m6!1s0x131d33ebf7085c43:0x1474246c2beba059!8m2!3d36.8464596!4d11.0884181!16s%2Fg%2F11fy9xt127!19sChIJQ1wI9-szHRMRWaDrK2wkdBQ?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Lounge Cafe, rated 5.0 out of 5 by 1 reviewer, is a restaurant located at R3WQ+H9M, Av. Habib-Bourguiba, Kelibia, Tunisia. It is open from 6:00 am to 2:00 pm daily, and its main category is Restaurant. Its featured image can be found at https://lh5.googleusercontent.com/p/AF1QipOvbL7FtV4P7-K_sbXDNGp51x8sIv60Kakq6a4-=w408-h408-k-no.</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>Where in Kelibia can you find a highly-rated lounge café with a 5.0 rating, perfect for restaurant enthusiasts with a diverse selection of dining options?</t>
+          <t>Day Plan:
+Morning: Explore the historic Fort de Kelibia, taking in the stunning views of the sea.
+Mid-Morning: Visit the Institut superieur des etudes technologiques de Kelibia for a glimpse into the higher education system of Tunisia.
+Midday: Enjoy a delicious seafood lunch at the highly-rated El Bahri Restaurant, known for its fresh and flavorful dishes.
+Afternoon: Relax and enjoy the sun and sand at the beautiful Plage Kelibia, offering a range of water sports and activities.
+Evening: Take a leisurely stroll along the picturesque Port of Kelibia, admiring the boats and enjoying the fresh sea breeze.
+Night: Experience traditional Tunisian cuisine at the cozy Pizzeria LOFT ROMA, serving a wide range of pizzas and offering a lively atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB29" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Chikh Hammouda, located in Kelibia at 8090 ave Ali Belhouane, is a 4.3-rated cafe open from 4 AM to 10 PM, offering a cozy ambiance for coffee and relaxation. With three reviews and a featured image showcasing its inviting atmosphere, this cafe is a popular spot in the Kelibia area.
+Located in Kelibia (latitude 36.836660524289, and longitude 11.111146140921), Big Ben is a teahouse offering a pleasant setting to relax and enjoy a break.
+Lounge Cafe, rated 5.0 out of 5 by 1 reviewer, is a restaurant located at R3WQ+H9M, Av. Habib-Bourguiba, Kelibia, Tunisia. It is open from 6:00 am to 2:00 pm daily, and its main category is Restaurant. Its featured image can be found at https://lh5.googleusercontent.com/p/AF1QipOvbL7FtV4P7-K_sbXDNGp51x8sIv60Kakq6a4-=w408-h408-k-no.
+Kelibia Paradise is a lodging facility located in Kelibia, Tunisia. It has a rating of 4.6 and has received 18 reviews. The facility offers accommodation with a main focus on comfort and relaxation. Its geolocation is at longitude 11.098431810317 and latitude 36.846063992403.
+The Cap-Bon Kelibia Beach Hotel &amp; Spa is a 4-star hotel located in Kelibia, Tunisia. It is a luxury seaside hotel offering comfortable rooms and suites, a spa and 3 refined restaurants. It is known for its beautiful beach, its large swimming pool and its animations.
+DAR COLIBRI, a 4.6-rated guesthouse located in Kelibia (36.8363146, 11.1113262), offers a unique stay in a charming setting. It features a swimming pool, hammam, and massage services, promising a relaxing and rejuvenating experience. With its proximity to the beautiful beaches of Kelibia, this guesthouse is an ideal base for exploring the region's natural wonders.
+Residence Asma is a 4.4-rated residence located in Kelibia, Tunisia. It is a great place to stay for tourists and business travelers alike. The residence offers a variety of amenities, including a swimming pool, a fitness center, and a restaurant. It is also conveniently located near the beach, the city center, and the airport. The residence has 14 reviews, all of which are positive. Guests praise the residence's cleanliness, comfort, and friendly staff.
+Pension Anis is a 4-star family-run guesthouse located in Kelibia, Tunisia. It features a prime location on Av du Dr Mongi Ben Hmida. Guests can enjoy comfortable accommodations with great value. The guesthouse offers a range of amenities to ensure a pleasant stay, including free Wi-Fi, laundry service, and a friendly atmosphere. Its central location provides easy access to local attractions and points of interest.
+The Casa Del Mar Residence is a 4.3-rated guesthouse located in Kelibia, Tunisia. It is situated near the beach and offers a relaxing getaway for guests. The Residence has received positive reviews for its comfortable accommodations and friendly staff.
+Dar Lebharr is a cozy accommodation located in Kelibia, Tunisia. It offers a comfortable stay with a rating of 4.1 out of 5. Situated at 36.835428078688 latitude and 11.091149597327 longitude, it's easily accessible. Contact them at +33 7 81 09 91 78 for bookings or inquiries.
+Luxus Apartements is a 5-star lodge located in Kelibia, Tunisia. It offers a luxurious and comfortable stay for its guests. The lodge is situated near the beach, making it a great place to relax and enjoy the beautiful scenery. Luxus Apartements is also close to many restaurants, shops, and attractions. The lodge's staff is friendly and helpful, and they are always willing to go the extra mile to make sure that their guests have a memorable stay.
+Plage Kelibia, located at (36.84757, 11.09386), offers a picturesque beachfront experience in the city of Kelibia.
+Fort de Kelibia, located in Kelibia, is a historical fortress with an average rating of 4.4 out of 5 based on 460 reviews. It offers a stunning view of the sea, making it a great spot to enjoy the scenery. Visitors can also delve into the history of the fort or simply admire its architectural beauty. With its convenient opening hours from 9:00 AM to 6:00 PM, it's a perfect destination for tourists and history enthusiasts alike.
+Plage kelibia is a popular tourist attraction located in Kelibia, Tunisia. It offers a wide range of activities, including swimming, sunbathing, and windsurfing. The beach is also home to a number of restaurants and cafes.
+The beach is located just a short drive from the city center and is easily accessible by public transportation. The beach is well-maintained and features clear blue waters and soft white sand.
+Plage kelibia is a great place to relax and enjoy the beautiful weather of Tunisia. It is also a great location to enjoy some water sports.
+The Port of Kelibia is a maritime port located in Kelibia, Tunisia. The port offers a variety of services to its customers, including fishing, cargo, and passenger transport. It is also a popular tourist destination, with many visitors coming to enjoy the beautiful scenery and the fresh seafood. The port is located at (36.8351444, 11.1116178).
+Discover the stunning Phare de Kelibia, a captivating viewpoint located at (36.8363146, 11.1113262) in Kelibia, Tunisia. Immerse yourself in the breathtaking panoramic views from the lighthouse's vantage point, making it an ideal spot for photography enthusiasts and nature lovers alike.
+The Institut superieur des etudes technologiques de Kelibia is a higher education institute located in Kelibia, Tunisia. It offers a range of technological programs and has a rating of 4.4 stars. The institute is situated at the coordinates (36.8363146, 11.1113262) and can be contacted by phone at 72 277 090. Its website is http://www.isetkl.rnu.tn/.
+Kelibia is a place located in Kelibia, Tunisia. It has a bike rental service, with a 4.2 rating based on 6 reviews. It is located at coordinates (36.836660524289, 11.111146140921).
+Marbrerie Hafefh Kacem is a popular discotheque located in Kelibia, Tunisia. It has a rating of 4.0 out of 5 on Google Maps and is known for its vibrant atmosphere and lively music. The discotheque is located at (36.8472589, 11.091058) and offers a variety of music genres to cater to different tastes. It is a popular destination for locals and tourists alike, and is a great place to dance the night away.
+El Bahri Restaurant is a seafood restaurant located in Kelibia, Tunisia. It is a popular spot for tourists and locals alike, and it offers a variety of seafood dishes, including fresh fish, grilled octopus, and seafood platters. The restaurant is open 24 hours a day, and it is closed on Tuesdays. The average rating for El Bahri Restaurant is 4.7 stars, and it has received positive reviews for its delicious food, friendly staff, and reasonable prices.
+Pizzeria LOFT ROMA is a 4.2-rated pizzeria located in kelibia, Tunisia. It operates from 08:00 to 00:00 every day and offers a wide range of pizzas. Its exact location is at R3VW+83Q Rue de Tripoli, Kelibia, Tunisia.
+Restaurant is a family-friendly restaurant located in Kelibia, Tunisia. It offers a variety of dishes, including traditional Tunisian cuisine and international fare. The restaurant is located at the coordinates (36.8472589, 11.091058) and has a rating of 5.0 out of 5 stars on Google Maps.
+Station Louage Kelibia is a taxi service located in Kelibia, Tunisia (36.84757, 11.09386). With a rating of 3.7 out of 5 based on 28 reviews, it offers reliable transportation services to its customers.
+SRTGN (station Kelibia) is a bus station located in Kelibia, Tunisia. It offers basic amenities and services for travelers, and is conveniently situated at (36.84757, 11.09386).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3699,12 +5272,79 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>In kelibia, why not stay at Kelibia Paradise, located at 47 Rue d'orange Cite Ezzouhour, 8090, Kelibia? 
-This is a top place for Hebergement lovers, With a rating of 4.6, it's a must-visit spot. 
-For more details, you can call them at 95 496 413.</t>
-        </is>
-      </c>
-      <c r="AA30" t="inlineStr"/>
+          <t>Kelibia Paradise is a popular accommodation option in Kelibia, Tunisia. It is located at 47 Rue d'orange Cite Ezzouhour, 8090, Kelibia, and offers a range of amenities to its guests. These include a restaurant, bar, and swimming pool, as well as free Wi-Fi and parking. The hotel is situated within easy reach of the beach and other local attractions, making it an ideal base for exploring the area.</t>
+        </is>
+      </c>
+      <c r="AA30" t="inlineStr">
+        <is>
+          <t>Day Plan:
+Morning: Exploring Plage Kelibia
+- Enjoy the sun and sand on this picturesque beach, perfect for swimming, sunbathing, or windsurfing.
+Mid-Morning: Visiting Fort de Kelibia
+- Delve into the history of Kelibia at this impressive fortress, offering stunning sea views and a glimpse into the town's past.
+Midday: Trying Local Cuisine at El Bahri Restaurant
+- Indulge in fresh seafood delicacies, including grilled octopus and seafood platters, at this popular restaurant.
+Afternoon: Relaxing at Cap-Bon Kelibia Beach Hotel &amp; Spa
+- Pamper yourself with rejuvenating treatments at the spa or lounge by the pool at this serene beachfront resort.
+Evening: Participating in an Event/Activity at Marbrerie Hafefh Kacem
+- Dance the night away at this lively discotheque, featuring vibrant music and a welcoming atmosphere.
+Night: Enjoying Scenic Views at Phare de Kelibia
+- Marvel at panoramic vistas of Kelibia from the lighthouse's vantage point, capturing breathtaking photos to cherish your memories.</t>
+        </is>
+      </c>
+      <c r="AB30" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Café Aziz is a highly-rated café located in Kelibia, Tunisia. Situated at (36.8472589, 11.091058), the café offers a warm and inviting atmosphere for customers to enjoy their favorite beverages. With a rating of 4.6 out of 5 based on 5 reviews, Café Aziz is a popular spot among locals and tourists alike.
+Located in Kelibia (latitude 36.836660524289, and longitude 11.111146140921), Big Ben is a teahouse offering a pleasant setting to relax and enjoy a break.
+Welcome to Pizza Lool, a beloved restaurant in Kelibia, Tunisia, known for its delectable pizzas and its welcoming atmosphere. Located at R3VW+RCW, Pizza Lool offers an unforgettable dining experience with friendly service and a convenient location.
+Kelibia Paradise is a popular accommodation option in Kelibia, Tunisia. It is located at 47 Rue d'orange Cite Ezzouhour, 8090, Kelibia, and offers a range of amenities to its guests. These include a restaurant, bar, and swimming pool, as well as free Wi-Fi and parking. The hotel is situated within easy reach of the beach and other local attractions, making it an ideal base for exploring the area.
+Nestled in the picturesque Kelibia region, Cap-Bon Kelibia Beach Hotel &amp; Spa is an upscale resort offering 562 warmly designed rooms and suites. With its stunning beachfront location and serene ambiance, the hotel is an ideal destination for leisure and relaxation. It features an array of amenities, including a rejuvenating spa, three refined dining options, and an inviting swimming pool, ensuring an unforgettable stay in the heart of Kelibia.
+Dar Meriem - Maison d'hôtes is a guest house located in Kelibia, Tunisia. It offers comfortable accommodation and a warm and welcoming atmosphere. The guest house is perfectly situated for exploring the city and its surroundings, and is close to a variety of amenities. The guest house is managed by a friendly and helpful team of staff who are always on hand to assist guests with any queries or needs.
+Residence Asma is a 4.4-rated residence located in Kelibia, Tunisia. It is a great place to stay for tourists and business travelers alike. The residence offers a variety of amenities, including a swimming pool, a fitness center, and a restaurant. It is also conveniently located near the beach, the city center, and the airport. The residence has 14 reviews, all of which are positive. Guests praise the residence's cleanliness, comfort, and friendly staff.
+Pension Anis is a 4-star family-run guesthouse located in Kelibia, Tunisia. It features a prime location on Av du Dr Mongi Ben Hmida. Guests can enjoy comfortable accommodations with great value. The guesthouse offers a range of amenities to ensure a pleasant stay, including free Wi-Fi, laundry service, and a friendly atmosphere. Its central location provides easy access to local attractions and points of interest.
+The Casa Del Mar Residence is a 4.3-rated guesthouse located in Kelibia, Tunisia. It is situated near the beach and offers a relaxing getaway for guests. The Residence has received positive reviews for its comfortable accommodations and friendly staff.
+Dar Lebharr is a cozy accommodation located in Kelibia, Tunisia. It offers a comfortable stay with a rating of 4.1 out of 5. Situated at 36.835428078688 latitude and 11.091149597327 longitude, it's easily accessible. Contact them at +33 7 81 09 91 78 for bookings or inquiries.
+Luxus Apartements is a 5-star lodge located in Kelibia, Tunisia at (36.835428078688, 11.091149597327). It has a rating of 5.0 based on 1 review and is owned by Luxus Apartements (proprietaire). Luxus Apartements offers a variety of amenities and services, making it the perfect place to stay for both business and leisure travelers.
+Plage Kelibia, located at (36.84757, 11.09386), offers a picturesque beachfront experience in the city of Kelibia.
+Fort de Kelibia, located in Kelibia, is a historical fortress with an average rating of 4.4 out of 5 based on 460 reviews. It offers a stunning view of the sea, making it a great spot to enjoy the scenery. Visitors can also delve into the history of the fort or simply admire its architectural beauty. With its convenient opening hours from 9:00 AM to 6:00 PM, it's a perfect destination for tourists and history enthusiasts alike.
+Plage kelibia is a popular tourist attraction located in Kelibia, Tunisia. It offers a wide range of activities, including swimming, sunbathing, and windsurfing. The beach is also home to a number of restaurants and cafes.
+The beach is located just a short drive from the city center and is easily accessible by public transportation. The beach is well-maintained and features clear blue waters and soft white sand.
+Plage kelibia is a great place to relax and enjoy the beautiful weather of Tunisia. It is also a great location to enjoy some water sports.
+The Port of Kelibia is a maritime port located in Kelibia, Tunisia. The port offers a variety of services to its customers, including fishing, cargo, and passenger transport. It is also a popular tourist destination, with many visitors coming to enjoy the beautiful scenery and the fresh seafood. The port is located at (36.8351444, 11.1116178).
+Discover the stunning Phare de Kelibia, a captivating viewpoint located at (36.8363146, 11.1113262) in Kelibia, Tunisia. Immerse yourself in the breathtaking panoramic views from the lighthouse's vantage point, making it an ideal spot for photography enthusiasts and nature lovers alike.
+The Institut superieur des etudes technologiques de Kelibia is a higher education institute located in Kelibia, Tunisia. It offers a range of technological programs and has a rating of 4.4 stars. The institute is situated at the coordinates (36.8363146, 11.1113262) and can be contacted by phone at 72 277 090. Its website is http://www.isetkl.rnu.tn/.
+Kelibia is a place located in Kelibia, Tunisia. It has a bike rental service, with a 4.2 rating based on 6 reviews. It is located at coordinates (36.836660524289, 11.111146140921).
+Marbrerie Hafefh Kacem is a popular discotheque located in Kelibia, Tunisia. It has a rating of 4.0 out of 5 on Google Maps and is known for its vibrant atmosphere and lively music. The discotheque is located at (36.8472589, 11.091058) and offers a variety of music genres to cater to different tastes. It is a popular destination for locals and tourists alike, and is a great place to dance the night away.
+El Bahri Restaurant is a seafood restaurant located in Kelibia, Tunisia. It is a popular spot for tourists and locals alike, and it offers a variety of seafood dishes, including fresh fish, grilled octopus, and seafood platters. The restaurant is open 24 hours a day, and it is closed on Tuesdays. The average rating for El Bahri Restaurant is 4.7 stars, and it has received positive reviews for its delicious food, friendly staff, and reasonable prices.
+Pizzeria LOFT ROMA is a 4.2-rated pizzeria located in kelibia, Tunisia. It operates from 08:00 to 00:00 every day and offers a wide range of pizzas. Its exact location is at R3VW+83Q Rue de Tripoli, Kelibia, Tunisia.
+Restaurant is a family-friendly restaurant located in Kelibia, Tunisia. It offers a variety of dishes, including traditional Tunisian cuisine and international fare. The restaurant is located at the coordinates (36.8472589, 11.091058) and has a rating of 5.0 out of 5 stars on Google Maps.
+Station Louage Kelibia is a taxi service located in Kelibia, Tunisia (36.84757, 11.09386). With a rating of 3.7 out of 5 based on 28 reviews, it offers reliable transportation services to its customers.
+SRTGN's station is located in Kelibia, Tunisia. It offers bus services to various destinations. The station is located at the coordinates (36.84757, 11.09386).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -3812,12 +5452,71 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>If you're in kelibia and looking for a top-rated hotel, check out Cap-Bon Kelibia Beach Hotel &amp; Spa located at Plage El Mansourah, Kelibia 8090. This 4.1-rated destination is perfect for hotel lovers and offers a range of categories to choose from, including hotel, restaurant, spa, and piscine. To get there, use these GPS coordinates: -34.1604217, 18.4296167. For more details, visit their website at https://kelibiabeachhotel.com/ or call them at 72 277 770.</t>
+          <t>The Cap-Bon Kelibia Beach Hotel &amp; Spa is a 4-star hotel located in Kelibia, Tunisia. It is a luxury seaside hotel offering comfortable rooms and suites, a spa and 3 refined restaurants. It is known for its beautiful beach, its large swimming pool and its animations.</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>What is the name of the top-rated hotel in Kelibia, Tunisia, located at -34.1604217, 18.4296167?</t>
+          <t>Day Plan:
+Morning: Exploring the historic Fort de Kelibia
+Mid-Morning: Trying local cuisine at El Bahri Restaurant
+Midday: Relaxing on the picturesque Plage Kelibia
+Afternoon: Participating in outdoor activities like windsurfing or swimming at Plage Kelibia
+Evening: Enjoying scenic views at Phare de Kelibia
+Night: Experiencing cultural immersion at the Institut superieur des etudes technologiques de Kelibia</t>
+        </is>
+      </c>
+      <c r="AB31" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Café dar el chaaeb is a cafe situated in kelibia, Tunisia, at coordinates (36.8472589, 11.091058). The café is open from 6:15 am to midnight, and closed on Wednesdays and Saturdays. It offers a variety of services, including food and drinks.
+Located in Kelibia (latitude 36.836660524289, and longitude 11.111146140921), Big Ben is a teahouse offering a pleasant setting to relax and enjoy a break.
+Retaurant Bella Marina is a highly-rated restaurant located in Kelibia, Tunisia. It offers an extensive menu featuring pizzas, salads, pasta dishes, and more. The restaurant is known for its delicious food and friendly service. It is conveniently located near the beach, making it a great place to enjoy a meal after a day of sun and sand.
+Kelibia Paradise is a popular accommodation option in Kelibia, Tunisia. It is located at 47 Rue d'orange Cite Ezzouhour, 8090, Kelibia, and offers a range of amenities to its guests. These include a restaurant, bar, and swimming pool, as well as free Wi-Fi and parking. The hotel is situated within easy reach of the beach and other local attractions, making it an ideal base for exploring the area.
+The Cap-Bon Kelibia Beach Hotel &amp; Spa is a 4-star hotel located in Kelibia, Tunisia. It is a luxury seaside hotel offering comfortable rooms and suites, a spa and 3 refined restaurants. It is known for its beautiful beach, its large swimming pool and its animations.
+Dar Meriem - Maison d'hôtes is a guest house located in Kelibia, Tunisia. It offers comfortable accommodation and a warm and welcoming atmosphere. The guest house is perfectly situated for exploring the city and its surroundings, and is close to a variety of amenities. The guest house is managed by a friendly and helpful team of staff who are always on hand to assist guests with any queries or needs.
+Residence Asma is a 4.4-rated residence located in Kelibia, Tunisia. It is a great place to stay for tourists and business travelers alike. The residence offers a variety of amenities, including a swimming pool, a fitness center, and a restaurant. It is also conveniently located near the beach, the city center, and the airport. The residence has 14 reviews, all of which are positive. Guests praise the residence's cleanliness, comfort, and friendly staff.
+Pension Anis is a 4-star family-run guesthouse located in Kelibia, Tunisia. It features a prime location on Av du Dr Mongi Ben Hmida. Guests can enjoy comfortable accommodations with great value. The guesthouse offers a range of amenities to ensure a pleasant stay, including free Wi-Fi, laundry service, and a friendly atmosphere. Its central location provides easy access to local attractions and points of interest.
+The Casa Del Mar Residence is a 4.3-rated guesthouse located in Kelibia, Tunisia. It is situated near the beach and offers a relaxing getaway for guests. The Residence has received positive reviews for its comfortable accommodations and friendly staff.
+Dar Lebharr is a cozy accommodation located in Kelibia, Tunisia. It offers a comfortable stay with a rating of 4.1 out of 5. Situated at 36.835428078688 latitude and 11.091149597327 longitude, it's easily accessible. Contact them at +33 7 81 09 91 78 for bookings or inquiries.
+Luxus Apartements is a 5-star lodge located in Kelibia, Tunisia at (36.835428078688, 11.091149597327). It has a rating of 5.0 based on 1 review and is owned by Luxus Apartements (proprietaire). Luxus Apartements offers a variety of amenities and services, making it the perfect place to stay for both business and leisure travelers.
+Plage Kelibia, located at (36.84757, 11.09386), offers a picturesque beachfront experience in the city of Kelibia.
+Fort de Kelibia is a historical fortress located in Kelibia, Tunisia. It offers stunning views of the Mediterranean Sea and the port. The castle boasts a rich history and architectural significance. Visitors can explore the castle's ramparts, towers, and courtyards, and delve into the region's captivating past. With a 4.4-star rating, the fort is a popular destination for tourists and history enthusiasts alike. Its strategic location makes it a great spot to capture panoramic shots of the surrounding area.
+Plage kelibia is a popular tourist attraction located in Kelibia, Tunisia. It offers a wide range of activities, including swimming, sunbathing, and windsurfing. The beach is also home to a number of restaurants and cafes.
+The beach is located just a short drive from the city center and is easily accessible by public transportation. The beach is well-maintained and features clear blue waters and soft white sand.
+Plage kelibia is a great place to relax and enjoy the beautiful weather of Tunisia. It is also a great location to enjoy some water sports.
+The Port of Kelibia is a maritime port located in Kelibia, Tunisia. The port offers a variety of services to its customers, including fishing, cargo, and passenger transport. It is also a popular tourist destination, with many visitors coming to enjoy the beautiful scenery and the fresh seafood. The port is located at (36.8351444, 11.1116178).
+Discover the stunning Phare de Kelibia, a captivating viewpoint located at (36.8363146, 11.1113262) in Kelibia, Tunisia. Immerse yourself in the breathtaking panoramic views from the lighthouse's vantage point, making it an ideal spot for photography enthusiasts and nature lovers alike.
+The Institut superieur des etudes technologiques de Kelibia is a higher education institute located in Kelibia, Tunisia. It offers a range of technological programs and has a rating of 4.4 stars. The institute is situated at the coordinates (36.8363146, 11.1113262) and can be contacted by phone at 72 277 090. Its website is http://www.isetkl.rnu.tn/.
+Kelibia is a place located in Kelibia, Tunisia. It has a bike rental service, with a 4.2 rating based on 6 reviews. It is located at coordinates (36.836660524289, 11.111146140921).
+Marbrerie Hafefh Kacem is a popular discotheque located in Kelibia, Tunisia. It has a rating of 4.0 out of 5 on Google Maps and is known for its vibrant atmosphere and lively music. The discotheque is located at (36.8472589, 11.091058) and offers a variety of music genres to cater to different tastes. It is a popular destination for locals and tourists alike, and is a great place to dance the night away.
+El Bahri Restaurant is a seafood restaurant located in Kelibia, Tunisia. It is a popular spot for tourists and locals alike, and it offers a variety of seafood dishes, including fresh fish, grilled octopus, and seafood platters. The restaurant is open 24 hours a day, and it is closed on Tuesdays. The average rating for El Bahri Restaurant is 4.7 stars, and it has received positive reviews for its delicious food, friendly staff, and reasonable prices.
+Pizzeria LOFT ROMA is a 4.2-rated pizzeria located in kelibia, Tunisia. It operates from 08:00 to 00:00 every day and offers a wide range of pizzas. Its exact location is at R3VW+83Q Rue de Tripoli, Kelibia, Tunisia.
+Restaurant is a family-friendly restaurant located in Kelibia, Tunisia. It offers a variety of dishes, including traditional Tunisian cuisine and international fare. The restaurant is located at the coordinates (36.8472589, 11.091058) and has a rating of 5.0 out of 5 stars on Google Maps.
+Station Louage Kelibia is a taxi service located in Kelibia, Tunisia (36.84757, 11.09386). With a rating of 3.7 out of 5 based on 28 reviews, it offers reliable transportation services to its customers.
+SRTGN's station is located in Kelibia, Tunisia. It offers bus services to various destinations. The station is located at the coordinates (36.84757, 11.09386).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3923,14 +5622,71 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>If you're in kelibia and looking for a place to stay, check out DAR COLIBRI maison d'hotes located at Rue de Londres, Kelibia 8090. 
-This top-rated destination is perfect for Chambre d'hotes lovers and offers a range of Chambre d'hotes and Maison d'hotes to choose from. 
-With a rating of 4.6, it's a must-visit spot. To get there, use these GPS coordinates: 36.8363146, 11.1113262. For more details, visit their website at http://www.darcolibri.com/ or call them at 46 566 564.</t>
+          <t>DAR COLIBRI, a 4.6-rated guesthouse located in Kelibia (36.8363146, 11.1113262), offers a unique stay in a charming setting. It features a swimming pool, hammam, and massage services, promising a relaxing and rejuvenating experience. With its proximity to the beautiful beaches of Kelibia, this guesthouse is an ideal base for exploring the region's natural wonders.</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated (4.6) collection of Chambre d'hotes and Maison d'hotes accommodations in Kelibia, known as DAR COLIBRI maison d'hotes?</t>
+          <t>Day Plan:
+Morning: Explore the historical Fort de Kelibia, offering stunning views of the Mediterranean Sea and the port.
+Mid-Morning: Head to the picturesque Plage Kelibia for a swim and sunbathe on the soft white sand.
+Midday: Try the local cuisine at El Bahri Restaurant, known for its delicious seafood dishes and reasonable prices.
+Afternoon: Visit the cultural Institut superieur des etudes technologiques de Kelibia, a higher education institute with a rating of 4.4 stars.
+Evening: Relax at the Casa Del Mar Residence, a 4.3-rated guesthouse near the beach that offers a peaceful and comfortable stay.
+Night: Immerse yourself in the vibrant atmosphere and lively music at Marbrerie Hafefh Kacem, a popular discotheque in Kelibia.</t>
+        </is>
+      </c>
+      <c r="AB32" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**El Barraka** is a popular cafe located in Kelibia, Tunisia. It offers a wide range of drinks and snacks, making it a great place to relax and unwind. The cafe is conveniently located on Av. de Martyrs, with coordinates (36.836660524289, 11.111146140921). With its cozy ambiance and friendly staff, El Barraka is a perfect spot to meet friends, catch up on work, or simply enjoy a cup of coffee.
+Located in Kelibia (latitude 36.836660524289, and longitude 11.111146140921), Big Ben is a teahouse offering a pleasant setting to relax and enjoy a break.
+Restaurant Sindabed is a highly-rated restaurant located in Kelibia, Tunisia. It is open from 8 am to 8 pm and offers a variety of dishes in a pleasant setting. The restaurant is situated at the coordinates (36.8363146, 11.1113262) and can be reached by phone at 27 307 802.
+Kelibia Paradise is a popular accommodation option in Kelibia, Tunisia. It is located at 47 Rue d'orange Cite Ezzouhour, 8090, Kelibia, and offers a range of amenities to its guests. These include a restaurant, bar, and swimming pool, as well as free Wi-Fi and parking. The hotel is situated within easy reach of the beach and other local attractions, making it an ideal base for exploring the area.
+The Cap-Bon Kelibia Beach Hotel &amp; Spa is a 4-star hotel located in Kelibia, Tunisia. It is a luxury seaside hotel offering comfortable rooms and suites, a spa and 3 refined restaurants. It is known for its beautiful beach, its large swimming pool and its animations.
+Dar Meriem - Maison d'hôtes is a guest house located in Kelibia, Tunisia. It offers comfortable accommodation and a warm and welcoming atmosphere. The guest house is perfectly situated for exploring the city and its surroundings, and is close to a variety of amenities. The guest house is managed by a friendly and helpful team of staff who are always on hand to assist guests with any queries or needs.
+Residence Asma is a 4.4-rated residence located in Kelibia, Tunisia. It is a great place to stay for tourists and business travelers alike. The residence offers a variety of amenities, including a swimming pool, a fitness center, and a restaurant. It is also conveniently located near the beach, the city center, and the airport. The residence has 14 reviews, all of which are positive. Guests praise the residence's cleanliness, comfort, and friendly staff.
+Pension Anis is a 4-star family-run guesthouse located in Kelibia, Tunisia. It features a prime location on Av du Dr Mongi Ben Hmida. Guests can enjoy comfortable accommodations with great value. The guesthouse offers a range of amenities to ensure a pleasant stay, including free Wi-Fi, laundry service, and a friendly atmosphere. Its central location provides easy access to local attractions and points of interest.
+The Casa Del Mar Residence is a 4.3-rated guesthouse located in Kelibia, Tunisia. It is situated near the beach and offers a relaxing getaway for guests. The Residence has received positive reviews for its comfortable accommodations and friendly staff.
+Dar Lebharr is a cozy accommodation located in Kelibia, Tunisia. It offers a comfortable stay with a rating of 4.1 out of 5. Situated at 36.835428078688 latitude and 11.091149597327 longitude, it's easily accessible. Contact them at +33 7 81 09 91 78 for bookings or inquiries.
+Luxus Apartements is a 5-star lodge located in Kelibia, Tunisia. It offers a luxurious and comfortable stay for its guests. The lodge is situated near the beach, making it a great place to relax and enjoy the beautiful scenery. Luxus Apartements is also close to many restaurants, shops, and attractions. The lodge's staff is friendly and helpful, and they are always willing to go the extra mile to make sure that their guests have a memorable stay.
+Plage Kelibia, located at (36.84757, 11.09386), offers a picturesque beachfront experience in the city of Kelibia.
+Fort de Kelibia is a historical fortress located in Kelibia, Tunisia. It offers stunning views of the Mediterranean Sea and the port. The castle boasts a rich history and architectural significance. Visitors can explore the castle's ramparts, towers, and courtyards, and delve into the region's captivating past. With a 4.4-star rating, the fort is a popular destination for tourists and history enthusiasts alike. Its strategic location makes it a great spot to capture panoramic shots of the surrounding area.
+Plage kelibia is a popular tourist attraction located in Kelibia, Tunisia. It offers a wide range of activities, including swimming, sunbathing, and windsurfing. The beach is also home to a number of restaurants and cafes.
+The beach is located just a short drive from the city center and is easily accessible by public transportation. The beach is well-maintained and features clear blue waters and soft white sand.
+Plage kelibia is a great place to relax and enjoy the beautiful weather of Tunisia. It is also a great location to enjoy some water sports.
+The Port of Kelibia is a maritime port located in Kelibia, Tunisia. The port offers a variety of services to its customers, including fishing, cargo, and passenger transport. It is also a popular tourist destination, with many visitors coming to enjoy the beautiful scenery and the fresh seafood. The port is located at (36.8351444, 11.1116178).
+Discover the stunning Phare de Kelibia, a captivating viewpoint located at (36.8363146, 11.1113262) in Kelibia, Tunisia. Immerse yourself in the breathtaking panoramic views from the lighthouse's vantage point, making it an ideal spot for photography enthusiasts and nature lovers alike.
+The Institut superieur des etudes technologiques de Kelibia is a higher education institute located in Kelibia, Tunisia. It offers a range of technological programs and has a rating of 4.4 stars. The institute is situated at the coordinates (36.8363146, 11.1113262) and can be contacted by phone at 72 277 090. Its website is http://www.isetkl.rnu.tn/.
+Kelibia is a place located in Kelibia, Tunisia. It has a bike rental service, with a 4.2 rating based on 6 reviews. It is located at coordinates (36.836660524289, 11.111146140921).
+Marbrerie Hafefh Kacem is a popular discotheque located in Kelibia, Tunisia. It has a rating of 4.0 out of 5 on Google Maps and is known for its vibrant atmosphere and lively music. The discotheque is located at (36.8472589, 11.091058) and offers a variety of music genres to cater to different tastes. It is a popular destination for locals and tourists alike, and is a great place to dance the night away.
+El Bahri Restaurant is a seafood restaurant located in Kelibia, Tunisia. It is a popular spot for tourists and locals alike, and it offers a variety of seafood dishes, including fresh fish, grilled octopus, and seafood platters. The restaurant is open 24 hours a day, and it is closed on Tuesdays. The average rating for El Bahri Restaurant is 4.7 stars, and it has received positive reviews for its delicious food, friendly staff, and reasonable prices.
+Pizzeria LOFT ROMA is a 4.2-rated pizzeria located in kelibia, Tunisia. It operates from 08:00 to 00:00 every day and offers a wide range of pizzas. Its exact location is at R3VW+83Q Rue de Tripoli, Kelibia, Tunisia.
+Restaurant is a family-friendly restaurant located in Kelibia, Tunisia. It offers a variety of dishes, including traditional Tunisian cuisine and international fare. The restaurant is located at the coordinates (36.8472589, 11.091058) and has a rating of 5.0 out of 5 stars on Google Maps.
+Station Louage Kelibia is a taxi service located in Kelibia, Tunisia (36.84757, 11.09386). With a rating of 3.7 out of 5 based on 28 reviews, it offers reliable transportation services to its customers.
+SRTGN's station is located in Kelibia, Tunisia. It offers bus services to various destinations. The station is located at the coordinates (36.84757, 11.09386).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4032,13 +5788,71 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>If you're in kelibia and looking for a top-rated hotel, check out Maison d'hotes / Restaurant L'Hirondelle de Kelibia : Chez Amou (3ammou) located at Avenue de l'environnement (Ain Grenz), Kelibia 8090. 
-This hotel offers a range of amenities for your stay and has a rating of 4.0. You can contact them at 23 105 706.</t>
+          <t>Maison d'hotes / Restaurant L'Hirondelle de Kelibia offers a pleasant stay in a beautiful location just steps from the beach. The hotel features comfortable rooms, a relaxing atmosphere, and welcoming staff. Guests can enjoy delicious meals at the on-site restaurant while admiring the panoramic views of the Mediterranean Sea. With its convenient location and excellent amenities, Maison d'hotes / Restaurant L'Hirondelle de Kelibia is the perfect place for a memorable vacation.</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>What is the name of the highly-rated hotel located on Avenue de l'environnement in Kelibia?</t>
+          <t>Day Plan:
+Morning: Explore Fort de Kelibia for its historical significance and stunning sea views.
+Mid-Morning: Visit the Institut superieur des etudes technologiques de Kelibia to learn about the local educational system and its technological programs.
+Midday: Savor a delicious seafood lunch at El Bahri Restaurant, known for its fresh and flavorful dishes.
+Afternoon: Relax on the beautiful Plage Kelibia, where you can swim, sunbathe, or engage in water sports.
+Evening: Take a leisurely walk along the scenic Phare de Kelibia, capturing panoramic views from its captivating viewpoint.
+Night: Experience the vibrant atmosphere at Marbrerie Hafefh Kacem, a popular discotheque with lively music and a variety of genres.</t>
+        </is>
+      </c>
+      <c r="AB33" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Café Aziz is a highly-rated café located in Kelibia, Tunisia. Situated at (36.8472589, 11.091058), the café offers a warm and inviting atmosphere for customers to enjoy their favorite beverages. With a rating of 4.6 out of 5 based on 5 reviews, Café Aziz is a popular spot among locals and tourists alike.
+Hannibal coffee kelibia is a tea room located in kelibia, Tunisia. It offers a variety of teas, coffees, and pastries. The tea room is located at 36.8363146, 11.1113262.
+La Padella Kelibia is a reputable restaurant located in Kelibia. It boasts an impressive 4.6 rating based on 8 reviews, indicating its popularity and high quality. Open from 8 AM to midnight every day, La Padella Kelibia offers a wide range of dishes to cater to its diverse clientele. The restaurant's prime location at 36.8363146 latitude and 11.1113262 longitude makes it easily accessible to both locals and tourists. With its convenient hours and delicious offerings, La Padella Kelibia is the go-to destination for dining in Kelibia.
+Kelibia Paradise is a popular accommodation option in Kelibia, Tunisia. It is located at 47 Rue d'orange Cite Ezzouhour, 8090, Kelibia, and offers a range of amenities to its guests. These include a restaurant, bar, and swimming pool, as well as free Wi-Fi and parking. The hotel is situated within easy reach of the beach and other local attractions, making it an ideal base for exploring the area.
+The Cap-Bon Kelibia Beach Hotel &amp; Spa is a 4-star hotel located in Kelibia, Tunisia. It is a luxury seaside hotel offering comfortable rooms and suites, a spa and 3 refined restaurants. It is known for its beautiful beach, its large swimming pool and its animations.
+DAR COLIBRI, a 4.6-rated guesthouse located in Kelibia (36.8363146, 11.1113262), offers a unique stay in a charming setting. It features a swimming pool, hammam, and massage services, promising a relaxing and rejuvenating experience. With its proximity to the beautiful beaches of Kelibia, this guesthouse is an ideal base for exploring the region's natural wonders.
+Residence Asma is a 4.4-rated residence located in Kelibia, Tunisia. It is a great place to stay for tourists and business travelers alike. The residence offers a variety of amenities, including a swimming pool, a fitness center, and a restaurant. It is also conveniently located near the beach, the city center, and the airport. The residence has 14 reviews, all of which are positive. Guests praise the residence's cleanliness, comfort, and friendly staff.
+Pension Anis is a 4-star family-run guesthouse located in Kelibia, Tunisia. It features a prime location on Av du Dr Mongi Ben Hmida. Guests can enjoy comfortable accommodations with great value. The guesthouse offers a range of amenities to ensure a pleasant stay, including free Wi-Fi, laundry service, and a friendly atmosphere. Its central location provides easy access to local attractions and points of interest.
+The Casa Del Mar Residence is a 4.3-rated guesthouse located in Kelibia, Tunisia. It is situated near the beach and offers a relaxing getaway for guests. The Residence has received positive reviews for its comfortable accommodations and friendly staff.
+Dar Lebharr is a cozy accommodation located in Kelibia, Tunisia. It offers a comfortable stay with a rating of 4.1 out of 5. Situated at 36.835428078688 latitude and 11.091149597327 longitude, it's easily accessible. Contact them at +33 7 81 09 91 78 for bookings or inquiries.
+Luxus Apartements is a 5-star lodge located in Kelibia, Tunisia at (36.835428078688, 11.091149597327). It has a rating of 5.0 based on 1 review and is owned by Luxus Apartements (proprietaire). Luxus Apartements offers a variety of amenities and services, making it the perfect place to stay for both business and leisure travelers.
+Plage Kelibia, located at (36.84757, 11.09386), offers a picturesque beachfront experience in the city of Kelibia.
+Fort de Kelibia, located in Kelibia, is a historical fortress with an average rating of 4.4 out of 5 based on 460 reviews. It offers a stunning view of the sea, making it a great spot to enjoy the scenery. Visitors can also delve into the history of the fort or simply admire its architectural beauty. With its convenient opening hours from 9:00 AM to 6:00 PM, it's a perfect destination for tourists and history enthusiasts alike.
+Plage kelibia is a popular tourist attraction located in Kelibia, Tunisia. It offers a wide range of activities, including swimming, sunbathing, and windsurfing. The beach is also home to a number of restaurants and cafes.
+The beach is located just a short drive from the city center and is easily accessible by public transportation. The beach is well-maintained and features clear blue waters and soft white sand.
+Plage kelibia is a great place to relax and enjoy the beautiful weather of Tunisia. It is also a great location to enjoy some water sports.
+The Port of Kelibia is a maritime port located in Kelibia, Tunisia. The port offers a variety of services to its customers, including fishing, cargo, and passenger transport. It is also a popular tourist destination, with many visitors coming to enjoy the beautiful scenery and the fresh seafood. The port is located at (36.8351444, 11.1116178).
+Discover the stunning Phare de Kelibia, a captivating viewpoint located at (36.8363146, 11.1113262) in Kelibia, Tunisia. Immerse yourself in the breathtaking panoramic views from the lighthouse's vantage point, making it an ideal spot for photography enthusiasts and nature lovers alike.
+The Institut superieur des etudes technologiques de Kelibia is a higher education institute located in Kelibia, Tunisia. It offers a range of technological programs and has a rating of 4.4 stars. The institute is situated at the coordinates (36.8363146, 11.1113262) and can be contacted by phone at 72 277 090. Its website is http://www.isetkl.rnu.tn/.
+Kelibia is a place located in Kelibia, Tunisia. It has a bike rental service, with a 4.2 rating based on 6 reviews. It is located at coordinates (36.836660524289, 11.111146140921).
+Marbrerie Hafefh Kacem is a popular discotheque located in Kelibia, Tunisia. It has a rating of 4.0 out of 5 on Google Maps and is known for its vibrant atmosphere and lively music. The discotheque is located at (36.8472589, 11.091058) and offers a variety of music genres to cater to different tastes. It is a popular destination for locals and tourists alike, and is a great place to dance the night away.
+El Bahri Restaurant is a seafood restaurant located in Kelibia, Tunisia. It is a popular spot for tourists and locals alike, and it offers a variety of seafood dishes, including fresh fish, grilled octopus, and seafood platters. The restaurant is open 24 hours a day, and it is closed on Tuesdays. The average rating for El Bahri Restaurant is 4.7 stars, and it has received positive reviews for its delicious food, friendly staff, and reasonable prices.
+"La Luna", a 4-star Pizzeria, located in Kelibia, Tunisia. It's reachable by phone and has a website. It's open daily from 08:00-22:00, and its coordinates are (36.8472589, 11.091058).
+Restaurant is a family-friendly restaurant located in Kelibia, Tunisia. It offers a variety of dishes, including traditional Tunisian cuisine and international fare. The restaurant is located at the coordinates (36.8472589, 11.091058) and has a rating of 5.0 out of 5 stars on Google Maps.
+Station Louage Kelibia is a taxi service located in Kelibia, Tunisia (36.84757, 11.09386). With a rating of 3.7 out of 5 based on 28 reviews, it offers reliable transportation services to its customers.
+SRTGN (station Kelibia) is a bus station located in Kelibia with the coordinates (36.84757, 11.09386). It offers bus services to various destinations.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4140,12 +5954,75 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>If you're in Kelibia and looking for a great place to stay, check out Kelibia Paradise located at 47 Rue d'orange Cite Ezzouhour, 8090, Kelibia. This top-rated destination is perfect for accommodation lovers. With a rating of 4.6, it's a must-visit spot. To get there, use these GPS coordinates: 36.846063992403, 11.098431810317. For more details, call them at 95 496 413.</t>
+          <t>Kelibia Paradise is a lodging facility located in Kelibia, Tunisia. It has a rating of 4.6 and has received 18 reviews. The facility offers accommodation with a main focus on comfort and relaxation. Its geolocation is at longitude 11.098431810317 and latitude 36.846063992403.</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated accommodation spot in Kelibia with GPS coordinates 36.846063992403, 11.098431810317 and a 4.6 rating?</t>
+          <t>Day Plan:
+Morning:
+- Explore the historical Fort de Kelibia for stunning views of the Mediterranean Sea.
+Mid-Morning:
+- Visit the Phare de Kelibia for breathtaking panoramic views and photography opportunities.
+Midday:
+- Indulge in a delicious seafood lunch at the highly-rated El Bahri Restaurant.
+Afternoon:
+- Relax and unwind at the luxurious Casa Del Mar Residence with a soothing spa treatment.
+Evening:
+- Experience the vibrant atmosphere and lively music at the popular Marbrerie Hafefh Kacem discotheque.
+Night:
+- Enjoy a delightful dinner at Restaurant, known for its family-friendly ambiance and authentic Tunisian cuisine.</t>
+        </is>
+      </c>
+      <c r="AB34" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Story coffee kelibia is a popular cafe in kelibia, located at the coordinates (36.848013989197, 11.098336416111). Open 24 hours a day, it offers a welcoming atmosphere with a rating of 5.0 based on 4 reviews.
+Located in Kelibia (latitude 36.836660524289, and longitude 11.111146140921), Big Ben is a teahouse offering a pleasant setting to relax and enjoy a break.
+Street Food Kelibia is a restaurant located in Kelibia, Tunisia at the following coordinates: (36.848013989197, 11.098336416111). The restaurant serves a variety of dishes and is rated 4.0 out of 5 stars based on 1 review. It is open from 09:00 to 00:00 and closed on .
+Myriam Bel Air is a popular hotel located in Kelibia, Tunisia. It offers a comfortable and convenient stay for its guests, with a 4.2-star rating on Google. The hotel has 14 reviews, with an overall positive feedback from its guests. It provides a range of amenities, including comfortable rooms, a swimming pool, and a restaurant. The hotel's website features additional information and booking options, and it is well-connected with major tourist attractions in the area.
+The Cap-Bon Kelibia Beach Hotel &amp; Spa is a 4-star hotel located in Kelibia, Tunisia. It is a luxury seaside hotel offering comfortable rooms and suites, a spa and 3 refined restaurants. It is known for its beautiful beach, its large swimming pool and its animations.
+Dar Meriem - Maison d'hôtes is a guest house located in Kelibia, Tunisia. It offers comfortable accommodation and a warm and welcoming atmosphere. The guest house is perfectly situated for exploring the city and its surroundings, and is close to a variety of amenities. The guest house is managed by a friendly and helpful team of staff who are always on hand to assist guests with any queries or needs.
+Residence Asma is a 4.4-rated residence located in Kelibia, Tunisia. It is a great place to stay for tourists and business travelers alike. The residence offers a variety of amenities, including a swimming pool, a fitness center, and a restaurant. It is also conveniently located near the beach, the city center, and the airport. The residence has 14 reviews, all of which are positive. Guests praise the residence's cleanliness, comfort, and friendly staff.
+Pension Anis is a 4-star family-run guesthouse located in Kelibia, Tunisia. It features a prime location on Av du Dr Mongi Ben Hmida. Guests can enjoy comfortable accommodations with great value. The guesthouse offers a range of amenities to ensure a pleasant stay, including free Wi-Fi, laundry service, and a friendly atmosphere. Its central location provides easy access to local attractions and points of interest.
+The Casa Del Mar Residence is a 4.3-rated guesthouse located in Kelibia, Tunisia. It is situated near the beach and offers a relaxing getaway for guests. The Residence has received positive reviews for its comfortable accommodations and friendly staff.
+Dar Lebharr is a cozy accommodation located in Kelibia, Tunisia. It offers a comfortable stay with a rating of 4.1 out of 5. Situated at 36.835428078688 latitude and 11.091149597327 longitude, it's easily accessible. Contact them at +33 7 81 09 91 78 for bookings or inquiries.
+Luxus Apartements is a 5-star lodge located in Kelibia, Tunisia. It offers a luxurious and comfortable stay for its guests. The lodge is situated near the beach, making it a great place to relax and enjoy the beautiful scenery. Luxus Apartements is also close to many restaurants, shops, and attractions. The lodge's staff is friendly and helpful, and they are always willing to go the extra mile to make sure that their guests have a memorable stay.
+Plage Kelibia, located at (36.84757, 11.09386), offers a picturesque beachfront experience in the city of Kelibia.
+Fort de Kelibia is a historical fortress located in Kelibia, Tunisia. It offers stunning views of the Mediterranean Sea and the port. The castle boasts a rich history and architectural significance. Visitors can explore the castle's ramparts, towers, and courtyards, and delve into the region's captivating past. With a 4.4-star rating, the fort is a popular destination for tourists and history enthusiasts alike. Its strategic location makes it a great spot to capture panoramic shots of the surrounding area.
+Plage Kelibia is a tourist attraction located at the coordinates (36.84757, 11.09386) in Kelibia, Tunisia. With a rating of 4.6 based on 37 reviews, it is a popular destination for tourists. The beach offers a range of activities and amenities, including swimming, sunbathing, and beach volleyball. It is also home to a number of restaurants and cafes, making it a great place to relax and enjoy the scenery.
+The Port of Kelibia is a maritime port located in Kelibia, Tunisia. The port offers a variety of services to its customers, including fishing, cargo, and passenger transport. It is also a popular tourist destination, with many visitors coming to enjoy the beautiful scenery and the fresh seafood. The port is located at (36.8351444, 11.1116178).
+Discover the stunning Phare de Kelibia, a captivating viewpoint located at (36.8363146, 11.1113262) in Kelibia, Tunisia. Immerse yourself in the breathtaking panoramic views from the lighthouse's vantage point, making it an ideal spot for photography enthusiasts and nature lovers alike.
+The Institut superieur des etudes technologiques de Kelibia is a higher education institute located in Kelibia, Tunisia. It offers a range of technological programs and has a rating of 4.4 stars. The institute is situated at the coordinates (36.8363146, 11.1113262) and can be contacted by phone at 72 277 090. Its website is http://www.isetkl.rnu.tn/.
+Kelibia is a place located in Kelibia, Tunisia. It has a bike rental service, with a 4.2 rating based on 6 reviews. It is located at coordinates (36.836660524289, 11.111146140921).
+Marbrerie Hafefh Kacem is a popular discotheque located in Kelibia, Tunisia. It has a rating of 4.0 out of 5 on Google Maps and is known for its vibrant atmosphere and lively music. The discotheque is located at (36.8472589, 11.091058) and offers a variety of music genres to cater to different tastes. It is a popular destination for locals and tourists alike, and is a great place to dance the night away.
+El Bahri Restaurant is a seafood restaurant located in Kelibia, Tunisia. It is a popular spot for tourists and locals alike, and it offers a variety of seafood dishes, including fresh fish, grilled octopus, and seafood platters. The restaurant is open 24 hours a day, and it is closed on Tuesdays. The average rating for El Bahri Restaurant is 4.7 stars, and it has received positive reviews for its delicious food, friendly staff, and reasonable prices.
+Del Capo is a 5-star rated pizzeria located in Kelibia, Tunisia. It is situated at the address: 8090 Av. de Martyrs with coordinates (36.842587762817, 11.099081841049). This highly-rated spot operates from 12:00 to 00:00 during the week and offers a delectable range of pizzas.
+Restaurant is a family-friendly restaurant located in Kelibia, Tunisia. It offers a variety of dishes, including traditional Tunisian cuisine and international fare. The restaurant is located at the coordinates (36.8472589, 11.091058) and has a rating of 5.0 out of 5 stars on Google Maps.
+Station Louage Kelibia is a taxi service located in Kelibia, Tunisia (36.84757, 11.09386). With a rating of 3.7 out of 5 based on 28 reviews, it offers reliable transportation services to its customers.
+SRTGN (station Kelibia) is a bus station located in Kelibia with the coordinates (36.84757, 11.09386). It offers bus services to various destinations.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4251,13 +6128,71 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>If you're in kelibia and looking for a place to stay, check out Myriam Bel Air located at Avenue Pasteur El Mansourah, 8090, Kelibia. 
-This top-rated destination is a must-visit spot, boasting a rating of 4.2. For more details, visit their website at https://myriam.com.tn/ or call them at 58 555 933.</t>
+          <t>Myriam Bel Air is a popular hotel located in Kelibia, Tunisia. It offers a comfortable and convenient stay for its guests, with a 4.2-star rating on Google. The hotel has 14 reviews, with an overall positive feedback from its guests. It provides a range of amenities, including comfortable rooms, a swimming pool, and a restaurant. The hotel's website features additional information and booking options, and it is well-connected with major tourist attractions in the area.</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated accommodation (4.2) in Kelibia, conveniently located on Avenue Pasteur El Mansourah?</t>
+          <t>Day Plan:
+Morning: Explore the historic Fort de Kelibia, offering stunning views of the sea.
+Mid-Morning: Immerse yourself in the beauty of Phare de Kelibia, capturing breathtaking panoramic shots from its vantage point.
+Midday: Savor local cuisine at Restaurant Tulipe, specializing in traditional Tunisian dishes.
+Afternoon: Unwind at Plage Kelibia, enjoying swimming, sunbathing, or windsurfing amid the scenic surroundings.
+Evening: Visit the bustling Marbrerie Hafefh Kacem discotheque, immersing yourself in the lively atmosphere and dancing the night away.
+Night: Relish a delightful seafood dinner at El Bahri Restaurant, known for its fresh fish and grilled seafood specialties.</t>
+        </is>
+      </c>
+      <c r="AB35" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Café dar el chaaeb is a cafe situated in kelibia, Tunisia, at coordinates (36.8472589, 11.091058). The café is open from 6:15 am to midnight, and closed on Wednesdays and Saturdays. It offers a variety of services, including food and drinks.
+Hannibal coffee kelibia is a tea room located in kelibia, Tunisia. It offers a variety of teas, coffees, and pastries. The tea room is located at 36.8363146, 11.1113262.
+Restaurant Tulipe is located in Kelibia, Tunisia at the coordinates (36.835428078688, 11.091149597327). The restaurant has received a 4.1 rating based on 7 reviews and specializes in Restaurant cuisine. It is open from 12:00-02:00 and is closed on . The restaurant's phone number is 26 205 522.
+Kelibia Paradise is a popular accommodation option in Kelibia, Tunisia. It is located at 47 Rue d'orange Cite Ezzouhour, 8090, Kelibia, and offers a range of amenities to its guests. These include a restaurant, bar, and swimming pool, as well as free Wi-Fi and parking. The hotel is situated within easy reach of the beach and other local attractions, making it an ideal base for exploring the area.
+Nestled in the picturesque Kelibia region, Cap-Bon Kelibia Beach Hotel &amp; Spa is an upscale resort offering 562 warmly designed rooms and suites. With its stunning beachfront location and serene ambiance, the hotel is an ideal destination for leisure and relaxation. It features an array of amenities, including a rejuvenating spa, three refined dining options, and an inviting swimming pool, ensuring an unforgettable stay in the heart of Kelibia.
+DAR COLIBRI, a 4.6-rated guesthouse located in Kelibia (36.8363146, 11.1113262), offers a unique stay in a charming setting. It features a swimming pool, hammam, and massage services, promising a relaxing and rejuvenating experience. With its proximity to the beautiful beaches of Kelibia, this guesthouse is an ideal base for exploring the region's natural wonders.
+Residence Asma is a 4.4-rated residence located in Kelibia, Tunisia. It is a great place to stay for tourists and business travelers alike. The residence offers a variety of amenities, including a swimming pool, a fitness center, and a restaurant. It is also conveniently located near the beach, the city center, and the airport. The residence has 14 reviews, all of which are positive. Guests praise the residence's cleanliness, comfort, and friendly staff.
+Pension Anis is a 4-star family-run guesthouse located in Kelibia, Tunisia. It features a prime location on Av du Dr Mongi Ben Hmida. Guests can enjoy comfortable accommodations with great value. The guesthouse offers a range of amenities to ensure a pleasant stay, including free Wi-Fi, laundry service, and a friendly atmosphere. Its central location provides easy access to local attractions and points of interest.
+The Casa Del Mar Residence is a 4.3-rated guesthouse located in Kelibia, Tunisia. It is situated near the beach and offers a relaxing getaway for guests. The Residence has received positive reviews for its comfortable accommodations and friendly staff.
+Dar Lebharr is a cozy accommodation located in Kelibia, Tunisia. It offers a comfortable stay with a rating of 4.1 out of 5. Situated at 36.835428078688 latitude and 11.091149597327 longitude, it's easily accessible. Contact them at +33 7 81 09 91 78 for bookings or inquiries.
+Luxus Apartements is a 5-star lodge located in Kelibia, Tunisia. It offers a luxurious and comfortable stay for its guests. The lodge is situated near the beach, making it a great place to relax and enjoy the beautiful scenery. Luxus Apartements is also close to many restaurants, shops, and attractions. The lodge's staff is friendly and helpful, and they are always willing to go the extra mile to make sure that their guests have a memorable stay.
+Plage Kelibia, located at (36.84757, 11.09386), offers a picturesque beachfront experience in the city of Kelibia.
+Fort de Kelibia, located in Kelibia, is a historical fortress with an average rating of 4.4 out of 5 based on 460 reviews. It offers a stunning view of the sea, making it a great spot to enjoy the scenery. Visitors can also delve into the history of the fort or simply admire its architectural beauty. With its convenient opening hours from 9:00 AM to 6:00 PM, it's a perfect destination for tourists and history enthusiasts alike.
+Plage kelibia is a popular tourist attraction located in Kelibia, Tunisia. It offers a wide range of activities, including swimming, sunbathing, and windsurfing. The beach is also home to a number of restaurants and cafes.
+The beach is located just a short drive from the city center and is easily accessible by public transportation. The beach is well-maintained and features clear blue waters and soft white sand.
+Plage kelibia is a great place to relax and enjoy the beautiful weather of Tunisia. It is also a great location to enjoy some water sports.
+The Port of Kelibia is a maritime port located in Kelibia, Tunisia. The port offers a variety of services to its customers, including fishing, cargo, and passenger transport. It is also a popular tourist destination, with many visitors coming to enjoy the beautiful scenery and the fresh seafood. The port is located at (36.8351444, 11.1116178).
+Discover the stunning Phare de Kelibia, a captivating viewpoint located at (36.8363146, 11.1113262) in Kelibia, Tunisia. Immerse yourself in the breathtaking panoramic views from the lighthouse's vantage point, making it an ideal spot for photography enthusiasts and nature lovers alike.
+The Institut superieur des etudes technologiques de Kelibia is a higher education institute located in Kelibia, Tunisia. It offers a range of technological programs and has a rating of 4.4 stars. The institute is situated at the coordinates (36.8363146, 11.1113262) and can be contacted by phone at 72 277 090. Its website is http://www.isetkl.rnu.tn/.
+Kelibia is a place located in Kelibia, Tunisia. It has a bike rental service, with a 4.2 rating based on 6 reviews. It is located at coordinates (36.836660524289, 11.111146140921).
+Marbrerie Hafefh Kacem is a popular discotheque located in Kelibia, Tunisia. It has a rating of 4.0 out of 5 on Google Maps and is known for its vibrant atmosphere and lively music. The discotheque is located at (36.8472589, 11.091058) and offers a variety of music genres to cater to different tastes. It is a popular destination for locals and tourists alike, and is a great place to dance the night away.
+El Bahri Restaurant is a seafood restaurant located in Kelibia, Tunisia. It is a popular spot for tourists and locals alike, and it offers a variety of seafood dishes, including fresh fish, grilled octopus, and seafood platters. The restaurant is open 24 hours a day, and it is closed on Tuesdays. The average rating for El Bahri Restaurant is 4.7 stars, and it has received positive reviews for its delicious food, friendly staff, and reasonable prices.
+"La Luna", a 4-star Pizzeria, located in Kelibia, Tunisia. It's reachable by phone and has a website. It's open daily from 08:00-22:00, and its coordinates are (36.8472589, 11.091058).
+Restaurant is a family-friendly restaurant located in Kelibia, Tunisia. It offers a variety of dishes, including traditional Tunisian cuisine and international fare. The restaurant is located at the coordinates (36.8472589, 11.091058) and has a rating of 5.0 out of 5 stars on Google Maps.
+Station Louage Kelibia is a taxi service located in Kelibia, Tunisia (36.84757, 11.09386). With a rating of 3.7 out of 5 based on 28 reviews, it offers reliable transportation services to its customers.
+SRTGN (station Kelibia) is a bus station located in Kelibia, Tunisia. It offers basic amenities and services for travelers, and is conveniently situated at (36.84757, 11.09386).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4359,12 +6294,71 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>If you're in kelibia and looking for a comfortable stay, check out Residence Asma located at Rue Jean Jaque Rousseau El Mansoura, Avenue De La Mansoura. This top-rated destination is perfect for Residence hoteliere lovers and offers a range of categories to choose from. With a rating of 4.4, it's a must-visit spot. To get there, use these GPS coordinates: 36.8363146, 11.1113262. For more details, visit their link at https://www.google.com/maps/place/R%C3%A9sidence+Asma/data=!4m10!3m9!1s0x131d32348fa6df07:0xce14c61d69039db7!5m2!4m1!1i2!8m2!3d36.8435681!4d11.1186905!16s%2Fg%2F11cmcf4gdh!19sChIJB9-mjzQyHRMRt50DaR3GFM4?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 98 248 341.</t>
+          <t>Residence Asma is a 4.4-rated residence located in Kelibia, Tunisia. It is a great place to stay for tourists and business travelers alike. The residence offers a variety of amenities, including a swimming pool, a fitness center, and a restaurant. It is also conveniently located near the beach, the city center, and the airport. The residence has 14 reviews, all of which are positive. Guests praise the residence's cleanliness, comfort, and friendly staff.</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
         <is>
-          <t>Where in Kelibia can you find the highly rated Residence Asma, offering comfortable accommodations for those seeking a Residence hoteliere experience?</t>
+          <t>Day Plan:
+Morning: Visit Fort de Kelibia, a historical fortress showcasing stunning views of the Mediterranean Sea and the port.
+Mid-Morning: Explore the Port of Kelibia, experiencing the fishing, cargo, and passenger transport activities while admiring the beautiful scenery.
+Midday: Enjoy a delicious seafood lunch at El Bahri Restaurant, renowned for its fresh fish, grilled octopus, and seafood platters.
+Afternoon: Relax at Plage kelibia, enjoying swimming, sunbathing, or windsurfing. Take advantage of the crystal-clear waters and white sandy beach.
+Evening: Head to "La Luna" Pizzeria for dinner, savoring authentic Italian pizzas in a lively atmosphere. Delight in the flavors and enjoy a memorable dining experience.
+Night: Experience the vibrant nightlife at Marbrerie Hafefh Kacem, a discotheque known for its energetic music and lively dance floor. Dance the night away and immerse yourself in the local party scene.</t>
+        </is>
+      </c>
+      <c r="AB36" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Coffee King Kelibia, located in the bustling town of Kelibia, is a haven for coffee enthusiasts. With a cozy and inviting atmosphere, the cafe is the perfect spot to unwind and savor a cup of freshly brewed coffee. Its convenient location and high ratings make it a must-visit destination for locals and tourists alike.
+Hannibal coffee kelibia is a tea room located in kelibia, Tunisia. It offers a variety of teas, coffees, and pastries. The tea room is located at 36.8363146, 11.1113262.
+Street Food Kelibia is a restaurant located in Kelibia, Tunisia at the following coordinates: (36.848013989197, 11.098336416111). The restaurant serves a variety of dishes and is rated 4.0 out of 5 stars based on 1 review. It is open from 09:00 to 00:00 and closed on .
+Kelibia Paradise is a lodging facility located in Kelibia, Tunisia. It has a rating of 4.6 and has received 18 reviews. The facility offers accommodation with a main focus on comfort and relaxation. Its geolocation is at longitude 11.098431810317 and latitude 36.846063992403.
+The Cap-Bon Kelibia Beach Hotel &amp; Spa is a 4-star hotel located in Kelibia, Tunisia. It is a luxury seaside hotel offering comfortable rooms and suites, a spa and 3 refined restaurants. It is known for its beautiful beach, its large swimming pool and its animations.
+DAR COLIBRI, a 4.6-rated guesthouse located in Kelibia (36.8363146, 11.1113262), offers a unique stay in a charming setting. It features a swimming pool, hammam, and massage services, promising a relaxing and rejuvenating experience. With its proximity to the beautiful beaches of Kelibia, this guesthouse is an ideal base for exploring the region's natural wonders.
+Residence Asma is a 4.4-rated residence located in Kelibia, Tunisia. It is a great place to stay for tourists and business travelers alike. The residence offers a variety of amenities, including a swimming pool, a fitness center, and a restaurant. It is also conveniently located near the beach, the city center, and the airport. The residence has 14 reviews, all of which are positive. Guests praise the residence's cleanliness, comfort, and friendly staff.
+Pension Anis is a 4-star family-run guesthouse located in Kelibia, Tunisia. It features a prime location on Av du Dr Mongi Ben Hmida. Guests can enjoy comfortable accommodations with great value. The guesthouse offers a range of amenities to ensure a pleasant stay, including free Wi-Fi, laundry service, and a friendly atmosphere. Its central location provides easy access to local attractions and points of interest.
+The Casa Del Mar Residence is a 4.3-rated guesthouse located in Kelibia, Tunisia. It is situated near the beach and offers a relaxing getaway for guests. The Residence has received positive reviews for its comfortable accommodations and friendly staff.
+Dar Lebharr is a cozy accommodation located in Kelibia, Tunisia. It offers a comfortable stay with a rating of 4.1 out of 5. Situated at 36.835428078688 latitude and 11.091149597327 longitude, it's easily accessible. Contact them at +33 7 81 09 91 78 for bookings or inquiries.
+Luxus Apartements is a 5-star lodge located in Kelibia, Tunisia at (36.835428078688, 11.091149597327). It has a rating of 5.0 based on 1 review and is owned by Luxus Apartements (proprietaire). Luxus Apartements offers a variety of amenities and services, making it the perfect place to stay for both business and leisure travelers.
+Plage Kelibia, located at (36.84757, 11.09386), offers a picturesque beachfront experience in the city of Kelibia.
+Fort de Kelibia is a historical fortress located in Kelibia, Tunisia. It offers stunning views of the Mediterranean Sea and the port. The castle boasts a rich history and architectural significance. Visitors can explore the castle's ramparts, towers, and courtyards, and delve into the region's captivating past. With a 4.4-star rating, the fort is a popular destination for tourists and history enthusiasts alike. Its strategic location makes it a great spot to capture panoramic shots of the surrounding area.
+Plage kelibia is a popular tourist attraction located in Kelibia, Tunisia. It offers a wide range of activities, including swimming, sunbathing, and windsurfing. The beach is also home to a number of restaurants and cafes.
+The beach is located just a short drive from the city center and is easily accessible by public transportation. The beach is well-maintained and features clear blue waters and soft white sand.
+Plage kelibia is a great place to relax and enjoy the beautiful weather of Tunisia. It is also a great location to enjoy some water sports.
+The Port of Kelibia is a maritime port located in Kelibia, Tunisia. The port offers a variety of services to its customers, including fishing, cargo, and passenger transport. It is also a popular tourist destination, with many visitors coming to enjoy the beautiful scenery and the fresh seafood. The port is located at (36.8351444, 11.1116178).
+Discover the stunning Phare de Kelibia, a captivating viewpoint located at (36.8363146, 11.1113262) in Kelibia, Tunisia. Immerse yourself in the breathtaking panoramic views from the lighthouse's vantage point, making it an ideal spot for photography enthusiasts and nature lovers alike.
+The Institut superieur des etudes technologiques de Kelibia is a higher education institute located in Kelibia, Tunisia. It offers a range of technological programs and has a rating of 4.4 stars. The institute is situated at the coordinates (36.8363146, 11.1113262) and can be contacted by phone at 72 277 090. Its website is http://www.isetkl.rnu.tn/.
+Kelibia is a place located in Kelibia, Tunisia. It has a bike rental service, with a 4.2 rating based on 6 reviews. It is located at coordinates (36.836660524289, 11.111146140921).
+Marbrerie Hafefh Kacem is a popular discotheque located in Kelibia, Tunisia. It has a rating of 4.0 out of 5 on Google Maps and is known for its vibrant atmosphere and lively music. The discotheque is located at (36.8472589, 11.091058) and offers a variety of music genres to cater to different tastes. It is a popular destination for locals and tourists alike, and is a great place to dance the night away.
+El Bahri Restaurant is a seafood restaurant located in Kelibia, Tunisia. It is a popular spot for tourists and locals alike, and it offers a variety of seafood dishes, including fresh fish, grilled octopus, and seafood platters. The restaurant is open 24 hours a day, and it is closed on Tuesdays. The average rating for El Bahri Restaurant is 4.7 stars, and it has received positive reviews for its delicious food, friendly staff, and reasonable prices.
+"La Luna", a 4-star Pizzeria, located in Kelibia, Tunisia. It's reachable by phone and has a website. It's open daily from 08:00-22:00, and its coordinates are (36.8472589, 11.091058).
+Restaurant is a family-friendly restaurant located in Kelibia, Tunisia. It offers a variety of dishes, including traditional Tunisian cuisine and international fare. The restaurant is located at the coordinates (36.8472589, 11.091058) and has a rating of 5.0 out of 5 stars on Google Maps.
+Station Louage Kelibia is a taxi service located in Kelibia, Tunisia (36.84757, 11.09386). With a rating of 3.7 out of 5 based on 28 reviews, it offers reliable transportation services to its customers.
+SRTGN's station is located in Kelibia, Tunisia. It offers bus services to various destinations. The station is located at the coordinates (36.84757, 11.09386).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4466,14 +6460,71 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>If you're in kelibia and looking for something fun to do, check out Pension Anis located at R3VW+Q2P Pension Anis, Av. du Dr Mongi Ben Hmida, Kelibia. 
-This top-rated destination is perfect for Pension de famille lovers. 
-With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.8472589, 11.091058. For more details, call them at 72 295 777.</t>
+          <t>Pension Anis is a 4-star family-run guesthouse located in Kelibia, Tunisia. It features a prime location on Av du Dr Mongi Ben Hmida. Guests can enjoy comfortable accommodations with great value. The guesthouse offers a range of amenities to ensure a pleasant stay, including free Wi-Fi, laundry service, and a friendly atmosphere. Its central location provides easy access to local attractions and points of interest.</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated (4.0) Pension de famille, Pension Anis, in Kelibia?</t>
+          <t>Day Plan:
+Morning: Explore the historical Fort de Kelibia for its stunning sea views and architectural beauty.
+Mid-Morning: Visit the Phare de Kelibia for panoramic views and capture the picturesque scenery of the city.
+Midday: Indulge in the local cuisine at El Bahri Restaurant, renowned for its delicious seafood dishes and fresh catches.
+Afternoon: Take a leisurely stroll through Kelibia Beach, enjoying the warm Tunisian sun and the refreshing ocean breeze.
+Evening: Experience the vibrant atmosphere of Marbrerie Hafefh Kacem, a popular discotheque with lively music and a great place to dance the night away.
+Night: Head to Pizzeria LOFT ROMA for a delicious pizza dinner and enjoy the friendly ambiance and flavors of local cuisine.</t>
+        </is>
+      </c>
+      <c r="AB37" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Café dar el chaaeb is a cafe situated in kelibia, Tunisia, at coordinates (36.8472589, 11.091058). The café is open from 6:15 am to midnight, and closed on Wednesdays and Saturdays. It offers a variety of services, including food and drinks.
+Located in Kelibia (latitude 36.836660524289, and longitude 11.111146140921), Big Ben is a teahouse offering a pleasant setting to relax and enjoy a break.
+Lounge Cafe, rated 5.0 out of 5 by 1 reviewer, is a restaurant located at R3WQ+H9M, Av. Habib-Bourguiba, Kelibia, Tunisia. It is open from 6:00 am to 2:00 pm daily, and its main category is Restaurant. Its featured image can be found at https://lh5.googleusercontent.com/p/AF1QipOvbL7FtV4P7-K_sbXDNGp51x8sIv60Kakq6a4-=w408-h408-k-no.
+Kelibia Paradise is a lodging facility located in Kelibia, Tunisia. It has a rating of 4.6 and has received 18 reviews. The facility offers accommodation with a main focus on comfort and relaxation. Its geolocation is at longitude 11.098431810317 and latitude 36.846063992403.
+Nestled in the picturesque Kelibia region, Cap-Bon Kelibia Beach Hotel &amp; Spa is an upscale resort offering 562 warmly designed rooms and suites. With its stunning beachfront location and serene ambiance, the hotel is an ideal destination for leisure and relaxation. It features an array of amenities, including a rejuvenating spa, three refined dining options, and an inviting swimming pool, ensuring an unforgettable stay in the heart of Kelibia.
+Dar Meriem - Maison d'hôtes is a guest house located in Kelibia, Tunisia. It offers comfortable accommodation and a warm and welcoming atmosphere. The guest house is perfectly situated for exploring the city and its surroundings, and is close to a variety of amenities. The guest house is managed by a friendly and helpful team of staff who are always on hand to assist guests with any queries or needs.
+Residence Asma is a 4.4-rated residence located in Kelibia, Tunisia. It is a great place to stay for tourists and business travelers alike. The residence offers a variety of amenities, including a swimming pool, a fitness center, and a restaurant. It is also conveniently located near the beach, the city center, and the airport. The residence has 14 reviews, all of which are positive. Guests praise the residence's cleanliness, comfort, and friendly staff.
+Pension Anis is a 4-star family-run guesthouse located in Kelibia, Tunisia. It features a prime location on Av du Dr Mongi Ben Hmida. Guests can enjoy comfortable accommodations with great value. The guesthouse offers a range of amenities to ensure a pleasant stay, including free Wi-Fi, laundry service, and a friendly atmosphere. Its central location provides easy access to local attractions and points of interest.
+The Casa Del Mar Residence is a 4.3-rated guesthouse located in Kelibia, Tunisia. It is situated near the beach and offers a relaxing getaway for guests. The Residence has received positive reviews for its comfortable accommodations and friendly staff.
+Dar Lebharr is a cozy accommodation located in Kelibia, Tunisia. It offers a comfortable stay with a rating of 4.1 out of 5. Situated at 36.835428078688 latitude and 11.091149597327 longitude, it's easily accessible. Contact them at +33 7 81 09 91 78 for bookings or inquiries.
+Luxus Apartements is a 5-star lodge located in Kelibia, Tunisia at (36.835428078688, 11.091149597327). It has a rating of 5.0 based on 1 review and is owned by Luxus Apartements (proprietaire). Luxus Apartements offers a variety of amenities and services, making it the perfect place to stay for both business and leisure travelers.
+Plage Kelibia, located at (36.84757, 11.09386), offers a picturesque beachfront experience in the city of Kelibia.
+Fort de Kelibia, located in Kelibia, is a historical fortress with an average rating of 4.4 out of 5 based on 460 reviews. It offers a stunning view of the sea, making it a great spot to enjoy the scenery. Visitors can also delve into the history of the fort or simply admire its architectural beauty. With its convenient opening hours from 9:00 AM to 6:00 PM, it's a perfect destination for tourists and history enthusiasts alike.
+Plage kelibia is a popular tourist attraction located in Kelibia, Tunisia. It offers a wide range of activities, including swimming, sunbathing, and windsurfing. The beach is also home to a number of restaurants and cafes.
+The beach is located just a short drive from the city center and is easily accessible by public transportation. The beach is well-maintained and features clear blue waters and soft white sand.
+Plage kelibia is a great place to relax and enjoy the beautiful weather of Tunisia. It is also a great location to enjoy some water sports.
+The Port of Kelibia is a maritime port located in Kelibia, Tunisia. The port offers a variety of services to its customers, including fishing, cargo, and passenger transport. It is also a popular tourist destination, with many visitors coming to enjoy the beautiful scenery and the fresh seafood. The port is located at (36.8351444, 11.1116178).
+Discover the stunning Phare de Kelibia, a captivating viewpoint located at (36.8363146, 11.1113262) in Kelibia, Tunisia. Immerse yourself in the breathtaking panoramic views from the lighthouse's vantage point, making it an ideal spot for photography enthusiasts and nature lovers alike.
+The Institut superieur des etudes technologiques de Kelibia is a higher education institute located in Kelibia, Tunisia. It offers a range of technological programs and has a rating of 4.4 stars. The institute is situated at the coordinates (36.8363146, 11.1113262) and can be contacted by phone at 72 277 090. Its website is http://www.isetkl.rnu.tn/.
+Kelibia is a place located in Kelibia, Tunisia. It has a bike rental service, with a 4.2 rating based on 6 reviews. It is located at coordinates (36.836660524289, 11.111146140921).
+Marbrerie Hafefh Kacem is a popular discotheque located in Kelibia, Tunisia. It has a rating of 4.0 out of 5 on Google Maps and is known for its vibrant atmosphere and lively music. The discotheque is located at (36.8472589, 11.091058) and offers a variety of music genres to cater to different tastes. It is a popular destination for locals and tourists alike, and is a great place to dance the night away.
+El Bahri Restaurant is a seafood restaurant located in Kelibia, Tunisia. It is a popular spot for tourists and locals alike, and it offers a variety of seafood dishes, including fresh fish, grilled octopus, and seafood platters. The restaurant is open 24 hours a day, and it is closed on Tuesdays. The average rating for El Bahri Restaurant is 4.7 stars, and it has received positive reviews for its delicious food, friendly staff, and reasonable prices.
+Pizzeria LOFT ROMA is a 4.2-rated pizzeria located in kelibia, Tunisia. It operates from 08:00 to 00:00 every day and offers a wide range of pizzas. Its exact location is at R3VW+83Q Rue de Tripoli, Kelibia, Tunisia.
+Restaurant is a family-friendly restaurant located in Kelibia, Tunisia. It offers a variety of dishes, including traditional Tunisian cuisine and international fare. The restaurant is located at the coordinates (36.8472589, 11.091058) and has a rating of 5.0 out of 5 stars on Google Maps.
+Station Louage Kelibia is a taxi service located in Kelibia, Tunisia (36.84757, 11.09386). With a rating of 3.7 out of 5 based on 28 reviews, it offers reliable transportation services to its customers.
+SRTGN (station Kelibia) is a bus station located in Kelibia, Tunisia. It offers basic amenities and services for travelers, and is conveniently situated at (36.84757, 11.09386).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4575,12 +6626,69 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>If you're in kelibia and looking for a great place to stay, check out Casa Del Mar Residence located at R3FF+766, Kelibia. This top-rated guest house is perfect for travelers looking for a relaxing and comfortable stay. With a rating of 4.3, it's a must-visit spot. This guest house is open 24/7. To get there, use these GPS coordinates: 26.654754, -80.121903. For more details, visit their website at https://www.google.com/maps/place/Casa+Del+Mar+Residence/data=!4m10!3m9!1s0x131d3380394c5f45:0x4e17345d6c78dead!5m2!4m1!1i2!8m2!3d36.8231566!4d11.073003!16s%2Fg%2F11f06jhmml!19sChIJRV9MOYAzHRMRrd54bF00F04?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 97 970 097.</t>
+          <t>The Casa Del Mar Residence is a 4.3-rated guesthouse located in Kelibia, Tunisia. It is situated near the beach and offers a relaxing getaway for guests. The Residence has received positive reviews for its comfortable accommodations and friendly staff.</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
         <is>
-          <t>What is the name and location of the highly-rated guest house in Kelibia that offers a relaxing and comfortable stay?</t>
+          <t>Day Plan:
+Morning: Explore the historical Fort de Kelibia, offering stunning sea views and a glimpse into the town's past.
+Mid-Morning: Visit the Institut superieur des etudes technologiques de Kelibia to learn about local academics and technological developments.
+Midday: Indulge in authentic Tunisian cuisine at the celebrated La Padella Kelibia, renowned for its delicious dishes and high ratings.
+Afternoon: Escape to Plage Kelibia, a picturesque beach known for its swimming, sunbathing, and beach volleyball.
+Evening: Head to the vibrant Marbrerie Hafefh Kacem discotheque for an energetic evening filled with music and dancing.
+Night: Relish a delightful seafood dinner at the highly-rated El Bahri Restaurant, known for its fresh and flavorful dishes.</t>
+        </is>
+      </c>
+      <c r="AB38" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Nestled in the heart of Kelibia, Salon de the Mallorca invites you to savor delightful coffee and tea creations in a charming ambiance. Located at R3QX+53H Salon de the Mallorca, Av. de l'environnement, the cafe has earned a commendable 4.3-star rating based on 6 reviews. With its convenient hours and friendly staff, Salon de the Mallorca is the perfect spot to unwind and enjoy a moment of indulgence.
+Located in Kelibia (latitude 36.836660524289, and longitude 11.111146140921), Big Ben is a teahouse offering a pleasant setting to relax and enjoy a break.
+La Padella Kelibia is a reputable restaurant located in Kelibia. It boasts an impressive 4.6 rating based on 8 reviews, indicating its popularity and high quality. Open from 8 AM to midnight every day, La Padella Kelibia offers a wide range of dishes to cater to its diverse clientele. The restaurant's prime location at 36.8363146 latitude and 11.1113262 longitude makes it easily accessible to both locals and tourists. With its convenient hours and delicious offerings, La Padella Kelibia is the go-to destination for dining in Kelibia.
+Kelibia Paradise is a lodging facility located in Kelibia, Tunisia. It has a rating of 4.6 and has received 18 reviews. The facility offers accommodation with a main focus on comfort and relaxation. Its geolocation is at longitude 11.098431810317 and latitude 36.846063992403.
+Maison d'hotes / Restaurant L'Hirondelle de Kelibia offers a pleasant stay in a beautiful location just steps from the beach. The hotel features comfortable rooms, a relaxing atmosphere, and welcoming staff. Guests can enjoy delicious meals at the on-site restaurant while admiring the panoramic views of the Mediterranean Sea. With its convenient location and excellent amenities, Maison d'hotes / Restaurant L'Hirondelle de Kelibia is the perfect place for a memorable vacation.
+DAR COLIBRI, a 4.6-rated guesthouse located in Kelibia (36.8363146, 11.1113262), offers a unique stay in a charming setting. It features a swimming pool, hammam, and massage services, promising a relaxing and rejuvenating experience. With its proximity to the beautiful beaches of Kelibia, this guesthouse is an ideal base for exploring the region's natural wonders.
+Residence Asma is a 4.4-rated residence located in Kelibia, Tunisia. It is a great place to stay for tourists and business travelers alike. The residence offers a variety of amenities, including a swimming pool, a fitness center, and a restaurant. It is also conveniently located near the beach, the city center, and the airport. The residence has 14 reviews, all of which are positive. Guests praise the residence's cleanliness, comfort, and friendly staff.
+Pension Anis is a 4-star family-run guesthouse located in Kelibia, Tunisia. It features a prime location on Av du Dr Mongi Ben Hmida. Guests can enjoy comfortable accommodations with great value. The guesthouse offers a range of amenities to ensure a pleasant stay, including free Wi-Fi, laundry service, and a friendly atmosphere. Its central location provides easy access to local attractions and points of interest.
+The Casa Del Mar Residence is a 4.3-rated guesthouse located in Kelibia, Tunisia. It is situated near the beach and offers a relaxing getaway for guests. The Residence has received positive reviews for its comfortable accommodations and friendly staff.
+Dar Lebharr is a cozy accommodation located in Kelibia, Tunisia. It offers a comfortable stay with a rating of 4.1 out of 5. Situated at 36.835428078688 latitude and 11.091149597327 longitude, it's easily accessible. Contact them at +33 7 81 09 91 78 for bookings or inquiries.
+Luxus Apartements is a 5-star lodge located in Kelibia, Tunisia at (36.835428078688, 11.091149597327). It has a rating of 5.0 based on 1 review and is owned by Luxus Apartements (proprietaire). Luxus Apartements offers a variety of amenities and services, making it the perfect place to stay for both business and leisure travelers.
+Plage Kelibia, located at (36.84757, 11.09386), offers a picturesque beachfront experience in the city of Kelibia.
+Fort de Kelibia, located in Kelibia, is a historical fortress with an average rating of 4.4 out of 5 based on 460 reviews. It offers a stunning view of the sea, making it a great spot to enjoy the scenery. Visitors can also delve into the history of the fort or simply admire its architectural beauty. With its convenient opening hours from 9:00 AM to 6:00 PM, it's a perfect destination for tourists and history enthusiasts alike.
+Plage Kelibia is a tourist attraction located at the coordinates (36.84757, 11.09386) in Kelibia, Tunisia. With a rating of 4.6 based on 37 reviews, it is a popular destination for tourists. The beach offers a range of activities and amenities, including swimming, sunbathing, and beach volleyball. It is also home to a number of restaurants and cafes, making it a great place to relax and enjoy the scenery.
+The Port of Kelibia is a maritime port located in Kelibia, Tunisia. The port offers a variety of services to its customers, including fishing, cargo, and passenger transport. It is also a popular tourist destination, with many visitors coming to enjoy the beautiful scenery and the fresh seafood. The port is located at (36.8351444, 11.1116178).
+Discover the stunning Phare de Kelibia, a captivating viewpoint located at (36.8363146, 11.1113262) in Kelibia, Tunisia. Immerse yourself in the breathtaking panoramic views from the lighthouse's vantage point, making it an ideal spot for photography enthusiasts and nature lovers alike.
+The Institut superieur des etudes technologiques de Kelibia is a higher education institute located in Kelibia, Tunisia. It offers a range of technological programs and has a rating of 4.4 stars. The institute is situated at the coordinates (36.8363146, 11.1113262) and can be contacted by phone at 72 277 090. Its website is http://www.isetkl.rnu.tn/.
+Kelibia is a place located in Kelibia, Tunisia. It has a bike rental service, with a 4.2 rating based on 6 reviews. It is located at coordinates (36.836660524289, 11.111146140921).
+Marbrerie Hafefh Kacem is a popular discotheque located in Kelibia, Tunisia. It has a rating of 4.0 out of 5 on Google Maps and is known for its vibrant atmosphere and lively music. The discotheque is located at (36.8472589, 11.091058) and offers a variety of music genres to cater to different tastes. It is a popular destination for locals and tourists alike, and is a great place to dance the night away.
+El Bahri Restaurant is a seafood restaurant located in Kelibia, Tunisia. It is a popular spot for tourists and locals alike, and it offers a variety of seafood dishes, including fresh fish, grilled octopus, and seafood platters. The restaurant is open 24 hours a day, and it is closed on Tuesdays. The average rating for El Bahri Restaurant is 4.7 stars, and it has received positive reviews for its delicious food, friendly staff, and reasonable prices.
+"La Luna", a 4-star Pizzeria, located in Kelibia, Tunisia. It's reachable by phone and has a website. It's open daily from 08:00-22:00, and its coordinates are (36.8472589, 11.091058).
+Restaurant is a family-friendly restaurant located in Kelibia, Tunisia. It offers a variety of dishes, including traditional Tunisian cuisine and international fare. The restaurant is located at the coordinates (36.8472589, 11.091058) and has a rating of 5.0 out of 5 stars on Google Maps.
+Station Louage Kelibia is a taxi service located in Kelibia, Tunisia (36.84757, 11.09386). With a rating of 3.7 out of 5 based on 28 reviews, it offers reliable transportation services to its customers.
+SRTGN (station Kelibia) is a bus station located in Kelibia, Tunisia. It offers basic amenities and services for travelers, and is conveniently situated at (36.84757, 11.09386).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4682,12 +6790,69 @@
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>If you're in kelibia and looking for something fun to do, check out Dar Lebharr located at Av. de l'environnement, Kelibia. This top-rated destination is perfect for Hebergement d'interieur lovers and also offers Hebergement. With a rating of 4.1, it's a must-visit spot. To get there, use these GPS coordinates: 36.835428078688, 11.091149597327. For more details, visit their website at https://www.google.com/maps/place/Dar+Lebharr/data=!4m10!3m9!1s0x131d332306ba1301:0x11944a75eb78985b!5m2!4m1!1i2!8m2!3d36.8311986!4d11.0822872!16s%2Fg%2F11hyzc559s!19sChIJARO6BiMzHRMRW5h463VKlBE?authuser=0&amp;hl=fr&amp;rclk=1 or call them at +33 7 81 09 91 78.</t>
+          <t>Dar Lebharr is a cozy accommodation located in Kelibia, Tunisia. It offers a comfortable stay with a rating of 4.1 out of 5. Situated at 36.835428078688 latitude and 11.091149597327 longitude, it's easily accessible. Contact them at +33 7 81 09 91 78 for bookings or inquiries.</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated destination for Hebergement d'interieur lovers in Kelibia?</t>
+          <t>Day Plan:
+Morning: Exploring Fort de Kelibia
+Mid-Morning: Visiting Phare de Kelibia for panoramic views
+Midday: Trying local cuisine at El Bahri Restaurant for delicious seafood
+Afternoon: Relaxing at the beach at Plage Kelibia
+Evening: Enjoying the vibrant nightlife at Marbrerie Hafefh Kacem discotheque
+Night: Shopping at a local market for souvenirs and local goods</t>
+        </is>
+      </c>
+      <c r="AB39" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Jeune is a highly-rated (5/5) cafe in Kelibia, Tunisia. Located at coordinates (36.8472589, 11.091058), it is easily accessible and offers a cozy ambiance perfect for enjoying a cup of coffee or tea. The cafe is known for its friendly owner and excellent service, making it a popular spot among locals and visitors alike.
+Located in Kelibia (latitude 36.836660524289, and longitude 11.111146140921), Big Ben is a teahouse offering a pleasant setting to relax and enjoy a break.
+Welcome to Pizza Lool, a beloved restaurant in Kelibia, Tunisia, known for its delectable pizzas and its welcoming atmosphere. Located at R3VW+RCW, Pizza Lool offers an unforgettable dining experience with friendly service and a convenient location.
+Kelibia Paradise is a popular accommodation option in Kelibia, Tunisia. It is located at 47 Rue d'orange Cite Ezzouhour, 8090, Kelibia, and offers a range of amenities to its guests. These include a restaurant, bar, and swimming pool, as well as free Wi-Fi and parking. The hotel is situated within easy reach of the beach and other local attractions, making it an ideal base for exploring the area.
+The Cap-Bon Kelibia Beach Hotel &amp; Spa is a 4-star hotel located in Kelibia, Tunisia. It is a luxury seaside hotel offering comfortable rooms and suites, a spa and 3 refined restaurants. It is known for its beautiful beach, its large swimming pool and its animations.
+Dar Meriem - Maison d'hôtes is a guest house located in Kelibia, Tunisia. It offers comfortable accommodation and a warm and welcoming atmosphere. The guest house is perfectly situated for exploring the city and its surroundings, and is close to a variety of amenities. The guest house is managed by a friendly and helpful team of staff who are always on hand to assist guests with any queries or needs.
+Residence Asma is a 4.4-rated residence located in Kelibia, Tunisia. It is a great place to stay for tourists and business travelers alike. The residence offers a variety of amenities, including a swimming pool, a fitness center, and a restaurant. It is also conveniently located near the beach, the city center, and the airport. The residence has 14 reviews, all of which are positive. Guests praise the residence's cleanliness, comfort, and friendly staff.
+Pension Anis is a 4-star family-run guesthouse located in Kelibia, Tunisia. It features a prime location on Av du Dr Mongi Ben Hmida. Guests can enjoy comfortable accommodations with great value. The guesthouse offers a range of amenities to ensure a pleasant stay, including free Wi-Fi, laundry service, and a friendly atmosphere. Its central location provides easy access to local attractions and points of interest.
+The Casa Del Mar Residence is a 4.3-rated guesthouse located in Kelibia, Tunisia. It is situated near the beach and offers a relaxing getaway for guests. The Residence has received positive reviews for its comfortable accommodations and friendly staff.
+Dar Lebharr is a cozy accommodation located in Kelibia, Tunisia. It offers a comfortable stay with a rating of 4.1 out of 5. Situated at 36.835428078688 latitude and 11.091149597327 longitude, it's easily accessible. Contact them at +33 7 81 09 91 78 for bookings or inquiries.
+Luxus Apartements is a 5-star lodge located in Kelibia, Tunisia. It offers a luxurious and comfortable stay for its guests. The lodge is situated near the beach, making it a great place to relax and enjoy the beautiful scenery. Luxus Apartements is also close to many restaurants, shops, and attractions. The lodge's staff is friendly and helpful, and they are always willing to go the extra mile to make sure that their guests have a memorable stay.
+Plage Kelibia, located at (36.84757, 11.09386), offers a picturesque beachfront experience in the city of Kelibia.
+Fort de Kelibia, located in Kelibia, is a historical fortress with an average rating of 4.4 out of 5 based on 460 reviews. It offers a stunning view of the sea, making it a great spot to enjoy the scenery. Visitors can also delve into the history of the fort or simply admire its architectural beauty. With its convenient opening hours from 9:00 AM to 6:00 PM, it's a perfect destination for tourists and history enthusiasts alike.
+Plage Kelibia is a tourist attraction located at the coordinates (36.84757, 11.09386) in Kelibia, Tunisia. With a rating of 4.6 based on 37 reviews, it is a popular destination for tourists. The beach offers a range of activities and amenities, including swimming, sunbathing, and beach volleyball. It is also home to a number of restaurants and cafes, making it a great place to relax and enjoy the scenery.
+The Port of Kelibia is a maritime port located in Kelibia, Tunisia. The port offers a variety of services to its customers, including fishing, cargo, and passenger transport. It is also a popular tourist destination, with many visitors coming to enjoy the beautiful scenery and the fresh seafood. The port is located at (36.8351444, 11.1116178).
+Discover the stunning Phare de Kelibia, a captivating viewpoint located at (36.8363146, 11.1113262) in Kelibia, Tunisia. Immerse yourself in the breathtaking panoramic views from the lighthouse's vantage point, making it an ideal spot for photography enthusiasts and nature lovers alike.
+The Institut superieur des etudes technologiques de Kelibia is a higher education institute located in Kelibia, Tunisia. It offers a range of technological programs and has a rating of 4.4 stars. The institute is situated at the coordinates (36.8363146, 11.1113262) and can be contacted by phone at 72 277 090. Its website is http://www.isetkl.rnu.tn/.
+Kelibia is a place located in Kelibia, Tunisia. It has a bike rental service, with a 4.2 rating based on 6 reviews. It is located at coordinates (36.836660524289, 11.111146140921).
+Marbrerie Hafefh Kacem is a popular discotheque located in Kelibia, Tunisia. It has a rating of 4.0 out of 5 on Google Maps and is known for its vibrant atmosphere and lively music. The discotheque is located at (36.8472589, 11.091058) and offers a variety of music genres to cater to different tastes. It is a popular destination for locals and tourists alike, and is a great place to dance the night away.
+El Bahri Restaurant is a seafood restaurant located in Kelibia, Tunisia. It is a popular spot for tourists and locals alike, and it offers a variety of seafood dishes, including fresh fish, grilled octopus, and seafood platters. The restaurant is open 24 hours a day, and it is closed on Tuesdays. The average rating for El Bahri Restaurant is 4.7 stars, and it has received positive reviews for its delicious food, friendly staff, and reasonable prices.
+"La Luna", a 4-star Pizzeria, located in Kelibia, Tunisia. It's reachable by phone and has a website. It's open daily from 08:00-22:00, and its coordinates are (36.8472589, 11.091058).
+Restaurant is a family-friendly restaurant located in Kelibia, Tunisia. It offers a variety of dishes, including traditional Tunisian cuisine and international fare. The restaurant is located at the coordinates (36.8472589, 11.091058) and has a rating of 5.0 out of 5 stars on Google Maps.
+Station Louage Kelibia is a taxi service located in Kelibia, Tunisia (36.84757, 11.09386). With a rating of 3.7 out of 5 based on 28 reviews, it offers reliable transportation services to its customers.
+SRTGN (station Kelibia) is a bus station located in Kelibia with the coordinates (36.84757, 11.09386). It offers bus services to various destinations.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4789,15 +6954,71 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>If you're in kelibia and looking for something fun to do, check out Luxus Apartements located at Av. de l'environnement, Kelibia. 
-This top-rated destination is perfect for Lodge lovers. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours:, but closed on . 
-For more details, call them at 25 638 268.</t>
+          <t>Luxus Apartements is a 5-star lodge located in Kelibia, Tunisia at (36.835428078688, 11.091149597327). It has a rating of 5.0 based on 1 review and is owned by Luxus Apartements (proprietaire). Luxus Apartements offers a variety of amenities and services, making it the perfect place to stay for both business and leisure travelers.</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
         <is>
-          <t>Where in Kelibia can you find a top-rated lodge for a memorable stay?</t>
+          <t>Day Plan:
+Morning: Explore the historical Fort de Kelibia, offering stunning views of the Mediterranean Sea.
+Mid-Morning: Immerse yourself in local culture at the Institut superieur des etudes technologiques de Kelibia, a higher education institute showcasing the region's technological advancements.
+Midday: Indulge in a delectable seafood lunch at El Bahri Restaurant, renowned for its fresh and flavorful dishes.
+Afternoon: Relax on the picturesque Plage kelibia, enjoying swimming, sunbathing, or windsurfing in its crystal-clear waters.
+Evening: Embark on a guided tour of the captivating Phare de Kelibia, a historical lighthouse providing breathtaking panoramic views of the city and surrounding landscapes.
+Night: Experience the vibrant nightlife at Marbrerie Hafefh Kacem, a discotheque renowned for its lively atmosphere and energetic music.</t>
+        </is>
+      </c>
+      <c r="AB40" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Discover a cozy respite in the heart of Kelibia at SOYASEP ZNAIDI KIOSQUE ET CAFE, located at coordinates (36.8472589, 11.091058). This charming cafe offers a welcoming atmosphere, serving a delectable selection of beverages and delectable treats. Situated conveniently, this cafe invites you to take a break, indulge in the local flavors, and connect with the vibrant community of Kelibia.
+Hannibal coffee kelibia is a tea room located in kelibia, Tunisia. It offers a variety of teas, coffees, and pastries. The tea room is located at 36.8363146, 11.1113262.
+La Padella Kelibia is a reputable restaurant located in Kelibia. It boasts an impressive 4.6 rating based on 8 reviews, indicating its popularity and high quality. Open from 8 AM to midnight every day, La Padella Kelibia offers a wide range of dishes to cater to its diverse clientele. The restaurant's prime location at 36.8363146 latitude and 11.1113262 longitude makes it easily accessible to both locals and tourists. With its convenient hours and delicious offerings, La Padella Kelibia is the go-to destination for dining in Kelibia.
+Myriam Bel Air is a popular hotel located in Kelibia, Tunisia. It offers a comfortable and convenient stay for its guests, with a 4.2-star rating on Google. The hotel has 14 reviews, with an overall positive feedback from its guests. It provides a range of amenities, including comfortable rooms, a swimming pool, and a restaurant. The hotel's website features additional information and booking options, and it is well-connected with major tourist attractions in the area.
+Maison d'hotes / Restaurant L'Hirondelle de Kelibia offers a pleasant stay in a beautiful location just steps from the beach. The hotel features comfortable rooms, a relaxing atmosphere, and welcoming staff. Guests can enjoy delicious meals at the on-site restaurant while admiring the panoramic views of the Mediterranean Sea. With its convenient location and excellent amenities, Maison d'hotes / Restaurant L'Hirondelle de Kelibia is the perfect place for a memorable vacation.
+Dar Meriem - Maison d'hôtes is a guest house located in Kelibia, Tunisia. It offers comfortable accommodation and a warm and welcoming atmosphere. The guest house is perfectly situated for exploring the city and its surroundings, and is close to a variety of amenities. The guest house is managed by a friendly and helpful team of staff who are always on hand to assist guests with any queries or needs.
+Residence Asma is a 4.4-rated residence located in Kelibia, Tunisia. It is a great place to stay for tourists and business travelers alike. The residence offers a variety of amenities, including a swimming pool, a fitness center, and a restaurant. It is also conveniently located near the beach, the city center, and the airport. The residence has 14 reviews, all of which are positive. Guests praise the residence's cleanliness, comfort, and friendly staff.
+Pension Anis is a 4-star family-run guesthouse located in Kelibia, Tunisia. It features a prime location on Av du Dr Mongi Ben Hmida. Guests can enjoy comfortable accommodations with great value. The guesthouse offers a range of amenities to ensure a pleasant stay, including free Wi-Fi, laundry service, and a friendly atmosphere. Its central location provides easy access to local attractions and points of interest.
+The Casa Del Mar Residence is a 4.3-rated guesthouse located in Kelibia, Tunisia. It is situated near the beach and offers a relaxing getaway for guests. The Residence has received positive reviews for its comfortable accommodations and friendly staff.
+Dar Lebharr is a cozy accommodation located in Kelibia, Tunisia. It offers a comfortable stay with a rating of 4.1 out of 5. Situated at 36.835428078688 latitude and 11.091149597327 longitude, it's easily accessible. Contact them at +33 7 81 09 91 78 for bookings or inquiries.
+Luxus Apartements is a 5-star lodge located in Kelibia, Tunisia at (36.835428078688, 11.091149597327). It has a rating of 5.0 based on 1 review and is owned by Luxus Apartements (proprietaire). Luxus Apartements offers a variety of amenities and services, making it the perfect place to stay for both business and leisure travelers.
+Plage Kelibia, located at (36.84757, 11.09386), offers a picturesque beachfront experience in the city of Kelibia.
+Fort de Kelibia is a historical fortress located in Kelibia, Tunisia. It offers stunning views of the Mediterranean Sea and the port. The castle boasts a rich history and architectural significance. Visitors can explore the castle's ramparts, towers, and courtyards, and delve into the region's captivating past. With a 4.4-star rating, the fort is a popular destination for tourists and history enthusiasts alike. Its strategic location makes it a great spot to capture panoramic shots of the surrounding area.
+Plage kelibia is a popular tourist attraction located in Kelibia, Tunisia. It offers a wide range of activities, including swimming, sunbathing, and windsurfing. The beach is also home to a number of restaurants and cafes.
+The beach is located just a short drive from the city center and is easily accessible by public transportation. The beach is well-maintained and features clear blue waters and soft white sand.
+Plage kelibia is a great place to relax and enjoy the beautiful weather of Tunisia. It is also a great location to enjoy some water sports.
+The Port of Kelibia is a maritime port located in Kelibia, Tunisia. The port offers a variety of services to its customers, including fishing, cargo, and passenger transport. It is also a popular tourist destination, with many visitors coming to enjoy the beautiful scenery and the fresh seafood. The port is located at (36.8351444, 11.1116178).
+Discover the stunning Phare de Kelibia, a captivating viewpoint located at (36.8363146, 11.1113262) in Kelibia, Tunisia. Immerse yourself in the breathtaking panoramic views from the lighthouse's vantage point, making it an ideal spot for photography enthusiasts and nature lovers alike.
+The Institut superieur des etudes technologiques de Kelibia is a higher education institute located in Kelibia, Tunisia. It offers a range of technological programs and has a rating of 4.4 stars. The institute is situated at the coordinates (36.8363146, 11.1113262) and can be contacted by phone at 72 277 090. Its website is http://www.isetkl.rnu.tn/.
+Kelibia is a place located in Kelibia, Tunisia. It has a bike rental service, with a 4.2 rating based on 6 reviews. It is located at coordinates (36.836660524289, 11.111146140921).
+Marbrerie Hafefh Kacem is a popular discotheque located in Kelibia, Tunisia. It has a rating of 4.0 out of 5 on Google Maps and is known for its vibrant atmosphere and lively music. The discotheque is located at (36.8472589, 11.091058) and offers a variety of music genres to cater to different tastes. It is a popular destination for locals and tourists alike, and is a great place to dance the night away.
+El Bahri Restaurant is a seafood restaurant located in Kelibia, Tunisia. It is a popular spot for tourists and locals alike, and it offers a variety of seafood dishes, including fresh fish, grilled octopus, and seafood platters. The restaurant is open 24 hours a day, and it is closed on Tuesdays. The average rating for El Bahri Restaurant is 4.7 stars, and it has received positive reviews for its delicious food, friendly staff, and reasonable prices.
+Pizzeria LOFT ROMA is a 4.2-rated pizzeria located in kelibia, Tunisia. It operates from 08:00 to 00:00 every day and offers a wide range of pizzas. Its exact location is at R3VW+83Q Rue de Tripoli, Kelibia, Tunisia.
+Restaurant is a family-friendly restaurant located in Kelibia, Tunisia. It offers a variety of dishes, including traditional Tunisian cuisine and international fare. The restaurant is located at the coordinates (36.8472589, 11.091058) and has a rating of 5.0 out of 5 stars on Google Maps.
+Station Louage Kelibia is a taxi service located in Kelibia, Tunisia (36.84757, 11.09386). With a rating of 3.7 out of 5 based on 28 reviews, it offers reliable transportation services to its customers.
+SRTGN (station Kelibia) is a bus station located in Kelibia with the coordinates (36.84757, 11.09386). It offers bus services to various destinations.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4891,14 +7112,77 @@
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>If you're in kelibia and looking for a new place to sleep, check out Dar Meriem - Maison d'hotes located at R3WX+FQJ Dar Meriem - Maison d'hotes, Kelibia 8090. 
-This top-rated destination is perfect for Chambre d'hotes lovers and offers a range of Chambre d'hotes to choose from. 
-With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.8363146, 11.1113262. For more details, visit their website at https://www.google.com/maps/place/Dar+Meriem+-+Maison+d%27h%C3%B4tes/data=!4m10!3m9!1s0x131d33dc8510975b:0x66193ff4e36bbcea!5m2!4m1!1i2!8m2!3d36.8462224!4d11.0993962!16s%2Fg%2F11qpxdvgmz!19sChIJW5cQhdwzHRMR6rxr4_Q_GWY?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Dar Meriem - Maison d'hôtes is a guest house located in Kelibia, Tunisia. It offers comfortable accommodation and a warm and welcoming atmosphere. The guest house is perfectly situated for exploring the city and its surroundings, and is close to a variety of amenities. The guest house is managed by a friendly and helpful team of staff who are always on hand to assist guests with any queries or needs.</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated Chambre d'hotes with a 5.0 rating in the town of Kelibia?</t>
+          <t>**Day Plan:**
+**Morning:**
+- Explore the historical Fort de Kelibia, offering stunning views of the Mediterranean Sea and the port.
+**Mid-Morning:**
+- Try local cuisine at El Bahri Restaurant, known for its delicious seafood dishes and positive reviews.
+**Midday:**
+- Enjoy a leisurely walk along Plage Kelibia, a picturesque beachfront known for its clear blue waters and soft white sand.
+**Afternoon:**
+- Participate in a guided tour of the Institut superieur des etudes technologiques de Kelibia, a higher education institute with a 4.4-star rating.
+**Evening:**
+- Relax with a rejuvenating hammam experience at DAR COLIBRI, a charming 4.6-rated guesthouse with a swimming pool and spa services.
+**Night:**
+- Experience the vibrant atmosphere and lively music at Marbrerie Hafefh Kacem, a popular discotheque with a 4.0-star rating.</t>
+        </is>
+      </c>
+      <c r="AB41" t="inlineStr">
+        <is>
+          <t>Given these locations:
+L'instant Cafe is a highly rated cafe located in Kelibia, Tunisia. It offers a cozy atmosphere and serves delicious breakfasts, as evidenced by the numerous positive reviews mentioning "petit dejeuner." The cafe is open from 8 am to 7 pm, providing locals and tourists with a convenient place to relax and enjoy a cup of coffee or a light meal.
+Hannibal coffee kelibia is a tea room located in kelibia, Tunisia. It offers a variety of teas, coffees, and pastries. The tea room is located at 36.8363146, 11.1113262.
+Located in the heart of Kelibia, "L'benna" is a highly-rated restaurant (4.6/5 stars) that delights locals and tourists alike. Open 24 hours a day, "L'benna" offers a convenient and welcoming atmosphere. Its precise location at (36.842587762817, 11.099081841049) makes it easily accessible.
+Myriam Bel Air is a popular hotel located in Kelibia, Tunisia. It offers a comfortable and convenient stay for its guests, with a 4.2-star rating on Google. The hotel has 14 reviews, with an overall positive feedback from its guests. It provides a range of amenities, including comfortable rooms, a swimming pool, and a restaurant. The hotel's website features additional information and booking options, and it is well-connected with major tourist attractions in the area.
+Maison d'hotes / Restaurant L'Hirondelle de Kelibia offers a pleasant stay in a beautiful location just steps from the beach. The hotel features comfortable rooms, a relaxing atmosphere, and welcoming staff. Guests can enjoy delicious meals at the on-site restaurant while admiring the panoramic views of the Mediterranean Sea. With its convenient location and excellent amenities, Maison d'hotes / Restaurant L'Hirondelle de Kelibia is the perfect place for a memorable vacation.
+DAR COLIBRI, a 4.6-rated guesthouse located in Kelibia (36.8363146, 11.1113262), offers a unique stay in a charming setting. It features a swimming pool, hammam, and massage services, promising a relaxing and rejuvenating experience. With its proximity to the beautiful beaches of Kelibia, this guesthouse is an ideal base for exploring the region's natural wonders.
+Residence Asma is a 4.4-rated residence located in Kelibia, Tunisia. It is a great place to stay for tourists and business travelers alike. The residence offers a variety of amenities, including a swimming pool, a fitness center, and a restaurant. It is also conveniently located near the beach, the city center, and the airport. The residence has 14 reviews, all of which are positive. Guests praise the residence's cleanliness, comfort, and friendly staff.
+Pension Anis is a 4-star family-run guesthouse located in Kelibia, Tunisia. It features a prime location on Av du Dr Mongi Ben Hmida. Guests can enjoy comfortable accommodations with great value. The guesthouse offers a range of amenities to ensure a pleasant stay, including free Wi-Fi, laundry service, and a friendly atmosphere. Its central location provides easy access to local attractions and points of interest.
+The Casa Del Mar Residence is a 4.3-rated guesthouse located in Kelibia, Tunisia. It is situated near the beach and offers a relaxing getaway for guests. The Residence has received positive reviews for its comfortable accommodations and friendly staff.
+Dar Lebharr is a cozy accommodation located in Kelibia, Tunisia. It offers a comfortable stay with a rating of 4.1 out of 5. Situated at 36.835428078688 latitude and 11.091149597327 longitude, it's easily accessible. Contact them at +33 7 81 09 91 78 for bookings or inquiries.
+Luxus Apartements is a 5-star lodge located in Kelibia, Tunisia. It offers a luxurious and comfortable stay for its guests. The lodge is situated near the beach, making it a great place to relax and enjoy the beautiful scenery. Luxus Apartements is also close to many restaurants, shops, and attractions. The lodge's staff is friendly and helpful, and they are always willing to go the extra mile to make sure that their guests have a memorable stay.
+Plage Kelibia, located at (36.84757, 11.09386), offers a picturesque beachfront experience in the city of Kelibia.
+Fort de Kelibia is a historical fortress located in Kelibia, Tunisia. It offers stunning views of the Mediterranean Sea and the port. The castle boasts a rich history and architectural significance. Visitors can explore the castle's ramparts, towers, and courtyards, and delve into the region's captivating past. With a 4.4-star rating, the fort is a popular destination for tourists and history enthusiasts alike. Its strategic location makes it a great spot to capture panoramic shots of the surrounding area.
+Plage kelibia is a popular tourist attraction located in Kelibia, Tunisia. It offers a wide range of activities, including swimming, sunbathing, and windsurfing. The beach is also home to a number of restaurants and cafes.
+The beach is located just a short drive from the city center and is easily accessible by public transportation. The beach is well-maintained and features clear blue waters and soft white sand.
+Plage kelibia is a great place to relax and enjoy the beautiful weather of Tunisia. It is also a great location to enjoy some water sports.
+The Port of Kelibia is a maritime port located in Kelibia, Tunisia. The port offers a variety of services to its customers, including fishing, cargo, and passenger transport. It is also a popular tourist destination, with many visitors coming to enjoy the beautiful scenery and the fresh seafood. The port is located at (36.8351444, 11.1116178).
+Discover the stunning Phare de Kelibia, a captivating viewpoint located at (36.8363146, 11.1113262) in Kelibia, Tunisia. Immerse yourself in the breathtaking panoramic views from the lighthouse's vantage point, making it an ideal spot for photography enthusiasts and nature lovers alike.
+The Institut superieur des etudes technologiques de Kelibia is a higher education institute located in Kelibia, Tunisia. It offers a range of technological programs and has a rating of 4.4 stars. The institute is situated at the coordinates (36.8363146, 11.1113262) and can be contacted by phone at 72 277 090. Its website is http://www.isetkl.rnu.tn/.
+Kelibia is a place located in Kelibia, Tunisia. It has a bike rental service, with a 4.2 rating based on 6 reviews. It is located at coordinates (36.836660524289, 11.111146140921).
+Marbrerie Hafefh Kacem is a popular discotheque located in Kelibia, Tunisia. It has a rating of 4.0 out of 5 on Google Maps and is known for its vibrant atmosphere and lively music. The discotheque is located at (36.8472589, 11.091058) and offers a variety of music genres to cater to different tastes. It is a popular destination for locals and tourists alike, and is a great place to dance the night away.
+El Bahri Restaurant is a seafood restaurant located in Kelibia, Tunisia. It is a popular spot for tourists and locals alike, and it offers a variety of seafood dishes, including fresh fish, grilled octopus, and seafood platters. The restaurant is open 24 hours a day, and it is closed on Tuesdays. The average rating for El Bahri Restaurant is 4.7 stars, and it has received positive reviews for its delicious food, friendly staff, and reasonable prices.
+"La Luna", a 4-star Pizzeria, located in Kelibia, Tunisia. It's reachable by phone and has a website. It's open daily from 08:00-22:00, and its coordinates are (36.8472589, 11.091058).
+Restaurant is a family-friendly restaurant located in Kelibia, Tunisia. It offers a variety of dishes, including traditional Tunisian cuisine and international fare. The restaurant is located at the coordinates (36.8472589, 11.091058) and has a rating of 5.0 out of 5 stars on Google Maps.
+Station Louage Kelibia is a taxi service located in Kelibia, Tunisia (36.84757, 11.09386). With a rating of 3.7 out of 5 based on 28 reviews, it offers reliable transportation services to its customers.
+SRTGN (station Kelibia) is a bus station located in Kelibia, Tunisia. It offers basic amenities and services for travelers, and is conveniently situated at (36.84757, 11.09386).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5000,14 +7284,71 @@
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>If you're in kelibia and looking for a top-rated Lodge, check out Luxus Apartements located at Av. de l'environnement, Kelibia. 
-With a rating of 5.0, it's a must-visit spot for Lodge lovers. To get there, use these GPS coordinates: 36.835428078688, 11.091149597327. 
-For more details, call them at 25 638 268.</t>
+          <t>Luxus Apartements is a 5-star lodge located in Kelibia, Tunisia. It offers a luxurious and comfortable stay for its guests. The lodge is situated near the beach, making it a great place to relax and enjoy the beautiful scenery. Luxus Apartements is also close to many restaurants, shops, and attractions. The lodge's staff is friendly and helpful, and they are always willing to go the extra mile to make sure that their guests have a memorable stay.</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr">
         <is>
-          <t>What is the name of the highly rated lodge with GPS coordinates 36.835428078688, 11.091149597327 located in Kelibia?</t>
+          <t>Day Plan:
+Morning: Explore the historical Fort de Kelibia, offering stunning Mediterranean Sea views and a glimpse into the region's past.
+Mid-Morning: Visit the Phare de Kelibia for captivating panoramic vistas, perfect for photographers and nature enthusiasts.
+Midday: Indulge in a delectable lunch at Restaurant "Le Colibri Officiel," renowned for its 5-star dining experience and tantalizing menu.
+Afternoon: Head to Plage Kelibia, a picturesque beachfront haven, where you can swim, sunbathe, or engage in exhilarating water sports.
+Evening: Embark on a leisurely stroll along the Port of Kelibia, enjoying the scenic beauty and the lively atmosphere.
+Night: Dine at El Bahri Restaurant, a popular seafood haven serving fresh fish, grilled octopus, and a variety of seafood platters.</t>
+        </is>
+      </c>
+      <c r="AB42" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Café Duplex is a popular café located in Kelibia, known for its cozy atmosphere and delicious coffee. Café Duplex is a popular destination for locals and tourists alike, and it offers a variety of coffees, teas, and snacks. The café is located at 58 Rue Taieb Sardouk, Kelibia, and it is open from 8am to 10pm, seven days a week.
+Located in Kelibia (latitude 36.836660524289, and longitude 11.111146140921), Big Ben is a teahouse offering a pleasant setting to relax and enjoy a break.
+Restaurant "Le Colibri Officiel", located in Kelibia at (36.842587762817, 11.099081841049), offers an unparalleled dining experience with its 5-star rating based on 17 reviews. Its menu is not provided in the given information, but its main category is listed as "Restaurant". If you wish to make a reservation or inquire further, you can contact the owner directly through their link or call them at 58 121 352. Unfortunately, the restaurant's website is not provided in the given information.
+Myriam Bel Air is a popular hotel located in Kelibia, Tunisia. It offers a comfortable and convenient stay for its guests, with a 4.2-star rating on Google. The hotel has 14 reviews, with an overall positive feedback from its guests. It provides a range of amenities, including comfortable rooms, a swimming pool, and a restaurant. The hotel's website features additional information and booking options, and it is well-connected with major tourist attractions in the area.
+Nestled in the picturesque Kelibia region, Cap-Bon Kelibia Beach Hotel &amp; Spa is an upscale resort offering 562 warmly designed rooms and suites. With its stunning beachfront location and serene ambiance, the hotel is an ideal destination for leisure and relaxation. It features an array of amenities, including a rejuvenating spa, three refined dining options, and an inviting swimming pool, ensuring an unforgettable stay in the heart of Kelibia.
+Dar Meriem - Maison d'hôtes is a guest house located in Kelibia, Tunisia. It offers comfortable accommodation and a warm and welcoming atmosphere. The guest house is perfectly situated for exploring the city and its surroundings, and is close to a variety of amenities. The guest house is managed by a friendly and helpful team of staff who are always on hand to assist guests with any queries or needs.
+Residence Asma is a 4.4-rated residence located in Kelibia, Tunisia. It is a great place to stay for tourists and business travelers alike. The residence offers a variety of amenities, including a swimming pool, a fitness center, and a restaurant. It is also conveniently located near the beach, the city center, and the airport. The residence has 14 reviews, all of which are positive. Guests praise the residence's cleanliness, comfort, and friendly staff.
+Pension Anis is a 4-star family-run guesthouse located in Kelibia, Tunisia. It features a prime location on Av du Dr Mongi Ben Hmida. Guests can enjoy comfortable accommodations with great value. The guesthouse offers a range of amenities to ensure a pleasant stay, including free Wi-Fi, laundry service, and a friendly atmosphere. Its central location provides easy access to local attractions and points of interest.
+The Casa Del Mar Residence is a 4.3-rated guesthouse located in Kelibia, Tunisia. It is situated near the beach and offers a relaxing getaway for guests. The Residence has received positive reviews for its comfortable accommodations and friendly staff.
+Dar Lebharr is a cozy accommodation located in Kelibia, Tunisia. It offers a comfortable stay with a rating of 4.1 out of 5. Situated at 36.835428078688 latitude and 11.091149597327 longitude, it's easily accessible. Contact them at +33 7 81 09 91 78 for bookings or inquiries.
+Luxus Apartements is a 5-star lodge located in Kelibia, Tunisia at (36.835428078688, 11.091149597327). It has a rating of 5.0 based on 1 review and is owned by Luxus Apartements (proprietaire). Luxus Apartements offers a variety of amenities and services, making it the perfect place to stay for both business and leisure travelers.
+Plage Kelibia, located at (36.84757, 11.09386), offers a picturesque beachfront experience in the city of Kelibia.
+Fort de Kelibia is a historical fortress located in Kelibia, Tunisia. It offers stunning views of the Mediterranean Sea and the port. The castle boasts a rich history and architectural significance. Visitors can explore the castle's ramparts, towers, and courtyards, and delve into the region's captivating past. With a 4.4-star rating, the fort is a popular destination for tourists and history enthusiasts alike. Its strategic location makes it a great spot to capture panoramic shots of the surrounding area.
+Plage kelibia is a popular tourist attraction located in Kelibia, Tunisia. It offers a wide range of activities, including swimming, sunbathing, and windsurfing. The beach is also home to a number of restaurants and cafes.
+The beach is located just a short drive from the city center and is easily accessible by public transportation. The beach is well-maintained and features clear blue waters and soft white sand.
+Plage kelibia is a great place to relax and enjoy the beautiful weather of Tunisia. It is also a great location to enjoy some water sports.
+The Port of Kelibia is a maritime port located in Kelibia, Tunisia. The port offers a variety of services to its customers, including fishing, cargo, and passenger transport. It is also a popular tourist destination, with many visitors coming to enjoy the beautiful scenery and the fresh seafood. The port is located at (36.8351444, 11.1116178).
+Discover the stunning Phare de Kelibia, a captivating viewpoint located at (36.8363146, 11.1113262) in Kelibia, Tunisia. Immerse yourself in the breathtaking panoramic views from the lighthouse's vantage point, making it an ideal spot for photography enthusiasts and nature lovers alike.
+The Institut superieur des etudes technologiques de Kelibia is a higher education institute located in Kelibia, Tunisia. It offers a range of technological programs and has a rating of 4.4 stars. The institute is situated at the coordinates (36.8363146, 11.1113262) and can be contacted by phone at 72 277 090. Its website is http://www.isetkl.rnu.tn/.
+Kelibia is a place located in Kelibia, Tunisia. It has a bike rental service, with a 4.2 rating based on 6 reviews. It is located at coordinates (36.836660524289, 11.111146140921).
+Marbrerie Hafefh Kacem is a popular discotheque located in Kelibia, Tunisia. It has a rating of 4.0 out of 5 on Google Maps and is known for its vibrant atmosphere and lively music. The discotheque is located at (36.8472589, 11.091058) and offers a variety of music genres to cater to different tastes. It is a popular destination for locals and tourists alike, and is a great place to dance the night away.
+El Bahri Restaurant is a seafood restaurant located in Kelibia, Tunisia. It is a popular spot for tourists and locals alike, and it offers a variety of seafood dishes, including fresh fish, grilled octopus, and seafood platters. The restaurant is open 24 hours a day, and it is closed on Tuesdays. The average rating for El Bahri Restaurant is 4.7 stars, and it has received positive reviews for its delicious food, friendly staff, and reasonable prices.
+"La Luna", a 4-star Pizzeria, located in Kelibia, Tunisia. It's reachable by phone and has a website. It's open daily from 08:00-22:00, and its coordinates are (36.8472589, 11.091058).
+Restaurant is a family-friendly restaurant located in Kelibia, Tunisia. It offers a variety of dishes, including traditional Tunisian cuisine and international fare. The restaurant is located at the coordinates (36.8472589, 11.091058) and has a rating of 5.0 out of 5 stars on Google Maps.
+Station Louage Kelibia is a taxi service located in Kelibia, Tunisia (36.84757, 11.09386). With a rating of 3.7 out of 5 based on 28 reviews, it offers reliable transportation services to its customers.
+SRTGN's station is located in Kelibia, Tunisia. It offers bus services to various destinations. The station is located at the coordinates (36.84757, 11.09386).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5105,15 +7446,77 @@
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>If you're in kelibia and looking for something fun to do, check out Plage kelibia located at R4RC+GJC Plage kelibia, Unnamed Road. 
-This top-rated destination is perfect for mzr syHy lovers and offers a range of mzr syHy to choose from. 
-With a rating of 4.6, it's a must-visit spot. 
-To get there, use these GPS coordinates: 36.84757, 11.09386.</t>
+          <t>Plage Kelibia, located at (36.84757, 11.09386), offers a picturesque beachfront experience in the city of Kelibia.</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated destination offering various activities for beach enthusiasts in Kelibia, as indicated by its GPS coordinates and promising reviews?</t>
+          <t>**Day Plan:**
+**Morning:**
+- Explore the historic Fort de Kelibia for stunning views of the Mediterranean Sea (36.8472589, 11.091058).
+**Mid-Morning:**
+- Visit the Phare de Kelibia for panoramic views of the surrounding area (36.8363146, 11.1113262).
+**Midday:**
+- Try local cuisine at El Bahri Restaurant, known for its delicious seafood and friendly staff (36.8472589, 11.091058).
+**Afternoon:**
+- Relax and enjoy the sun at Plage kelibia, perfect for swimming, sunbathing, or windsurfing (36.84757, 11.09386).
+**Evening:**
+- Take a guided tour of the Institut superieur des etudes technologiques de Kelibia, known for its technological programs (36.8363146, 11.1113262).
+**Night:**
+- Experience the vibrant atmosphere and dance the night away at Marbrerie Hafefh Kacem discotheque (36.8472589, 11.091058).</t>
+        </is>
+      </c>
+      <c r="AB43" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Café dar el chaaeb is a cafe situated in kelibia, Tunisia, at coordinates (36.8472589, 11.091058). The café is open from 6:15 am to midnight, and closed on Wednesdays and Saturdays. It offers a variety of services, including food and drinks.
+Hannibal coffee kelibia is a tea room located in kelibia, Tunisia. It offers a variety of teas, coffees, and pastries. The tea room is located at 36.8363146, 11.1113262.
+Lounge Cafe, rated 5.0 out of 5 by 1 reviewer, is a restaurant located at R3WQ+H9M, Av. Habib-Bourguiba, Kelibia, Tunisia. It is open from 6:00 am to 2:00 pm daily, and its main category is Restaurant. Its featured image can be found at https://lh5.googleusercontent.com/p/AF1QipOvbL7FtV4P7-K_sbXDNGp51x8sIv60Kakq6a4-=w408-h408-k-no.
+Kelibia Paradise is a popular accommodation option in Kelibia, Tunisia. It is located at 47 Rue d'orange Cite Ezzouhour, 8090, Kelibia, and offers a range of amenities to its guests. These include a restaurant, bar, and swimming pool, as well as free Wi-Fi and parking. The hotel is situated within easy reach of the beach and other local attractions, making it an ideal base for exploring the area.
+Maison d'hotes / Restaurant L'Hirondelle de Kelibia offers a pleasant stay in a beautiful location just steps from the beach. The hotel features comfortable rooms, a relaxing atmosphere, and welcoming staff. Guests can enjoy delicious meals at the on-site restaurant while admiring the panoramic views of the Mediterranean Sea. With its convenient location and excellent amenities, Maison d'hotes / Restaurant L'Hirondelle de Kelibia is the perfect place for a memorable vacation.
+DAR COLIBRI, a 4.6-rated guesthouse located in Kelibia (36.8363146, 11.1113262), offers a unique stay in a charming setting. It features a swimming pool, hammam, and massage services, promising a relaxing and rejuvenating experience. With its proximity to the beautiful beaches of Kelibia, this guesthouse is an ideal base for exploring the region's natural wonders.
+Residence Asma is a 4.4-rated residence located in Kelibia, Tunisia. It is a great place to stay for tourists and business travelers alike. The residence offers a variety of amenities, including a swimming pool, a fitness center, and a restaurant. It is also conveniently located near the beach, the city center, and the airport. The residence has 14 reviews, all of which are positive. Guests praise the residence's cleanliness, comfort, and friendly staff.
+Pension Anis is a 4-star family-run guesthouse located in Kelibia, Tunisia. It features a prime location on Av du Dr Mongi Ben Hmida. Guests can enjoy comfortable accommodations with great value. The guesthouse offers a range of amenities to ensure a pleasant stay, including free Wi-Fi, laundry service, and a friendly atmosphere. Its central location provides easy access to local attractions and points of interest.
+The Casa Del Mar Residence is a 4.3-rated guesthouse located in Kelibia, Tunisia. It is situated near the beach and offers a relaxing getaway for guests. The Residence has received positive reviews for its comfortable accommodations and friendly staff.
+Dar Lebharr is a cozy accommodation located in Kelibia, Tunisia. It offers a comfortable stay with a rating of 4.1 out of 5. Situated at 36.835428078688 latitude and 11.091149597327 longitude, it's easily accessible. Contact them at +33 7 81 09 91 78 for bookings or inquiries.
+Luxus Apartements is a 5-star lodge located in Kelibia, Tunisia. It offers a luxurious and comfortable stay for its guests. The lodge is situated near the beach, making it a great place to relax and enjoy the beautiful scenery. Luxus Apartements is also close to many restaurants, shops, and attractions. The lodge's staff is friendly and helpful, and they are always willing to go the extra mile to make sure that their guests have a memorable stay.
+Plage Kelibia, located at (36.84757, 11.09386), offers a picturesque beachfront experience in the city of Kelibia.
+Fort de Kelibia is a historical fortress located in Kelibia, Tunisia. It offers stunning views of the Mediterranean Sea and the port. The castle boasts a rich history and architectural significance. Visitors can explore the castle's ramparts, towers, and courtyards, and delve into the region's captivating past. With a 4.4-star rating, the fort is a popular destination for tourists and history enthusiasts alike. Its strategic location makes it a great spot to capture panoramic shots of the surrounding area.
+Plage kelibia is a popular tourist attraction located in Kelibia, Tunisia. It offers a wide range of activities, including swimming, sunbathing, and windsurfing. The beach is also home to a number of restaurants and cafes.
+The beach is located just a short drive from the city center and is easily accessible by public transportation. The beach is well-maintained and features clear blue waters and soft white sand.
+Plage kelibia is a great place to relax and enjoy the beautiful weather of Tunisia. It is also a great location to enjoy some water sports.
+The Port of Kelibia is a maritime port located in Kelibia, Tunisia. The port offers a variety of services to its customers, including fishing, cargo, and passenger transport. It is also a popular tourist destination, with many visitors coming to enjoy the beautiful scenery and the fresh seafood. The port is located at (36.8351444, 11.1116178).
+Discover the stunning Phare de Kelibia, a captivating viewpoint located at (36.8363146, 11.1113262) in Kelibia, Tunisia. Immerse yourself in the breathtaking panoramic views from the lighthouse's vantage point, making it an ideal spot for photography enthusiasts and nature lovers alike.
+The Institut superieur des etudes technologiques de Kelibia is a higher education institute located in Kelibia, Tunisia. It offers a range of technological programs and has a rating of 4.4 stars. The institute is situated at the coordinates (36.8363146, 11.1113262) and can be contacted by phone at 72 277 090. Its website is http://www.isetkl.rnu.tn/.
+Kelibia is a place located in Kelibia, Tunisia. It has a bike rental service, with a 4.2 rating based on 6 reviews. It is located at coordinates (36.836660524289, 11.111146140921).
+Marbrerie Hafefh Kacem is a popular discotheque located in Kelibia, Tunisia. It has a rating of 4.0 out of 5 on Google Maps and is known for its vibrant atmosphere and lively music. The discotheque is located at (36.8472589, 11.091058) and offers a variety of music genres to cater to different tastes. It is a popular destination for locals and tourists alike, and is a great place to dance the night away.
+El Bahri Restaurant is a seafood restaurant located in Kelibia, Tunisia. It is a popular spot for tourists and locals alike, and it offers a variety of seafood dishes, including fresh fish, grilled octopus, and seafood platters. The restaurant is open 24 hours a day, and it is closed on Tuesdays. The average rating for El Bahri Restaurant is 4.7 stars, and it has received positive reviews for its delicious food, friendly staff, and reasonable prices.
+Pizzeria LOFT ROMA is a 4.2-rated pizzeria located in kelibia, Tunisia. It operates from 08:00 to 00:00 every day and offers a wide range of pizzas. Its exact location is at R3VW+83Q Rue de Tripoli, Kelibia, Tunisia.
+Restaurant is a family-friendly restaurant located in Kelibia, Tunisia. It offers a variety of dishes, including traditional Tunisian cuisine and international fare. The restaurant is located at the coordinates (36.8472589, 11.091058) and has a rating of 5.0 out of 5 stars on Google Maps.
+Station Louage Kelibia is a taxi service located in Kelibia, Tunisia (36.84757, 11.09386). With a rating of 3.7 out of 5 based on 28 reviews, it offers reliable transportation services to its customers.
+SRTGN's station is located in Kelibia, Tunisia. It offers bus services to various destinations. The station is located at the coordinates (36.84757, 11.09386).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5215,14 +7618,69 @@
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>If you're in kelibia and looking for a historical experience, check out Fort de Kelibia located at Fort de Kelibia, Kelibia. 
-This top-rated destination is perfect for Forteresse lovers. 
-With a rating of 4.4, it's a must-visit spot. It's open during these hours: 09:00-18:00. To get there, use these GPS coordinates: 36.8394811, 11.1146289. For more details, visit their website at https://www.google.com/maps/place/Fort+de+K%C3%A9libia/data=!4m7!3m6!1s0x131d33b537a054b1:0x59dfa885ff8c638d!8m2!3d36.8379089!4d11.1158275!16s%2Fm%2F0j9m4xx!19sChIJsVSgN7UzHRMRjWOM_4Wo31k?authuser=0&amp;hl=fr&amp;rclk=1 or contact at https://www.google.com/maps/contrib/115446203906555475854.</t>
+          <t>Fort de Kelibia is a historical fortress located in Kelibia, Tunisia. It offers stunning views of the Mediterranean Sea and the port. The castle boasts a rich history and architectural significance. Visitors can explore the castle's ramparts, towers, and courtyards, and delve into the region's captivating past. With a 4.4-star rating, the fort is a popular destination for tourists and history enthusiasts alike. Its strategic location makes it a great spot to capture panoramic shots of the surrounding area.</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
         <is>
-          <t>Where can you visit a top-rated historical Forteresse in Kelibia?</t>
+          <t>Day Plan:
+Morning: Explore the historical Fort de Kelibia, offering stunning views of the sea and a glimpse into the town's past.
+Mid-Morning: Indulge in a delectable local breakfast at Coffee Shop Kelibia, renowned for its excellent service and atmosphere.
+Midday: Visit the nearby Institut superieur des etudes technologiques de Kelibia, a higher education institute showcasing the town's commitment to education and technology.
+Afternoon: Head to Plage Kelibia, a picturesque beach where you can relax, swim, sunbathe, or indulge in beach volleyball.
+Evening: Enjoy a romantic dinner at El Bahri Restaurant, specializing in fresh seafood and offering a warm and inviting ambiance.
+Night: Experience the vibrant atmosphere of Marbrerie Hafefh Kacem, a local discotheque known for its lively music and a chance to mingle with locals and tourists alike.</t>
+        </is>
+      </c>
+      <c r="AB44" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Coffee Shop Kelibia is a highly-rated cafe located in Kelibia, Tunisia. It operates from 5 AM to midnight every day and is known for its excellent service and atmosphere. With a 4.7-star rating based on 12 reviews, Coffee Shop Kelibia is a popular spot for locals and tourists alike. It is conveniently situated at V35R+P7R, making it easily accessible to visitors.
+Located in Kelibia (latitude 36.836660524289, and longitude 11.111146140921), Big Ben is a teahouse offering a pleasant setting to relax and enjoy a break.
+La Padella Kelibia is a reputable restaurant located in Kelibia. It boasts an impressive 4.6 rating based on 8 reviews, indicating its popularity and high quality. Open from 8 AM to midnight every day, La Padella Kelibia offers a wide range of dishes to cater to its diverse clientele. The restaurant's prime location at 36.8363146 latitude and 11.1113262 longitude makes it easily accessible to both locals and tourists. With its convenient hours and delicious offerings, La Padella Kelibia is the go-to destination for dining in Kelibia.
+Kelibia Paradise is a lodging facility located in Kelibia, Tunisia. It has a rating of 4.6 and has received 18 reviews. The facility offers accommodation with a main focus on comfort and relaxation. Its geolocation is at longitude 11.098431810317 and latitude 36.846063992403.
+The Cap-Bon Kelibia Beach Hotel &amp; Spa is a 4-star hotel located in Kelibia, Tunisia. It is a luxury seaside hotel offering comfortable rooms and suites, a spa and 3 refined restaurants. It is known for its beautiful beach, its large swimming pool and its animations.
+DAR COLIBRI, a 4.6-rated guesthouse located in Kelibia (36.8363146, 11.1113262), offers a unique stay in a charming setting. It features a swimming pool, hammam, and massage services, promising a relaxing and rejuvenating experience. With its proximity to the beautiful beaches of Kelibia, this guesthouse is an ideal base for exploring the region's natural wonders.
+Residence Asma is a 4.4-rated residence located in Kelibia, Tunisia. It is a great place to stay for tourists and business travelers alike. The residence offers a variety of amenities, including a swimming pool, a fitness center, and a restaurant. It is also conveniently located near the beach, the city center, and the airport. The residence has 14 reviews, all of which are positive. Guests praise the residence's cleanliness, comfort, and friendly staff.
+Pension Anis is a 4-star family-run guesthouse located in Kelibia, Tunisia. It features a prime location on Av du Dr Mongi Ben Hmida. Guests can enjoy comfortable accommodations with great value. The guesthouse offers a range of amenities to ensure a pleasant stay, including free Wi-Fi, laundry service, and a friendly atmosphere. Its central location provides easy access to local attractions and points of interest.
+The Casa Del Mar Residence is a 4.3-rated guesthouse located in Kelibia, Tunisia. It is situated near the beach and offers a relaxing getaway for guests. The Residence has received positive reviews for its comfortable accommodations and friendly staff.
+Dar Lebharr is a cozy accommodation located in Kelibia, Tunisia. It offers a comfortable stay with a rating of 4.1 out of 5. Situated at 36.835428078688 latitude and 11.091149597327 longitude, it's easily accessible. Contact them at +33 7 81 09 91 78 for bookings or inquiries.
+Luxus Apartements is a 5-star lodge located in Kelibia, Tunisia at (36.835428078688, 11.091149597327). It has a rating of 5.0 based on 1 review and is owned by Luxus Apartements (proprietaire). Luxus Apartements offers a variety of amenities and services, making it the perfect place to stay for both business and leisure travelers.
+Plage Kelibia, located at (36.84757, 11.09386), offers a picturesque beachfront experience in the city of Kelibia.
+Fort de Kelibia, located in Kelibia, is a historical fortress with an average rating of 4.4 out of 5 based on 460 reviews. It offers a stunning view of the sea, making it a great spot to enjoy the scenery. Visitors can also delve into the history of the fort or simply admire its architectural beauty. With its convenient opening hours from 9:00 AM to 6:00 PM, it's a perfect destination for tourists and history enthusiasts alike.
+Plage Kelibia is a tourist attraction located at the coordinates (36.84757, 11.09386) in Kelibia, Tunisia. With a rating of 4.6 based on 37 reviews, it is a popular destination for tourists. The beach offers a range of activities and amenities, including swimming, sunbathing, and beach volleyball. It is also home to a number of restaurants and cafes, making it a great place to relax and enjoy the scenery.
+The Port of Kelibia is a maritime port located in Kelibia, Tunisia. The port offers a variety of services to its customers, including fishing, cargo, and passenger transport. It is also a popular tourist destination, with many visitors coming to enjoy the beautiful scenery and the fresh seafood. The port is located at (36.8351444, 11.1116178).
+Discover the stunning Phare de Kelibia, a captivating viewpoint located at (36.8363146, 11.1113262) in Kelibia, Tunisia. Immerse yourself in the breathtaking panoramic views from the lighthouse's vantage point, making it an ideal spot for photography enthusiasts and nature lovers alike.
+The Institut superieur des etudes technologiques de Kelibia is a higher education institute located in Kelibia, Tunisia. It offers a range of technological programs and has a rating of 4.4 stars. The institute is situated at the coordinates (36.8363146, 11.1113262) and can be contacted by phone at 72 277 090. Its website is http://www.isetkl.rnu.tn/.
+Kelibia is a place located in Kelibia, Tunisia. It has a bike rental service, with a 4.2 rating based on 6 reviews. It is located at coordinates (36.836660524289, 11.111146140921).
+Marbrerie Hafefh Kacem is a popular discotheque located in Kelibia, Tunisia. It has a rating of 4.0 out of 5 on Google Maps and is known for its vibrant atmosphere and lively music. The discotheque is located at (36.8472589, 11.091058) and offers a variety of music genres to cater to different tastes. It is a popular destination for locals and tourists alike, and is a great place to dance the night away.
+El Bahri Restaurant is a seafood restaurant located in Kelibia, Tunisia. It is a popular spot for tourists and locals alike, and it offers a variety of seafood dishes, including fresh fish, grilled octopus, and seafood platters. The restaurant is open 24 hours a day, and it is closed on Tuesdays. The average rating for El Bahri Restaurant is 4.7 stars, and it has received positive reviews for its delicious food, friendly staff, and reasonable prices.
+Del Capo is a 5-star rated pizzeria located in Kelibia, Tunisia. It is situated at the address: 8090 Av. de Martyrs with coordinates (36.842587762817, 11.099081841049). This highly-rated spot operates from 12:00 to 00:00 during the week and offers a delectable range of pizzas.
+Restaurant is a family-friendly restaurant located in Kelibia, Tunisia. It offers a variety of dishes, including traditional Tunisian cuisine and international fare. The restaurant is located at the coordinates (36.8472589, 11.091058) and has a rating of 5.0 out of 5 stars on Google Maps.
+Station Louage Kelibia is a taxi service located in Kelibia, Tunisia (36.84757, 11.09386). With a rating of 3.7 out of 5 based on 28 reviews, it offers reliable transportation services to its customers.
+SRTGN's station is located in Kelibia, Tunisia. It offers bus services to various destinations. The station is located at the coordinates (36.84757, 11.09386).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5320,12 +7778,71 @@
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>If you're in kelibia and looking for something fun to do, check out Plage kelibia located at R4RC+GJC Plage kelibia, Unnamed Road, Kelibia. This top-rated destination is perfect for Attraction touristique lovers and offers a range of Attraction touristique to choose from. With a rating of 4.6, it's a must-visit spot. To get there, use these GPS coordinates: 36.84757, 11.09386. For more details, visit their website at https://www.google.com/maps/place/Plage+kelibia/data=!4m7!3m6!1s0x131d332d70b5186b:0xbb2de55666371f9!8m2!3d36.8413206!4d11.1215222!16s%2Fg%2F11rxry1d71!19sChIJaxi1cC0zHRMR-XFjZlXesgs?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Plage kelibia is a popular tourist attraction located in Kelibia, Tunisia. It offers a wide range of activities, including swimming, sunbathing, and windsurfing. The beach is also home to a number of restaurants and cafes.
+The beach is located just a short drive from the city center and is easily accessible by public transportation. The beach is well-maintained and features clear blue waters and soft white sand.
+Plage kelibia is a great place to relax and enjoy the beautiful weather of Tunisia. It is also a great location to enjoy some water sports.</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr">
         <is>
-          <t>What is the highly-rated Attraction touristique destination located at R4RC+GJC Plage kelibia in Kelibia with coordinates 36.84757, 11.09386?</t>
+          <t>Day Plan:
+Morning: Explore Fort de Kelibia for its historical significance and stunning views.
+Mid-Morning: Visit the Institut superieur des etudes technologiques de Kelibia to learn about higher education in Tunisia.
+Midday: Try local cuisine at El Bahri Restaurant for a delightful seafood dining experience.
+Afternoon: Relax with a rejuvenating massage at DAR COLIBRI, a charming guesthouse with a hammam and swimming pool.
+Evening: Participate in the lively atmosphere and dance the night away at Marbrerie Hafefh Kacem discotheque.
+Night: Experience cultural immersion at Phare de Kelibia, a picturesque viewpoint offering panoramic vistas.</t>
+        </is>
+      </c>
+      <c r="AB45" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Nestled in the heart of El Garage 8090 in Kelibia, this esteemed cafe tantalizes taste buds with a symphony of flavors. Located at coordinates (36.843061894639, 11.101993789385), this culinary haven operates from 08:00 to 21:00, beckoning patrons to indulge in its delectable offerings.
+Hannibal coffee kelibia is a tea room located in kelibia, Tunisia. It offers a variety of teas, coffees, and pastries. The tea room is located at 36.8363146, 11.1113262.
+Welcome to Pizza Lool, a beloved restaurant in Kelibia, Tunisia, known for its delectable pizzas and its welcoming atmosphere. Located at R3VW+RCW, Pizza Lool offers an unforgettable dining experience with friendly service and a convenient location.
+Myriam Bel Air is a popular hotel located in Kelibia, Tunisia. It offers a comfortable and convenient stay for its guests, with a 4.2-star rating on Google. The hotel has 14 reviews, with an overall positive feedback from its guests. It provides a range of amenities, including comfortable rooms, a swimming pool, and a restaurant. The hotel's website features additional information and booking options, and it is well-connected with major tourist attractions in the area.
+Maison d'hotes / Restaurant L'Hirondelle de Kelibia offers a pleasant stay in a beautiful location just steps from the beach. The hotel features comfortable rooms, a relaxing atmosphere, and welcoming staff. Guests can enjoy delicious meals at the on-site restaurant while admiring the panoramic views of the Mediterranean Sea. With its convenient location and excellent amenities, Maison d'hotes / Restaurant L'Hirondelle de Kelibia is the perfect place for a memorable vacation.
+DAR COLIBRI, a 4.6-rated guesthouse located in Kelibia (36.8363146, 11.1113262), offers a unique stay in a charming setting. It features a swimming pool, hammam, and massage services, promising a relaxing and rejuvenating experience. With its proximity to the beautiful beaches of Kelibia, this guesthouse is an ideal base for exploring the region's natural wonders.
+Residence Asma is a 4.4-rated residence located in Kelibia, Tunisia. It is a great place to stay for tourists and business travelers alike. The residence offers a variety of amenities, including a swimming pool, a fitness center, and a restaurant. It is also conveniently located near the beach, the city center, and the airport. The residence has 14 reviews, all of which are positive. Guests praise the residence's cleanliness, comfort, and friendly staff.
+Pension Anis is a 4-star family-run guesthouse located in Kelibia, Tunisia. It features a prime location on Av du Dr Mongi Ben Hmida. Guests can enjoy comfortable accommodations with great value. The guesthouse offers a range of amenities to ensure a pleasant stay, including free Wi-Fi, laundry service, and a friendly atmosphere. Its central location provides easy access to local attractions and points of interest.
+The Casa Del Mar Residence is a 4.3-rated guesthouse located in Kelibia, Tunisia. It is situated near the beach and offers a relaxing getaway for guests. The Residence has received positive reviews for its comfortable accommodations and friendly staff.
+Dar Lebharr is a cozy accommodation located in Kelibia, Tunisia. It offers a comfortable stay with a rating of 4.1 out of 5. Situated at 36.835428078688 latitude and 11.091149597327 longitude, it's easily accessible. Contact them at +33 7 81 09 91 78 for bookings or inquiries.
+Luxus Apartements is a 5-star lodge located in Kelibia, Tunisia at (36.835428078688, 11.091149597327). It has a rating of 5.0 based on 1 review and is owned by Luxus Apartements (proprietaire). Luxus Apartements offers a variety of amenities and services, making it the perfect place to stay for both business and leisure travelers.
+Plage Kelibia, located at (36.84757, 11.09386), offers a picturesque beachfront experience in the city of Kelibia.
+Fort de Kelibia is a historical fortress located in Kelibia, Tunisia. It offers stunning views of the Mediterranean Sea and the port. The castle boasts a rich history and architectural significance. Visitors can explore the castle's ramparts, towers, and courtyards, and delve into the region's captivating past. With a 4.4-star rating, the fort is a popular destination for tourists and history enthusiasts alike. Its strategic location makes it a great spot to capture panoramic shots of the surrounding area.
+Plage Kelibia is a tourist attraction located at the coordinates (36.84757, 11.09386) in Kelibia, Tunisia. With a rating of 4.6 based on 37 reviews, it is a popular destination for tourists. The beach offers a range of activities and amenities, including swimming, sunbathing, and beach volleyball. It is also home to a number of restaurants and cafes, making it a great place to relax and enjoy the scenery.
+The Port of Kelibia is a maritime port located in Kelibia, Tunisia. The port offers a variety of services to its customers, including fishing, cargo, and passenger transport. It is also a popular tourist destination, with many visitors coming to enjoy the beautiful scenery and the fresh seafood. The port is located at (36.8351444, 11.1116178).
+Discover the stunning Phare de Kelibia, a captivating viewpoint located at (36.8363146, 11.1113262) in Kelibia, Tunisia. Immerse yourself in the breathtaking panoramic views from the lighthouse's vantage point, making it an ideal spot for photography enthusiasts and nature lovers alike.
+The Institut superieur des etudes technologiques de Kelibia is a higher education institute located in Kelibia, Tunisia. It offers a range of technological programs and has a rating of 4.4 stars. The institute is situated at the coordinates (36.8363146, 11.1113262) and can be contacted by phone at 72 277 090. Its website is http://www.isetkl.rnu.tn/.
+Kelibia is a place located in Kelibia, Tunisia. It has a bike rental service, with a 4.2 rating based on 6 reviews. It is located at coordinates (36.836660524289, 11.111146140921).
+Marbrerie Hafefh Kacem is a popular discotheque located in Kelibia, Tunisia. It has a rating of 4.0 out of 5 on Google Maps and is known for its vibrant atmosphere and lively music. The discotheque is located at (36.8472589, 11.091058) and offers a variety of music genres to cater to different tastes. It is a popular destination for locals and tourists alike, and is a great place to dance the night away.
+El Bahri Restaurant is a seafood restaurant located in Kelibia, Tunisia. It is a popular spot for tourists and locals alike, and it offers a variety of seafood dishes, including fresh fish, grilled octopus, and seafood platters. The restaurant is open 24 hours a day, and it is closed on Tuesdays. The average rating for El Bahri Restaurant is 4.7 stars, and it has received positive reviews for its delicious food, friendly staff, and reasonable prices.
+"La Luna", a 4-star Pizzeria, located in Kelibia, Tunisia. It's reachable by phone and has a website. It's open daily from 08:00-22:00, and its coordinates are (36.8472589, 11.091058).
+Restaurant is a family-friendly restaurant located in Kelibia, Tunisia. It offers a variety of dishes, including traditional Tunisian cuisine and international fare. The restaurant is located at the coordinates (36.8472589, 11.091058) and has a rating of 5.0 out of 5 stars on Google Maps.
+Station Louage Kelibia is a taxi service located in Kelibia, Tunisia (36.84757, 11.09386). With a rating of 3.7 out of 5 based on 28 reviews, it offers reliable transportation services to its customers.
+SRTGN's station is located in Kelibia, Tunisia. It offers bus services to various destinations. The station is located at the coordinates (36.84757, 11.09386).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5423,13 +7940,77 @@
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>If you're in Kelibia and looking for a fascinating maritime destination, visit Port de Kelibia located at Port de Kelibia, Kelibia 8090. 
-This top-rated port is perfect for marine enthusiasts and has a rating of 4.5. To get there, use these GPS coordinates: 36.8351444, 11.1116178.</t>
+          <t>The Port of Kelibia is a maritime port located in Kelibia, Tunisia. The port offers a variety of services to its customers, including fishing, cargo, and passenger transport. It is also a popular tourist destination, with many visitors coming to enjoy the beautiful scenery and the fresh seafood. The port is located at (36.8351444, 11.1116178).</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated port catering to marine enthusiasts in the Kelibia area?</t>
+          <t>**Day Plan:**
+**Morning:**
+* Explore the picturesque Plage Kelibia, enjoying the soft white sand and crystal-clear waters.
+**Mid-Morning:**
+* Visit Fort de Kelibia for breathtaking panoramic views and a glimpse of Kelibia's rich history.
+**Midday:**
+* Savory local cuisine at El Bahri Restaurant, a popular spot for fresh seafood and traditional dishes.
+**Afternoon:**
+* Relax with a therapeutic massage at DAR COLIBRI, a charming guesthouse offering a rejuvenating spa experience.
+**Evening:**
+* Stroll through the streets of Kelibia, immersing in the lively atmosphere and browsing local shops.
+**Night:**
+* Dance the night away at Marbrerie Hafefh Kacem, a vibrant discotheque known for its lively music and energetic vibe.</t>
+        </is>
+      </c>
+      <c r="AB46" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**El Barraka** is a popular cafe located in Kelibia, Tunisia. It offers a wide range of drinks and snacks, making it a great place to relax and unwind. The cafe is conveniently located on Av. de Martyrs, with coordinates (36.836660524289, 11.111146140921). With its cozy ambiance and friendly staff, El Barraka is a perfect spot to meet friends, catch up on work, or simply enjoy a cup of coffee.
+Located in Kelibia (latitude 36.836660524289, and longitude 11.111146140921), Big Ben is a teahouse offering a pleasant setting to relax and enjoy a break.
+Lounge Cafe, rated 5.0 out of 5 by 1 reviewer, is a restaurant located at R3WQ+H9M, Av. Habib-Bourguiba, Kelibia, Tunisia. It is open from 6:00 am to 2:00 pm daily, and its main category is Restaurant. Its featured image can be found at https://lh5.googleusercontent.com/p/AF1QipOvbL7FtV4P7-K_sbXDNGp51x8sIv60Kakq6a4-=w408-h408-k-no.
+Myriam Bel Air is a popular hotel located in Kelibia, Tunisia. It offers a comfortable and convenient stay for its guests, with a 4.2-star rating on Google. The hotel has 14 reviews, with an overall positive feedback from its guests. It provides a range of amenities, including comfortable rooms, a swimming pool, and a restaurant. The hotel's website features additional information and booking options, and it is well-connected with major tourist attractions in the area.
+Nestled in the picturesque Kelibia region, Cap-Bon Kelibia Beach Hotel &amp; Spa is an upscale resort offering 562 warmly designed rooms and suites. With its stunning beachfront location and serene ambiance, the hotel is an ideal destination for leisure and relaxation. It features an array of amenities, including a rejuvenating spa, three refined dining options, and an inviting swimming pool, ensuring an unforgettable stay in the heart of Kelibia.
+DAR COLIBRI, a 4.6-rated guesthouse located in Kelibia (36.8363146, 11.1113262), offers a unique stay in a charming setting. It features a swimming pool, hammam, and massage services, promising a relaxing and rejuvenating experience. With its proximity to the beautiful beaches of Kelibia, this guesthouse is an ideal base for exploring the region's natural wonders.
+Residence Asma is a 4.4-rated residence located in Kelibia, Tunisia. It is a great place to stay for tourists and business travelers alike. The residence offers a variety of amenities, including a swimming pool, a fitness center, and a restaurant. It is also conveniently located near the beach, the city center, and the airport. The residence has 14 reviews, all of which are positive. Guests praise the residence's cleanliness, comfort, and friendly staff.
+Pension Anis is a 4-star family-run guesthouse located in Kelibia, Tunisia. It features a prime location on Av du Dr Mongi Ben Hmida. Guests can enjoy comfortable accommodations with great value. The guesthouse offers a range of amenities to ensure a pleasant stay, including free Wi-Fi, laundry service, and a friendly atmosphere. Its central location provides easy access to local attractions and points of interest.
+The Casa Del Mar Residence is a 4.3-rated guesthouse located in Kelibia, Tunisia. It is situated near the beach and offers a relaxing getaway for guests. The Residence has received positive reviews for its comfortable accommodations and friendly staff.
+Dar Lebharr is a cozy accommodation located in Kelibia, Tunisia. It offers a comfortable stay with a rating of 4.1 out of 5. Situated at 36.835428078688 latitude and 11.091149597327 longitude, it's easily accessible. Contact them at +33 7 81 09 91 78 for bookings or inquiries.
+Luxus Apartements is a 5-star lodge located in Kelibia, Tunisia. It offers a luxurious and comfortable stay for its guests. The lodge is situated near the beach, making it a great place to relax and enjoy the beautiful scenery. Luxus Apartements is also close to many restaurants, shops, and attractions. The lodge's staff is friendly and helpful, and they are always willing to go the extra mile to make sure that their guests have a memorable stay.
+Plage Kelibia, located at (36.84757, 11.09386), offers a picturesque beachfront experience in the city of Kelibia.
+Fort de Kelibia, located in Kelibia, is a historical fortress with an average rating of 4.4 out of 5 based on 460 reviews. It offers a stunning view of the sea, making it a great spot to enjoy the scenery. Visitors can also delve into the history of the fort or simply admire its architectural beauty. With its convenient opening hours from 9:00 AM to 6:00 PM, it's a perfect destination for tourists and history enthusiasts alike.
+Plage kelibia is a popular tourist attraction located in Kelibia, Tunisia. It offers a wide range of activities, including swimming, sunbathing, and windsurfing. The beach is also home to a number of restaurants and cafes.
+The beach is located just a short drive from the city center and is easily accessible by public transportation. The beach is well-maintained and features clear blue waters and soft white sand.
+Plage kelibia is a great place to relax and enjoy the beautiful weather of Tunisia. It is also a great location to enjoy some water sports.
+The Port of Kelibia is a maritime port located in Kelibia, Tunisia. The port offers a variety of services to its customers, including fishing, cargo, and passenger transport. It is also a popular tourist destination, with many visitors coming to enjoy the beautiful scenery and the fresh seafood. The port is located at (36.8351444, 11.1116178).
+Discover the stunning Phare de Kelibia, a captivating viewpoint located at (36.8363146, 11.1113262) in Kelibia, Tunisia. Immerse yourself in the breathtaking panoramic views from the lighthouse's vantage point, making it an ideal spot for photography enthusiasts and nature lovers alike.
+The Institut superieur des etudes technologiques de Kelibia is a higher education institute located in Kelibia, Tunisia. It offers a range of technological programs and has a rating of 4.4 stars. The institute is situated at the coordinates (36.8363146, 11.1113262) and can be contacted by phone at 72 277 090. Its website is http://www.isetkl.rnu.tn/.
+Kelibia is a place located in Kelibia, Tunisia. It has a bike rental service, with a 4.2 rating based on 6 reviews. It is located at coordinates (36.836660524289, 11.111146140921).
+Marbrerie Hafefh Kacem is a popular discotheque located in Kelibia, Tunisia. It has a rating of 4.0 out of 5 on Google Maps and is known for its vibrant atmosphere and lively music. The discotheque is located at (36.8472589, 11.091058) and offers a variety of music genres to cater to different tastes. It is a popular destination for locals and tourists alike, and is a great place to dance the night away.
+El Bahri Restaurant is a seafood restaurant located in Kelibia, Tunisia. It is a popular spot for tourists and locals alike, and it offers a variety of seafood dishes, including fresh fish, grilled octopus, and seafood platters. The restaurant is open 24 hours a day, and it is closed on Tuesdays. The average rating for El Bahri Restaurant is 4.7 stars, and it has received positive reviews for its delicious food, friendly staff, and reasonable prices.
+Pizzeria LOFT ROMA is a 4.2-rated pizzeria located in kelibia, Tunisia. It operates from 08:00 to 00:00 every day and offers a wide range of pizzas. Its exact location is at R3VW+83Q Rue de Tripoli, Kelibia, Tunisia.
+Restaurant is a family-friendly restaurant located in Kelibia, Tunisia. It offers a variety of dishes, including traditional Tunisian cuisine and international fare. The restaurant is located at the coordinates (36.8472589, 11.091058) and has a rating of 5.0 out of 5 stars on Google Maps.
+Station Louage Kelibia is a taxi service located in Kelibia, Tunisia (36.84757, 11.09386). With a rating of 3.7 out of 5 based on 28 reviews, it offers reliable transportation services to its customers.
+SRTGN (station Kelibia) is a bus station located in Kelibia with the coordinates (36.84757, 11.09386). It offers bus services to various destinations.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5527,12 +8108,69 @@
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>If you're in kelibia and looking for a breathtaking view, head to Phare de Kelibia, located at Phare de Kelibia, Phare Du fort, Av. De La Mansoura. This top-rated destination is perfect for Point de vue lovers, with a rating of 5.0. For more details, visit their website at https://www.google.com/maps/place/Phare+de+K%C3%A9libia/data=!4m7!3m6!1s0x131d33001e28ad23:0xad890c7613d33f44!8m2!3d36.8380342!4d11.1167326!16s%2Fg%2F11fyxc1snb!19sChIJI60oHgAzHRMRRD_TE3YMia0?authuser=0&amp;hl=fr&amp;rclk=1 or call them at To get there, use these GPS coordinates: 36.8363146, 11.1113262.</t>
+          <t>Discover the stunning Phare de Kelibia, a captivating viewpoint located at (36.8363146, 11.1113262) in Kelibia, Tunisia. Immerse yourself in the breathtaking panoramic views from the lighthouse's vantage point, making it an ideal spot for photography enthusiasts and nature lovers alike.</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
         <is>
-          <t>Where in Kelibia can you find a highly rated destination with a breathtaking view, perfect for scenic enjoyment?</t>
+          <t>Day Plan:
+Morning: Explore the historical Fort de Kelibia and capture panoramic views
+Mid-Morning: Visit the scenic Phare de Kelibia for breathtaking vistas
+Midday: Indulge in delicious seafood at El Bahri Restaurant
+Afternoon: Relax and enjoy the sun and sand at Plage Kelibia, playing beach volleyball
+Evening: Shop for souvenirs and local goods at the bustling Kelibia Market
+Night: Experience the lively atmosphere at Marbrerie Hafefh Kacem and dance the night away</t>
+        </is>
+      </c>
+      <c r="AB47" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Discover a cozy respite in the heart of Kelibia at SOYASEP ZNAIDI KIOSQUE ET CAFE, located at coordinates (36.8472589, 11.091058). This charming cafe offers a welcoming atmosphere, serving a delectable selection of beverages and delectable treats. Situated conveniently, this cafe invites you to take a break, indulge in the local flavors, and connect with the vibrant community of Kelibia.
+Hannibal coffee kelibia is a tea room located in kelibia, Tunisia. It offers a variety of teas, coffees, and pastries. The tea room is located at 36.8363146, 11.1113262.
+**mT'm mshw~ lmrshy Resterant Machwa Almarch** is a restaurant located in Kelibia, Tunisia. It is known for its delicious food and friendly service. The restaurant is open from 11am to midnight every day of the week, and offers a variety of dishes including traditional Tunisian cuisine, as well as international dishes. mT'm mshw~ lmrshy Resterant Machwa Almarch is located at R3WV+3VJ mT'm mshw~ lmrshy Resterant Machwa Almarch, Kelibia, Tunisia.
+Myriam Bel Air is a popular hotel located in Kelibia, Tunisia. It offers a comfortable and convenient stay for its guests, with a 4.2-star rating on Google. The hotel has 14 reviews, with an overall positive feedback from its guests. It provides a range of amenities, including comfortable rooms, a swimming pool, and a restaurant. The hotel's website features additional information and booking options, and it is well-connected with major tourist attractions in the area.
+Nestled in the picturesque Kelibia region, Cap-Bon Kelibia Beach Hotel &amp; Spa is an upscale resort offering 562 warmly designed rooms and suites. With its stunning beachfront location and serene ambiance, the hotel is an ideal destination for leisure and relaxation. It features an array of amenities, including a rejuvenating spa, three refined dining options, and an inviting swimming pool, ensuring an unforgettable stay in the heart of Kelibia.
+Dar Meriem - Maison d'hôtes is a guest house located in Kelibia, Tunisia. It offers comfortable accommodation and a warm and welcoming atmosphere. The guest house is perfectly situated for exploring the city and its surroundings, and is close to a variety of amenities. The guest house is managed by a friendly and helpful team of staff who are always on hand to assist guests with any queries or needs.
+Residence Asma is a 4.4-rated residence located in Kelibia, Tunisia. It is a great place to stay for tourists and business travelers alike. The residence offers a variety of amenities, including a swimming pool, a fitness center, and a restaurant. It is also conveniently located near the beach, the city center, and the airport. The residence has 14 reviews, all of which are positive. Guests praise the residence's cleanliness, comfort, and friendly staff.
+Pension Anis is a 4-star family-run guesthouse located in Kelibia, Tunisia. It features a prime location on Av du Dr Mongi Ben Hmida. Guests can enjoy comfortable accommodations with great value. The guesthouse offers a range of amenities to ensure a pleasant stay, including free Wi-Fi, laundry service, and a friendly atmosphere. Its central location provides easy access to local attractions and points of interest.
+The Casa Del Mar Residence is a 4.3-rated guesthouse located in Kelibia, Tunisia. It is situated near the beach and offers a relaxing getaway for guests. The Residence has received positive reviews for its comfortable accommodations and friendly staff.
+Dar Lebharr is a cozy accommodation located in Kelibia, Tunisia. It offers a comfortable stay with a rating of 4.1 out of 5. Situated at 36.835428078688 latitude and 11.091149597327 longitude, it's easily accessible. Contact them at +33 7 81 09 91 78 for bookings or inquiries.
+Luxus Apartements is a 5-star lodge located in Kelibia, Tunisia at (36.835428078688, 11.091149597327). It has a rating of 5.0 based on 1 review and is owned by Luxus Apartements (proprietaire). Luxus Apartements offers a variety of amenities and services, making it the perfect place to stay for both business and leisure travelers.
+Plage Kelibia, located at (36.84757, 11.09386), offers a picturesque beachfront experience in the city of Kelibia.
+Fort de Kelibia is a historical fortress located in Kelibia, Tunisia. It offers stunning views of the Mediterranean Sea and the port. The castle boasts a rich history and architectural significance. Visitors can explore the castle's ramparts, towers, and courtyards, and delve into the region's captivating past. With a 4.4-star rating, the fort is a popular destination for tourists and history enthusiasts alike. Its strategic location makes it a great spot to capture panoramic shots of the surrounding area.
+Plage Kelibia is a tourist attraction located at the coordinates (36.84757, 11.09386) in Kelibia, Tunisia. With a rating of 4.6 based on 37 reviews, it is a popular destination for tourists. The beach offers a range of activities and amenities, including swimming, sunbathing, and beach volleyball. It is also home to a number of restaurants and cafes, making it a great place to relax and enjoy the scenery.
+The Port of Kelibia is a maritime port located in Kelibia, Tunisia. The port offers a variety of services to its customers, including fishing, cargo, and passenger transport. It is also a popular tourist destination, with many visitors coming to enjoy the beautiful scenery and the fresh seafood. The port is located at (36.8351444, 11.1116178).
+Discover the stunning Phare de Kelibia, a captivating viewpoint located at (36.8363146, 11.1113262) in Kelibia, Tunisia. Immerse yourself in the breathtaking panoramic views from the lighthouse's vantage point, making it an ideal spot for photography enthusiasts and nature lovers alike.
+The Institut superieur des etudes technologiques de Kelibia is a higher education institute located in Kelibia, Tunisia. It offers a range of technological programs and has a rating of 4.4 stars. The institute is situated at the coordinates (36.8363146, 11.1113262) and can be contacted by phone at 72 277 090. Its website is http://www.isetkl.rnu.tn/.
+Kelibia is a place located in Kelibia, Tunisia. It has a bike rental service, with a 4.2 rating based on 6 reviews. It is located at coordinates (36.836660524289, 11.111146140921).
+Marbrerie Hafefh Kacem is a popular discotheque located in Kelibia, Tunisia. It has a rating of 4.0 out of 5 on Google Maps and is known for its vibrant atmosphere and lively music. The discotheque is located at (36.8472589, 11.091058) and offers a variety of music genres to cater to different tastes. It is a popular destination for locals and tourists alike, and is a great place to dance the night away.
+El Bahri Restaurant is a seafood restaurant located in Kelibia, Tunisia. It is a popular spot for tourists and locals alike, and it offers a variety of seafood dishes, including fresh fish, grilled octopus, and seafood platters. The restaurant is open 24 hours a day, and it is closed on Tuesdays. The average rating for El Bahri Restaurant is 4.7 stars, and it has received positive reviews for its delicious food, friendly staff, and reasonable prices.
+Pizzeria LOFT ROMA is a 4.2-rated pizzeria located in kelibia, Tunisia. It operates from 08:00 to 00:00 every day and offers a wide range of pizzas. Its exact location is at R3VW+83Q Rue de Tripoli, Kelibia, Tunisia.
+Restaurant is a family-friendly restaurant located in Kelibia, Tunisia. It offers a variety of dishes, including traditional Tunisian cuisine and international fare. The restaurant is located at the coordinates (36.8472589, 11.091058) and has a rating of 5.0 out of 5 stars on Google Maps.
+Station Louage Kelibia is a taxi service located in Kelibia, Tunisia (36.84757, 11.09386). With a rating of 3.7 out of 5 based on 28 reviews, it offers reliable transportation services to its customers.
+SRTGN (station Kelibia) is a bus station located in Kelibia, Tunisia. It offers basic amenities and services for travelers, and is conveniently situated at (36.84757, 11.09386).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5642,12 +8280,75 @@
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>If you're in kelibia and looking for a top-rated hotel, check out Cap-Bon Kelibia Beach Hotel &amp; Spa located at Cap-Bon Kelibia Beach Hotel &amp; Spa, Plage El Mansourah, Kelibia 8090. This 4.1-rated destination is perfect for hotel lovers and offers a range of categories to choose from, including Hotel, Restaurant, Spa, and Piscine. To get there, use these GPS coordinates: -34.1604217, 18.4296167. For more details, visit their website at https://kelibiabeachhotel.com/ or call them at 72 277 770.</t>
+          <t>Nestled in the picturesque Kelibia region, Cap-Bon Kelibia Beach Hotel &amp; Spa is an upscale resort offering 562 warmly designed rooms and suites. With its stunning beachfront location and serene ambiance, the hotel is an ideal destination for leisure and relaxation. It features an array of amenities, including a rejuvenating spa, three refined dining options, and an inviting swimming pool, ensuring an unforgettable stay in the heart of Kelibia.</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
         <is>
-          <t>Where in Kelibia can you find a highly-rated hotel with a wide range of amenities, conveniently accessible via GPS coordinates and a website?</t>
+          <t>**Day Plan:**
+**Morning:**
+* Explore the picturesque Plage Kelibia (36.84757, 11.09386) for a refreshing morning stroll and enjoy the beautiful beachfront views.
+**Mid-Morning:**
+* Visit the historical Fort de Kelibia, offering stunning sea views and a glimpse into the city's past.
+**Midday:**
+* Indulge in a delightful local lunch at Restaurant (36.8472589, 11.091058), renowned for its traditional Tunisian cuisine and international fare.
+**Afternoon:**
+* Discover the vibrant and lively Marbrerie Hafefh Kacem discotheque (36.8472589, 11.091058) for some afternoon dancing and entertainment.
+**Evening:**
+* Head to Pizzeria LOFT ROMA (R3VW+83Q Rue de Tripoli, Kelibia, Tunisia) for a delicious dinner featuring a wide range of pizzas and Italian dishes.
+**Night:**
+* Take a peaceful and romantic walk along the scenic Phare de Kelibia (36.8363146, 11.1113262), enjoying breathtaking panoramic views of the city and coastline under the starry sky.</t>
+        </is>
+      </c>
+      <c r="AB48" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Dolce Vita Glace italienne is a café located in Kelibia, Tunisia (lon: 11.111146140921, lat: 36.836660524289). It opens from 06:00 to 00:00 and is known for its delicious Italian ice cream (glaces) among its 13 reviews.
+Hannibal coffee kelibia is a tea room located in kelibia, Tunisia. It offers a variety of teas, coffees, and pastries. The tea room is located at 36.8363146, 11.1113262.
+Welcome to Pizza Lool, a beloved restaurant in Kelibia, Tunisia, known for its delectable pizzas and its welcoming atmosphere. Located at R3VW+RCW, Pizza Lool offers an unforgettable dining experience with friendly service and a convenient location.
+Kelibia Paradise is a popular accommodation option in Kelibia, Tunisia. It is located at 47 Rue d'orange Cite Ezzouhour, 8090, Kelibia, and offers a range of amenities to its guests. These include a restaurant, bar, and swimming pool, as well as free Wi-Fi and parking. The hotel is situated within easy reach of the beach and other local attractions, making it an ideal base for exploring the area.
+Nestled in the picturesque Kelibia region, Cap-Bon Kelibia Beach Hotel &amp; Spa is an upscale resort offering 562 warmly designed rooms and suites. With its stunning beachfront location and serene ambiance, the hotel is an ideal destination for leisure and relaxation. It features an array of amenities, including a rejuvenating spa, three refined dining options, and an inviting swimming pool, ensuring an unforgettable stay in the heart of Kelibia.
+Dar Meriem - Maison d'hôtes is a guest house located in Kelibia, Tunisia. It offers comfortable accommodation and a warm and welcoming atmosphere. The guest house is perfectly situated for exploring the city and its surroundings, and is close to a variety of amenities. The guest house is managed by a friendly and helpful team of staff who are always on hand to assist guests with any queries or needs.
+Residence Asma is a 4.4-rated residence located in Kelibia, Tunisia. It is a great place to stay for tourists and business travelers alike. The residence offers a variety of amenities, including a swimming pool, a fitness center, and a restaurant. It is also conveniently located near the beach, the city center, and the airport. The residence has 14 reviews, all of which are positive. Guests praise the residence's cleanliness, comfort, and friendly staff.
+Pension Anis is a 4-star family-run guesthouse located in Kelibia, Tunisia. It features a prime location on Av du Dr Mongi Ben Hmida. Guests can enjoy comfortable accommodations with great value. The guesthouse offers a range of amenities to ensure a pleasant stay, including free Wi-Fi, laundry service, and a friendly atmosphere. Its central location provides easy access to local attractions and points of interest.
+The Casa Del Mar Residence is a 4.3-rated guesthouse located in Kelibia, Tunisia. It is situated near the beach and offers a relaxing getaway for guests. The Residence has received positive reviews for its comfortable accommodations and friendly staff.
+Dar Lebharr is a cozy accommodation located in Kelibia, Tunisia. It offers a comfortable stay with a rating of 4.1 out of 5. Situated at 36.835428078688 latitude and 11.091149597327 longitude, it's easily accessible. Contact them at +33 7 81 09 91 78 for bookings or inquiries.
+Luxus Apartements is a 5-star lodge located in Kelibia, Tunisia. It offers a luxurious and comfortable stay for its guests. The lodge is situated near the beach, making it a great place to relax and enjoy the beautiful scenery. Luxus Apartements is also close to many restaurants, shops, and attractions. The lodge's staff is friendly and helpful, and they are always willing to go the extra mile to make sure that their guests have a memorable stay.
+Plage Kelibia, located at (36.84757, 11.09386), offers a picturesque beachfront experience in the city of Kelibia.
+Fort de Kelibia, located in Kelibia, is a historical fortress with an average rating of 4.4 out of 5 based on 460 reviews. It offers a stunning view of the sea, making it a great spot to enjoy the scenery. Visitors can also delve into the history of the fort or simply admire its architectural beauty. With its convenient opening hours from 9:00 AM to 6:00 PM, it's a perfect destination for tourists and history enthusiasts alike.
+Plage Kelibia is a tourist attraction located at the coordinates (36.84757, 11.09386) in Kelibia, Tunisia. With a rating of 4.6 based on 37 reviews, it is a popular destination for tourists. The beach offers a range of activities and amenities, including swimming, sunbathing, and beach volleyball. It is also home to a number of restaurants and cafes, making it a great place to relax and enjoy the scenery.
+The Port of Kelibia is a maritime port located in Kelibia, Tunisia. The port offers a variety of services to its customers, including fishing, cargo, and passenger transport. It is also a popular tourist destination, with many visitors coming to enjoy the beautiful scenery and the fresh seafood. The port is located at (36.8351444, 11.1116178).
+Discover the stunning Phare de Kelibia, a captivating viewpoint located at (36.8363146, 11.1113262) in Kelibia, Tunisia. Immerse yourself in the breathtaking panoramic views from the lighthouse's vantage point, making it an ideal spot for photography enthusiasts and nature lovers alike.
+The Institut superieur des etudes technologiques de Kelibia is a higher education institute located in Kelibia, Tunisia. It offers a range of technological programs and has a rating of 4.4 stars. The institute is situated at the coordinates (36.8363146, 11.1113262) and can be contacted by phone at 72 277 090. Its website is http://www.isetkl.rnu.tn/.
+Kelibia is a place located in Kelibia, Tunisia. It has a bike rental service, with a 4.2 rating based on 6 reviews. It is located at coordinates (36.836660524289, 11.111146140921).
+Marbrerie Hafefh Kacem is a popular discotheque located in Kelibia, Tunisia. It has a rating of 4.0 out of 5 on Google Maps and is known for its vibrant atmosphere and lively music. The discotheque is located at (36.8472589, 11.091058) and offers a variety of music genres to cater to different tastes. It is a popular destination for locals and tourists alike, and is a great place to dance the night away.
+El Bahri Restaurant is a seafood restaurant located in Kelibia, Tunisia. It is a popular spot for tourists and locals alike, and it offers a variety of seafood dishes, including fresh fish, grilled octopus, and seafood platters. The restaurant is open 24 hours a day, and it is closed on Tuesdays. The average rating for El Bahri Restaurant is 4.7 stars, and it has received positive reviews for its delicious food, friendly staff, and reasonable prices.
+Pizzeria LOFT ROMA is a 4.2-rated pizzeria located in kelibia, Tunisia. It operates from 08:00 to 00:00 every day and offers a wide range of pizzas. Its exact location is at R3VW+83Q Rue de Tripoli, Kelibia, Tunisia.
+Restaurant is a family-friendly restaurant located in Kelibia, Tunisia. It offers a variety of dishes, including traditional Tunisian cuisine and international fare. The restaurant is located at the coordinates (36.8472589, 11.091058) and has a rating of 5.0 out of 5 stars on Google Maps.
+Station Louage Kelibia is a taxi service located in Kelibia, Tunisia (36.84757, 11.09386). With a rating of 3.7 out of 5 based on 28 reviews, it offers reliable transportation services to its customers.
+SRTGN (station Kelibia) is a bus station located in Kelibia, Tunisia. It offers basic amenities and services for travelers, and is conveniently situated at (36.84757, 11.09386).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5749,12 +8450,69 @@
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>If you're in kelibia and looking for something fun to do, check out Fort de Kelibia located at Fort de Kelibia, Kelibia. This top-rated destination is perfect for Forteresse lovers and offers a range of Forteresse to choose from. With a rating of 4.4, it's a must-visit spot. It's open during these hours: 09:00-18:00. To get there, use these GPS coordinates: 36.8394811, 11.1146289. For more details, visit their website at  or call them at .</t>
+          <t>Fort de Kelibia, located in Kelibia, is a historical fortress with an average rating of 4.4 out of 5 based on 460 reviews. It offers a stunning view of the sea, making it a great spot to enjoy the scenery. Visitors can also delve into the history of the fort or simply admire its architectural beauty. With its convenient opening hours from 9:00 AM to 6:00 PM, it's a perfect destination for tourists and history enthusiasts alike.</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
         <is>
-          <t>Where in Kelibia can you find an exceptional Forteresse destination with a high rating and a wide selection to choose from?</t>
+          <t>Day Plan:
+Morning: Explore Fort de Kelibia for its historical significance and panoramic views.
+Mid-Morning: Try local cuisine at El Bahri Restaurant, known for its delicious seafood dishes.
+Midday: Take a guided tour of the Institut superieur des etudes technologiques de Kelibia, a highly esteemed higher education institute.
+Afternoon: Enjoy sunbathing and swimming at Plage Kelibia, a popular destination with a rating of 4.6.
+Evening: Relax with a soothing massage at Luxus Apartements' spa, known for its luxurious amenities.
+Night: Experience the vibrant atmosphere of Marbrerie Hafefh Kacem, a popular discotheque with a lively music scene.</t>
+        </is>
+      </c>
+      <c r="AB49" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Jeune is a highly-rated (5/5) cafe in Kelibia, Tunisia. Located at coordinates (36.8472589, 11.091058), it is easily accessible and offers a cozy ambiance perfect for enjoying a cup of coffee or tea. The cafe is known for its friendly owner and excellent service, making it a popular spot among locals and visitors alike.
+Located in Kelibia (latitude 36.836660524289, and longitude 11.111146140921), Big Ben is a teahouse offering a pleasant setting to relax and enjoy a break.
+Restaurant "Le Colibri Officiel", located in Kelibia at (36.842587762817, 11.099081841049), offers an unparalleled dining experience with its 5-star rating based on 17 reviews. Its menu is not provided in the given information, but its main category is listed as "Restaurant". If you wish to make a reservation or inquire further, you can contact the owner directly through their link or call them at 58 121 352. Unfortunately, the restaurant's website is not provided in the given information.
+Kelibia Paradise is a lodging facility located in Kelibia, Tunisia. It has a rating of 4.6 and has received 18 reviews. The facility offers accommodation with a main focus on comfort and relaxation. Its geolocation is at longitude 11.098431810317 and latitude 36.846063992403.
+The Cap-Bon Kelibia Beach Hotel &amp; Spa is a 4-star hotel located in Kelibia, Tunisia. It is a luxury seaside hotel offering comfortable rooms and suites, a spa and 3 refined restaurants. It is known for its beautiful beach, its large swimming pool and its animations.
+Dar Meriem - Maison d'hôtes is a guest house located in Kelibia, Tunisia. It offers comfortable accommodation and a warm and welcoming atmosphere. The guest house is perfectly situated for exploring the city and its surroundings, and is close to a variety of amenities. The guest house is managed by a friendly and helpful team of staff who are always on hand to assist guests with any queries or needs.
+Residence Asma is a 4.4-rated residence located in Kelibia, Tunisia. It is a great place to stay for tourists and business travelers alike. The residence offers a variety of amenities, including a swimming pool, a fitness center, and a restaurant. It is also conveniently located near the beach, the city center, and the airport. The residence has 14 reviews, all of which are positive. Guests praise the residence's cleanliness, comfort, and friendly staff.
+Pension Anis is a 4-star family-run guesthouse located in Kelibia, Tunisia. It features a prime location on Av du Dr Mongi Ben Hmida. Guests can enjoy comfortable accommodations with great value. The guesthouse offers a range of amenities to ensure a pleasant stay, including free Wi-Fi, laundry service, and a friendly atmosphere. Its central location provides easy access to local attractions and points of interest.
+The Casa Del Mar Residence is a 4.3-rated guesthouse located in Kelibia, Tunisia. It is situated near the beach and offers a relaxing getaway for guests. The Residence has received positive reviews for its comfortable accommodations and friendly staff.
+Dar Lebharr is a cozy accommodation located in Kelibia, Tunisia. It offers a comfortable stay with a rating of 4.1 out of 5. Situated at 36.835428078688 latitude and 11.091149597327 longitude, it's easily accessible. Contact them at +33 7 81 09 91 78 for bookings or inquiries.
+Luxus Apartements is a 5-star lodge located in Kelibia, Tunisia. It offers a luxurious and comfortable stay for its guests. The lodge is situated near the beach, making it a great place to relax and enjoy the beautiful scenery. Luxus Apartements is also close to many restaurants, shops, and attractions. The lodge's staff is friendly and helpful, and they are always willing to go the extra mile to make sure that their guests have a memorable stay.
+Plage Kelibia, located at (36.84757, 11.09386), offers a picturesque beachfront experience in the city of Kelibia.
+Fort de Kelibia is a historical fortress located in Kelibia, Tunisia. It offers stunning views of the Mediterranean Sea and the port. The castle boasts a rich history and architectural significance. Visitors can explore the castle's ramparts, towers, and courtyards, and delve into the region's captivating past. With a 4.4-star rating, the fort is a popular destination for tourists and history enthusiasts alike. Its strategic location makes it a great spot to capture panoramic shots of the surrounding area.
+Plage Kelibia is a tourist attraction located at the coordinates (36.84757, 11.09386) in Kelibia, Tunisia. With a rating of 4.6 based on 37 reviews, it is a popular destination for tourists. The beach offers a range of activities and amenities, including swimming, sunbathing, and beach volleyball. It is also home to a number of restaurants and cafes, making it a great place to relax and enjoy the scenery.
+The Port of Kelibia is a maritime port located in Kelibia, Tunisia. The port offers a variety of services to its customers, including fishing, cargo, and passenger transport. It is also a popular tourist destination, with many visitors coming to enjoy the beautiful scenery and the fresh seafood. The port is located at (36.8351444, 11.1116178).
+Discover the stunning Phare de Kelibia, a captivating viewpoint located at (36.8363146, 11.1113262) in Kelibia, Tunisia. Immerse yourself in the breathtaking panoramic views from the lighthouse's vantage point, making it an ideal spot for photography enthusiasts and nature lovers alike.
+The Institut superieur des etudes technologiques de Kelibia is a higher education institute located in Kelibia, Tunisia. It offers a range of technological programs and has a rating of 4.4 stars. The institute is situated at the coordinates (36.8363146, 11.1113262) and can be contacted by phone at 72 277 090. Its website is http://www.isetkl.rnu.tn/.
+Kelibia is a place located in Kelibia, Tunisia. It has a bike rental service, with a 4.2 rating based on 6 reviews. It is located at coordinates (36.836660524289, 11.111146140921).
+Marbrerie Hafefh Kacem is a popular discotheque located in Kelibia, Tunisia. It has a rating of 4.0 out of 5 on Google Maps and is known for its vibrant atmosphere and lively music. The discotheque is located at (36.8472589, 11.091058) and offers a variety of music genres to cater to different tastes. It is a popular destination for locals and tourists alike, and is a great place to dance the night away.
+El Bahri Restaurant is a seafood restaurant located in Kelibia, Tunisia. It is a popular spot for tourists and locals alike, and it offers a variety of seafood dishes, including fresh fish, grilled octopus, and seafood platters. The restaurant is open 24 hours a day, and it is closed on Tuesdays. The average rating for El Bahri Restaurant is 4.7 stars, and it has received positive reviews for its delicious food, friendly staff, and reasonable prices.
+Pizzeria LOFT ROMA is a 4.2-rated pizzeria located in kelibia, Tunisia. It operates from 08:00 to 00:00 every day and offers a wide range of pizzas. Its exact location is at R3VW+83Q Rue de Tripoli, Kelibia, Tunisia.
+Restaurant is a family-friendly restaurant located in Kelibia, Tunisia. It offers a variety of dishes, including traditional Tunisian cuisine and international fare. The restaurant is located at the coordinates (36.8472589, 11.091058) and has a rating of 5.0 out of 5 stars on Google Maps.
+Station Louage Kelibia is a taxi service located in Kelibia, Tunisia (36.84757, 11.09386). With a rating of 3.7 out of 5 based on 28 reviews, it offers reliable transportation services to its customers.
+SRTGN (station Kelibia) is a bus station located in Kelibia, Tunisia. It offers basic amenities and services for travelers, and is conveniently situated at (36.84757, 11.09386).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5852,14 +8610,11 @@
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>If you're in kelibia and looking for a top-rated tourist attraction, check out Plage kelibia located at R4RC+GJC Plage kelibia, Unnamed Road, Kelibia. With a rating of 4.6, it's a must-visit spot. To get there, use these GPS coordinates: 36.84757, 11.09386.</t>
-        </is>
-      </c>
-      <c r="AA50" t="inlineStr">
-        <is>
-          <t>Where can you visit in Kelibia, known for its top-rated 4.6-star tourist attraction, accessible via the coordinates 36.84757, 11.09386?</t>
-        </is>
-      </c>
+          <t>Plage Kelibia is a tourist attraction located at the coordinates (36.84757, 11.09386) in Kelibia, Tunisia. With a rating of 4.6 based on 37 reviews, it is a popular destination for tourists. The beach offers a range of activities and amenities, including swimming, sunbathing, and beach volleyball. It is also home to a number of restaurants and cafes, making it a great place to relax and enjoy the scenery.</t>
+        </is>
+      </c>
+      <c r="AA50" t="inlineStr"/>
+      <c r="AB50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -5963,14 +8718,71 @@
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>If you're in kelibia and looking for a great Institut de technologie, check out Institut superieur des etudes technologiques de Kelibia located at V336+525 Institut superieur des etudes technologiques de Kelibia, Route Oued El Khatf, Kelibia 8090. 
-This top-rated destination is perfect for Institut de technologie lovers and offers a range of categories to choose from. 
-With a rating of 4.4, it's a must-visit spot. To get there, use these GPS coordinates: 36.8363146, 11.1113262. For more details, visit their website at http://www.isetkl.rnu.tn/ or call them at 72 277 090.</t>
+          <t>The Institut superieur des etudes technologiques de Kelibia is a higher education institute located in Kelibia, Tunisia. It offers a range of technological programs and has a rating of 4.4 stars. The institute is situated at the coordinates (36.8363146, 11.1113262) and can be contacted by phone at 72 277 090. Its website is http://www.isetkl.rnu.tn/.</t>
         </is>
       </c>
       <c r="AA51" t="inlineStr">
         <is>
-          <t>Where in Kelibia can you find a highly-rated Institut de technologie with a wide selection of categories and a 4.4 rating?</t>
+          <t>Day Plan:
+Morning: Explore the historic Fort de Kelibia for its stunning sea views and insights into the town's past.
+Mid-Morning: Visit the Institut superieur des etudes technologiques de Kelibia to learn about the town's educational offerings and technological advancements.
+Midday: Indulge in the local cuisine at El Bahri Restaurant, renowned for its fresh seafood and warm hospitality.
+Afternoon: Relax and enjoy the picturesque Plage Kelibia, where you can swim, sunbathe, or engage in water sports.
+Evening: Head to the vibrant Marbrerie Hafefh Kacem for an unforgettable nightlife experience, featuring lively music and a welcoming atmosphere.
+Night: Wind down at the cozy Dar Lebharr, a charming accommodation offering comfortable accommodations and a peaceful ambiance.</t>
+        </is>
+      </c>
+      <c r="AB51" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Coffee King Kelibia, located in the bustling town of Kelibia, is a haven for coffee enthusiasts. With a cozy and inviting atmosphere, the cafe is the perfect spot to unwind and savor a cup of freshly brewed coffee. Its convenient location and high ratings make it a must-visit destination for locals and tourists alike.
+Hannibal coffee kelibia is a tea room located in kelibia, Tunisia. It offers a variety of teas, coffees, and pastries. The tea room is located at 36.8363146, 11.1113262.
+Clandestino is a highly-rated restaurant located in Kelibia, Tunisia. With a 4.2-star rating based on 11 reviews, it's a popular spot for locals and tourists alike. The restaurant is situated at Av. de Martyrs, making it easily accessible. Open from 7:00 AM to 8:00 PM, Clandestino serves a menu that is unfortunately not available online. Its main category is Restaurant, and it falls under the categories of Restaurants.
+Kelibia Paradise is a popular accommodation option in Kelibia, Tunisia. It is located at 47 Rue d'orange Cite Ezzouhour, 8090, Kelibia, and offers a range of amenities to its guests. These include a restaurant, bar, and swimming pool, as well as free Wi-Fi and parking. The hotel is situated within easy reach of the beach and other local attractions, making it an ideal base for exploring the area.
+The Cap-Bon Kelibia Beach Hotel &amp; Spa is a 4-star hotel located in Kelibia, Tunisia. It is a luxury seaside hotel offering comfortable rooms and suites, a spa and 3 refined restaurants. It is known for its beautiful beach, its large swimming pool and its animations.
+Dar Meriem - Maison d'hôtes is a guest house located in Kelibia, Tunisia. It offers comfortable accommodation and a warm and welcoming atmosphere. The guest house is perfectly situated for exploring the city and its surroundings, and is close to a variety of amenities. The guest house is managed by a friendly and helpful team of staff who are always on hand to assist guests with any queries or needs.
+Residence Asma is a 4.4-rated residence located in Kelibia, Tunisia. It is a great place to stay for tourists and business travelers alike. The residence offers a variety of amenities, including a swimming pool, a fitness center, and a restaurant. It is also conveniently located near the beach, the city center, and the airport. The residence has 14 reviews, all of which are positive. Guests praise the residence's cleanliness, comfort, and friendly staff.
+Pension Anis is a 4-star family-run guesthouse located in Kelibia, Tunisia. It features a prime location on Av du Dr Mongi Ben Hmida. Guests can enjoy comfortable accommodations with great value. The guesthouse offers a range of amenities to ensure a pleasant stay, including free Wi-Fi, laundry service, and a friendly atmosphere. Its central location provides easy access to local attractions and points of interest.
+The Casa Del Mar Residence is a 4.3-rated guesthouse located in Kelibia, Tunisia. It is situated near the beach and offers a relaxing getaway for guests. The Residence has received positive reviews for its comfortable accommodations and friendly staff.
+Dar Lebharr is a cozy accommodation located in Kelibia, Tunisia. It offers a comfortable stay with a rating of 4.1 out of 5. Situated at 36.835428078688 latitude and 11.091149597327 longitude, it's easily accessible. Contact them at +33 7 81 09 91 78 for bookings or inquiries.
+Luxus Apartements is a 5-star lodge located in Kelibia, Tunisia. It offers a luxurious and comfortable stay for its guests. The lodge is situated near the beach, making it a great place to relax and enjoy the beautiful scenery. Luxus Apartements is also close to many restaurants, shops, and attractions. The lodge's staff is friendly and helpful, and they are always willing to go the extra mile to make sure that their guests have a memorable stay.
+Plage Kelibia, located at (36.84757, 11.09386), offers a picturesque beachfront experience in the city of Kelibia.
+Fort de Kelibia, located in Kelibia, is a historical fortress with an average rating of 4.4 out of 5 based on 460 reviews. It offers a stunning view of the sea, making it a great spot to enjoy the scenery. Visitors can also delve into the history of the fort or simply admire its architectural beauty. With its convenient opening hours from 9:00 AM to 6:00 PM, it's a perfect destination for tourists and history enthusiasts alike.
+Plage kelibia is a popular tourist attraction located in Kelibia, Tunisia. It offers a wide range of activities, including swimming, sunbathing, and windsurfing. The beach is also home to a number of restaurants and cafes.
+The beach is located just a short drive from the city center and is easily accessible by public transportation. The beach is well-maintained and features clear blue waters and soft white sand.
+Plage kelibia is a great place to relax and enjoy the beautiful weather of Tunisia. It is also a great location to enjoy some water sports.
+The Port of Kelibia is a maritime port located in Kelibia, Tunisia. The port offers a variety of services to its customers, including fishing, cargo, and passenger transport. It is also a popular tourist destination, with many visitors coming to enjoy the beautiful scenery and the fresh seafood. The port is located at (36.8351444, 11.1116178).
+Discover the stunning Phare de Kelibia, a captivating viewpoint located at (36.8363146, 11.1113262) in Kelibia, Tunisia. Immerse yourself in the breathtaking panoramic views from the lighthouse's vantage point, making it an ideal spot for photography enthusiasts and nature lovers alike.
+The Institut superieur des etudes technologiques de Kelibia is a higher education institute located in Kelibia, Tunisia. It offers a range of technological programs and has a rating of 4.4 stars. The institute is situated at the coordinates (36.8363146, 11.1113262) and can be contacted by phone at 72 277 090. Its website is http://www.isetkl.rnu.tn/.
+Kelibia is a place located in Kelibia, Tunisia. It has a bike rental service, with a 4.2 rating based on 6 reviews. It is located at coordinates (36.836660524289, 11.111146140921).
+Marbrerie Hafefh Kacem is a popular discotheque located in Kelibia, Tunisia. It has a rating of 4.0 out of 5 on Google Maps and is known for its vibrant atmosphere and lively music. The discotheque is located at (36.8472589, 11.091058) and offers a variety of music genres to cater to different tastes. It is a popular destination for locals and tourists alike, and is a great place to dance the night away.
+El Bahri Restaurant is a seafood restaurant located in Kelibia, Tunisia. It is a popular spot for tourists and locals alike, and it offers a variety of seafood dishes, including fresh fish, grilled octopus, and seafood platters. The restaurant is open 24 hours a day, and it is closed on Tuesdays. The average rating for El Bahri Restaurant is 4.7 stars, and it has received positive reviews for its delicious food, friendly staff, and reasonable prices.
+Del Capo is a 5-star rated pizzeria located in Kelibia, Tunisia. It is situated at the address: 8090 Av. de Martyrs with coordinates (36.842587762817, 11.099081841049). This highly-rated spot operates from 12:00 to 00:00 during the week and offers a delectable range of pizzas.
+Restaurant is a family-friendly restaurant located in Kelibia, Tunisia. It offers a variety of dishes, including traditional Tunisian cuisine and international fare. The restaurant is located at the coordinates (36.8472589, 11.091058) and has a rating of 5.0 out of 5 stars on Google Maps.
+Station Louage Kelibia is a taxi service located in Kelibia, Tunisia (36.84757, 11.09386). With a rating of 3.7 out of 5 based on 28 reviews, it offers reliable transportation services to its customers.
+SRTGN (station Kelibia) is a bus station located in Kelibia with the coordinates (36.84757, 11.09386). It offers bus services to various destinations.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6076,12 +8888,69 @@
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>If you're in kelibia and looking for something fun to do, check out Kelibia located at R3VW+R9X Kelibia, Av. de Martyrs, Kelibia 8090. This top-rated destination is perfect for Service de location de velo lovers and offers a range of Service de location de velo to choose from. With a rating of 4.2, it's a must-visit spot. It's open from 11:00-19:00. To get there, use these GPS coordinates: 36.836660524289, 11.111146140921. For more details, call them at 54 905 461.</t>
+          <t>Kelibia is a place located in Kelibia, Tunisia. It has a bike rental service, with a 4.2 rating based on 6 reviews. It is located at coordinates (36.836660524289, 11.111146140921).</t>
         </is>
       </c>
       <c r="AA52" t="inlineStr">
         <is>
-          <t>What is the popular destination in Kelibia that offers Service de location de velo rentals and boasts an impressive 4.2 rating?</t>
+          <t>Day Plan:
+Morning: Explore Fort Kelibia for stunning historical views.
+Mid-Morning: Enjoy a delightful breakfast at Cafe'in, renowned for its coffee and ambiance.
+Midday: Indulge in a memorable lunch at Restaurant Sindabed, savoring traditional Tunisian cuisine.
+Afternoon: Head to Plage Kelibia for a refreshing swim, sunbathing, and beach volleyball.
+Evening: Embark on a guided tour of Plage Kelibia, capturing panoramic sunset views.
+Night: Experience the vibrant atmosphere at Marbrerie Hafefh Kacem, dancing the night away to lively music.</t>
+        </is>
+      </c>
+      <c r="AB52" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe'in is a cafe located in kelibia, Tunisia. It is rated 5.0/5 based on 1 reviews, and it is known for its coffee, desserts, and ambiance. Cafe'in is located at 36.8472589, 11.091058.
+Located in Kelibia (latitude 36.836660524289, and longitude 11.111146140921), Big Ben is a teahouse offering a pleasant setting to relax and enjoy a break.
+Restaurant Sindabed is a highly-rated restaurant located in Kelibia, Tunisia. It is open from 8 am to 8 pm and offers a variety of dishes in a pleasant setting. The restaurant is situated at the coordinates (36.8363146, 11.1113262) and can be reached by phone at 27 307 802.
+Kelibia Paradise is a popular accommodation option in Kelibia, Tunisia. It is located at 47 Rue d'orange Cite Ezzouhour, 8090, Kelibia, and offers a range of amenities to its guests. These include a restaurant, bar, and swimming pool, as well as free Wi-Fi and parking. The hotel is situated within easy reach of the beach and other local attractions, making it an ideal base for exploring the area.
+The Cap-Bon Kelibia Beach Hotel &amp; Spa is a 4-star hotel located in Kelibia, Tunisia. It is a luxury seaside hotel offering comfortable rooms and suites, a spa and 3 refined restaurants. It is known for its beautiful beach, its large swimming pool and its animations.
+DAR COLIBRI, a 4.6-rated guesthouse located in Kelibia (36.8363146, 11.1113262), offers a unique stay in a charming setting. It features a swimming pool, hammam, and massage services, promising a relaxing and rejuvenating experience. With its proximity to the beautiful beaches of Kelibia, this guesthouse is an ideal base for exploring the region's natural wonders.
+Residence Asma is a 4.4-rated residence located in Kelibia, Tunisia. It is a great place to stay for tourists and business travelers alike. The residence offers a variety of amenities, including a swimming pool, a fitness center, and a restaurant. It is also conveniently located near the beach, the city center, and the airport. The residence has 14 reviews, all of which are positive. Guests praise the residence's cleanliness, comfort, and friendly staff.
+Pension Anis is a 4-star family-run guesthouse located in Kelibia, Tunisia. It features a prime location on Av du Dr Mongi Ben Hmida. Guests can enjoy comfortable accommodations with great value. The guesthouse offers a range of amenities to ensure a pleasant stay, including free Wi-Fi, laundry service, and a friendly atmosphere. Its central location provides easy access to local attractions and points of interest.
+The Casa Del Mar Residence is a 4.3-rated guesthouse located in Kelibia, Tunisia. It is situated near the beach and offers a relaxing getaway for guests. The Residence has received positive reviews for its comfortable accommodations and friendly staff.
+Dar Lebharr is a cozy accommodation located in Kelibia, Tunisia. It offers a comfortable stay with a rating of 4.1 out of 5. Situated at 36.835428078688 latitude and 11.091149597327 longitude, it's easily accessible. Contact them at +33 7 81 09 91 78 for bookings or inquiries.
+Luxus Apartements is a 5-star lodge located in Kelibia, Tunisia at (36.835428078688, 11.091149597327). It has a rating of 5.0 based on 1 review and is owned by Luxus Apartements (proprietaire). Luxus Apartements offers a variety of amenities and services, making it the perfect place to stay for both business and leisure travelers.
+Plage Kelibia, located at (36.84757, 11.09386), offers a picturesque beachfront experience in the city of Kelibia.
+Fort de Kelibia is a historical fortress located in Kelibia, Tunisia. It offers stunning views of the Mediterranean Sea and the port. The castle boasts a rich history and architectural significance. Visitors can explore the castle's ramparts, towers, and courtyards, and delve into the region's captivating past. With a 4.4-star rating, the fort is a popular destination for tourists and history enthusiasts alike. Its strategic location makes it a great spot to capture panoramic shots of the surrounding area.
+Plage Kelibia is a tourist attraction located at the coordinates (36.84757, 11.09386) in Kelibia, Tunisia. With a rating of 4.6 based on 37 reviews, it is a popular destination for tourists. The beach offers a range of activities and amenities, including swimming, sunbathing, and beach volleyball. It is also home to a number of restaurants and cafes, making it a great place to relax and enjoy the scenery.
+The Port of Kelibia is a maritime port located in Kelibia, Tunisia. The port offers a variety of services to its customers, including fishing, cargo, and passenger transport. It is also a popular tourist destination, with many visitors coming to enjoy the beautiful scenery and the fresh seafood. The port is located at (36.8351444, 11.1116178).
+Discover the stunning Phare de Kelibia, a captivating viewpoint located at (36.8363146, 11.1113262) in Kelibia, Tunisia. Immerse yourself in the breathtaking panoramic views from the lighthouse's vantage point, making it an ideal spot for photography enthusiasts and nature lovers alike.
+The Institut superieur des etudes technologiques de Kelibia is a higher education institute located in Kelibia, Tunisia. It offers a range of technological programs and has a rating of 4.4 stars. The institute is situated at the coordinates (36.8363146, 11.1113262) and can be contacted by phone at 72 277 090. Its website is http://www.isetkl.rnu.tn/.
+Kelibia is a place located in Kelibia, Tunisia. It has a bike rental service, with a 4.2 rating based on 6 reviews. It is located at coordinates (36.836660524289, 11.111146140921).
+Marbrerie Hafefh Kacem is a popular discotheque located in Kelibia, Tunisia. It has a rating of 4.0 out of 5 on Google Maps and is known for its vibrant atmosphere and lively music. The discotheque is located at (36.8472589, 11.091058) and offers a variety of music genres to cater to different tastes. It is a popular destination for locals and tourists alike, and is a great place to dance the night away.
+El Bahri Restaurant is a seafood restaurant located in Kelibia, Tunisia. It is a popular spot for tourists and locals alike, and it offers a variety of seafood dishes, including fresh fish, grilled octopus, and seafood platters. The restaurant is open 24 hours a day, and it is closed on Tuesdays. The average rating for El Bahri Restaurant is 4.7 stars, and it has received positive reviews for its delicious food, friendly staff, and reasonable prices.
+Del Capo is a 5-star rated pizzeria located in Kelibia, Tunisia. It is situated at the address: 8090 Av. de Martyrs with coordinates (36.842587762817, 11.099081841049). This highly-rated spot operates from 12:00 to 00:00 during the week and offers a delectable range of pizzas.
+Restaurant is a family-friendly restaurant located in Kelibia, Tunisia. It offers a variety of dishes, including traditional Tunisian cuisine and international fare. The restaurant is located at the coordinates (36.8472589, 11.091058) and has a rating of 5.0 out of 5 stars on Google Maps.
+Station Louage Kelibia is a taxi service located in Kelibia, Tunisia (36.84757, 11.09386). With a rating of 3.7 out of 5 based on 28 reviews, it offers reliable transportation services to its customers.
+SRTGN's station is located in Kelibia, Tunisia. It offers bus services to various destinations. The station is located at the coordinates (36.84757, 11.09386).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6175,14 +9044,69 @@
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>If you're in kelibia and looking for something fun to do, check out Marbrerie Hafefh Kacem located at Rue Dar CHabaan El Fehri, Kelibia. 
-This top-rated destination is perfect for Discotheque lovers and offers a range of Discotheque to choose from. 
-With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.8472589, 11.091058.</t>
+          <t>Marbrerie Hafefh Kacem is a popular discotheque located in Kelibia, Tunisia. It has a rating of 4.0 out of 5 on Google Maps and is known for its vibrant atmosphere and lively music. The discotheque is located at (36.8472589, 11.091058) and offers a variety of music genres to cater to different tastes. It is a popular destination for locals and tourists alike, and is a great place to dance the night away.</t>
         </is>
       </c>
       <c r="AA53" t="inlineStr">
         <is>
-          <t>Where in Kelibia can you experience a top-rated nightlife destination known for its diverse Discotheque offerings?</t>
+          <t>Day Plan:
+Morning: Explore the historical Fort de Kelibia for its stunning views and architectural beauty.
+Mid-Morning: Visit the Phare de Kelibia for panoramic views and photography opportunities.
+Midday: Indulge in a delightful lunch of fresh seafood at the highly-rated El Bahri Restaurant.
+Afternoon: Relax and soak up the sun at the scenic Plage Kelibia, where you can enjoy swimming, sunbathing, and beach sports.
+Evening: Experience the vibrant nightlife at Marbrerie Hafefh Kacem, a popular discotheque known for its lively music and energetic atmosphere.
+Night: Enjoy a delicious dinner at "La Luna," a highly-rated Pizzeria serving authentic Italian cuisine.</t>
+        </is>
+      </c>
+      <c r="AB53" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Café Maestro, a cozy cafe located in Kelibia (coordinates: 36.8472589, 11.091058), invites patrons to indulge in a delightful culinary experience. With a rating of 4.0, this establishment is renowned for its welcoming ambiance and delectable offerings.
+Hannibal coffee kelibia is a tea room located in kelibia, Tunisia. It offers a variety of teas, coffees, and pastries. The tea room is located at 36.8363146, 11.1113262.
+TOGOO FOOD kelibia is a restaurant located in kelibia. Their workday timings are everyday from 11:30 AM - 2:00 AM. Their latitude and longitude are 36.84538736086, 11.088400125578 respectively.
+Myriam Bel Air is a popular hotel located in Kelibia, Tunisia. It offers a comfortable and convenient stay for its guests, with a 4.2-star rating on Google. The hotel has 14 reviews, with an overall positive feedback from its guests. It provides a range of amenities, including comfortable rooms, a swimming pool, and a restaurant. The hotel's website features additional information and booking options, and it is well-connected with major tourist attractions in the area.
+The Cap-Bon Kelibia Beach Hotel &amp; Spa is a 4-star hotel located in Kelibia, Tunisia. It is a luxury seaside hotel offering comfortable rooms and suites, a spa and 3 refined restaurants. It is known for its beautiful beach, its large swimming pool and its animations.
+Dar Meriem - Maison d'hôtes is a guest house located in Kelibia, Tunisia. It offers comfortable accommodation and a warm and welcoming atmosphere. The guest house is perfectly situated for exploring the city and its surroundings, and is close to a variety of amenities. The guest house is managed by a friendly and helpful team of staff who are always on hand to assist guests with any queries or needs.
+Residence Asma is a 4.4-rated residence located in Kelibia, Tunisia. It is a great place to stay for tourists and business travelers alike. The residence offers a variety of amenities, including a swimming pool, a fitness center, and a restaurant. It is also conveniently located near the beach, the city center, and the airport. The residence has 14 reviews, all of which are positive. Guests praise the residence's cleanliness, comfort, and friendly staff.
+Pension Anis is a 4-star family-run guesthouse located in Kelibia, Tunisia. It features a prime location on Av du Dr Mongi Ben Hmida. Guests can enjoy comfortable accommodations with great value. The guesthouse offers a range of amenities to ensure a pleasant stay, including free Wi-Fi, laundry service, and a friendly atmosphere. Its central location provides easy access to local attractions and points of interest.
+The Casa Del Mar Residence is a 4.3-rated guesthouse located in Kelibia, Tunisia. It is situated near the beach and offers a relaxing getaway for guests. The Residence has received positive reviews for its comfortable accommodations and friendly staff.
+Dar Lebharr is a cozy accommodation located in Kelibia, Tunisia. It offers a comfortable stay with a rating of 4.1 out of 5. Situated at 36.835428078688 latitude and 11.091149597327 longitude, it's easily accessible. Contact them at +33 7 81 09 91 78 for bookings or inquiries.
+Luxus Apartements is a 5-star lodge located in Kelibia, Tunisia at (36.835428078688, 11.091149597327). It has a rating of 5.0 based on 1 review and is owned by Luxus Apartements (proprietaire). Luxus Apartements offers a variety of amenities and services, making it the perfect place to stay for both business and leisure travelers.
+Plage Kelibia, located at (36.84757, 11.09386), offers a picturesque beachfront experience in the city of Kelibia.
+Fort de Kelibia, located in Kelibia, is a historical fortress with an average rating of 4.4 out of 5 based on 460 reviews. It offers a stunning view of the sea, making it a great spot to enjoy the scenery. Visitors can also delve into the history of the fort or simply admire its architectural beauty. With its convenient opening hours from 9:00 AM to 6:00 PM, it's a perfect destination for tourists and history enthusiasts alike.
+Plage Kelibia is a tourist attraction located at the coordinates (36.84757, 11.09386) in Kelibia, Tunisia. With a rating of 4.6 based on 37 reviews, it is a popular destination for tourists. The beach offers a range of activities and amenities, including swimming, sunbathing, and beach volleyball. It is also home to a number of restaurants and cafes, making it a great place to relax and enjoy the scenery.
+The Port of Kelibia is a maritime port located in Kelibia, Tunisia. The port offers a variety of services to its customers, including fishing, cargo, and passenger transport. It is also a popular tourist destination, with many visitors coming to enjoy the beautiful scenery and the fresh seafood. The port is located at (36.8351444, 11.1116178).
+Discover the stunning Phare de Kelibia, a captivating viewpoint located at (36.8363146, 11.1113262) in Kelibia, Tunisia. Immerse yourself in the breathtaking panoramic views from the lighthouse's vantage point, making it an ideal spot for photography enthusiasts and nature lovers alike.
+The Institut superieur des etudes technologiques de Kelibia is a higher education institute located in Kelibia, Tunisia. It offers a range of technological programs and has a rating of 4.4 stars. The institute is situated at the coordinates (36.8363146, 11.1113262) and can be contacted by phone at 72 277 090. Its website is http://www.isetkl.rnu.tn/.
+Kelibia is a place located in Kelibia, Tunisia. It has a bike rental service, with a 4.2 rating based on 6 reviews. It is located at coordinates (36.836660524289, 11.111146140921).
+Marbrerie Hafefh Kacem is a popular discotheque located in Kelibia, Tunisia. It has a rating of 4.0 out of 5 on Google Maps and is known for its vibrant atmosphere and lively music. The discotheque is located at (36.8472589, 11.091058) and offers a variety of music genres to cater to different tastes. It is a popular destination for locals and tourists alike, and is a great place to dance the night away.
+El Bahri Restaurant is a seafood restaurant located in Kelibia, Tunisia. It is a popular spot for tourists and locals alike, and it offers a variety of seafood dishes, including fresh fish, grilled octopus, and seafood platters. The restaurant is open 24 hours a day, and it is closed on Tuesdays. The average rating for El Bahri Restaurant is 4.7 stars, and it has received positive reviews for its delicious food, friendly staff, and reasonable prices.
+"La Luna", a 4-star Pizzeria, located in Kelibia, Tunisia. It's reachable by phone and has a website. It's open daily from 08:00-22:00, and its coordinates are (36.8472589, 11.091058).
+Restaurant is a family-friendly restaurant located in Kelibia, Tunisia. It offers a variety of dishes, including traditional Tunisian cuisine and international fare. The restaurant is located at the coordinates (36.8472589, 11.091058) and has a rating of 5.0 out of 5 stars on Google Maps.
+Station Louage Kelibia is a taxi service located in Kelibia, Tunisia (36.84757, 11.09386). With a rating of 3.7 out of 5 based on 28 reviews, it offers reliable transportation services to its customers.
+SRTGN's station is located in Kelibia, Tunisia. It offers bus services to various destinations. The station is located at the coordinates (36.84757, 11.09386).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6288,12 +9212,69 @@
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>If you find yourself in kelibia and in search of a delectable dining experience, TOGOO FOOD kelibia is an exceptional choice. Situated conveniently on Rue zouhour, this top-rated restaurant tantalizes taste buds with its delectable cuisine. With a stellar rating of 5.0, it's a culinary destination not to be missed. Indulge in a delightful culinary journey between 11:30-02:00 during the weekdays. For more information, visit their website at https://www.google.com/maps/place/TOGOO+FOOD+kelibia/data=!4m7!3m6!1s0x131d33d2a277327d:0x52e73929a78e8b8c!8m2!3d36.8466649!4d11.0963477!16s%2Fg%2F11vjwp3742!19sChIJfTJ3otIzHRMRjIuOpyk551I?authuser=0&amp;hl=fr&amp;rclk=1 or dial their number at 48 006 303.</t>
+          <t>TOGOO FOOD kelibia is a restaurant located in kelibia. Their workday timings are everyday from 11:30 AM - 2:00 AM. Their latitude and longitude are 36.84538736086, 11.088400125578 respectively.</t>
         </is>
       </c>
       <c r="AA54" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated dining establishment called TOGOO FOOD that offers exemplary culinary experiences in Kelibia?</t>
+          <t>Day Plan:
+Morning: Explore Fort de Kelibia for its historical significance and breathtaking views.
+Mid-Morning: Visit Plage Kelibia to enjoy the beach, swim, and sunbathe.
+Midday: Try local cuisine at El Bahri Restaurant, known for its delicious seafood dishes.
+Afternoon: Take a guided tour of the Institut superieur des etudes technologiques de Kelibia to learn about its technological programs.
+Evening: Enjoy scenic views at Phare de Kelibia, a lighthouse with panoramic vistas.
+Night: Relax with a live music session at Marbrerie Hafefh Kacem discotheque, known for its vibrant atmosphere and lively music.</t>
+        </is>
+      </c>
+      <c r="AB54" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Coffee Shop Kelibia is a highly-rated cafe located in Kelibia, Tunisia. It operates from 5 AM to midnight every day and is known for its excellent service and atmosphere. With a 4.7-star rating based on 12 reviews, Coffee Shop Kelibia is a popular spot for locals and tourists alike. It is conveniently situated at V35R+P7R, making it easily accessible to visitors.
+Located in Kelibia (latitude 36.836660524289, and longitude 11.111146140921), Big Ben is a teahouse offering a pleasant setting to relax and enjoy a break.
+Retaurant Bella Marina is a highly-rated restaurant located in Kelibia, Tunisia. It offers an extensive menu featuring pizzas, salads, pasta dishes, and more. The restaurant is known for its delicious food and friendly service. It is conveniently located near the beach, making it a great place to enjoy a meal after a day of sun and sand.
+Kelibia Paradise is a popular accommodation option in Kelibia, Tunisia. It is located at 47 Rue d'orange Cite Ezzouhour, 8090, Kelibia, and offers a range of amenities to its guests. These include a restaurant, bar, and swimming pool, as well as free Wi-Fi and parking. The hotel is situated within easy reach of the beach and other local attractions, making it an ideal base for exploring the area.
+Nestled in the picturesque Kelibia region, Cap-Bon Kelibia Beach Hotel &amp; Spa is an upscale resort offering 562 warmly designed rooms and suites. With its stunning beachfront location and serene ambiance, the hotel is an ideal destination for leisure and relaxation. It features an array of amenities, including a rejuvenating spa, three refined dining options, and an inviting swimming pool, ensuring an unforgettable stay in the heart of Kelibia.
+Dar Meriem - Maison d'hôtes is a guest house located in Kelibia, Tunisia. It offers comfortable accommodation and a warm and welcoming atmosphere. The guest house is perfectly situated for exploring the city and its surroundings, and is close to a variety of amenities. The guest house is managed by a friendly and helpful team of staff who are always on hand to assist guests with any queries or needs.
+Residence Asma is a 4.4-rated residence located in Kelibia, Tunisia. It is a great place to stay for tourists and business travelers alike. The residence offers a variety of amenities, including a swimming pool, a fitness center, and a restaurant. It is also conveniently located near the beach, the city center, and the airport. The residence has 14 reviews, all of which are positive. Guests praise the residence's cleanliness, comfort, and friendly staff.
+Pension Anis is a 4-star family-run guesthouse located in Kelibia, Tunisia. It features a prime location on Av du Dr Mongi Ben Hmida. Guests can enjoy comfortable accommodations with great value. The guesthouse offers a range of amenities to ensure a pleasant stay, including free Wi-Fi, laundry service, and a friendly atmosphere. Its central location provides easy access to local attractions and points of interest.
+The Casa Del Mar Residence is a 4.3-rated guesthouse located in Kelibia, Tunisia. It is situated near the beach and offers a relaxing getaway for guests. The Residence has received positive reviews for its comfortable accommodations and friendly staff.
+Dar Lebharr is a cozy accommodation located in Kelibia, Tunisia. It offers a comfortable stay with a rating of 4.1 out of 5. Situated at 36.835428078688 latitude and 11.091149597327 longitude, it's easily accessible. Contact them at +33 7 81 09 91 78 for bookings or inquiries.
+Luxus Apartements is a 5-star lodge located in Kelibia, Tunisia at (36.835428078688, 11.091149597327). It has a rating of 5.0 based on 1 review and is owned by Luxus Apartements (proprietaire). Luxus Apartements offers a variety of amenities and services, making it the perfect place to stay for both business and leisure travelers.
+Plage Kelibia, located at (36.84757, 11.09386), offers a picturesque beachfront experience in the city of Kelibia.
+Fort de Kelibia, located in Kelibia, is a historical fortress with an average rating of 4.4 out of 5 based on 460 reviews. It offers a stunning view of the sea, making it a great spot to enjoy the scenery. Visitors can also delve into the history of the fort or simply admire its architectural beauty. With its convenient opening hours from 9:00 AM to 6:00 PM, it's a perfect destination for tourists and history enthusiasts alike.
+Plage Kelibia is a tourist attraction located at the coordinates (36.84757, 11.09386) in Kelibia, Tunisia. With a rating of 4.6 based on 37 reviews, it is a popular destination for tourists. The beach offers a range of activities and amenities, including swimming, sunbathing, and beach volleyball. It is also home to a number of restaurants and cafes, making it a great place to relax and enjoy the scenery.
+The Port of Kelibia is a maritime port located in Kelibia, Tunisia. The port offers a variety of services to its customers, including fishing, cargo, and passenger transport. It is also a popular tourist destination, with many visitors coming to enjoy the beautiful scenery and the fresh seafood. The port is located at (36.8351444, 11.1116178).
+Discover the stunning Phare de Kelibia, a captivating viewpoint located at (36.8363146, 11.1113262) in Kelibia, Tunisia. Immerse yourself in the breathtaking panoramic views from the lighthouse's vantage point, making it an ideal spot for photography enthusiasts and nature lovers alike.
+The Institut superieur des etudes technologiques de Kelibia is a higher education institute located in Kelibia, Tunisia. It offers a range of technological programs and has a rating of 4.4 stars. The institute is situated at the coordinates (36.8363146, 11.1113262) and can be contacted by phone at 72 277 090. Its website is http://www.isetkl.rnu.tn/.
+Kelibia is a place located in Kelibia, Tunisia. It has a bike rental service, with a 4.2 rating based on 6 reviews. It is located at coordinates (36.836660524289, 11.111146140921).
+Marbrerie Hafefh Kacem is a popular discotheque located in Kelibia, Tunisia. It has a rating of 4.0 out of 5 on Google Maps and is known for its vibrant atmosphere and lively music. The discotheque is located at (36.8472589, 11.091058) and offers a variety of music genres to cater to different tastes. It is a popular destination for locals and tourists alike, and is a great place to dance the night away.
+El Bahri Restaurant is a seafood restaurant located in Kelibia, Tunisia. It is a popular spot for tourists and locals alike, and it offers a variety of seafood dishes, including fresh fish, grilled octopus, and seafood platters. The restaurant is open 24 hours a day, and it is closed on Tuesdays. The average rating for El Bahri Restaurant is 4.7 stars, and it has received positive reviews for its delicious food, friendly staff, and reasonable prices.
+Pizzeria LOFT ROMA is a 4.2-rated pizzeria located in kelibia, Tunisia. It operates from 08:00 to 00:00 every day and offers a wide range of pizzas. Its exact location is at R3VW+83Q Rue de Tripoli, Kelibia, Tunisia.
+Restaurant is a family-friendly restaurant located in Kelibia, Tunisia. It offers a variety of dishes, including traditional Tunisian cuisine and international fare. The restaurant is located at the coordinates (36.8472589, 11.091058) and has a rating of 5.0 out of 5 stars on Google Maps.
+Station Louage Kelibia is a taxi service located in Kelibia, Tunisia (36.84757, 11.09386). With a rating of 3.7 out of 5 based on 28 reviews, it offers reliable transportation services to its customers.
+SRTGN's station is located in Kelibia, Tunisia. It offers bus services to various destinations. The station is located at the coordinates (36.84757, 11.09386).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6403,12 +9384,71 @@
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>If you're in kelibia and looking for a great place to eat, check out Retaurant Bella Marina located at R3WW+84X Retaurant Bella Marina, Kelibia. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant categories to choose from. With a rating of 4.2, it's a must-visit spot. It's open during these hours: 08:00-00:00, but closed on []. To get there, use these GPS coordinates: 36.844603753282, 11.09633493242. For more details, visit their website at https://instagram.com/bella_marina_resto%3Figshid%3DOGQ5ZDc2ODk2ZA%3D%3D or call them at 99 961 300.</t>
+          <t>Retaurant Bella Marina is a highly-rated restaurant located in Kelibia, Tunisia. It offers an extensive menu featuring pizzas, salads, pasta dishes, and more. The restaurant is known for its delicious food and friendly service. It is conveniently located near the beach, making it a great place to enjoy a meal after a day of sun and sand.</t>
         </is>
       </c>
       <c r="AA55" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated restaurant in Kelibia with an extensive menu, located near the coordinates 36.844603753282, 11.09633493242?</t>
+          <t>Day Plan:
+Morning: Explore the historical Fort de Kelibia, offering stunning views of the Mediterranean Sea.
+Mid-Morning: Visit the Phare de Kelibia for breathtaking panoramic views.
+Midday: Try local cuisine at the highly-rated El Bahri Restaurant, known for its delicious seafood dishes.
+Afternoon: Enjoy a relaxing swim and sunbathing at the picturesque Plage Kelibia.
+Evening: Participate in a guided tour of the Institut superieur des etudes technologiques de Kelibia, a renowned higher education institute.
+Night: Experience the vibrant atmosphere and lively music at the popular discotheque Marbrerie Hafefh Kacem.</t>
+        </is>
+      </c>
+      <c r="AB55" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Dolce Vita Glace italienne is a café located in Kelibia, Tunisia (lon: 11.111146140921, lat: 36.836660524289). It opens from 06:00 to 00:00 and is known for its delicious Italian ice cream (glaces) among its 13 reviews.
+Located in Kelibia (latitude 36.836660524289, and longitude 11.111146140921), Big Ben is a teahouse offering a pleasant setting to relax and enjoy a break.
+Restaurant "Le Colibri Officiel", located in Kelibia at (36.842587762817, 11.099081841049), offers an unparalleled dining experience with its 5-star rating based on 17 reviews. Its menu is not provided in the given information, but its main category is listed as "Restaurant". If you wish to make a reservation or inquire further, you can contact the owner directly through their link or call them at 58 121 352. Unfortunately, the restaurant's website is not provided in the given information.
+Kelibia Paradise is a lodging facility located in Kelibia, Tunisia. It has a rating of 4.6 and has received 18 reviews. The facility offers accommodation with a main focus on comfort and relaxation. Its geolocation is at longitude 11.098431810317 and latitude 36.846063992403.
+Nestled in the picturesque Kelibia region, Cap-Bon Kelibia Beach Hotel &amp; Spa is an upscale resort offering 562 warmly designed rooms and suites. With its stunning beachfront location and serene ambiance, the hotel is an ideal destination for leisure and relaxation. It features an array of amenities, including a rejuvenating spa, three refined dining options, and an inviting swimming pool, ensuring an unforgettable stay in the heart of Kelibia.
+Dar Meriem - Maison d'hôtes is a guest house located in Kelibia, Tunisia. It offers comfortable accommodation and a warm and welcoming atmosphere. The guest house is perfectly situated for exploring the city and its surroundings, and is close to a variety of amenities. The guest house is managed by a friendly and helpful team of staff who are always on hand to assist guests with any queries or needs.
+Residence Asma is a 4.4-rated residence located in Kelibia, Tunisia. It is a great place to stay for tourists and business travelers alike. The residence offers a variety of amenities, including a swimming pool, a fitness center, and a restaurant. It is also conveniently located near the beach, the city center, and the airport. The residence has 14 reviews, all of which are positive. Guests praise the residence's cleanliness, comfort, and friendly staff.
+Pension Anis is a 4-star family-run guesthouse located in Kelibia, Tunisia. It features a prime location on Av du Dr Mongi Ben Hmida. Guests can enjoy comfortable accommodations with great value. The guesthouse offers a range of amenities to ensure a pleasant stay, including free Wi-Fi, laundry service, and a friendly atmosphere. Its central location provides easy access to local attractions and points of interest.
+The Casa Del Mar Residence is a 4.3-rated guesthouse located in Kelibia, Tunisia. It is situated near the beach and offers a relaxing getaway for guests. The Residence has received positive reviews for its comfortable accommodations and friendly staff.
+Dar Lebharr is a cozy accommodation located in Kelibia, Tunisia. It offers a comfortable stay with a rating of 4.1 out of 5. Situated at 36.835428078688 latitude and 11.091149597327 longitude, it's easily accessible. Contact them at +33 7 81 09 91 78 for bookings or inquiries.
+Luxus Apartements is a 5-star lodge located in Kelibia, Tunisia. It offers a luxurious and comfortable stay for its guests. The lodge is situated near the beach, making it a great place to relax and enjoy the beautiful scenery. Luxus Apartements is also close to many restaurants, shops, and attractions. The lodge's staff is friendly and helpful, and they are always willing to go the extra mile to make sure that their guests have a memorable stay.
+Plage Kelibia, located at (36.84757, 11.09386), offers a picturesque beachfront experience in the city of Kelibia.
+Fort de Kelibia is a historical fortress located in Kelibia, Tunisia. It offers stunning views of the Mediterranean Sea and the port. The castle boasts a rich history and architectural significance. Visitors can explore the castle's ramparts, towers, and courtyards, and delve into the region's captivating past. With a 4.4-star rating, the fort is a popular destination for tourists and history enthusiasts alike. Its strategic location makes it a great spot to capture panoramic shots of the surrounding area.
+Plage kelibia is a popular tourist attraction located in Kelibia, Tunisia. It offers a wide range of activities, including swimming, sunbathing, and windsurfing. The beach is also home to a number of restaurants and cafes.
+The beach is located just a short drive from the city center and is easily accessible by public transportation. The beach is well-maintained and features clear blue waters and soft white sand.
+Plage kelibia is a great place to relax and enjoy the beautiful weather of Tunisia. It is also a great location to enjoy some water sports.
+The Port of Kelibia is a maritime port located in Kelibia, Tunisia. The port offers a variety of services to its customers, including fishing, cargo, and passenger transport. It is also a popular tourist destination, with many visitors coming to enjoy the beautiful scenery and the fresh seafood. The port is located at (36.8351444, 11.1116178).
+Discover the stunning Phare de Kelibia, a captivating viewpoint located at (36.8363146, 11.1113262) in Kelibia, Tunisia. Immerse yourself in the breathtaking panoramic views from the lighthouse's vantage point, making it an ideal spot for photography enthusiasts and nature lovers alike.
+The Institut superieur des etudes technologiques de Kelibia is a higher education institute located in Kelibia, Tunisia. It offers a range of technological programs and has a rating of 4.4 stars. The institute is situated at the coordinates (36.8363146, 11.1113262) and can be contacted by phone at 72 277 090. Its website is http://www.isetkl.rnu.tn/.
+Kelibia is a place located in Kelibia, Tunisia. It has a bike rental service, with a 4.2 rating based on 6 reviews. It is located at coordinates (36.836660524289, 11.111146140921).
+Marbrerie Hafefh Kacem is a popular discotheque located in Kelibia, Tunisia. It has a rating of 4.0 out of 5 on Google Maps and is known for its vibrant atmosphere and lively music. The discotheque is located at (36.8472589, 11.091058) and offers a variety of music genres to cater to different tastes. It is a popular destination for locals and tourists alike, and is a great place to dance the night away.
+El Bahri Restaurant is a seafood restaurant located in Kelibia, Tunisia. It is a popular spot for tourists and locals alike, and it offers a variety of seafood dishes, including fresh fish, grilled octopus, and seafood platters. The restaurant is open 24 hours a day, and it is closed on Tuesdays. The average rating for El Bahri Restaurant is 4.7 stars, and it has received positive reviews for its delicious food, friendly staff, and reasonable prices.
+Del Capo is a 5-star rated pizzeria located in Kelibia, Tunisia. It is situated at the address: 8090 Av. de Martyrs with coordinates (36.842587762817, 11.099081841049). This highly-rated spot operates from 12:00 to 00:00 during the week and offers a delectable range of pizzas.
+Restaurant is a family-friendly restaurant located in Kelibia, Tunisia. It offers a variety of dishes, including traditional Tunisian cuisine and international fare. The restaurant is located at the coordinates (36.8472589, 11.091058) and has a rating of 5.0 out of 5 stars on Google Maps.
+Station Louage Kelibia is a taxi service located in Kelibia, Tunisia (36.84757, 11.09386). With a rating of 3.7 out of 5 based on 28 reviews, it offers reliable transportation services to its customers.
+SRTGN (station Kelibia) is a bus station located in Kelibia, Tunisia. It offers basic amenities and services for travelers, and is conveniently situated at (36.84757, 11.09386).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6514,12 +9554,69 @@
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>If you're in kelibia and looking for a great seafood dining experience, check out El Bahri Restaurant located at R3VW+HQG, El Bahri Restaurant, Kelibia. With a rating of 4.7, it's a must-visit spot for seafood lovers. It's open 24 hours a day. To get there, use these GPS coordinates: 36.8067082, 3.2294608. For more details, visit their website at https://www.google.com/maps/place/El+Bahri+Restaurant/data=!4m7!3m6!1s0x131d33c103e15051:0x18c947f8986cf932!8m2!3d36.8439304!4d11.0969504!16s%2Fg%2F11_pwfvld!19sChIJUVDhA8EzHRMRMvlsmPhHyRg?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 26 825 346.</t>
+          <t>El Bahri Restaurant is a seafood restaurant located in Kelibia, Tunisia. It is a popular spot for tourists and locals alike, and it offers a variety of seafood dishes, including fresh fish, grilled octopus, and seafood platters. The restaurant is open 24 hours a day, and it is closed on Tuesdays. The average rating for El Bahri Restaurant is 4.7 stars, and it has received positive reviews for its delicious food, friendly staff, and reasonable prices.</t>
         </is>
       </c>
       <c r="AA56" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated seafood restaurant called El Bahri with GPS coordinates of 36.8067082, 3.2294608, known for its 24-hour service?</t>
+          <t>Day Plan:
+Morning: Exploring Fort de Kelibia
+Mid-Morning: Taking a guided tour of Phare de Kelibia
+Midday: Trying local cuisine at El Bahri Restaurant
+Afternoon: Enjoying a moment of relaxation with a relaxing massage at DAR COLIBRI
+Evening: Shopping for souvenirs at Kelibia Market
+Night: Experiencing the vibrant atmosphere and lively music at Marbrerie Hafefh Kacem</t>
+        </is>
+      </c>
+      <c r="AB56" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Nestled in the heart of Kelibia, Salon de the Mallorca invites you to savor delightful coffee and tea creations in a charming ambiance. Located at R3QX+53H Salon de the Mallorca, Av. de l'environnement, the cafe has earned a commendable 4.3-star rating based on 6 reviews. With its convenient hours and friendly staff, Salon de the Mallorca is the perfect spot to unwind and enjoy a moment of indulgence.
+Located in Kelibia (latitude 36.836660524289, and longitude 11.111146140921), Big Ben is a teahouse offering a pleasant setting to relax and enjoy a break.
+Lounge Cafe, rated 5.0 out of 5 by 1 reviewer, is a restaurant located at R3WQ+H9M, Av. Habib-Bourguiba, Kelibia, Tunisia. It is open from 6:00 am to 2:00 pm daily, and its main category is Restaurant. Its featured image can be found at https://lh5.googleusercontent.com/p/AF1QipOvbL7FtV4P7-K_sbXDNGp51x8sIv60Kakq6a4-=w408-h408-k-no.
+Kelibia Paradise is a popular accommodation option in Kelibia, Tunisia. It is located at 47 Rue d'orange Cite Ezzouhour, 8090, Kelibia, and offers a range of amenities to its guests. These include a restaurant, bar, and swimming pool, as well as free Wi-Fi and parking. The hotel is situated within easy reach of the beach and other local attractions, making it an ideal base for exploring the area.
+Maison d'hotes / Restaurant L'Hirondelle de Kelibia offers a pleasant stay in a beautiful location just steps from the beach. The hotel features comfortable rooms, a relaxing atmosphere, and welcoming staff. Guests can enjoy delicious meals at the on-site restaurant while admiring the panoramic views of the Mediterranean Sea. With its convenient location and excellent amenities, Maison d'hotes / Restaurant L'Hirondelle de Kelibia is the perfect place for a memorable vacation.
+DAR COLIBRI, a 4.6-rated guesthouse located in Kelibia (36.8363146, 11.1113262), offers a unique stay in a charming setting. It features a swimming pool, hammam, and massage services, promising a relaxing and rejuvenating experience. With its proximity to the beautiful beaches of Kelibia, this guesthouse is an ideal base for exploring the region's natural wonders.
+Residence Asma is a 4.4-rated residence located in Kelibia, Tunisia. It is a great place to stay for tourists and business travelers alike. The residence offers a variety of amenities, including a swimming pool, a fitness center, and a restaurant. It is also conveniently located near the beach, the city center, and the airport. The residence has 14 reviews, all of which are positive. Guests praise the residence's cleanliness, comfort, and friendly staff.
+Pension Anis is a 4-star family-run guesthouse located in Kelibia, Tunisia. It features a prime location on Av du Dr Mongi Ben Hmida. Guests can enjoy comfortable accommodations with great value. The guesthouse offers a range of amenities to ensure a pleasant stay, including free Wi-Fi, laundry service, and a friendly atmosphere. Its central location provides easy access to local attractions and points of interest.
+The Casa Del Mar Residence is a 4.3-rated guesthouse located in Kelibia, Tunisia. It is situated near the beach and offers a relaxing getaway for guests. The Residence has received positive reviews for its comfortable accommodations and friendly staff.
+Dar Lebharr is a cozy accommodation located in Kelibia, Tunisia. It offers a comfortable stay with a rating of 4.1 out of 5. Situated at 36.835428078688 latitude and 11.091149597327 longitude, it's easily accessible. Contact them at +33 7 81 09 91 78 for bookings or inquiries.
+Luxus Apartements is a 5-star lodge located in Kelibia, Tunisia. It offers a luxurious and comfortable stay for its guests. The lodge is situated near the beach, making it a great place to relax and enjoy the beautiful scenery. Luxus Apartements is also close to many restaurants, shops, and attractions. The lodge's staff is friendly and helpful, and they are always willing to go the extra mile to make sure that their guests have a memorable stay.
+Plage Kelibia, located at (36.84757, 11.09386), offers a picturesque beachfront experience in the city of Kelibia.
+Fort de Kelibia is a historical fortress located in Kelibia, Tunisia. It offers stunning views of the Mediterranean Sea and the port. The castle boasts a rich history and architectural significance. Visitors can explore the castle's ramparts, towers, and courtyards, and delve into the region's captivating past. With a 4.4-star rating, the fort is a popular destination for tourists and history enthusiasts alike. Its strategic location makes it a great spot to capture panoramic shots of the surrounding area.
+Plage Kelibia is a tourist attraction located at the coordinates (36.84757, 11.09386) in Kelibia, Tunisia. With a rating of 4.6 based on 37 reviews, it is a popular destination for tourists. The beach offers a range of activities and amenities, including swimming, sunbathing, and beach volleyball. It is also home to a number of restaurants and cafes, making it a great place to relax and enjoy the scenery.
+The Port of Kelibia is a maritime port located in Kelibia, Tunisia. The port offers a variety of services to its customers, including fishing, cargo, and passenger transport. It is also a popular tourist destination, with many visitors coming to enjoy the beautiful scenery and the fresh seafood. The port is located at (36.8351444, 11.1116178).
+Discover the stunning Phare de Kelibia, a captivating viewpoint located at (36.8363146, 11.1113262) in Kelibia, Tunisia. Immerse yourself in the breathtaking panoramic views from the lighthouse's vantage point, making it an ideal spot for photography enthusiasts and nature lovers alike.
+The Institut superieur des etudes technologiques de Kelibia is a higher education institute located in Kelibia, Tunisia. It offers a range of technological programs and has a rating of 4.4 stars. The institute is situated at the coordinates (36.8363146, 11.1113262) and can be contacted by phone at 72 277 090. Its website is http://www.isetkl.rnu.tn/.
+Kelibia is a place located in Kelibia, Tunisia. It has a bike rental service, with a 4.2 rating based on 6 reviews. It is located at coordinates (36.836660524289, 11.111146140921).
+Marbrerie Hafefh Kacem is a popular discotheque located in Kelibia, Tunisia. It has a rating of 4.0 out of 5 on Google Maps and is known for its vibrant atmosphere and lively music. The discotheque is located at (36.8472589, 11.091058) and offers a variety of music genres to cater to different tastes. It is a popular destination for locals and tourists alike, and is a great place to dance the night away.
+El Bahri Restaurant is a seafood restaurant located in Kelibia, Tunisia. It is a popular spot for tourists and locals alike, and it offers a variety of seafood dishes, including fresh fish, grilled octopus, and seafood platters. The restaurant is open 24 hours a day, and it is closed on Tuesdays. The average rating for El Bahri Restaurant is 4.7 stars, and it has received positive reviews for its delicious food, friendly staff, and reasonable prices.
+"La Luna", a 4-star Pizzeria, located in Kelibia, Tunisia. It's reachable by phone and has a website. It's open daily from 08:00-22:00, and its coordinates are (36.8472589, 11.091058).
+Restaurant is a family-friendly restaurant located in Kelibia, Tunisia. It offers a variety of dishes, including traditional Tunisian cuisine and international fare. The restaurant is located at the coordinates (36.8472589, 11.091058) and has a rating of 5.0 out of 5 stars on Google Maps.
+Station Louage Kelibia is a taxi service located in Kelibia, Tunisia (36.84757, 11.09386). With a rating of 3.7 out of 5 based on 28 reviews, it offers reliable transportation services to its customers.
+SRTGN's station is located in Kelibia, Tunisia. It offers bus services to various destinations. The station is located at the coordinates (36.84757, 11.09386).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6625,12 +9722,69 @@
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>If you're in kelibia and looking for a great place to dine, check out L'benna located at 8090 Av. de Martyrs, Kelibia. This top-rated restaurant is perfect for Restaurant lovers and offers a range of categories to choose from. With a rating of 4.6, it's a must-visit spot. It's open 24 hours a day, so you can visit anytime. To get there, use these GPS coordinates: 36.842587762817, 11.099081841049. For more details, visit their website at https://www.google.com/maps/place/L%27benna/data=!4m7!3m6!1s0x131d33b665e7777f:0x21896c7bfcccfbba!8m2!3d36.8438147!4d11.0977056!16s%2Fg%2F11k5tkjqrk!19sChIJf3fnZbYzHRMRuvvM_HtsiSE?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 24 197 094.</t>
+          <t>Located in the heart of Kelibia, "L'benna" is a highly-rated restaurant (4.6/5 stars) that delights locals and tourists alike. Open 24 hours a day, "L'benna" offers a convenient and welcoming atmosphere. Its precise location at (36.842587762817, 11.099081841049) makes it easily accessible.</t>
         </is>
       </c>
       <c r="AA57" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated restaurant with a 24-hour service in Kelibia?</t>
+          <t>Day Plan:
+Morning: Explore the historical Fort de Kelibia, offering stunning views of the sea.
+Mid-Morning: Discover the ancient ruins of Fort de Kelibia, providing a glimpse into the region's rich history.
+Midday: Indulge in a delicious seafood lunch at El Bahri Restaurant, known for its fresh and flavorful dishes.
+Afternoon: Relax and soak up the sun at Plage Kelibia, enjoying the picturesque beachfront and indulging in swimming, sunbathing, or beach volleyball.
+Evening: Experience the vibrant atmosphere of Marbrerie Hafefh Kacem, a popular discotheque featuring live music and a lively crowd.
+Night: Conclude the evening with a delectable dinner at Del Capo, a 5-star pizzeria offering an authentic Italian dining experience.</t>
+        </is>
+      </c>
+      <c r="AB57" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Café Aziz is a highly-rated café located in Kelibia, Tunisia. Situated at (36.8472589, 11.091058), the café offers a warm and inviting atmosphere for customers to enjoy their favorite beverages. With a rating of 4.6 out of 5 based on 5 reviews, Café Aziz is a popular spot among locals and tourists alike.
+Hannibal coffee kelibia is a tea room located in kelibia, Tunisia. It offers a variety of teas, coffees, and pastries. The tea room is located at 36.8363146, 11.1113262.
+Barhoumi Center is a 4.0-rated restaurant situated in Kelibia, Tunisia, serving delicious food. Open from 8:00 AM to midnight, the restaurant offers a welcoming ambiance and friendly service. Located at coordinates (36.8472589, 11.091058), it's easily accessible and boasts a convenient location.
+Kelibia Paradise is a lodging facility located in Kelibia, Tunisia. It has a rating of 4.6 and has received 18 reviews. The facility offers accommodation with a main focus on comfort and relaxation. Its geolocation is at longitude 11.098431810317 and latitude 36.846063992403.
+Nestled in the picturesque Kelibia region, Cap-Bon Kelibia Beach Hotel &amp; Spa is an upscale resort offering 562 warmly designed rooms and suites. With its stunning beachfront location and serene ambiance, the hotel is an ideal destination for leisure and relaxation. It features an array of amenities, including a rejuvenating spa, three refined dining options, and an inviting swimming pool, ensuring an unforgettable stay in the heart of Kelibia.
+Dar Meriem - Maison d'hôtes is a guest house located in Kelibia, Tunisia. It offers comfortable accommodation and a warm and welcoming atmosphere. The guest house is perfectly situated for exploring the city and its surroundings, and is close to a variety of amenities. The guest house is managed by a friendly and helpful team of staff who are always on hand to assist guests with any queries or needs.
+Residence Asma is a 4.4-rated residence located in Kelibia, Tunisia. It is a great place to stay for tourists and business travelers alike. The residence offers a variety of amenities, including a swimming pool, a fitness center, and a restaurant. It is also conveniently located near the beach, the city center, and the airport. The residence has 14 reviews, all of which are positive. Guests praise the residence's cleanliness, comfort, and friendly staff.
+Pension Anis is a 4-star family-run guesthouse located in Kelibia, Tunisia. It features a prime location on Av du Dr Mongi Ben Hmida. Guests can enjoy comfortable accommodations with great value. The guesthouse offers a range of amenities to ensure a pleasant stay, including free Wi-Fi, laundry service, and a friendly atmosphere. Its central location provides easy access to local attractions and points of interest.
+The Casa Del Mar Residence is a 4.3-rated guesthouse located in Kelibia, Tunisia. It is situated near the beach and offers a relaxing getaway for guests. The Residence has received positive reviews for its comfortable accommodations and friendly staff.
+Dar Lebharr is a cozy accommodation located in Kelibia, Tunisia. It offers a comfortable stay with a rating of 4.1 out of 5. Situated at 36.835428078688 latitude and 11.091149597327 longitude, it's easily accessible. Contact them at +33 7 81 09 91 78 for bookings or inquiries.
+Luxus Apartements is a 5-star lodge located in Kelibia, Tunisia. It offers a luxurious and comfortable stay for its guests. The lodge is situated near the beach, making it a great place to relax and enjoy the beautiful scenery. Luxus Apartements is also close to many restaurants, shops, and attractions. The lodge's staff is friendly and helpful, and they are always willing to go the extra mile to make sure that their guests have a memorable stay.
+Plage Kelibia, located at (36.84757, 11.09386), offers a picturesque beachfront experience in the city of Kelibia.
+Fort de Kelibia, located in Kelibia, is a historical fortress with an average rating of 4.4 out of 5 based on 460 reviews. It offers a stunning view of the sea, making it a great spot to enjoy the scenery. Visitors can also delve into the history of the fort or simply admire its architectural beauty. With its convenient opening hours from 9:00 AM to 6:00 PM, it's a perfect destination for tourists and history enthusiasts alike.
+Plage Kelibia is a tourist attraction located at the coordinates (36.84757, 11.09386) in Kelibia, Tunisia. With a rating of 4.6 based on 37 reviews, it is a popular destination for tourists. The beach offers a range of activities and amenities, including swimming, sunbathing, and beach volleyball. It is also home to a number of restaurants and cafes, making it a great place to relax and enjoy the scenery.
+The Port of Kelibia is a maritime port located in Kelibia, Tunisia. The port offers a variety of services to its customers, including fishing, cargo, and passenger transport. It is also a popular tourist destination, with many visitors coming to enjoy the beautiful scenery and the fresh seafood. The port is located at (36.8351444, 11.1116178).
+Discover the stunning Phare de Kelibia, a captivating viewpoint located at (36.8363146, 11.1113262) in Kelibia, Tunisia. Immerse yourself in the breathtaking panoramic views from the lighthouse's vantage point, making it an ideal spot for photography enthusiasts and nature lovers alike.
+The Institut superieur des etudes technologiques de Kelibia is a higher education institute located in Kelibia, Tunisia. It offers a range of technological programs and has a rating of 4.4 stars. The institute is situated at the coordinates (36.8363146, 11.1113262) and can be contacted by phone at 72 277 090. Its website is http://www.isetkl.rnu.tn/.
+Kelibia is a place located in Kelibia, Tunisia. It has a bike rental service, with a 4.2 rating based on 6 reviews. It is located at coordinates (36.836660524289, 11.111146140921).
+Marbrerie Hafefh Kacem is a popular discotheque located in Kelibia, Tunisia. It has a rating of 4.0 out of 5 on Google Maps and is known for its vibrant atmosphere and lively music. The discotheque is located at (36.8472589, 11.091058) and offers a variety of music genres to cater to different tastes. It is a popular destination for locals and tourists alike, and is a great place to dance the night away.
+El Bahri Restaurant is a seafood restaurant located in Kelibia, Tunisia. It is a popular spot for tourists and locals alike, and it offers a variety of seafood dishes, including fresh fish, grilled octopus, and seafood platters. The restaurant is open 24 hours a day, and it is closed on Tuesdays. The average rating for El Bahri Restaurant is 4.7 stars, and it has received positive reviews for its delicious food, friendly staff, and reasonable prices.
+Del Capo is a 5-star rated pizzeria located in Kelibia, Tunisia. It is situated at the address: 8090 Av. de Martyrs with coordinates (36.842587762817, 11.099081841049). This highly-rated spot operates from 12:00 to 00:00 during the week and offers a delectable range of pizzas.
+Restaurant is a family-friendly restaurant located in Kelibia, Tunisia. It offers a variety of dishes, including traditional Tunisian cuisine and international fare. The restaurant is located at the coordinates (36.8472589, 11.091058) and has a rating of 5.0 out of 5 stars on Google Maps.
+Station Louage Kelibia is a taxi service located in Kelibia, Tunisia (36.84757, 11.09386). With a rating of 3.7 out of 5 based on 28 reviews, it offers reliable transportation services to its customers.
+SRTGN (station Kelibia) is a bus station located in Kelibia with the coordinates (36.84757, 11.09386). It offers bus services to various destinations.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6736,12 +9890,71 @@
       </c>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>If you're in kelibia and looking for a delicious pizza, be sure to check out Pizzeria LOFT ROMA at R3VW+83Q Pizzeria LOFT ROMA, Rue de Tripoli, Kelibia. This top-rated pizzeria is perfect for pizza lovers and offers a range of options to choose from. With a rating of 4.2, it's a must-visit spot. It's open during these hours: 08:00-00:00. To get there, use these GPS coordinates: 36.852647683203, 11.086079560185. For more details, visit their website at https://www.google.com/maps/place/Pizzeria+LOFT+ROMA/data=!4m7!3m6!1s0x131d33ff682cdcd1:0x5576fae4b7870911!8m2!3d36.8433258!4d11.0952352!16s%2Fg%2F11gr4hfxbz!19sChIJ0dwsaP8zHRMREQmHt-T6dlU?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 26 070 423.</t>
+          <t>Pizzeria LOFT ROMA is a 4.2-rated pizzeria located in kelibia, Tunisia. It operates from 08:00 to 00:00 every day and offers a wide range of pizzas. Its exact location is at R3VW+83Q Rue de Tripoli, Kelibia, Tunisia.</t>
         </is>
       </c>
       <c r="AA58" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated pizzeria offering a variety of options in Kelibia?</t>
+          <t>Day Plan:
+Morning: Exploring Fort de Kelibia
+Mid-Morning: Trying local cuisine at El Bahri Restaurant
+Midday: Visiting Phare de Kelibia
+Afternoon: Enjoying sunbathing and swimming at Plage Kelibia
+Evening: Taking a guided tour of Institut superieur des etudes technologiques de Kelibia
+Night: Participating in a lively atmosphere at Marbrerie Hafefh Kacem</t>
+        </is>
+      </c>
+      <c r="AB58" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Jeune is a highly-rated (5/5) cafe in Kelibia, Tunisia. Located at coordinates (36.8472589, 11.091058), it is easily accessible and offers a cozy ambiance perfect for enjoying a cup of coffee or tea. The cafe is known for its friendly owner and excellent service, making it a popular spot among locals and visitors alike.
+Located in Kelibia (latitude 36.836660524289, and longitude 11.111146140921), Big Ben is a teahouse offering a pleasant setting to relax and enjoy a break.
+TOGOO FOOD kelibia is a restaurant located in Rue zouhour, Kelibia 8090. It offers a variety of dishes and is highly rated by customers. The restaurant is open from 11:30-02:00 and closed on Sundays. It offers a variety of dishes, including sandwiches, salads, and pizzas.
+Myriam Bel Air is a popular hotel located in Kelibia, Tunisia. It offers a comfortable and convenient stay for its guests, with a 4.2-star rating on Google. The hotel has 14 reviews, with an overall positive feedback from its guests. It provides a range of amenities, including comfortable rooms, a swimming pool, and a restaurant. The hotel's website features additional information and booking options, and it is well-connected with major tourist attractions in the area.
+Maison d'hotes / Restaurant L'Hirondelle de Kelibia offers a pleasant stay in a beautiful location just steps from the beach. The hotel features comfortable rooms, a relaxing atmosphere, and welcoming staff. Guests can enjoy delicious meals at the on-site restaurant while admiring the panoramic views of the Mediterranean Sea. With its convenient location and excellent amenities, Maison d'hotes / Restaurant L'Hirondelle de Kelibia is the perfect place for a memorable vacation.
+Dar Meriem - Maison d'hôtes is a guest house located in Kelibia, Tunisia. It offers comfortable accommodation and a warm and welcoming atmosphere. The guest house is perfectly situated for exploring the city and its surroundings, and is close to a variety of amenities. The guest house is managed by a friendly and helpful team of staff who are always on hand to assist guests with any queries or needs.
+Residence Asma is a 4.4-rated residence located in Kelibia, Tunisia. It is a great place to stay for tourists and business travelers alike. The residence offers a variety of amenities, including a swimming pool, a fitness center, and a restaurant. It is also conveniently located near the beach, the city center, and the airport. The residence has 14 reviews, all of which are positive. Guests praise the residence's cleanliness, comfort, and friendly staff.
+Pension Anis is a 4-star family-run guesthouse located in Kelibia, Tunisia. It features a prime location on Av du Dr Mongi Ben Hmida. Guests can enjoy comfortable accommodations with great value. The guesthouse offers a range of amenities to ensure a pleasant stay, including free Wi-Fi, laundry service, and a friendly atmosphere. Its central location provides easy access to local attractions and points of interest.
+The Casa Del Mar Residence is a 4.3-rated guesthouse located in Kelibia, Tunisia. It is situated near the beach and offers a relaxing getaway for guests. The Residence has received positive reviews for its comfortable accommodations and friendly staff.
+Dar Lebharr is a cozy accommodation located in Kelibia, Tunisia. It offers a comfortable stay with a rating of 4.1 out of 5. Situated at 36.835428078688 latitude and 11.091149597327 longitude, it's easily accessible. Contact them at +33 7 81 09 91 78 for bookings or inquiries.
+Luxus Apartements is a 5-star lodge located in Kelibia, Tunisia. It offers a luxurious and comfortable stay for its guests. The lodge is situated near the beach, making it a great place to relax and enjoy the beautiful scenery. Luxus Apartements is also close to many restaurants, shops, and attractions. The lodge's staff is friendly and helpful, and they are always willing to go the extra mile to make sure that their guests have a memorable stay.
+Plage Kelibia, located at (36.84757, 11.09386), offers a picturesque beachfront experience in the city of Kelibia.
+Fort de Kelibia is a historical fortress located in Kelibia, Tunisia. It offers stunning views of the Mediterranean Sea and the port. The castle boasts a rich history and architectural significance. Visitors can explore the castle's ramparts, towers, and courtyards, and delve into the region's captivating past. With a 4.4-star rating, the fort is a popular destination for tourists and history enthusiasts alike. Its strategic location makes it a great spot to capture panoramic shots of the surrounding area.
+Plage kelibia is a popular tourist attraction located in Kelibia, Tunisia. It offers a wide range of activities, including swimming, sunbathing, and windsurfing. The beach is also home to a number of restaurants and cafes.
+The beach is located just a short drive from the city center and is easily accessible by public transportation. The beach is well-maintained and features clear blue waters and soft white sand.
+Plage kelibia is a great place to relax and enjoy the beautiful weather of Tunisia. It is also a great location to enjoy some water sports.
+The Port of Kelibia is a maritime port located in Kelibia, Tunisia. The port offers a variety of services to its customers, including fishing, cargo, and passenger transport. It is also a popular tourist destination, with many visitors coming to enjoy the beautiful scenery and the fresh seafood. The port is located at (36.8351444, 11.1116178).
+Discover the stunning Phare de Kelibia, a captivating viewpoint located at (36.8363146, 11.1113262) in Kelibia, Tunisia. Immerse yourself in the breathtaking panoramic views from the lighthouse's vantage point, making it an ideal spot for photography enthusiasts and nature lovers alike.
+The Institut superieur des etudes technologiques de Kelibia is a higher education institute located in Kelibia, Tunisia. It offers a range of technological programs and has a rating of 4.4 stars. The institute is situated at the coordinates (36.8363146, 11.1113262) and can be contacted by phone at 72 277 090. Its website is http://www.isetkl.rnu.tn/.
+Kelibia is a place located in Kelibia, Tunisia. It has a bike rental service, with a 4.2 rating based on 6 reviews. It is located at coordinates (36.836660524289, 11.111146140921).
+Marbrerie Hafefh Kacem is a popular discotheque located in Kelibia, Tunisia. It has a rating of 4.0 out of 5 on Google Maps and is known for its vibrant atmosphere and lively music. The discotheque is located at (36.8472589, 11.091058) and offers a variety of music genres to cater to different tastes. It is a popular destination for locals and tourists alike, and is a great place to dance the night away.
+El Bahri Restaurant is a seafood restaurant located in Kelibia, Tunisia. It is a popular spot for tourists and locals alike, and it offers a variety of seafood dishes, including fresh fish, grilled octopus, and seafood platters. The restaurant is open 24 hours a day, and it is closed on Tuesdays. The average rating for El Bahri Restaurant is 4.7 stars, and it has received positive reviews for its delicious food, friendly staff, and reasonable prices.
+Del Capo is a 5-star rated pizzeria located in Kelibia, Tunisia. It is situated at the address: 8090 Av. de Martyrs with coordinates (36.842587762817, 11.099081841049). This highly-rated spot operates from 12:00 to 00:00 during the week and offers a delectable range of pizzas.
+Restaurant is a family-friendly restaurant located in Kelibia, Tunisia. It offers a variety of dishes, including traditional Tunisian cuisine and international fare. The restaurant is located at the coordinates (36.8472589, 11.091058) and has a rating of 5.0 out of 5 stars on Google Maps.
+Station Louage Kelibia is a taxi service located in Kelibia, Tunisia (36.84757, 11.09386). With a rating of 3.7 out of 5 based on 28 reviews, it offers reliable transportation services to its customers.
+SRTGN (station Kelibia) is a bus station located in Kelibia with the coordinates (36.84757, 11.09386). It offers bus services to various destinations.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6847,14 +10060,71 @@
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>If you're in kelibia and looking for something fun to do, check out mT`m mshw~ lmrshy Resterant Machwa Almarch located at R3WV+3VJ mT`m mshw~ lmrshy Resterant Machwa Almarch, Kelibia. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 4.1, it's a must-visit spot. It's open during these hours: 11:00-00:00. To get there, use these GPS coordinates: 36.8472589, 11.091058. For more details, call them at 53 777 336.</t>
+          <t>**mT'm mshw~ lmrshy Resterant Machwa Almarch** is a restaurant located in Kelibia, Tunisia. It is known for its delicious food and friendly service. The restaurant is open from 11am to midnight every day of the week, and offers a variety of dishes including traditional Tunisian cuisine, as well as international dishes. mT'm mshw~ lmrshy Resterant Machwa Almarch is located at R3WV+3VJ mT'm mshw~ lmrshy Resterant Machwa Almarch, Kelibia, Tunisia.</t>
         </is>
       </c>
       <c r="AA59" t="inlineStr">
         <is>
-          <t>What highly-rated restaurant in Kelibia is a must-visit spot for Restaurant enthusiasts, boasting a variety of options in a vibrant atmosphere?</t>
+          <t>Day Plan:
+Morning: Exploring Fort de Kelibia
+Mid-Morning: Taking a guided tour of the Port of Kelibia
+Midday: Trying local cuisine at El Bahri Restaurant
+Afternoon: Enjoying Plage kelibia's stunning beach
+Evening: Relaxing with traditional Hammam services at DAR COLIBRI
+Night: Dancing the night away at Marbrerie Hafefh Kacem discotheque</t>
+        </is>
+      </c>
+      <c r="AB59" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Charbabbou-Chez Jhonny in Kelibia (36.8363146, 11.1113262) is a highly-rated (4.8/5) cafe known for its warm and inviting atmosphere. Open daily from 7 AM to midnight, it's the perfect spot to relax and enjoy a delicious cup of coffee or tea. Cafe Charbabbou-Chez Jhonny welcomes you with open arms and awaits your visit!
+Located in Kelibia (latitude 36.836660524289, and longitude 11.111146140921), Big Ben is a teahouse offering a pleasant setting to relax and enjoy a break.
+Restaurant "Le Colibri Officiel", located in Kelibia at (36.842587762817, 11.099081841049), offers an unparalleled dining experience with its 5-star rating based on 17 reviews. Its menu is not provided in the given information, but its main category is listed as "Restaurant". If you wish to make a reservation or inquire further, you can contact the owner directly through their link or call them at 58 121 352. Unfortunately, the restaurant's website is not provided in the given information.
+Kelibia Paradise is a lodging facility located in Kelibia, Tunisia. It has a rating of 4.6 and has received 18 reviews. The facility offers accommodation with a main focus on comfort and relaxation. Its geolocation is at longitude 11.098431810317 and latitude 36.846063992403.
+Maison d'hotes / Restaurant L'Hirondelle de Kelibia offers a pleasant stay in a beautiful location just steps from the beach. The hotel features comfortable rooms, a relaxing atmosphere, and welcoming staff. Guests can enjoy delicious meals at the on-site restaurant while admiring the panoramic views of the Mediterranean Sea. With its convenient location and excellent amenities, Maison d'hotes / Restaurant L'Hirondelle de Kelibia is the perfect place for a memorable vacation.
+DAR COLIBRI, a 4.6-rated guesthouse located in Kelibia (36.8363146, 11.1113262), offers a unique stay in a charming setting. It features a swimming pool, hammam, and massage services, promising a relaxing and rejuvenating experience. With its proximity to the beautiful beaches of Kelibia, this guesthouse is an ideal base for exploring the region's natural wonders.
+Residence Asma is a 4.4-rated residence located in Kelibia, Tunisia. It is a great place to stay for tourists and business travelers alike. The residence offers a variety of amenities, including a swimming pool, a fitness center, and a restaurant. It is also conveniently located near the beach, the city center, and the airport. The residence has 14 reviews, all of which are positive. Guests praise the residence's cleanliness, comfort, and friendly staff.
+Pension Anis is a 4-star family-run guesthouse located in Kelibia, Tunisia. It features a prime location on Av du Dr Mongi Ben Hmida. Guests can enjoy comfortable accommodations with great value. The guesthouse offers a range of amenities to ensure a pleasant stay, including free Wi-Fi, laundry service, and a friendly atmosphere. Its central location provides easy access to local attractions and points of interest.
+The Casa Del Mar Residence is a 4.3-rated guesthouse located in Kelibia, Tunisia. It is situated near the beach and offers a relaxing getaway for guests. The Residence has received positive reviews for its comfortable accommodations and friendly staff.
+Dar Lebharr is a cozy accommodation located in Kelibia, Tunisia. It offers a comfortable stay with a rating of 4.1 out of 5. Situated at 36.835428078688 latitude and 11.091149597327 longitude, it's easily accessible. Contact them at +33 7 81 09 91 78 for bookings or inquiries.
+Luxus Apartements is a 5-star lodge located in Kelibia, Tunisia. It offers a luxurious and comfortable stay for its guests. The lodge is situated near the beach, making it a great place to relax and enjoy the beautiful scenery. Luxus Apartements is also close to many restaurants, shops, and attractions. The lodge's staff is friendly and helpful, and they are always willing to go the extra mile to make sure that their guests have a memorable stay.
+Plage Kelibia, located at (36.84757, 11.09386), offers a picturesque beachfront experience in the city of Kelibia.
+Fort de Kelibia, located in Kelibia, is a historical fortress with an average rating of 4.4 out of 5 based on 460 reviews. It offers a stunning view of the sea, making it a great spot to enjoy the scenery. Visitors can also delve into the history of the fort or simply admire its architectural beauty. With its convenient opening hours from 9:00 AM to 6:00 PM, it's a perfect destination for tourists and history enthusiasts alike.
+Plage kelibia is a popular tourist attraction located in Kelibia, Tunisia. It offers a wide range of activities, including swimming, sunbathing, and windsurfing. The beach is also home to a number of restaurants and cafes.
+The beach is located just a short drive from the city center and is easily accessible by public transportation. The beach is well-maintained and features clear blue waters and soft white sand.
+Plage kelibia is a great place to relax and enjoy the beautiful weather of Tunisia. It is also a great location to enjoy some water sports.
+The Port of Kelibia is a maritime port located in Kelibia, Tunisia. The port offers a variety of services to its customers, including fishing, cargo, and passenger transport. It is also a popular tourist destination, with many visitors coming to enjoy the beautiful scenery and the fresh seafood. The port is located at (36.8351444, 11.1116178).
+Discover the stunning Phare de Kelibia, a captivating viewpoint located at (36.8363146, 11.1113262) in Kelibia, Tunisia. Immerse yourself in the breathtaking panoramic views from the lighthouse's vantage point, making it an ideal spot for photography enthusiasts and nature lovers alike.
+The Institut superieur des etudes technologiques de Kelibia is a higher education institute located in Kelibia, Tunisia. It offers a range of technological programs and has a rating of 4.4 stars. The institute is situated at the coordinates (36.8363146, 11.1113262) and can be contacted by phone at 72 277 090. Its website is http://www.isetkl.rnu.tn/.
+Kelibia is a place located in Kelibia, Tunisia. It has a bike rental service, with a 4.2 rating based on 6 reviews. It is located at coordinates (36.836660524289, 11.111146140921).
+Marbrerie Hafefh Kacem is a popular discotheque located in Kelibia, Tunisia. It has a rating of 4.0 out of 5 on Google Maps and is known for its vibrant atmosphere and lively music. The discotheque is located at (36.8472589, 11.091058) and offers a variety of music genres to cater to different tastes. It is a popular destination for locals and tourists alike, and is a great place to dance the night away.
+El Bahri Restaurant is a seafood restaurant located in Kelibia, Tunisia. It is a popular spot for tourists and locals alike, and it offers a variety of seafood dishes, including fresh fish, grilled octopus, and seafood platters. The restaurant is open 24 hours a day, and it is closed on Tuesdays. The average rating for El Bahri Restaurant is 4.7 stars, and it has received positive reviews for its delicious food, friendly staff, and reasonable prices.
+Pizzeria LOFT ROMA is a 4.2-rated pizzeria located in kelibia, Tunisia. It operates from 08:00 to 00:00 every day and offers a wide range of pizzas. Its exact location is at R3VW+83Q Rue de Tripoli, Kelibia, Tunisia.
+Restaurant is a family-friendly restaurant located in Kelibia, Tunisia. It offers a variety of dishes, including traditional Tunisian cuisine and international fare. The restaurant is located at the coordinates (36.8472589, 11.091058) and has a rating of 5.0 out of 5 stars on Google Maps.
+Station Louage Kelibia is a taxi service located in Kelibia, Tunisia (36.84757, 11.09386). With a rating of 3.7 out of 5 based on 28 reviews, it offers reliable transportation services to its customers.
+SRTGN (station Kelibia) is a bus station located in Kelibia, Tunisia. It offers basic amenities and services for travelers, and is conveniently situated at (36.84757, 11.09386).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6960,14 +10230,75 @@
       </c>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>If you're in kelibia and looking for something fun to do, check out Restaurant le colibri officiel located at Av. de Martyrs, Kelibia. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 10:00-23:00. To get there, use these GPS coordinates: 36.842587762817, 11.099081841049. For more details, visit their website at https://www.google.com/maps/place/Restaurant+le+colibri+officiel/data=!4m7!3m6!1s0x131d338bedb93bb5:0x88ce2f029f38c3b5!8m2!3d36.8366888!4d11.1111996!16s%2Fg%2F11l5x6f6qz!19sChIJtTu57YszHRMRtcM4nwIvzog?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 58 121 352.</t>
+          <t>Restaurant "Le Colibri Officiel", located in Kelibia at (36.842587762817, 11.099081841049), offers an unparalleled dining experience with its 5-star rating based on 17 reviews. Its menu is not provided in the given information, but its main category is listed as "Restaurant". If you wish to make a reservation or inquire further, you can contact the owner directly through their link or call them at 58 121 352. Unfortunately, the restaurant's website is not provided in the given information.</t>
         </is>
       </c>
       <c r="AA60" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated restaurant with a diverse menu and a 5.0-star rating in Kelibia?</t>
+          <t>Day Plan:
+**Morning:**
+- Explore the ancient Fort de Kelibia, offering breathtaking views of the Mediterranean Sea.
+**Mid-Morning:**
+- Visit the Institut superieur des etudes technologiques de Kelibia to learn about technological advancements in the city.
+**Midday:**
+- Indulge in the delectable local cuisine at El Bahri Restaurant, renowned for its fresh seafood dishes.
+**Afternoon:**
+- Relax and rejuvenate with a soothing massage at Myriam Bel Air, a comfortable and convenient hotel.
+**Evening:**
+- Experience the vibrant atmosphere and dance the night away at Marbrerie Hafefh Kacem discotheque.
+**Night:**
+- Enjoy a delightful dinner at "La Luna" Pizzeria, serving authentic Italian cuisine in a cozy ambiance.</t>
+        </is>
+      </c>
+      <c r="AB60" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Nestled in the vibrant city of Kelibia, Workshop Bistro awaits with its cozy ambiance and delectable offerings. This cafe is renowned for its delectable cuisine and warm hospitality. Located at coordinates (36.835428078688, 11.091149597327), patrons can easily find this popular establishment.
+Hannibal coffee kelibia is a tea room located in kelibia, Tunisia. It offers a variety of teas, coffees, and pastries. The tea room is located at 36.8363146, 11.1113262.
+Lounge Cafe, rated 5.0 out of 5 by 1 reviewer, is a restaurant located at R3WQ+H9M, Av. Habib-Bourguiba, Kelibia, Tunisia. It is open from 6:00 am to 2:00 pm daily, and its main category is Restaurant. Its featured image can be found at https://lh5.googleusercontent.com/p/AF1QipOvbL7FtV4P7-K_sbXDNGp51x8sIv60Kakq6a4-=w408-h408-k-no.
+Myriam Bel Air is a popular hotel located in Kelibia, Tunisia. It offers a comfortable and convenient stay for its guests, with a 4.2-star rating on Google. The hotel has 14 reviews, with an overall positive feedback from its guests. It provides a range of amenities, including comfortable rooms, a swimming pool, and a restaurant. The hotel's website features additional information and booking options, and it is well-connected with major tourist attractions in the area.
+The Cap-Bon Kelibia Beach Hotel &amp; Spa is a 4-star hotel located in Kelibia, Tunisia. It is a luxury seaside hotel offering comfortable rooms and suites, a spa and 3 refined restaurants. It is known for its beautiful beach, its large swimming pool and its animations.
+Dar Meriem - Maison d'hôtes is a guest house located in Kelibia, Tunisia. It offers comfortable accommodation and a warm and welcoming atmosphere. The guest house is perfectly situated for exploring the city and its surroundings, and is close to a variety of amenities. The guest house is managed by a friendly and helpful team of staff who are always on hand to assist guests with any queries or needs.
+Residence Asma is a 4.4-rated residence located in Kelibia, Tunisia. It is a great place to stay for tourists and business travelers alike. The residence offers a variety of amenities, including a swimming pool, a fitness center, and a restaurant. It is also conveniently located near the beach, the city center, and the airport. The residence has 14 reviews, all of which are positive. Guests praise the residence's cleanliness, comfort, and friendly staff.
+Pension Anis is a 4-star family-run guesthouse located in Kelibia, Tunisia. It features a prime location on Av du Dr Mongi Ben Hmida. Guests can enjoy comfortable accommodations with great value. The guesthouse offers a range of amenities to ensure a pleasant stay, including free Wi-Fi, laundry service, and a friendly atmosphere. Its central location provides easy access to local attractions and points of interest.
+The Casa Del Mar Residence is a 4.3-rated guesthouse located in Kelibia, Tunisia. It is situated near the beach and offers a relaxing getaway for guests. The Residence has received positive reviews for its comfortable accommodations and friendly staff.
+Dar Lebharr is a cozy accommodation located in Kelibia, Tunisia. It offers a comfortable stay with a rating of 4.1 out of 5. Situated at 36.835428078688 latitude and 11.091149597327 longitude, it's easily accessible. Contact them at +33 7 81 09 91 78 for bookings or inquiries.
+Luxus Apartements is a 5-star lodge located in Kelibia, Tunisia. It offers a luxurious and comfortable stay for its guests. The lodge is situated near the beach, making it a great place to relax and enjoy the beautiful scenery. Luxus Apartements is also close to many restaurants, shops, and attractions. The lodge's staff is friendly and helpful, and they are always willing to go the extra mile to make sure that their guests have a memorable stay.
+Plage Kelibia, located at (36.84757, 11.09386), offers a picturesque beachfront experience in the city of Kelibia.
+Fort de Kelibia is a historical fortress located in Kelibia, Tunisia. It offers stunning views of the Mediterranean Sea and the port. The castle boasts a rich history and architectural significance. Visitors can explore the castle's ramparts, towers, and courtyards, and delve into the region's captivating past. With a 4.4-star rating, the fort is a popular destination for tourists and history enthusiasts alike. Its strategic location makes it a great spot to capture panoramic shots of the surrounding area.
+Plage Kelibia is a tourist attraction located at the coordinates (36.84757, 11.09386) in Kelibia, Tunisia. With a rating of 4.6 based on 37 reviews, it is a popular destination for tourists. The beach offers a range of activities and amenities, including swimming, sunbathing, and beach volleyball. It is also home to a number of restaurants and cafes, making it a great place to relax and enjoy the scenery.
+The Port of Kelibia is a maritime port located in Kelibia, Tunisia. The port offers a variety of services to its customers, including fishing, cargo, and passenger transport. It is also a popular tourist destination, with many visitors coming to enjoy the beautiful scenery and the fresh seafood. The port is located at (36.8351444, 11.1116178).
+Discover the stunning Phare de Kelibia, a captivating viewpoint located at (36.8363146, 11.1113262) in Kelibia, Tunisia. Immerse yourself in the breathtaking panoramic views from the lighthouse's vantage point, making it an ideal spot for photography enthusiasts and nature lovers alike.
+The Institut superieur des etudes technologiques de Kelibia is a higher education institute located in Kelibia, Tunisia. It offers a range of technological programs and has a rating of 4.4 stars. The institute is situated at the coordinates (36.8363146, 11.1113262) and can be contacted by phone at 72 277 090. Its website is http://www.isetkl.rnu.tn/.
+Kelibia is a place located in Kelibia, Tunisia. It has a bike rental service, with a 4.2 rating based on 6 reviews. It is located at coordinates (36.836660524289, 11.111146140921).
+Marbrerie Hafefh Kacem is a popular discotheque located in Kelibia, Tunisia. It has a rating of 4.0 out of 5 on Google Maps and is known for its vibrant atmosphere and lively music. The discotheque is located at (36.8472589, 11.091058) and offers a variety of music genres to cater to different tastes. It is a popular destination for locals and tourists alike, and is a great place to dance the night away.
+El Bahri Restaurant is a seafood restaurant located in Kelibia, Tunisia. It is a popular spot for tourists and locals alike, and it offers a variety of seafood dishes, including fresh fish, grilled octopus, and seafood platters. The restaurant is open 24 hours a day, and it is closed on Tuesdays. The average rating for El Bahri Restaurant is 4.7 stars, and it has received positive reviews for its delicious food, friendly staff, and reasonable prices.
+"La Luna", a 4-star Pizzeria, located in Kelibia, Tunisia. It's reachable by phone and has a website. It's open daily from 08:00-22:00, and its coordinates are (36.8472589, 11.091058).
+Restaurant is a family-friendly restaurant located in Kelibia, Tunisia. It offers a variety of dishes, including traditional Tunisian cuisine and international fare. The restaurant is located at the coordinates (36.8472589, 11.091058) and has a rating of 5.0 out of 5 stars on Google Maps.
+Station Louage Kelibia is a taxi service located in Kelibia, Tunisia (36.84757, 11.09386). With a rating of 3.7 out of 5 based on 28 reviews, it offers reliable transportation services to its customers.
+SRTGN (station Kelibia) is a bus station located in Kelibia with the coordinates (36.84757, 11.09386). It offers bus services to various destinations.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7069,16 +10400,69 @@
       </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>If you're in Kelibia and looking for a top-rated restaurant, check out Restaurant Beb Bhar located at 8090 Av. de Martyrs. 
-This popular destination is perfect for Restaurant lovers and offers a cozy atmosphere. 
-With a rating of 4.1, it's a must-visit spot. It's open during these hours: 09:00-00:00, but closed on . 
-To get there, use these GPS coordinates: 36.842587762817, 11.099081841049. 
-For more details, visit their website at  or call them at .</t>
+          <t>Restaurant Beb Bhar is a local restaurant located in Kelibia, Tunisia. It is rated 4.1 out of 5 stars on Google and has received 14 reviews. The restaurant offers a variety of dishes, including traditional Tunisian cuisine and international favorites. The restaurant is open from 9:00am to 12:00am every day of the week.</t>
         </is>
       </c>
       <c r="AA61" t="inlineStr">
         <is>
-          <t>Where in Kelibia can you find a highly-rated restaurant with a cozy ambiance that opens from 9 AM to midnight?</t>
+          <t>Day Plan:
+Morning: Explore Fort de Kelibia for its stunning sea views and historical significance.
+Mid-Morning: Visit SOYASEP ZNAIDI KIOSQUE ET CAFE for a delightful selection of beverages and delectable treats.
+Midday: Try local cuisine at Pizzeria LOFT ROMA for a taste of traditional Tunisian and international fare.
+Afternoon: Enjoy a scenic walk along Plage Kelibia, taking in the beauty of the waterfront and indulging in beach volleyball or swimming.
+Evening: Visit DAR COLIBRI for a relaxing and rejuvenating experience, featuring a swimming pool, hammam, and massage services.
+Night: Experience a vibrant nightlife at Marbrerie Hafefh Kacem discotheque, known for its lively music and energetic atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB61" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Discover a cozy respite in the heart of Kelibia at SOYASEP ZNAIDI KIOSQUE ET CAFE, located at coordinates (36.8472589, 11.091058). This charming cafe offers a welcoming atmosphere, serving a delectable selection of beverages and delectable treats. Situated conveniently, this cafe invites you to take a break, indulge in the local flavors, and connect with the vibrant community of Kelibia.
+Hannibal coffee kelibia is a tea room located in kelibia, Tunisia. It offers a variety of teas, coffees, and pastries. The tea room is located at 36.8363146, 11.1113262.
+TOGOO FOOD kelibia is a restaurant located in Rue zouhour, Kelibia 8090. It offers a variety of dishes and is highly rated by customers. The restaurant is open from 11:30-02:00 and closed on Sundays. It offers a variety of dishes, including sandwiches, salads, and pizzas.
+Kelibia Paradise is a lodging facility located in Kelibia, Tunisia. It has a rating of 4.6 and has received 18 reviews. The facility offers accommodation with a main focus on comfort and relaxation. Its geolocation is at longitude 11.098431810317 and latitude 36.846063992403.
+Maison d'hotes / Restaurant L'Hirondelle de Kelibia offers a pleasant stay in a beautiful location just steps from the beach. The hotel features comfortable rooms, a relaxing atmosphere, and welcoming staff. Guests can enjoy delicious meals at the on-site restaurant while admiring the panoramic views of the Mediterranean Sea. With its convenient location and excellent amenities, Maison d'hotes / Restaurant L'Hirondelle de Kelibia is the perfect place for a memorable vacation.
+DAR COLIBRI, a 4.6-rated guesthouse located in Kelibia (36.8363146, 11.1113262), offers a unique stay in a charming setting. It features a swimming pool, hammam, and massage services, promising a relaxing and rejuvenating experience. With its proximity to the beautiful beaches of Kelibia, this guesthouse is an ideal base for exploring the region's natural wonders.
+Residence Asma is a 4.4-rated residence located in Kelibia, Tunisia. It is a great place to stay for tourists and business travelers alike. The residence offers a variety of amenities, including a swimming pool, a fitness center, and a restaurant. It is also conveniently located near the beach, the city center, and the airport. The residence has 14 reviews, all of which are positive. Guests praise the residence's cleanliness, comfort, and friendly staff.
+Pension Anis is a 4-star family-run guesthouse located in Kelibia, Tunisia. It features a prime location on Av du Dr Mongi Ben Hmida. Guests can enjoy comfortable accommodations with great value. The guesthouse offers a range of amenities to ensure a pleasant stay, including free Wi-Fi, laundry service, and a friendly atmosphere. Its central location provides easy access to local attractions and points of interest.
+The Casa Del Mar Residence is a 4.3-rated guesthouse located in Kelibia, Tunisia. It is situated near the beach and offers a relaxing getaway for guests. The Residence has received positive reviews for its comfortable accommodations and friendly staff.
+Dar Lebharr is a cozy accommodation located in Kelibia, Tunisia. It offers a comfortable stay with a rating of 4.1 out of 5. Situated at 36.835428078688 latitude and 11.091149597327 longitude, it's easily accessible. Contact them at +33 7 81 09 91 78 for bookings or inquiries.
+Luxus Apartements is a 5-star lodge located in Kelibia, Tunisia. It offers a luxurious and comfortable stay for its guests. The lodge is situated near the beach, making it a great place to relax and enjoy the beautiful scenery. Luxus Apartements is also close to many restaurants, shops, and attractions. The lodge's staff is friendly and helpful, and they are always willing to go the extra mile to make sure that their guests have a memorable stay.
+Plage Kelibia, located at (36.84757, 11.09386), offers a picturesque beachfront experience in the city of Kelibia.
+Fort de Kelibia, located in Kelibia, is a historical fortress with an average rating of 4.4 out of 5 based on 460 reviews. It offers a stunning view of the sea, making it a great spot to enjoy the scenery. Visitors can also delve into the history of the fort or simply admire its architectural beauty. With its convenient opening hours from 9:00 AM to 6:00 PM, it's a perfect destination for tourists and history enthusiasts alike.
+Plage Kelibia is a tourist attraction located at the coordinates (36.84757, 11.09386) in Kelibia, Tunisia. With a rating of 4.6 based on 37 reviews, it is a popular destination for tourists. The beach offers a range of activities and amenities, including swimming, sunbathing, and beach volleyball. It is also home to a number of restaurants and cafes, making it a great place to relax and enjoy the scenery.
+The Port of Kelibia is a maritime port located in Kelibia, Tunisia. The port offers a variety of services to its customers, including fishing, cargo, and passenger transport. It is also a popular tourist destination, with many visitors coming to enjoy the beautiful scenery and the fresh seafood. The port is located at (36.8351444, 11.1116178).
+Discover the stunning Phare de Kelibia, a captivating viewpoint located at (36.8363146, 11.1113262) in Kelibia, Tunisia. Immerse yourself in the breathtaking panoramic views from the lighthouse's vantage point, making it an ideal spot for photography enthusiasts and nature lovers alike.
+The Institut superieur des etudes technologiques de Kelibia is a higher education institute located in Kelibia, Tunisia. It offers a range of technological programs and has a rating of 4.4 stars. The institute is situated at the coordinates (36.8363146, 11.1113262) and can be contacted by phone at 72 277 090. Its website is http://www.isetkl.rnu.tn/.
+Kelibia is a place located in Kelibia, Tunisia. It has a bike rental service, with a 4.2 rating based on 6 reviews. It is located at coordinates (36.836660524289, 11.111146140921).
+Marbrerie Hafefh Kacem is a popular discotheque located in Kelibia, Tunisia. It has a rating of 4.0 out of 5 on Google Maps and is known for its vibrant atmosphere and lively music. The discotheque is located at (36.8472589, 11.091058) and offers a variety of music genres to cater to different tastes. It is a popular destination for locals and tourists alike, and is a great place to dance the night away.
+El Bahri Restaurant is a seafood restaurant located in Kelibia, Tunisia. It is a popular spot for tourists and locals alike, and it offers a variety of seafood dishes, including fresh fish, grilled octopus, and seafood platters. The restaurant is open 24 hours a day, and it is closed on Tuesdays. The average rating for El Bahri Restaurant is 4.7 stars, and it has received positive reviews for its delicious food, friendly staff, and reasonable prices.
+Pizzeria LOFT ROMA is a 4.2-rated pizzeria located in kelibia, Tunisia. It operates from 08:00 to 00:00 every day and offers a wide range of pizzas. Its exact location is at R3VW+83Q Rue de Tripoli, Kelibia, Tunisia.
+Restaurant is a family-friendly restaurant located in Kelibia, Tunisia. It offers a variety of dishes, including traditional Tunisian cuisine and international fare. The restaurant is located at the coordinates (36.8472589, 11.091058) and has a rating of 5.0 out of 5 stars on Google Maps.
+Station Louage Kelibia is a taxi service located in Kelibia, Tunisia (36.84757, 11.09386). With a rating of 3.7 out of 5 based on 28 reviews, it offers reliable transportation services to its customers.
+SRTGN (station Kelibia) is a bus station located in Kelibia, Tunisia. It offers basic amenities and services for travelers, and is conveniently situated at (36.84757, 11.09386).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7184,12 +10568,69 @@
       </c>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>If you're in kelibia and looking for a top-rated restaurant, check out Clandestino located at Av. de Martyrs, Kelibia 0809. This highly-rated destination offers a range of categories to choose from, including Restaurant. With a rating of 4.2, it's a must-visit spot. It's open during these hours: 07:00-20:00, but closed on []. To get there, use these GPS coordinates: 36.842587762817, 11.099081841049. For more details, visit their website at https://www.facebook.com/Clandestino-kelibia-106027195020770 or call them at [phone number not available].</t>
+          <t>Clandestino is a highly-rated restaurant located in Kelibia, Tunisia. With a 4.2-star rating based on 11 reviews, it's a popular spot for locals and tourists alike. The restaurant is situated at Av. de Martyrs, making it easily accessible. Open from 7:00 AM to 8:00 PM, Clandestino serves a menu that is unfortunately not available online. Its main category is Restaurant, and it falls under the categories of Restaurants.</t>
         </is>
       </c>
       <c r="AA62" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated restaurant in Kelibia, Tunisia, with a 4.2 rating and GPS coordinates of 36.842587762817, 11.099081841049?</t>
+          <t>Day Plan:
+Morning: Explore the historical Fort de Kelibia and capture panoramic views of the Mediterranean Sea and the port.
+Mid-Morning: Visit Phare de Kelibia for breathtaking panoramic views from the lighthouse. Take advantage of the stunning photo opportunities.
+Midday: Indulge in a delicious seafood lunch at the highly-rated El Bahri Restaurant, known for its fresh fish and seafood platters.
+Afternoon: Explore the picturesque Plage Kelibia, enjoy a refreshing swim, sunbathe, or engage in lively beach volleyball.
+Evening: Head to "La Luna" Pizzeria for a delightful dinner featuring traditional Tunisian cuisine and international fare. The restaurant's cozy ambiance and delicious food ensure a memorable dining experience.
+Night: Experience the vibrant nightlife at Marbrerie Hafefh Kacem, a popular discotheque known for its lively music and energetic atmosphere. Dance the night away and enjoy the lively ambiance.</t>
+        </is>
+      </c>
+      <c r="AB62" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Buvette el Mansoura is a Cafe located in Kelibia, Tunisia. It offers a wide range of drinks and snacks in a relaxed and friendly atmosphere. The cafe is conveniently located near the beach, making it a great place to relax and enjoy the views.
+Located in Kelibia (latitude 36.836660524289, and longitude 11.111146140921), Big Ben is a teahouse offering a pleasant setting to relax and enjoy a break.
+bistro doner is a restaurant located in Kelibia, Tunisia. It is open late, from 7pm to 4am. It offers a variety of dishes, and has a rating of 4.2 out of 5 stars on Google Maps. The restaurant is located at coordinates (36.8472589, 11.091058).
+Kelibia Paradise is a lodging facility located in Kelibia, Tunisia. It has a rating of 4.6 and has received 18 reviews. The facility offers accommodation with a main focus on comfort and relaxation. Its geolocation is at longitude 11.098431810317 and latitude 36.846063992403.
+Nestled in the picturesque Kelibia region, Cap-Bon Kelibia Beach Hotel &amp; Spa is an upscale resort offering 562 warmly designed rooms and suites. With its stunning beachfront location and serene ambiance, the hotel is an ideal destination for leisure and relaxation. It features an array of amenities, including a rejuvenating spa, three refined dining options, and an inviting swimming pool, ensuring an unforgettable stay in the heart of Kelibia.
+Dar Meriem - Maison d'hôtes is a guest house located in Kelibia, Tunisia. It offers comfortable accommodation and a warm and welcoming atmosphere. The guest house is perfectly situated for exploring the city and its surroundings, and is close to a variety of amenities. The guest house is managed by a friendly and helpful team of staff who are always on hand to assist guests with any queries or needs.
+Residence Asma is a 4.4-rated residence located in Kelibia, Tunisia. It is a great place to stay for tourists and business travelers alike. The residence offers a variety of amenities, including a swimming pool, a fitness center, and a restaurant. It is also conveniently located near the beach, the city center, and the airport. The residence has 14 reviews, all of which are positive. Guests praise the residence's cleanliness, comfort, and friendly staff.
+Pension Anis is a 4-star family-run guesthouse located in Kelibia, Tunisia. It features a prime location on Av du Dr Mongi Ben Hmida. Guests can enjoy comfortable accommodations with great value. The guesthouse offers a range of amenities to ensure a pleasant stay, including free Wi-Fi, laundry service, and a friendly atmosphere. Its central location provides easy access to local attractions and points of interest.
+The Casa Del Mar Residence is a 4.3-rated guesthouse located in Kelibia, Tunisia. It is situated near the beach and offers a relaxing getaway for guests. The Residence has received positive reviews for its comfortable accommodations and friendly staff.
+Dar Lebharr is a cozy accommodation located in Kelibia, Tunisia. It offers a comfortable stay with a rating of 4.1 out of 5. Situated at 36.835428078688 latitude and 11.091149597327 longitude, it's easily accessible. Contact them at +33 7 81 09 91 78 for bookings or inquiries.
+Luxus Apartements is a 5-star lodge located in Kelibia, Tunisia. It offers a luxurious and comfortable stay for its guests. The lodge is situated near the beach, making it a great place to relax and enjoy the beautiful scenery. Luxus Apartements is also close to many restaurants, shops, and attractions. The lodge's staff is friendly and helpful, and they are always willing to go the extra mile to make sure that their guests have a memorable stay.
+Plage Kelibia, located at (36.84757, 11.09386), offers a picturesque beachfront experience in the city of Kelibia.
+Fort de Kelibia is a historical fortress located in Kelibia, Tunisia. It offers stunning views of the Mediterranean Sea and the port. The castle boasts a rich history and architectural significance. Visitors can explore the castle's ramparts, towers, and courtyards, and delve into the region's captivating past. With a 4.4-star rating, the fort is a popular destination for tourists and history enthusiasts alike. Its strategic location makes it a great spot to capture panoramic shots of the surrounding area.
+Plage Kelibia is a tourist attraction located at the coordinates (36.84757, 11.09386) in Kelibia, Tunisia. With a rating of 4.6 based on 37 reviews, it is a popular destination for tourists. The beach offers a range of activities and amenities, including swimming, sunbathing, and beach volleyball. It is also home to a number of restaurants and cafes, making it a great place to relax and enjoy the scenery.
+The Port of Kelibia is a maritime port located in Kelibia, Tunisia. The port offers a variety of services to its customers, including fishing, cargo, and passenger transport. It is also a popular tourist destination, with many visitors coming to enjoy the beautiful scenery and the fresh seafood. The port is located at (36.8351444, 11.1116178).
+Discover the stunning Phare de Kelibia, a captivating viewpoint located at (36.8363146, 11.1113262) in Kelibia, Tunisia. Immerse yourself in the breathtaking panoramic views from the lighthouse's vantage point, making it an ideal spot for photography enthusiasts and nature lovers alike.
+The Institut superieur des etudes technologiques de Kelibia is a higher education institute located in Kelibia, Tunisia. It offers a range of technological programs and has a rating of 4.4 stars. The institute is situated at the coordinates (36.8363146, 11.1113262) and can be contacted by phone at 72 277 090. Its website is http://www.isetkl.rnu.tn/.
+Kelibia is a place located in Kelibia, Tunisia. It has a bike rental service, with a 4.2 rating based on 6 reviews. It is located at coordinates (36.836660524289, 11.111146140921).
+Marbrerie Hafefh Kacem is a popular discotheque located in Kelibia, Tunisia. It has a rating of 4.0 out of 5 on Google Maps and is known for its vibrant atmosphere and lively music. The discotheque is located at (36.8472589, 11.091058) and offers a variety of music genres to cater to different tastes. It is a popular destination for locals and tourists alike, and is a great place to dance the night away.
+El Bahri Restaurant is a seafood restaurant located in Kelibia, Tunisia. It is a popular spot for tourists and locals alike, and it offers a variety of seafood dishes, including fresh fish, grilled octopus, and seafood platters. The restaurant is open 24 hours a day, and it is closed on Tuesdays. The average rating for El Bahri Restaurant is 4.7 stars, and it has received positive reviews for its delicious food, friendly staff, and reasonable prices.
+"La Luna", a 4-star Pizzeria, located in Kelibia, Tunisia. It's reachable by phone and has a website. It's open daily from 08:00-22:00, and its coordinates are (36.8472589, 11.091058).
+Restaurant is a family-friendly restaurant located in Kelibia, Tunisia. It offers a variety of dishes, including traditional Tunisian cuisine and international fare. The restaurant is located at the coordinates (36.8472589, 11.091058) and has a rating of 5.0 out of 5 stars on Google Maps.
+Station Louage Kelibia is a taxi service located in Kelibia, Tunisia (36.84757, 11.09386). With a rating of 3.7 out of 5 based on 28 reviews, it offers reliable transportation services to its customers.
+SRTGN (station Kelibia) is a bus station located in Kelibia with the coordinates (36.84757, 11.09386). It offers bus services to various destinations.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7299,12 +10740,69 @@
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>If you're in kelibia and looking for something fun to do, check out La Grinta located at 8090, La Grinta, 8090 Av. de Martyrs, Kelibia 8090. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.4, it's a must-visit spot. It's open during these hours: 12:00-22:00. To get there, use these GPS coordinates: 36.836660524289, 11.111146140921. For more details, visit their website at https://www.facebook.com/La-Grinta-kelibia-1112216552156277/ or call them at 20 828 372.</t>
+          <t>La Grinta is a restaurant located in Kelibia, Tunisia (36.836660524289, 11.111146140921). It has a rating of 4.4 based on 10 reviews and is open from 12:00 pm to 10:00 pm. The restaurant offers a variety of dishes, including chapati, and has a featured image available on Google Maps.</t>
         </is>
       </c>
       <c r="AA63" t="inlineStr">
         <is>
-          <t>Where in Kelibia can you find La Grinta, a top-rated destination known for its exceptional restaurant options and high visitor satisfaction score of 4.4?</t>
+          <t>Day Plan:
+Morning: Explore Fort de Kelibia, a historical fortress with stunning views of the Mediterranean Sea.
+Mid-Morning: Visit the Phare de Kelibia, a captivating viewpoint offering panoramic views of the surrounding area.
+Midday: Try local cuisine at El Bahri Restaurant, a popular spot for seafood dishes.
+Afternoon: Relax at Plage Kelibia, a beautiful beach with a range of activities and amenities.
+Evening: Experience cultural immersion at the Institut superieur des etudes technologiques de Kelibia, a higher education institute offering a glimpse into the local culture.
+Night: Enjoy a delightful dinner at Del Capo, a 5-star pizzeria, and savor the flavors of authentic Italian cuisine.</t>
+        </is>
+      </c>
+      <c r="AB63" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe'in is a cafe located in kelibia, Tunisia. It is rated 5.0/5 based on 1 reviews, and it is known for its coffee, desserts, and ambiance. Cafe'in is located at 36.8472589, 11.091058.
+Hannibal coffee kelibia is a tea room located in kelibia, Tunisia. It offers a variety of teas, coffees, and pastries. The tea room is located at 36.8363146, 11.1113262.
+La Padella Kelibia is a reputable restaurant located in Kelibia. It boasts an impressive 4.6 rating based on 8 reviews, indicating its popularity and high quality. Open from 8 AM to midnight every day, La Padella Kelibia offers a wide range of dishes to cater to its diverse clientele. The restaurant's prime location at 36.8363146 latitude and 11.1113262 longitude makes it easily accessible to both locals and tourists. With its convenient hours and delicious offerings, La Padella Kelibia is the go-to destination for dining in Kelibia.
+Kelibia Paradise is a popular accommodation option in Kelibia, Tunisia. It is located at 47 Rue d'orange Cite Ezzouhour, 8090, Kelibia, and offers a range of amenities to its guests. These include a restaurant, bar, and swimming pool, as well as free Wi-Fi and parking. The hotel is situated within easy reach of the beach and other local attractions, making it an ideal base for exploring the area.
+Maison d'hotes / Restaurant L'Hirondelle de Kelibia offers a pleasant stay in a beautiful location just steps from the beach. The hotel features comfortable rooms, a relaxing atmosphere, and welcoming staff. Guests can enjoy delicious meals at the on-site restaurant while admiring the panoramic views of the Mediterranean Sea. With its convenient location and excellent amenities, Maison d'hotes / Restaurant L'Hirondelle de Kelibia is the perfect place for a memorable vacation.
+DAR COLIBRI, a 4.6-rated guesthouse located in Kelibia (36.8363146, 11.1113262), offers a unique stay in a charming setting. It features a swimming pool, hammam, and massage services, promising a relaxing and rejuvenating experience. With its proximity to the beautiful beaches of Kelibia, this guesthouse is an ideal base for exploring the region's natural wonders.
+Residence Asma is a 4.4-rated residence located in Kelibia, Tunisia. It is a great place to stay for tourists and business travelers alike. The residence offers a variety of amenities, including a swimming pool, a fitness center, and a restaurant. It is also conveniently located near the beach, the city center, and the airport. The residence has 14 reviews, all of which are positive. Guests praise the residence's cleanliness, comfort, and friendly staff.
+Pension Anis is a 4-star family-run guesthouse located in Kelibia, Tunisia. It features a prime location on Av du Dr Mongi Ben Hmida. Guests can enjoy comfortable accommodations with great value. The guesthouse offers a range of amenities to ensure a pleasant stay, including free Wi-Fi, laundry service, and a friendly atmosphere. Its central location provides easy access to local attractions and points of interest.
+The Casa Del Mar Residence is a 4.3-rated guesthouse located in Kelibia, Tunisia. It is situated near the beach and offers a relaxing getaway for guests. The Residence has received positive reviews for its comfortable accommodations and friendly staff.
+Dar Lebharr is a cozy accommodation located in Kelibia, Tunisia. It offers a comfortable stay with a rating of 4.1 out of 5. Situated at 36.835428078688 latitude and 11.091149597327 longitude, it's easily accessible. Contact them at +33 7 81 09 91 78 for bookings or inquiries.
+Luxus Apartements is a 5-star lodge located in Kelibia, Tunisia. It offers a luxurious and comfortable stay for its guests. The lodge is situated near the beach, making it a great place to relax and enjoy the beautiful scenery. Luxus Apartements is also close to many restaurants, shops, and attractions. The lodge's staff is friendly and helpful, and they are always willing to go the extra mile to make sure that their guests have a memorable stay.
+Plage Kelibia, located at (36.84757, 11.09386), offers a picturesque beachfront experience in the city of Kelibia.
+Fort de Kelibia is a historical fortress located in Kelibia, Tunisia. It offers stunning views of the Mediterranean Sea and the port. The castle boasts a rich history and architectural significance. Visitors can explore the castle's ramparts, towers, and courtyards, and delve into the region's captivating past. With a 4.4-star rating, the fort is a popular destination for tourists and history enthusiasts alike. Its strategic location makes it a great spot to capture panoramic shots of the surrounding area.
+Plage Kelibia is a tourist attraction located at the coordinates (36.84757, 11.09386) in Kelibia, Tunisia. With a rating of 4.6 based on 37 reviews, it is a popular destination for tourists. The beach offers a range of activities and amenities, including swimming, sunbathing, and beach volleyball. It is also home to a number of restaurants and cafes, making it a great place to relax and enjoy the scenery.
+The Port of Kelibia is a maritime port located in Kelibia, Tunisia. The port offers a variety of services to its customers, including fishing, cargo, and passenger transport. It is also a popular tourist destination, with many visitors coming to enjoy the beautiful scenery and the fresh seafood. The port is located at (36.8351444, 11.1116178).
+Discover the stunning Phare de Kelibia, a captivating viewpoint located at (36.8363146, 11.1113262) in Kelibia, Tunisia. Immerse yourself in the breathtaking panoramic views from the lighthouse's vantage point, making it an ideal spot for photography enthusiasts and nature lovers alike.
+The Institut superieur des etudes technologiques de Kelibia is a higher education institute located in Kelibia, Tunisia. It offers a range of technological programs and has a rating of 4.4 stars. The institute is situated at the coordinates (36.8363146, 11.1113262) and can be contacted by phone at 72 277 090. Its website is http://www.isetkl.rnu.tn/.
+Kelibia is a place located in Kelibia, Tunisia. It has a bike rental service, with a 4.2 rating based on 6 reviews. It is located at coordinates (36.836660524289, 11.111146140921).
+Marbrerie Hafefh Kacem is a popular discotheque located in Kelibia, Tunisia. It has a rating of 4.0 out of 5 on Google Maps and is known for its vibrant atmosphere and lively music. The discotheque is located at (36.8472589, 11.091058) and offers a variety of music genres to cater to different tastes. It is a popular destination for locals and tourists alike, and is a great place to dance the night away.
+El Bahri Restaurant is a seafood restaurant located in Kelibia, Tunisia. It is a popular spot for tourists and locals alike, and it offers a variety of seafood dishes, including fresh fish, grilled octopus, and seafood platters. The restaurant is open 24 hours a day, and it is closed on Tuesdays. The average rating for El Bahri Restaurant is 4.7 stars, and it has received positive reviews for its delicious food, friendly staff, and reasonable prices.
+Del Capo is a 5-star rated pizzeria located in Kelibia, Tunisia. It is situated at the address: 8090 Av. de Martyrs with coordinates (36.842587762817, 11.099081841049). This highly-rated spot operates from 12:00 to 00:00 during the week and offers a delectable range of pizzas.
+Restaurant is a family-friendly restaurant located in Kelibia, Tunisia. It offers a variety of dishes, including traditional Tunisian cuisine and international fare. The restaurant is located at the coordinates (36.8472589, 11.091058) and has a rating of 5.0 out of 5 stars on Google Maps.
+Station Louage Kelibia is a taxi service located in Kelibia, Tunisia (36.84757, 11.09386). With a rating of 3.7 out of 5 based on 28 reviews, it offers reliable transportation services to its customers.
+SRTGN's station is located in Kelibia, Tunisia. It offers bus services to various destinations. The station is located at the coordinates (36.84757, 11.09386).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7406,17 +10904,71 @@
       </c>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>If you're in kelibia and looking for something fun to do, check out Pizza Lool located at R3VW+RCW Pizza Lool, Kelibia. 
-This top-rated destination is perfect for Restaurant lovers. 
-With a rating of 4.1, it's a must-visit spot. 
-It's open during these hours: 10:00-22:00.
- To get there, use these GPS coordinates: 36.8472589, 11.091058. 
-For more details, visit their website at https://www.google.com/maps/place/Pizza+Lool/data=!4m7!3m6!1s0x131d33c1a453bf79:0xa8f6abbdeb065f50!8m2!3d36.8446182!4d11.0960889!16s%2Fg%2F11dymmdm8l!19sChIJeb9TpMEzHRMRUF8G672r9qg?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Welcome to Pizza Lool, a beloved restaurant in Kelibia, Tunisia, known for its delectable pizzas and its welcoming atmosphere. Located at R3VW+RCW, Pizza Lool offers an unforgettable dining experience with friendly service and a convenient location.</t>
         </is>
       </c>
       <c r="AA64" t="inlineStr">
         <is>
-          <t>Where in Kelibia can you find the top-rated Pizza Lool restaurant, renowned as a must-visit destination for restaurant enthusiasts?</t>
+          <t>Day Plan:
+Morning: Explore Fort de Kelibia for stunning views and historical significance.
+Mid-Morning: Visit "L'benna," a highly-rated restaurant, and savor delicious local cuisine.
+Midday: Relax and enjoy the picturesque Plage Kelibia, indulge in swimming, sunbathing, or windsurfing.
+Afternoon: Take a guided tour of the Phare de Kelibia, offering panoramic views and perfect photo opportunities.
+Evening: Immerse yourself in the lively atmosphere of Marbrerie Hafefh Kacem, a popular discotheque with vibrant music.
+Night: Enjoy a delightful dinner at El Bahri Restaurant, known for its fresh seafood and charming ambiance.</t>
+        </is>
+      </c>
+      <c r="AB64" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Café Aziz is a highly-rated café located in Kelibia, Tunisia. Situated at (36.8472589, 11.091058), the café offers a warm and inviting atmosphere for customers to enjoy their favorite beverages. With a rating of 4.6 out of 5 based on 5 reviews, Café Aziz is a popular spot among locals and tourists alike.
+Located in Kelibia (latitude 36.836660524289, and longitude 11.111146140921), Big Ben is a teahouse offering a pleasant setting to relax and enjoy a break.
+Located in the heart of Kelibia, "L'benna" is a highly-rated restaurant (4.6/5 stars) that delights locals and tourists alike. Open 24 hours a day, "L'benna" offers a convenient and welcoming atmosphere. Its precise location at (36.842587762817, 11.099081841049) makes it easily accessible.
+Myriam Bel Air is a popular hotel located in Kelibia, Tunisia. It offers a comfortable and convenient stay for its guests, with a 4.2-star rating on Google. The hotel has 14 reviews, with an overall positive feedback from its guests. It provides a range of amenities, including comfortable rooms, a swimming pool, and a restaurant. The hotel's website features additional information and booking options, and it is well-connected with major tourist attractions in the area.
+The Cap-Bon Kelibia Beach Hotel &amp; Spa is a 4-star hotel located in Kelibia, Tunisia. It is a luxury seaside hotel offering comfortable rooms and suites, a spa and 3 refined restaurants. It is known for its beautiful beach, its large swimming pool and its animations.
+Dar Meriem - Maison d'hôtes is a guest house located in Kelibia, Tunisia. It offers comfortable accommodation and a warm and welcoming atmosphere. The guest house is perfectly situated for exploring the city and its surroundings, and is close to a variety of amenities. The guest house is managed by a friendly and helpful team of staff who are always on hand to assist guests with any queries or needs.
+Residence Asma is a 4.4-rated residence located in Kelibia, Tunisia. It is a great place to stay for tourists and business travelers alike. The residence offers a variety of amenities, including a swimming pool, a fitness center, and a restaurant. It is also conveniently located near the beach, the city center, and the airport. The residence has 14 reviews, all of which are positive. Guests praise the residence's cleanliness, comfort, and friendly staff.
+Pension Anis is a 4-star family-run guesthouse located in Kelibia, Tunisia. It features a prime location on Av du Dr Mongi Ben Hmida. Guests can enjoy comfortable accommodations with great value. The guesthouse offers a range of amenities to ensure a pleasant stay, including free Wi-Fi, laundry service, and a friendly atmosphere. Its central location provides easy access to local attractions and points of interest.
+The Casa Del Mar Residence is a 4.3-rated guesthouse located in Kelibia, Tunisia. It is situated near the beach and offers a relaxing getaway for guests. The Residence has received positive reviews for its comfortable accommodations and friendly staff.
+Dar Lebharr is a cozy accommodation located in Kelibia, Tunisia. It offers a comfortable stay with a rating of 4.1 out of 5. Situated at 36.835428078688 latitude and 11.091149597327 longitude, it's easily accessible. Contact them at +33 7 81 09 91 78 for bookings or inquiries.
+Luxus Apartements is a 5-star lodge located in Kelibia, Tunisia at (36.835428078688, 11.091149597327). It has a rating of 5.0 based on 1 review and is owned by Luxus Apartements (proprietaire). Luxus Apartements offers a variety of amenities and services, making it the perfect place to stay for both business and leisure travelers.
+Plage Kelibia, located at (36.84757, 11.09386), offers a picturesque beachfront experience in the city of Kelibia.
+Fort de Kelibia is a historical fortress located in Kelibia, Tunisia. It offers stunning views of the Mediterranean Sea and the port. The castle boasts a rich history and architectural significance. Visitors can explore the castle's ramparts, towers, and courtyards, and delve into the region's captivating past. With a 4.4-star rating, the fort is a popular destination for tourists and history enthusiasts alike. Its strategic location makes it a great spot to capture panoramic shots of the surrounding area.
+Plage kelibia is a popular tourist attraction located in Kelibia, Tunisia. It offers a wide range of activities, including swimming, sunbathing, and windsurfing. The beach is also home to a number of restaurants and cafes.
+The beach is located just a short drive from the city center and is easily accessible by public transportation. The beach is well-maintained and features clear blue waters and soft white sand.
+Plage kelibia is a great place to relax and enjoy the beautiful weather of Tunisia. It is also a great location to enjoy some water sports.
+The Port of Kelibia is a maritime port located in Kelibia, Tunisia. The port offers a variety of services to its customers, including fishing, cargo, and passenger transport. It is also a popular tourist destination, with many visitors coming to enjoy the beautiful scenery and the fresh seafood. The port is located at (36.8351444, 11.1116178).
+Discover the stunning Phare de Kelibia, a captivating viewpoint located at (36.8363146, 11.1113262) in Kelibia, Tunisia. Immerse yourself in the breathtaking panoramic views from the lighthouse's vantage point, making it an ideal spot for photography enthusiasts and nature lovers alike.
+The Institut superieur des etudes technologiques de Kelibia is a higher education institute located in Kelibia, Tunisia. It offers a range of technological programs and has a rating of 4.4 stars. The institute is situated at the coordinates (36.8363146, 11.1113262) and can be contacted by phone at 72 277 090. Its website is http://www.isetkl.rnu.tn/.
+Kelibia is a place located in Kelibia, Tunisia. It has a bike rental service, with a 4.2 rating based on 6 reviews. It is located at coordinates (36.836660524289, 11.111146140921).
+Marbrerie Hafefh Kacem is a popular discotheque located in Kelibia, Tunisia. It has a rating of 4.0 out of 5 on Google Maps and is known for its vibrant atmosphere and lively music. The discotheque is located at (36.8472589, 11.091058) and offers a variety of music genres to cater to different tastes. It is a popular destination for locals and tourists alike, and is a great place to dance the night away.
+El Bahri Restaurant is a seafood restaurant located in Kelibia, Tunisia. It is a popular spot for tourists and locals alike, and it offers a variety of seafood dishes, including fresh fish, grilled octopus, and seafood platters. The restaurant is open 24 hours a day, and it is closed on Tuesdays. The average rating for El Bahri Restaurant is 4.7 stars, and it has received positive reviews for its delicious food, friendly staff, and reasonable prices.
+"La Luna", a 4-star Pizzeria, located in Kelibia, Tunisia. It's reachable by phone and has a website. It's open daily from 08:00-22:00, and its coordinates are (36.8472589, 11.091058).
+Restaurant is a family-friendly restaurant located in Kelibia, Tunisia. It offers a variety of dishes, including traditional Tunisian cuisine and international fare. The restaurant is located at the coordinates (36.8472589, 11.091058) and has a rating of 5.0 out of 5 stars on Google Maps.
+Station Louage Kelibia is a taxi service located in Kelibia, Tunisia (36.84757, 11.09386). With a rating of 3.7 out of 5 based on 28 reviews, it offers reliable transportation services to its customers.
+SRTGN (station Kelibia) is a bus station located in Kelibia with the coordinates (36.84757, 11.09386). It offers bus services to various destinations.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7522,14 +11074,77 @@
       </c>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>If you're in kelibia and looking for a great restaurant, check out La Padella Kelibia located at R3WR+RPR La Padella Kelibia, shr` lshhyd Hmdy lGrby. 
-This top-rated restaurant is perfect for Restaurant lovers. 
-With a rating of 4.6, it's a must-visit spot. It's open during these hours: 08:00-00:00, but closed on []. To get there, use these GPS coordinates: 36.8363146, 11.1113262. For more details, call them at 28 116 100.</t>
+          <t>La Padella Kelibia is a reputable restaurant located in Kelibia. It boasts an impressive 4.6 rating based on 8 reviews, indicating its popularity and high quality. Open from 8 AM to midnight every day, La Padella Kelibia offers a wide range of dishes to cater to its diverse clientele. The restaurant's prime location at 36.8363146 latitude and 11.1113262 longitude makes it easily accessible to both locals and tourists. With its convenient hours and delicious offerings, La Padella Kelibia is the go-to destination for dining in Kelibia.</t>
         </is>
       </c>
       <c r="AA65" t="inlineStr">
         <is>
-          <t>If you're in Kelibia seeking a highly rated restaurant with a 4.6 rating, providing a perfect ambiance for Restaurant enthusiasts, what is its name and where is it conveniently located?</t>
+          <t>**Day Plan:**
+**Morning:**
+* Explore the historical Fort de Kelibia for stunning views and a glimpse into the region's past.
+**Mid-Morning:**
+* Visit the Phare de Kelibia for breathtaking panoramic views.
+**Midday:**
+* Indulge in local cuisine at El Bahri Restaurant, renowned for its delectable seafood dishes.
+**Afternoon:**
+* Relax and unwind at the beach of Plage Kelibia, enjoying sunbathing, swimming, or windsurfing.
+**Evening:**
+* Take a guided tour of the Cap-Bon Kelibia Beach Hotel &amp; Spa for an exclusive look at its luxurious amenities and stunning beachfront location.
+**Night:**
+* Dance the night away at Marbrerie Hafefh Kacem, a lively discotheque with a vibrant atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB65" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Story coffee kelibia is a cafe located in Kelibia, Tunisia. It has a 5.0 rating based on 4 reviews. The cafe is open 24 hours a day and is located at the address Story coffee kelibia, 8090 Avenu Militant Abdelkader Dardouri, Kelibia. The cafe's main category is Cafe.
+Hannibal coffee kelibia is a tea room located in kelibia, Tunisia. It offers a variety of teas, coffees, and pastries. The tea room is located at 36.8363146, 11.1113262.
+Street Food Kelibia is a restaurant located in Kelibia, Tunisia at the following coordinates: (36.848013989197, 11.098336416111). The restaurant serves a variety of dishes and is rated 4.0 out of 5 stars based on 1 review. It is open from 09:00 to 00:00 and closed on .
+Kelibia Paradise is a lodging facility located in Kelibia, Tunisia. It has a rating of 4.6 and has received 18 reviews. The facility offers accommodation with a main focus on comfort and relaxation. Its geolocation is at longitude 11.098431810317 and latitude 36.846063992403.
+Nestled in the picturesque Kelibia region, Cap-Bon Kelibia Beach Hotel &amp; Spa is an upscale resort offering 562 warmly designed rooms and suites. With its stunning beachfront location and serene ambiance, the hotel is an ideal destination for leisure and relaxation. It features an array of amenities, including a rejuvenating spa, three refined dining options, and an inviting swimming pool, ensuring an unforgettable stay in the heart of Kelibia.
+Dar Meriem - Maison d'hôtes is a guest house located in Kelibia, Tunisia. It offers comfortable accommodation and a warm and welcoming atmosphere. The guest house is perfectly situated for exploring the city and its surroundings, and is close to a variety of amenities. The guest house is managed by a friendly and helpful team of staff who are always on hand to assist guests with any queries or needs.
+Residence Asma is a 4.4-rated residence located in Kelibia, Tunisia. It is a great place to stay for tourists and business travelers alike. The residence offers a variety of amenities, including a swimming pool, a fitness center, and a restaurant. It is also conveniently located near the beach, the city center, and the airport. The residence has 14 reviews, all of which are positive. Guests praise the residence's cleanliness, comfort, and friendly staff.
+Pension Anis is a 4-star family-run guesthouse located in Kelibia, Tunisia. It features a prime location on Av du Dr Mongi Ben Hmida. Guests can enjoy comfortable accommodations with great value. The guesthouse offers a range of amenities to ensure a pleasant stay, including free Wi-Fi, laundry service, and a friendly atmosphere. Its central location provides easy access to local attractions and points of interest.
+The Casa Del Mar Residence is a 4.3-rated guesthouse located in Kelibia, Tunisia. It is situated near the beach and offers a relaxing getaway for guests. The Residence has received positive reviews for its comfortable accommodations and friendly staff.
+Dar Lebharr is a cozy accommodation located in Kelibia, Tunisia. It offers a comfortable stay with a rating of 4.1 out of 5. Situated at 36.835428078688 latitude and 11.091149597327 longitude, it's easily accessible. Contact them at +33 7 81 09 91 78 for bookings or inquiries.
+Luxus Apartements is a 5-star lodge located in Kelibia, Tunisia. It offers a luxurious and comfortable stay for its guests. The lodge is situated near the beach, making it a great place to relax and enjoy the beautiful scenery. Luxus Apartements is also close to many restaurants, shops, and attractions. The lodge's staff is friendly and helpful, and they are always willing to go the extra mile to make sure that their guests have a memorable stay.
+Plage Kelibia, located at (36.84757, 11.09386), offers a picturesque beachfront experience in the city of Kelibia.
+Fort de Kelibia is a historical fortress located in Kelibia, Tunisia. It offers stunning views of the Mediterranean Sea and the port. The castle boasts a rich history and architectural significance. Visitors can explore the castle's ramparts, towers, and courtyards, and delve into the region's captivating past. With a 4.4-star rating, the fort is a popular destination for tourists and history enthusiasts alike. Its strategic location makes it a great spot to capture panoramic shots of the surrounding area.
+Plage kelibia is a popular tourist attraction located in Kelibia, Tunisia. It offers a wide range of activities, including swimming, sunbathing, and windsurfing. The beach is also home to a number of restaurants and cafes.
+The beach is located just a short drive from the city center and is easily accessible by public transportation. The beach is well-maintained and features clear blue waters and soft white sand.
+Plage kelibia is a great place to relax and enjoy the beautiful weather of Tunisia. It is also a great location to enjoy some water sports.
+The Port of Kelibia is a maritime port located in Kelibia, Tunisia. The port offers a variety of services to its customers, including fishing, cargo, and passenger transport. It is also a popular tourist destination, with many visitors coming to enjoy the beautiful scenery and the fresh seafood. The port is located at (36.8351444, 11.1116178).
+Discover the stunning Phare de Kelibia, a captivating viewpoint located at (36.8363146, 11.1113262) in Kelibia, Tunisia. Immerse yourself in the breathtaking panoramic views from the lighthouse's vantage point, making it an ideal spot for photography enthusiasts and nature lovers alike.
+The Institut superieur des etudes technologiques de Kelibia is a higher education institute located in Kelibia, Tunisia. It offers a range of technological programs and has a rating of 4.4 stars. The institute is situated at the coordinates (36.8363146, 11.1113262) and can be contacted by phone at 72 277 090. Its website is http://www.isetkl.rnu.tn/.
+Kelibia is a place located in Kelibia, Tunisia. It has a bike rental service, with a 4.2 rating based on 6 reviews. It is located at coordinates (36.836660524289, 11.111146140921).
+Marbrerie Hafefh Kacem is a popular discotheque located in Kelibia, Tunisia. It has a rating of 4.0 out of 5 on Google Maps and is known for its vibrant atmosphere and lively music. The discotheque is located at (36.8472589, 11.091058) and offers a variety of music genres to cater to different tastes. It is a popular destination for locals and tourists alike, and is a great place to dance the night away.
+El Bahri Restaurant is a seafood restaurant located in Kelibia, Tunisia. It is a popular spot for tourists and locals alike, and it offers a variety of seafood dishes, including fresh fish, grilled octopus, and seafood platters. The restaurant is open 24 hours a day, and it is closed on Tuesdays. The average rating for El Bahri Restaurant is 4.7 stars, and it has received positive reviews for its delicious food, friendly staff, and reasonable prices.
+Del Capo is a 5-star rated pizzeria located in Kelibia, Tunisia. It is situated at the address: 8090 Av. de Martyrs with coordinates (36.842587762817, 11.099081841049). This highly-rated spot operates from 12:00 to 00:00 during the week and offers a delectable range of pizzas.
+Restaurant is a family-friendly restaurant located in Kelibia, Tunisia. It offers a variety of dishes, including traditional Tunisian cuisine and international fare. The restaurant is located at the coordinates (36.8472589, 11.091058) and has a rating of 5.0 out of 5 stars on Google Maps.
+Station Louage Kelibia is a taxi service located in Kelibia, Tunisia (36.84757, 11.09386). With a rating of 3.7 out of 5 based on 28 reviews, it offers reliable transportation services to its customers.
+SRTGN's station is located in Kelibia, Tunisia. It offers bus services to various destinations. The station is located at the coordinates (36.84757, 11.09386).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7631,14 +11246,11 @@
       </c>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>If you're in kelibia and looking for something fun to do, check out Del Capo located at Del Capo, 8090 Av. de Martyrs, Kelibia. This top-rated destination is perfect for Pizzeria lovers and offers a range of Pizzeria to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 12:00-00:00, but closed on []. To get there, use these GPS coordinates: 36.842587762817, 11.099081841049. For more details, visit their website at https://www.google.com/maps/place/Del+Capo/data=!4m7!3m6!1s0x131d33f9b1d70785:0xd89fe08b10382944!8m2!3d36.8457274!4d11.0943722!16s%2Fg%2F11n04tk91w!19sChIJhQfXsfkzHRMRRCk4EIvgn9g?authuser=0&amp;hl=fr&amp;rclk=1.</t>
-        </is>
-      </c>
-      <c r="AA66" t="inlineStr">
-        <is>
-          <t>Where can you find a highly rated Pizzeria with a wide selection of options located in Kelibia?</t>
-        </is>
-      </c>
+          <t>Del Capo is a 5-star rated pizzeria located in Kelibia, Tunisia. It is situated at the address: 8090 Av. de Martyrs with coordinates (36.842587762817, 11.099081841049). This highly-rated spot operates from 12:00 to 00:00 during the week and offers a delectable range of pizzas.</t>
+        </is>
+      </c>
+      <c r="AA66" t="inlineStr"/>
+      <c r="AB66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -7738,14 +11350,71 @@
       </c>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>If you're in kelibia and looking for a delightful dining experience, head to Restaurant Tulipe located at R4R2+2V4 Restaurant Tulipe, Av. de l'environnement. 
-This top-rated restaurant is perfect for Restaurant lovers and offers a range of Restaurant categories to choose from. 
-With a rating of 4.1, it's a must-visit spot. It's open during these hours: 12:00-02:00. To get there, use these GPS coordinates: 36.835428078688, 11.091149597327. For more details, visit their website at  or call them at 26 205 522.</t>
+          <t>Restaurant Tulipe is located in Kelibia, Tunisia at the coordinates (36.835428078688, 11.091149597327). The restaurant has received a 4.1 rating based on 7 reviews and specializes in Restaurant cuisine. It is open from 12:00-02:00 and is closed on . The restaurant's phone number is 26 205 522.</t>
         </is>
       </c>
       <c r="AA67" t="inlineStr">
         <is>
-          <t>Where in Kelibia can you find a highly-rated restaurant with a delightful dining experience, located at GPS coordinates 36.835428078688, 11.091149597327?</t>
+          <t>Day Plan:
+Morning: Exploring Fort de Kelibia
+Mid-Morning: Visiting Phare de Kelibia for scenic views
+Midday: Trying local cuisine at El Bahri Restaurant
+Afternoon: Relaxing with a swim at Plage Kelibia
+Evening: Participating in a guided tour of the Institut superieur des etudes technologiques de Kelibia
+Night: Enjoying scenic views at Phare de Kelibia and dining at "La Luna"</t>
+        </is>
+      </c>
+      <c r="AB67" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Chikh Hammouda, located in Kelibia at 8090 ave Ali Belhouane, is a 4.3-rated cafe open from 4 AM to 10 PM, offering a cozy ambiance for coffee and relaxation. With three reviews and a featured image showcasing its inviting atmosphere, this cafe is a popular spot in the Kelibia area.
+Hannibal coffee kelibia is a tea room located in kelibia, Tunisia. It offers a variety of teas, coffees, and pastries. The tea room is located at 36.8363146, 11.1113262.
+La Padella Kelibia is a reputable restaurant located in Kelibia. It boasts an impressive 4.6 rating based on 8 reviews, indicating its popularity and high quality. Open from 8 AM to midnight every day, La Padella Kelibia offers a wide range of dishes to cater to its diverse clientele. The restaurant's prime location at 36.8363146 latitude and 11.1113262 longitude makes it easily accessible to both locals and tourists. With its convenient hours and delicious offerings, La Padella Kelibia is the go-to destination for dining in Kelibia.
+Kelibia Paradise is a lodging facility located in Kelibia, Tunisia. It has a rating of 4.6 and has received 18 reviews. The facility offers accommodation with a main focus on comfort and relaxation. Its geolocation is at longitude 11.098431810317 and latitude 36.846063992403.
+Nestled in the picturesque Kelibia region, Cap-Bon Kelibia Beach Hotel &amp; Spa is an upscale resort offering 562 warmly designed rooms and suites. With its stunning beachfront location and serene ambiance, the hotel is an ideal destination for leisure and relaxation. It features an array of amenities, including a rejuvenating spa, three refined dining options, and an inviting swimming pool, ensuring an unforgettable stay in the heart of Kelibia.
+Dar Meriem - Maison d'hôtes is a guest house located in Kelibia, Tunisia. It offers comfortable accommodation and a warm and welcoming atmosphere. The guest house is perfectly situated for exploring the city and its surroundings, and is close to a variety of amenities. The guest house is managed by a friendly and helpful team of staff who are always on hand to assist guests with any queries or needs.
+Residence Asma is a 4.4-rated residence located in Kelibia, Tunisia. It is a great place to stay for tourists and business travelers alike. The residence offers a variety of amenities, including a swimming pool, a fitness center, and a restaurant. It is also conveniently located near the beach, the city center, and the airport. The residence has 14 reviews, all of which are positive. Guests praise the residence's cleanliness, comfort, and friendly staff.
+Pension Anis is a 4-star family-run guesthouse located in Kelibia, Tunisia. It features a prime location on Av du Dr Mongi Ben Hmida. Guests can enjoy comfortable accommodations with great value. The guesthouse offers a range of amenities to ensure a pleasant stay, including free Wi-Fi, laundry service, and a friendly atmosphere. Its central location provides easy access to local attractions and points of interest.
+The Casa Del Mar Residence is a 4.3-rated guesthouse located in Kelibia, Tunisia. It is situated near the beach and offers a relaxing getaway for guests. The Residence has received positive reviews for its comfortable accommodations and friendly staff.
+Dar Lebharr is a cozy accommodation located in Kelibia, Tunisia. It offers a comfortable stay with a rating of 4.1 out of 5. Situated at 36.835428078688 latitude and 11.091149597327 longitude, it's easily accessible. Contact them at +33 7 81 09 91 78 for bookings or inquiries.
+Luxus Apartements is a 5-star lodge located in Kelibia, Tunisia. It offers a luxurious and comfortable stay for its guests. The lodge is situated near the beach, making it a great place to relax and enjoy the beautiful scenery. Luxus Apartements is also close to many restaurants, shops, and attractions. The lodge's staff is friendly and helpful, and they are always willing to go the extra mile to make sure that their guests have a memorable stay.
+Plage Kelibia, located at (36.84757, 11.09386), offers a picturesque beachfront experience in the city of Kelibia.
+Fort de Kelibia, located in Kelibia, is a historical fortress with an average rating of 4.4 out of 5 based on 460 reviews. It offers a stunning view of the sea, making it a great spot to enjoy the scenery. Visitors can also delve into the history of the fort or simply admire its architectural beauty. With its convenient opening hours from 9:00 AM to 6:00 PM, it's a perfect destination for tourists and history enthusiasts alike.
+Plage kelibia is a popular tourist attraction located in Kelibia, Tunisia. It offers a wide range of activities, including swimming, sunbathing, and windsurfing. The beach is also home to a number of restaurants and cafes.
+The beach is located just a short drive from the city center and is easily accessible by public transportation. The beach is well-maintained and features clear blue waters and soft white sand.
+Plage kelibia is a great place to relax and enjoy the beautiful weather of Tunisia. It is also a great location to enjoy some water sports.
+The Port of Kelibia is a maritime port located in Kelibia, Tunisia. The port offers a variety of services to its customers, including fishing, cargo, and passenger transport. It is also a popular tourist destination, with many visitors coming to enjoy the beautiful scenery and the fresh seafood. The port is located at (36.8351444, 11.1116178).
+Discover the stunning Phare de Kelibia, a captivating viewpoint located at (36.8363146, 11.1113262) in Kelibia, Tunisia. Immerse yourself in the breathtaking panoramic views from the lighthouse's vantage point, making it an ideal spot for photography enthusiasts and nature lovers alike.
+The Institut superieur des etudes technologiques de Kelibia is a higher education institute located in Kelibia, Tunisia. It offers a range of technological programs and has a rating of 4.4 stars. The institute is situated at the coordinates (36.8363146, 11.1113262) and can be contacted by phone at 72 277 090. Its website is http://www.isetkl.rnu.tn/.
+Kelibia is a place located in Kelibia, Tunisia. It has a bike rental service, with a 4.2 rating based on 6 reviews. It is located at coordinates (36.836660524289, 11.111146140921).
+Marbrerie Hafefh Kacem is a popular discotheque located in Kelibia, Tunisia. It has a rating of 4.0 out of 5 on Google Maps and is known for its vibrant atmosphere and lively music. The discotheque is located at (36.8472589, 11.091058) and offers a variety of music genres to cater to different tastes. It is a popular destination for locals and tourists alike, and is a great place to dance the night away.
+El Bahri Restaurant is a seafood restaurant located in Kelibia, Tunisia. It is a popular spot for tourists and locals alike, and it offers a variety of seafood dishes, including fresh fish, grilled octopus, and seafood platters. The restaurant is open 24 hours a day, and it is closed on Tuesdays. The average rating for El Bahri Restaurant is 4.7 stars, and it has received positive reviews for its delicious food, friendly staff, and reasonable prices.
+"La Luna", a 4-star Pizzeria, located in Kelibia, Tunisia. It's reachable by phone and has a website. It's open daily from 08:00-22:00, and its coordinates are (36.8472589, 11.091058).
+Restaurant is a family-friendly restaurant located in Kelibia, Tunisia. It offers a variety of dishes, including traditional Tunisian cuisine and international fare. The restaurant is located at the coordinates (36.8472589, 11.091058) and has a rating of 5.0 out of 5 stars on Google Maps.
+Station Louage Kelibia is a taxi service located in Kelibia, Tunisia (36.84757, 11.09386). With a rating of 3.7 out of 5 based on 28 reviews, it offers reliable transportation services to its customers.
+SRTGN (station Kelibia) is a bus station located in Kelibia with the coordinates (36.84757, 11.09386). It offers bus services to various destinations.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7851,12 +11520,71 @@
       </c>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>If you're in kelibia and looking for a top-rated Restaurant, check out bistro doner located at R3WV+968 bistro doner, Kelibia. This destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.2, it's a must-visit spot. It's open during these hours: 19:00-04:00, but closed on none mentioned. To get there, use these GPS coordinates: 36.8472589, 11.091058. For more details, visit their website at none mentioned or call them at 25 340 024.</t>
+          <t>bistro doner is a restaurant located in Kelibia, Tunisia. It is open late, from 7pm to 4am. It offers a variety of dishes, and has a rating of 4.2 out of 5 stars on Google Maps. The restaurant is located at coordinates (36.8472589, 11.091058).</t>
         </is>
       </c>
       <c r="AA68" t="inlineStr">
         <is>
-          <t>Where in Kelibia can you find a highly rated restaurant perfect for dining enthusiasts?</t>
+          <t>Day Plan:
+Morning: Begin the day by exploring Kelibia Paradise (47 Rue d'orange Cite Ezzouhour, 8090, Kelibia), a renowned accommodation option offering a range of facilities and easy access to local attractions.
+Mid-Morning: Immerse yourself in the flavors of Kelibia at El Bahri Restaurant, known for its exceptional seafood dishes and a friendly ambiance.
+Midday: Visit Fort de Kelibia, a historical fortress boasting stunning views of the Mediterranean Sea. Explore its ramparts, towers, and courtyards to delve into the region's captivating past.
+Afternoon: Spend a leisurely afternoon at Plage Kelibia, enjoying swimming, sunbathing, or indulging in water sports.
+Evening: Take a stroll along the shores of Plage kelibia and witness the picturesque sunset. Capture the beauty of Kelibia's coastline as the sky transforms into vibrant hues.
+Night: End the day with a delectable dinner at Pizzeria LOFT ROMA, renowned for its authentic pizzas and convenient location at R3VW+83Q Rue de Tripoli, Kelibia, Tunisia.</t>
+        </is>
+      </c>
+      <c r="AB68" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Nestled in the heart of Kelibia, Salon de the Mallorca invites you to savor delightful coffee and tea creations in a charming ambiance. Located at R3QX+53H Salon de the Mallorca, Av. de l'environnement, the cafe has earned a commendable 4.3-star rating based on 6 reviews. With its convenient hours and friendly staff, Salon de the Mallorca is the perfect spot to unwind and enjoy a moment of indulgence.
+Hannibal coffee kelibia is a tea room located in kelibia, Tunisia. It offers a variety of teas, coffees, and pastries. The tea room is located at 36.8363146, 11.1113262.
+**mT'm mshw~ lmrshy Resterant Machwa Almarch** is a restaurant located in Kelibia, Tunisia. It is known for its delicious food and friendly service. The restaurant is open from 11am to midnight every day of the week, and offers a variety of dishes including traditional Tunisian cuisine, as well as international dishes. mT'm mshw~ lmrshy Resterant Machwa Almarch is located at R3WV+3VJ mT'm mshw~ lmrshy Resterant Machwa Almarch, Kelibia, Tunisia.
+Kelibia Paradise is a popular accommodation option in Kelibia, Tunisia. It is located at 47 Rue d'orange Cite Ezzouhour, 8090, Kelibia, and offers a range of amenities to its guests. These include a restaurant, bar, and swimming pool, as well as free Wi-Fi and parking. The hotel is situated within easy reach of the beach and other local attractions, making it an ideal base for exploring the area.
+Maison d'hotes / Restaurant L'Hirondelle de Kelibia offers a pleasant stay in a beautiful location just steps from the beach. The hotel features comfortable rooms, a relaxing atmosphere, and welcoming staff. Guests can enjoy delicious meals at the on-site restaurant while admiring the panoramic views of the Mediterranean Sea. With its convenient location and excellent amenities, Maison d'hotes / Restaurant L'Hirondelle de Kelibia is the perfect place for a memorable vacation.
+Dar Meriem - Maison d'hôtes is a guest house located in Kelibia, Tunisia. It offers comfortable accommodation and a warm and welcoming atmosphere. The guest house is perfectly situated for exploring the city and its surroundings, and is close to a variety of amenities. The guest house is managed by a friendly and helpful team of staff who are always on hand to assist guests with any queries or needs.
+Residence Asma is a 4.4-rated residence located in Kelibia, Tunisia. It is a great place to stay for tourists and business travelers alike. The residence offers a variety of amenities, including a swimming pool, a fitness center, and a restaurant. It is also conveniently located near the beach, the city center, and the airport. The residence has 14 reviews, all of which are positive. Guests praise the residence's cleanliness, comfort, and friendly staff.
+Pension Anis is a 4-star family-run guesthouse located in Kelibia, Tunisia. It features a prime location on Av du Dr Mongi Ben Hmida. Guests can enjoy comfortable accommodations with great value. The guesthouse offers a range of amenities to ensure a pleasant stay, including free Wi-Fi, laundry service, and a friendly atmosphere. Its central location provides easy access to local attractions and points of interest.
+The Casa Del Mar Residence is a 4.3-rated guesthouse located in Kelibia, Tunisia. It is situated near the beach and offers a relaxing getaway for guests. The Residence has received positive reviews for its comfortable accommodations and friendly staff.
+Dar Lebharr is a cozy accommodation located in Kelibia, Tunisia. It offers a comfortable stay with a rating of 4.1 out of 5. Situated at 36.835428078688 latitude and 11.091149597327 longitude, it's easily accessible. Contact them at +33 7 81 09 91 78 for bookings or inquiries.
+Luxus Apartements is a 5-star lodge located in Kelibia, Tunisia at (36.835428078688, 11.091149597327). It has a rating of 5.0 based on 1 review and is owned by Luxus Apartements (proprietaire). Luxus Apartements offers a variety of amenities and services, making it the perfect place to stay for both business and leisure travelers.
+Plage Kelibia, located at (36.84757, 11.09386), offers a picturesque beachfront experience in the city of Kelibia.
+Fort de Kelibia is a historical fortress located in Kelibia, Tunisia. It offers stunning views of the Mediterranean Sea and the port. The castle boasts a rich history and architectural significance. Visitors can explore the castle's ramparts, towers, and courtyards, and delve into the region's captivating past. With a 4.4-star rating, the fort is a popular destination for tourists and history enthusiasts alike. Its strategic location makes it a great spot to capture panoramic shots of the surrounding area.
+Plage kelibia is a popular tourist attraction located in Kelibia, Tunisia. It offers a wide range of activities, including swimming, sunbathing, and windsurfing. The beach is also home to a number of restaurants and cafes.
+The beach is located just a short drive from the city center and is easily accessible by public transportation. The beach is well-maintained and features clear blue waters and soft white sand.
+Plage kelibia is a great place to relax and enjoy the beautiful weather of Tunisia. It is also a great location to enjoy some water sports.
+The Port of Kelibia is a maritime port located in Kelibia, Tunisia. The port offers a variety of services to its customers, including fishing, cargo, and passenger transport. It is also a popular tourist destination, with many visitors coming to enjoy the beautiful scenery and the fresh seafood. The port is located at (36.8351444, 11.1116178).
+Discover the stunning Phare de Kelibia, a captivating viewpoint located at (36.8363146, 11.1113262) in Kelibia, Tunisia. Immerse yourself in the breathtaking panoramic views from the lighthouse's vantage point, making it an ideal spot for photography enthusiasts and nature lovers alike.
+The Institut superieur des etudes technologiques de Kelibia is a higher education institute located in Kelibia, Tunisia. It offers a range of technological programs and has a rating of 4.4 stars. The institute is situated at the coordinates (36.8363146, 11.1113262) and can be contacted by phone at 72 277 090. Its website is http://www.isetkl.rnu.tn/.
+Kelibia is a place located in Kelibia, Tunisia. It has a bike rental service, with a 4.2 rating based on 6 reviews. It is located at coordinates (36.836660524289, 11.111146140921).
+Marbrerie Hafefh Kacem is a popular discotheque located in Kelibia, Tunisia. It has a rating of 4.0 out of 5 on Google Maps and is known for its vibrant atmosphere and lively music. The discotheque is located at (36.8472589, 11.091058) and offers a variety of music genres to cater to different tastes. It is a popular destination for locals and tourists alike, and is a great place to dance the night away.
+El Bahri Restaurant is a seafood restaurant located in Kelibia, Tunisia. It is a popular spot for tourists and locals alike, and it offers a variety of seafood dishes, including fresh fish, grilled octopus, and seafood platters. The restaurant is open 24 hours a day, and it is closed on Tuesdays. The average rating for El Bahri Restaurant is 4.7 stars, and it has received positive reviews for its delicious food, friendly staff, and reasonable prices.
+Pizzeria LOFT ROMA is a 4.2-rated pizzeria located in kelibia, Tunisia. It operates from 08:00 to 00:00 every day and offers a wide range of pizzas. Its exact location is at R3VW+83Q Rue de Tripoli, Kelibia, Tunisia.
+Restaurant is a family-friendly restaurant located in Kelibia, Tunisia. It offers a variety of dishes, including traditional Tunisian cuisine and international fare. The restaurant is located at the coordinates (36.8472589, 11.091058) and has a rating of 5.0 out of 5 stars on Google Maps.
+Station Louage Kelibia is a taxi service located in Kelibia, Tunisia (36.84757, 11.09386). With a rating of 3.7 out of 5 based on 28 reviews, it offers reliable transportation services to its customers.
+SRTGN (station Kelibia) is a bus station located in Kelibia, Tunisia. It offers basic amenities and services for travelers, and is conveniently situated at (36.84757, 11.09386).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7958,12 +11686,71 @@
       </c>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>If you're in kelibia and looking for something fun to do, check out La Luna located at R3VW+JJR La Luna, Kelibia. This top-rated destination is perfect for Pizzeria lovers and offers a range of Pizzeria to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 08:00-22:00. To get there, use these GPS coordinates: 36.8472589, 11.091058.</t>
+          <t>"La Luna", a 4-star Pizzeria, located in Kelibia, Tunisia. It's reachable by phone and has a website. It's open daily from 08:00-22:00, and its coordinates are (36.8472589, 11.091058).</t>
         </is>
       </c>
       <c r="AA69" t="inlineStr">
         <is>
-          <t>Where in Kelibia can you find a highly-rated Pizzeria destination called La Luna?</t>
+          <t>Day Plan:
+Morning: Explore Fort de Kelibia for stunning views of the Mediterranean Sea.
+Mid-Morning: Visit the Institut superieur des etudes technologiques de Kelibia to learn about technological advancements.
+Midday: Indulge in a delicious seafood lunch at El Bahri Restaurant.
+Afternoon: Relax and enjoy sunbathing and swimming at Plage Kelibia.
+Evening: Experience the local nightlife at Marbrerie Hafefh Kacem, known for its vibrant atmosphere and lively music.
+Night: Return to your comfortable accommodation at Casa Del Mar Residence for a peaceful night's rest.</t>
+        </is>
+      </c>
+      <c r="AB69" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Café Duplex is a popular café located in Kelibia, known for its cozy atmosphere and delicious coffee. Café Duplex is a popular destination for locals and tourists alike, and it offers a variety of coffees, teas, and snacks. The café is located at 58 Rue Taieb Sardouk, Kelibia, and it is open from 8am to 10pm, seven days a week.
+Hannibal coffee kelibia is a tea room located in kelibia, Tunisia. It offers a variety of teas, coffees, and pastries. The tea room is located at 36.8363146, 11.1113262.
+bistro doner is a restaurant located in Kelibia, Tunisia. It is open late, from 7pm to 4am. It offers a variety of dishes, and has a rating of 4.2 out of 5 stars on Google Maps. The restaurant is located at coordinates (36.8472589, 11.091058).
+Myriam Bel Air is a popular hotel located in Kelibia, Tunisia. It offers a comfortable and convenient stay for its guests, with a 4.2-star rating on Google. The hotel has 14 reviews, with an overall positive feedback from its guests. It provides a range of amenities, including comfortable rooms, a swimming pool, and a restaurant. The hotel's website features additional information and booking options, and it is well-connected with major tourist attractions in the area.
+Maison d'hotes / Restaurant L'Hirondelle de Kelibia offers a pleasant stay in a beautiful location just steps from the beach. The hotel features comfortable rooms, a relaxing atmosphere, and welcoming staff. Guests can enjoy delicious meals at the on-site restaurant while admiring the panoramic views of the Mediterranean Sea. With its convenient location and excellent amenities, Maison d'hotes / Restaurant L'Hirondelle de Kelibia is the perfect place for a memorable vacation.
+DAR COLIBRI, a 4.6-rated guesthouse located in Kelibia (36.8363146, 11.1113262), offers a unique stay in a charming setting. It features a swimming pool, hammam, and massage services, promising a relaxing and rejuvenating experience. With its proximity to the beautiful beaches of Kelibia, this guesthouse is an ideal base for exploring the region's natural wonders.
+Residence Asma is a 4.4-rated residence located in Kelibia, Tunisia. It is a great place to stay for tourists and business travelers alike. The residence offers a variety of amenities, including a swimming pool, a fitness center, and a restaurant. It is also conveniently located near the beach, the city center, and the airport. The residence has 14 reviews, all of which are positive. Guests praise the residence's cleanliness, comfort, and friendly staff.
+Pension Anis is a 4-star family-run guesthouse located in Kelibia, Tunisia. It features a prime location on Av du Dr Mongi Ben Hmida. Guests can enjoy comfortable accommodations with great value. The guesthouse offers a range of amenities to ensure a pleasant stay, including free Wi-Fi, laundry service, and a friendly atmosphere. Its central location provides easy access to local attractions and points of interest.
+The Casa Del Mar Residence is a 4.3-rated guesthouse located in Kelibia, Tunisia. It is situated near the beach and offers a relaxing getaway for guests. The Residence has received positive reviews for its comfortable accommodations and friendly staff.
+Dar Lebharr is a cozy accommodation located in Kelibia, Tunisia. It offers a comfortable stay with a rating of 4.1 out of 5. Situated at 36.835428078688 latitude and 11.091149597327 longitude, it's easily accessible. Contact them at +33 7 81 09 91 78 for bookings or inquiries.
+Luxus Apartements is a 5-star lodge located in Kelibia, Tunisia. It offers a luxurious and comfortable stay for its guests. The lodge is situated near the beach, making it a great place to relax and enjoy the beautiful scenery. Luxus Apartements is also close to many restaurants, shops, and attractions. The lodge's staff is friendly and helpful, and they are always willing to go the extra mile to make sure that their guests have a memorable stay.
+Plage Kelibia, located at (36.84757, 11.09386), offers a picturesque beachfront experience in the city of Kelibia.
+Fort de Kelibia is a historical fortress located in Kelibia, Tunisia. It offers stunning views of the Mediterranean Sea and the port. The castle boasts a rich history and architectural significance. Visitors can explore the castle's ramparts, towers, and courtyards, and delve into the region's captivating past. With a 4.4-star rating, the fort is a popular destination for tourists and history enthusiasts alike. Its strategic location makes it a great spot to capture panoramic shots of the surrounding area.
+Plage kelibia is a popular tourist attraction located in Kelibia, Tunisia. It offers a wide range of activities, including swimming, sunbathing, and windsurfing. The beach is also home to a number of restaurants and cafes.
+The beach is located just a short drive from the city center and is easily accessible by public transportation. The beach is well-maintained and features clear blue waters and soft white sand.
+Plage kelibia is a great place to relax and enjoy the beautiful weather of Tunisia. It is also a great location to enjoy some water sports.
+The Port of Kelibia is a maritime port located in Kelibia, Tunisia. The port offers a variety of services to its customers, including fishing, cargo, and passenger transport. It is also a popular tourist destination, with many visitors coming to enjoy the beautiful scenery and the fresh seafood. The port is located at (36.8351444, 11.1116178).
+Discover the stunning Phare de Kelibia, a captivating viewpoint located at (36.8363146, 11.1113262) in Kelibia, Tunisia. Immerse yourself in the breathtaking panoramic views from the lighthouse's vantage point, making it an ideal spot for photography enthusiasts and nature lovers alike.
+The Institut superieur des etudes technologiques de Kelibia is a higher education institute located in Kelibia, Tunisia. It offers a range of technological programs and has a rating of 4.4 stars. The institute is situated at the coordinates (36.8363146, 11.1113262) and can be contacted by phone at 72 277 090. Its website is http://www.isetkl.rnu.tn/.
+Kelibia is a place located in Kelibia, Tunisia. It has a bike rental service, with a 4.2 rating based on 6 reviews. It is located at coordinates (36.836660524289, 11.111146140921).
+Marbrerie Hafefh Kacem is a popular discotheque located in Kelibia, Tunisia. It has a rating of 4.0 out of 5 on Google Maps and is known for its vibrant atmosphere and lively music. The discotheque is located at (36.8472589, 11.091058) and offers a variety of music genres to cater to different tastes. It is a popular destination for locals and tourists alike, and is a great place to dance the night away.
+El Bahri Restaurant is a seafood restaurant located in Kelibia, Tunisia. It is a popular spot for tourists and locals alike, and it offers a variety of seafood dishes, including fresh fish, grilled octopus, and seafood platters. The restaurant is open 24 hours a day, and it is closed on Tuesdays. The average rating for El Bahri Restaurant is 4.7 stars, and it has received positive reviews for its delicious food, friendly staff, and reasonable prices.
+Pizzeria LOFT ROMA is a 4.2-rated pizzeria located in kelibia, Tunisia. It operates from 08:00 to 00:00 every day and offers a wide range of pizzas. Its exact location is at R3VW+83Q Rue de Tripoli, Kelibia, Tunisia.
+Restaurant is a family-friendly restaurant located in Kelibia, Tunisia. It offers a variety of dishes, including traditional Tunisian cuisine and international fare. The restaurant is located at the coordinates (36.8472589, 11.091058) and has a rating of 5.0 out of 5 stars on Google Maps.
+Station Louage Kelibia is a taxi service located in Kelibia, Tunisia (36.84757, 11.09386). With a rating of 3.7 out of 5 based on 28 reviews, it offers reliable transportation services to its customers.
+SRTGN (station Kelibia) is a bus station located in Kelibia, Tunisia. It offers basic amenities and services for travelers, and is conveniently situated at (36.84757, 11.09386).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -8069,12 +11856,69 @@
       </c>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>If you're in kelibia and looking for a great place to eat, check out Barhoumi Center located at V42F+FP4 Barhoumi Center, place de la plage, Kelibia. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 08:00-00:00. To get there, use these GPS coordinates: 36.8472589, 11.091058. For more details, visit their website or call them at 98 642 591.</t>
+          <t>Barhoumi Center is a 4.0-rated restaurant situated in Kelibia, Tunisia, serving delicious food. Open from 8:00 AM to midnight, the restaurant offers a welcoming ambiance and friendly service. Located at coordinates (36.8472589, 11.091058), it's easily accessible and boasts a convenient location.</t>
         </is>
       </c>
       <c r="AA70" t="inlineStr">
         <is>
-          <t>Where can you find a must-visit restaurant destination in Kelibia, known for its exceptional Restaurant offerings and a 4.0 rating?</t>
+          <t>Day Plan:
+Morning: Exploring the historical Fort de Kelibia
+Mid-Morning: Visiting the captivating Phare de Kelibia for panoramic views
+Midday: Trying local cuisine at the highly-rated El Bahri Restaurant
+Afternoon: Relaxing with a rejuvenating massage at the DAR COLIBRI guesthouse
+Evening: Enjoying a delicious dinner at the 5-star Del Capo pizzeria
+Night: Dancing the night away at the vibrant Marbrerie Hafefh Kacem discotheque</t>
+        </is>
+      </c>
+      <c r="AB70" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Jeune is a highly-rated (5/5) cafe in Kelibia, Tunisia. Located at coordinates (36.8472589, 11.091058), it is easily accessible and offers a cozy ambiance perfect for enjoying a cup of coffee or tea. The cafe is known for its friendly owner and excellent service, making it a popular spot among locals and visitors alike.
+Located in Kelibia (latitude 36.836660524289, and longitude 11.111146140921), Big Ben is a teahouse offering a pleasant setting to relax and enjoy a break.
+Barhoumi Center is a 4.0-rated restaurant situated in Kelibia, Tunisia, serving delicious food. Open from 8:00 AM to midnight, the restaurant offers a welcoming ambiance and friendly service. Located at coordinates (36.8472589, 11.091058), it's easily accessible and boasts a convenient location.
+Myriam Bel Air is a popular hotel located in Kelibia, Tunisia. It offers a comfortable and convenient stay for its guests, with a 4.2-star rating on Google. The hotel has 14 reviews, with an overall positive feedback from its guests. It provides a range of amenities, including comfortable rooms, a swimming pool, and a restaurant. The hotel's website features additional information and booking options, and it is well-connected with major tourist attractions in the area.
+Nestled in the picturesque Kelibia region, Cap-Bon Kelibia Beach Hotel &amp; Spa is an upscale resort offering 562 warmly designed rooms and suites. With its stunning beachfront location and serene ambiance, the hotel is an ideal destination for leisure and relaxation. It features an array of amenities, including a rejuvenating spa, three refined dining options, and an inviting swimming pool, ensuring an unforgettable stay in the heart of Kelibia.
+DAR COLIBRI, a 4.6-rated guesthouse located in Kelibia (36.8363146, 11.1113262), offers a unique stay in a charming setting. It features a swimming pool, hammam, and massage services, promising a relaxing and rejuvenating experience. With its proximity to the beautiful beaches of Kelibia, this guesthouse is an ideal base for exploring the region's natural wonders.
+Residence Asma is a 4.4-rated residence located in Kelibia, Tunisia. It is a great place to stay for tourists and business travelers alike. The residence offers a variety of amenities, including a swimming pool, a fitness center, and a restaurant. It is also conveniently located near the beach, the city center, and the airport. The residence has 14 reviews, all of which are positive. Guests praise the residence's cleanliness, comfort, and friendly staff.
+Pension Anis is a 4-star family-run guesthouse located in Kelibia, Tunisia. It features a prime location on Av du Dr Mongi Ben Hmida. Guests can enjoy comfortable accommodations with great value. The guesthouse offers a range of amenities to ensure a pleasant stay, including free Wi-Fi, laundry service, and a friendly atmosphere. Its central location provides easy access to local attractions and points of interest.
+The Casa Del Mar Residence is a 4.3-rated guesthouse located in Kelibia, Tunisia. It is situated near the beach and offers a relaxing getaway for guests. The Residence has received positive reviews for its comfortable accommodations and friendly staff.
+Dar Lebharr is a cozy accommodation located in Kelibia, Tunisia. It offers a comfortable stay with a rating of 4.1 out of 5. Situated at 36.835428078688 latitude and 11.091149597327 longitude, it's easily accessible. Contact them at +33 7 81 09 91 78 for bookings or inquiries.
+Luxus Apartements is a 5-star lodge located in Kelibia, Tunisia. It offers a luxurious and comfortable stay for its guests. The lodge is situated near the beach, making it a great place to relax and enjoy the beautiful scenery. Luxus Apartements is also close to many restaurants, shops, and attractions. The lodge's staff is friendly and helpful, and they are always willing to go the extra mile to make sure that their guests have a memorable stay.
+Plage Kelibia, located at (36.84757, 11.09386), offers a picturesque beachfront experience in the city of Kelibia.
+Fort de Kelibia, located in Kelibia, is a historical fortress with an average rating of 4.4 out of 5 based on 460 reviews. It offers a stunning view of the sea, making it a great spot to enjoy the scenery. Visitors can also delve into the history of the fort or simply admire its architectural beauty. With its convenient opening hours from 9:00 AM to 6:00 PM, it's a perfect destination for tourists and history enthusiasts alike.
+Plage Kelibia is a tourist attraction located at the coordinates (36.84757, 11.09386) in Kelibia, Tunisia. With a rating of 4.6 based on 37 reviews, it is a popular destination for tourists. The beach offers a range of activities and amenities, including swimming, sunbathing, and beach volleyball. It is also home to a number of restaurants and cafes, making it a great place to relax and enjoy the scenery.
+The Port of Kelibia is a maritime port located in Kelibia, Tunisia. The port offers a variety of services to its customers, including fishing, cargo, and passenger transport. It is also a popular tourist destination, with many visitors coming to enjoy the beautiful scenery and the fresh seafood. The port is located at (36.8351444, 11.1116178).
+Discover the stunning Phare de Kelibia, a captivating viewpoint located at (36.8363146, 11.1113262) in Kelibia, Tunisia. Immerse yourself in the breathtaking panoramic views from the lighthouse's vantage point, making it an ideal spot for photography enthusiasts and nature lovers alike.
+The Institut superieur des etudes technologiques de Kelibia is a higher education institute located in Kelibia, Tunisia. It offers a range of technological programs and has a rating of 4.4 stars. The institute is situated at the coordinates (36.8363146, 11.1113262) and can be contacted by phone at 72 277 090. Its website is http://www.isetkl.rnu.tn/.
+Kelibia is a place located in Kelibia, Tunisia. It has a bike rental service, with a 4.2 rating based on 6 reviews. It is located at coordinates (36.836660524289, 11.111146140921).
+Marbrerie Hafefh Kacem is a popular discotheque located in Kelibia, Tunisia. It has a rating of 4.0 out of 5 on Google Maps and is known for its vibrant atmosphere and lively music. The discotheque is located at (36.8472589, 11.091058) and offers a variety of music genres to cater to different tastes. It is a popular destination for locals and tourists alike, and is a great place to dance the night away.
+El Bahri Restaurant is a seafood restaurant located in Kelibia, Tunisia. It is a popular spot for tourists and locals alike, and it offers a variety of seafood dishes, including fresh fish, grilled octopus, and seafood platters. The restaurant is open 24 hours a day, and it is closed on Tuesdays. The average rating for El Bahri Restaurant is 4.7 stars, and it has received positive reviews for its delicious food, friendly staff, and reasonable prices.
+Del Capo is a 5-star rated pizzeria located in Kelibia, Tunisia. It is situated at the address: 8090 Av. de Martyrs with coordinates (36.842587762817, 11.099081841049). This highly-rated spot operates from 12:00 to 00:00 during the week and offers a delectable range of pizzas.
+Restaurant is a family-friendly restaurant located in Kelibia, Tunisia. It offers a variety of dishes, including traditional Tunisian cuisine and international fare. The restaurant is located at the coordinates (36.8472589, 11.091058) and has a rating of 5.0 out of 5 stars on Google Maps.
+Station Louage Kelibia is a taxi service located in Kelibia, Tunisia (36.84757, 11.09386). With a rating of 3.7 out of 5 based on 28 reviews, it offers reliable transportation services to its customers.
+SRTGN (station Kelibia) is a bus station located in Kelibia with the coordinates (36.84757, 11.09386). It offers bus services to various destinations.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -8176,12 +12020,77 @@
       </c>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>If you're in kelibia and searching for a top-rated Restaurant, try restaurant sindabed. This superb spot serves amazing dishes and offers a delightful dining experience. With a remarkable rating of 4.7, it's a must-visit destination for food lovers. Their hours of operation are from 08:00-20:00, but they're closed on []. Located at rue ali belhouane, Kelibia 8090, you can reach them by phone at 27 307 802.</t>
+          <t>Restaurant Sindabed is a highly-rated restaurant located in Kelibia, Tunisia. It is open from 8 am to 8 pm and offers a variety of dishes in a pleasant setting. The restaurant is situated at the coordinates (36.8363146, 11.1113262) and can be reached by phone at 27 307 802.</t>
         </is>
       </c>
       <c r="AA71" t="inlineStr">
         <is>
-          <t>If you find yourself craving a delectable meal in Kelibia, what top-rated restaurant with a 4.7 rating is a must-visit destination for food enthusiasts?</t>
+          <t>Day Plan:
+Morning:
+- Take a guided tour of Fort de Kelibia for a captivating glimpse into the region's history and architectural significance.
+Mid-Morning:
+- Explore the vibrant sights and local culture at the bustling souk. Immerse yourself in the local atmosphere and pick up unique souvenirs.
+Midday:
+- Tantalize your taste buds with a delightful lunch at El Bahri Restaurant, known for its delectable seafood dishes and warm hospitality.
+Afternoon:
+- Enjoy a leisurely walk along Plage Kelibia, where you can soak up the sun, relax on the sandy shores, and embrace the picturesque coastal views.
+Evening:
+- Embark on a scenic drive to Phare de Kelibia, where the breathtaking panoramic views offer a perfect backdrop for capturing unforgettable memories.
+Night:
+- Indulge in the vibrant nightlife at Marbrerie Hafefh Kacem discotheque, where you can dance the night away to lively music and immerse yourself in the city's energetic atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB71" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Charbabbou-Chez Jhonny in Kelibia (36.8363146, 11.1113262) is a highly-rated (4.8/5) cafe known for its warm and inviting atmosphere. Open daily from 7 AM to midnight, it's the perfect spot to relax and enjoy a delicious cup of coffee or tea. Cafe Charbabbou-Chez Jhonny welcomes you with open arms and awaits your visit!
+Hannibal coffee kelibia is a tea room located in kelibia, Tunisia. It offers a variety of teas, coffees, and pastries. The tea room is located at 36.8363146, 11.1113262.
+Barhoumi Center is a 4.0-rated restaurant situated in Kelibia, Tunisia, serving delicious food. Open from 8:00 AM to midnight, the restaurant offers a welcoming ambiance and friendly service. Located at coordinates (36.8472589, 11.091058), it's easily accessible and boasts a convenient location.
+Myriam Bel Air is a popular hotel located in Kelibia, Tunisia. It offers a comfortable and convenient stay for its guests, with a 4.2-star rating on Google. The hotel has 14 reviews, with an overall positive feedback from its guests. It provides a range of amenities, including comfortable rooms, a swimming pool, and a restaurant. The hotel's website features additional information and booking options, and it is well-connected with major tourist attractions in the area.
+Maison d'hotes / Restaurant L'Hirondelle de Kelibia offers a pleasant stay in a beautiful location just steps from the beach. The hotel features comfortable rooms, a relaxing atmosphere, and welcoming staff. Guests can enjoy delicious meals at the on-site restaurant while admiring the panoramic views of the Mediterranean Sea. With its convenient location and excellent amenities, Maison d'hotes / Restaurant L'Hirondelle de Kelibia is the perfect place for a memorable vacation.
+DAR COLIBRI, a 4.6-rated guesthouse located in Kelibia (36.8363146, 11.1113262), offers a unique stay in a charming setting. It features a swimming pool, hammam, and massage services, promising a relaxing and rejuvenating experience. With its proximity to the beautiful beaches of Kelibia, this guesthouse is an ideal base for exploring the region's natural wonders.
+Residence Asma is a 4.4-rated residence located in Kelibia, Tunisia. It is a great place to stay for tourists and business travelers alike. The residence offers a variety of amenities, including a swimming pool, a fitness center, and a restaurant. It is also conveniently located near the beach, the city center, and the airport. The residence has 14 reviews, all of which are positive. Guests praise the residence's cleanliness, comfort, and friendly staff.
+Pension Anis is a 4-star family-run guesthouse located in Kelibia, Tunisia. It features a prime location on Av du Dr Mongi Ben Hmida. Guests can enjoy comfortable accommodations with great value. The guesthouse offers a range of amenities to ensure a pleasant stay, including free Wi-Fi, laundry service, and a friendly atmosphere. Its central location provides easy access to local attractions and points of interest.
+The Casa Del Mar Residence is a 4.3-rated guesthouse located in Kelibia, Tunisia. It is situated near the beach and offers a relaxing getaway for guests. The Residence has received positive reviews for its comfortable accommodations and friendly staff.
+Dar Lebharr is a cozy accommodation located in Kelibia, Tunisia. It offers a comfortable stay with a rating of 4.1 out of 5. Situated at 36.835428078688 latitude and 11.091149597327 longitude, it's easily accessible. Contact them at +33 7 81 09 91 78 for bookings or inquiries.
+Luxus Apartements is a 5-star lodge located in Kelibia, Tunisia. It offers a luxurious and comfortable stay for its guests. The lodge is situated near the beach, making it a great place to relax and enjoy the beautiful scenery. Luxus Apartements is also close to many restaurants, shops, and attractions. The lodge's staff is friendly and helpful, and they are always willing to go the extra mile to make sure that their guests have a memorable stay.
+Plage Kelibia, located at (36.84757, 11.09386), offers a picturesque beachfront experience in the city of Kelibia.
+Fort de Kelibia is a historical fortress located in Kelibia, Tunisia. It offers stunning views of the Mediterranean Sea and the port. The castle boasts a rich history and architectural significance. Visitors can explore the castle's ramparts, towers, and courtyards, and delve into the region's captivating past. With a 4.4-star rating, the fort is a popular destination for tourists and history enthusiasts alike. Its strategic location makes it a great spot to capture panoramic shots of the surrounding area.
+Plage kelibia is a popular tourist attraction located in Kelibia, Tunisia. It offers a wide range of activities, including swimming, sunbathing, and windsurfing. The beach is also home to a number of restaurants and cafes.
+The beach is located just a short drive from the city center and is easily accessible by public transportation. The beach is well-maintained and features clear blue waters and soft white sand.
+Plage kelibia is a great place to relax and enjoy the beautiful weather of Tunisia. It is also a great location to enjoy some water sports.
+The Port of Kelibia is a maritime port located in Kelibia, Tunisia. The port offers a variety of services to its customers, including fishing, cargo, and passenger transport. It is also a popular tourist destination, with many visitors coming to enjoy the beautiful scenery and the fresh seafood. The port is located at (36.8351444, 11.1116178).
+Discover the stunning Phare de Kelibia, a captivating viewpoint located at (36.8363146, 11.1113262) in Kelibia, Tunisia. Immerse yourself in the breathtaking panoramic views from the lighthouse's vantage point, making it an ideal spot for photography enthusiasts and nature lovers alike.
+The Institut superieur des etudes technologiques de Kelibia is a higher education institute located in Kelibia, Tunisia. It offers a range of technological programs and has a rating of 4.4 stars. The institute is situated at the coordinates (36.8363146, 11.1113262) and can be contacted by phone at 72 277 090. Its website is http://www.isetkl.rnu.tn/.
+Kelibia is a place located in Kelibia, Tunisia. It has a bike rental service, with a 4.2 rating based on 6 reviews. It is located at coordinates (36.836660524289, 11.111146140921).
+Marbrerie Hafefh Kacem is a popular discotheque located in Kelibia, Tunisia. It has a rating of 4.0 out of 5 on Google Maps and is known for its vibrant atmosphere and lively music. The discotheque is located at (36.8472589, 11.091058) and offers a variety of music genres to cater to different tastes. It is a popular destination for locals and tourists alike, and is a great place to dance the night away.
+El Bahri Restaurant is a seafood restaurant located in Kelibia, Tunisia. It is a popular spot for tourists and locals alike, and it offers a variety of seafood dishes, including fresh fish, grilled octopus, and seafood platters. The restaurant is open 24 hours a day, and it is closed on Tuesdays. The average rating for El Bahri Restaurant is 4.7 stars, and it has received positive reviews for its delicious food, friendly staff, and reasonable prices.
+Pizzeria LOFT ROMA is a 4.2-rated pizzeria located in kelibia, Tunisia. It operates from 08:00 to 00:00 every day and offers a wide range of pizzas. Its exact location is at R3VW+83Q Rue de Tripoli, Kelibia, Tunisia.
+Restaurant is a family-friendly restaurant located in Kelibia, Tunisia. It offers a variety of dishes, including traditional Tunisian cuisine and international fare. The restaurant is located at the coordinates (36.8472589, 11.091058) and has a rating of 5.0 out of 5 stars on Google Maps.
+Station Louage Kelibia is a taxi service located in Kelibia, Tunisia (36.84757, 11.09386). With a rating of 3.7 out of 5 based on 28 reviews, it offers reliable transportation services to its customers.
+SRTGN (station Kelibia) is a bus station located in Kelibia, Tunisia. It offers basic amenities and services for travelers, and is conveniently situated at (36.84757, 11.09386).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -8279,12 +12188,77 @@
       </c>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>If you're in kelibia and looking for a fantastic Restaurant familial, look no further than Restaurant at R3WR+GV3. This top-rated destination with a 5.0 rating is perfect for families and offers a cozy ambiance. Though its hours of operation and phone number are unavailable, you can visit their website for more details or use the GPS coordinates (36.8472589, 11.091058) for navigation.</t>
+          <t>Restaurant is a family-friendly restaurant located in Kelibia, Tunisia. It offers a variety of dishes, including traditional Tunisian cuisine and international fare. The restaurant is located at the coordinates (36.8472589, 11.091058) and has a rating of 5.0 out of 5 stars on Google Maps.</t>
         </is>
       </c>
       <c r="AA72" t="inlineStr">
         <is>
-          <t>Which family-friendly Restaurant familial with a 5.0 rating can be found in Kelibia, known for its cozy atmosphere?</t>
+          <t>**Day Plan:**
+**Morning:**
+- Explore the historic Fort de Kelibia, offering breathtaking views of the Mediterranean Sea and the port.
+**Mid-Morning:**
+- Visit the Institut superieur des etudes technologiques de Kelibia for a glimpse into the region's technological advancements.
+**Midday:**
+- Indulge in local cuisine at El Bahri Restaurant, known for its delectable seafood dishes and cozy ambiance.
+**Afternoon:**
+- Relax and enjoy the scenic beauty of Plage Kelibia, perfect for swimming, sunbathing, or windsurfing.
+**Evening:**
+- Take a leisurely stroll along the charming coastline, admiring the sunset over the Mediterranean Sea.
+**Night:**
+- Experience Kelibia's vibrant nightlife at Marbrerie Hafefh Kacem, a lively discotheque with a bustling atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB72" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Chikh Hammouda, located in Kelibia at 8090 ave Ali Belhouane, is a 4.3-rated cafe open from 4 AM to 10 PM, offering a cozy ambiance for coffee and relaxation. With three reviews and a featured image showcasing its inviting atmosphere, this cafe is a popular spot in the Kelibia area.
+Hannibal coffee kelibia is a tea room located in kelibia, Tunisia. It offers a variety of teas, coffees, and pastries. The tea room is located at 36.8363146, 11.1113262.
+La Padella Kelibia is a reputable restaurant located in Kelibia. It boasts an impressive 4.6 rating based on 8 reviews, indicating its popularity and high quality. Open from 8 AM to midnight every day, La Padella Kelibia offers a wide range of dishes to cater to its diverse clientele. The restaurant's prime location at 36.8363146 latitude and 11.1113262 longitude makes it easily accessible to both locals and tourists. With its convenient hours and delicious offerings, La Padella Kelibia is the go-to destination for dining in Kelibia.
+Kelibia Paradise is a popular accommodation option in Kelibia, Tunisia. It is located at 47 Rue d'orange Cite Ezzouhour, 8090, Kelibia, and offers a range of amenities to its guests. These include a restaurant, bar, and swimming pool, as well as free Wi-Fi and parking. The hotel is situated within easy reach of the beach and other local attractions, making it an ideal base for exploring the area.
+Maison d'hotes / Restaurant L'Hirondelle de Kelibia offers a pleasant stay in a beautiful location just steps from the beach. The hotel features comfortable rooms, a relaxing atmosphere, and welcoming staff. Guests can enjoy delicious meals at the on-site restaurant while admiring the panoramic views of the Mediterranean Sea. With its convenient location and excellent amenities, Maison d'hotes / Restaurant L'Hirondelle de Kelibia is the perfect place for a memorable vacation.
+Dar Meriem - Maison d'hôtes is a guest house located in Kelibia, Tunisia. It offers comfortable accommodation and a warm and welcoming atmosphere. The guest house is perfectly situated for exploring the city and its surroundings, and is close to a variety of amenities. The guest house is managed by a friendly and helpful team of staff who are always on hand to assist guests with any queries or needs.
+Residence Asma is a 4.4-rated residence located in Kelibia, Tunisia. It is a great place to stay for tourists and business travelers alike. The residence offers a variety of amenities, including a swimming pool, a fitness center, and a restaurant. It is also conveniently located near the beach, the city center, and the airport. The residence has 14 reviews, all of which are positive. Guests praise the residence's cleanliness, comfort, and friendly staff.
+Pension Anis is a 4-star family-run guesthouse located in Kelibia, Tunisia. It features a prime location on Av du Dr Mongi Ben Hmida. Guests can enjoy comfortable accommodations with great value. The guesthouse offers a range of amenities to ensure a pleasant stay, including free Wi-Fi, laundry service, and a friendly atmosphere. Its central location provides easy access to local attractions and points of interest.
+The Casa Del Mar Residence is a 4.3-rated guesthouse located in Kelibia, Tunisia. It is situated near the beach and offers a relaxing getaway for guests. The Residence has received positive reviews for its comfortable accommodations and friendly staff.
+Dar Lebharr is a cozy accommodation located in Kelibia, Tunisia. It offers a comfortable stay with a rating of 4.1 out of 5. Situated at 36.835428078688 latitude and 11.091149597327 longitude, it's easily accessible. Contact them at +33 7 81 09 91 78 for bookings or inquiries.
+Luxus Apartements is a 5-star lodge located in Kelibia, Tunisia. It offers a luxurious and comfortable stay for its guests. The lodge is situated near the beach, making it a great place to relax and enjoy the beautiful scenery. Luxus Apartements is also close to many restaurants, shops, and attractions. The lodge's staff is friendly and helpful, and they are always willing to go the extra mile to make sure that their guests have a memorable stay.
+Plage Kelibia, located at (36.84757, 11.09386), offers a picturesque beachfront experience in the city of Kelibia.
+Fort de Kelibia is a historical fortress located in Kelibia, Tunisia. It offers stunning views of the Mediterranean Sea and the port. The castle boasts a rich history and architectural significance. Visitors can explore the castle's ramparts, towers, and courtyards, and delve into the region's captivating past. With a 4.4-star rating, the fort is a popular destination for tourists and history enthusiasts alike. Its strategic location makes it a great spot to capture panoramic shots of the surrounding area.
+Plage kelibia is a popular tourist attraction located in Kelibia, Tunisia. It offers a wide range of activities, including swimming, sunbathing, and windsurfing. The beach is also home to a number of restaurants and cafes.
+The beach is located just a short drive from the city center and is easily accessible by public transportation. The beach is well-maintained and features clear blue waters and soft white sand.
+Plage kelibia is a great place to relax and enjoy the beautiful weather of Tunisia. It is also a great location to enjoy some water sports.
+The Port of Kelibia is a maritime port located in Kelibia, Tunisia. The port offers a variety of services to its customers, including fishing, cargo, and passenger transport. It is also a popular tourist destination, with many visitors coming to enjoy the beautiful scenery and the fresh seafood. The port is located at (36.8351444, 11.1116178).
+Discover the stunning Phare de Kelibia, a captivating viewpoint located at (36.8363146, 11.1113262) in Kelibia, Tunisia. Immerse yourself in the breathtaking panoramic views from the lighthouse's vantage point, making it an ideal spot for photography enthusiasts and nature lovers alike.
+The Institut superieur des etudes technologiques de Kelibia is a higher education institute located in Kelibia, Tunisia. It offers a range of technological programs and has a rating of 4.4 stars. The institute is situated at the coordinates (36.8363146, 11.1113262) and can be contacted by phone at 72 277 090. Its website is http://www.isetkl.rnu.tn/.
+Kelibia is a place located in Kelibia, Tunisia. It has a bike rental service, with a 4.2 rating based on 6 reviews. It is located at coordinates (36.836660524289, 11.111146140921).
+Marbrerie Hafefh Kacem is a popular discotheque located in Kelibia, Tunisia. It has a rating of 4.0 out of 5 on Google Maps and is known for its vibrant atmosphere and lively music. The discotheque is located at (36.8472589, 11.091058) and offers a variety of music genres to cater to different tastes. It is a popular destination for locals and tourists alike, and is a great place to dance the night away.
+El Bahri Restaurant is a seafood restaurant located in Kelibia, Tunisia. It is a popular spot for tourists and locals alike, and it offers a variety of seafood dishes, including fresh fish, grilled octopus, and seafood platters. The restaurant is open 24 hours a day, and it is closed on Tuesdays. The average rating for El Bahri Restaurant is 4.7 stars, and it has received positive reviews for its delicious food, friendly staff, and reasonable prices.
+Del Capo is a 5-star rated pizzeria located in Kelibia, Tunisia. It is situated at the address: 8090 Av. de Martyrs with coordinates (36.842587762817, 11.099081841049). This highly-rated spot operates from 12:00 to 00:00 during the week and offers a delectable range of pizzas.
+Restaurant is a family-friendly restaurant located in Kelibia, Tunisia. It offers a variety of dishes, including traditional Tunisian cuisine and international fare. The restaurant is located at the coordinates (36.8472589, 11.091058) and has a rating of 5.0 out of 5 stars on Google Maps.
+Station Louage Kelibia is a taxi service located in Kelibia, Tunisia (36.84757, 11.09386). With a rating of 3.7 out of 5 based on 28 reviews, it offers reliable transportation services to its customers.
+SRTGN (station Kelibia) is a bus station located in Kelibia with the coordinates (36.84757, 11.09386). It offers bus services to various destinations.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -8390,12 +12364,71 @@
       </c>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>If you're in Kelibia and looking for a tasty dining experience, visit Street Food Kelibia located at 8090 Avenu Militant Abdelkader Dardouri. This top-rated restaurant is perfect for Restaurant lovers and offers a range of Restaurant categories to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 09:00-00:00. To get there, use these GPS coordinates: 36.848013989197, 11.098336416111. For more details, call them at 52 091 908.</t>
+          <t>Street Food Kelibia is a restaurant located in Kelibia, Tunisia at the following coordinates: (36.848013989197, 11.098336416111). The restaurant serves a variety of dishes and is rated 4.0 out of 5 stars based on 1 review. It is open from 09:00 to 00:00 and closed on .</t>
         </is>
       </c>
       <c r="AA73" t="inlineStr">
         <is>
-          <t>Where can you savor a delightful culinary experience in Kelibia, offering a variety of cuisine options and a 4.0 rating?</t>
+          <t>Day Plan:
+Morning: Explore the historical Fort de Kelibia, offering stunning views of the sea, and delve into its captivating past.
+Mid-Morning: Visit the Phare de Kelibia lighthouse, capturing breathtaking panoramic views of the city, and capture some memorable photographs.
+Midday: Savor the delectable seafood dishes at El Bahri Restaurant, renowned for its fresh fish, grilled octopus, and seafood platters, and indulge in the vibrant atmosphere.
+Afternoon: Relax and rejuvenate at Dar Lebharr, a cozy accommodation with a 4.1 rating, and unwind with a rejuvenating spa treatment or simply soak up the tranquil ambiance.
+Evening: Experience the local cuisine at Restaurant, a family-friendly establishment offering a diverse menu, and enjoy the authentic flavors of Tunisia.
+Night: Head to Marbrerie Hafefh Kacem discotheque, renowned for its lively music and vibrant atmosphere, and dance the night away in the heart of Kelibia's nightlife scene.</t>
+        </is>
+      </c>
+      <c r="AB73" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Magnifique coffee is a cafe located in Kelibia, Tunisia. It offers a variety of coffee drinks, as well as pastries and other snacks. The cafe is located at Rue Clupea, Kelibia 8090. It is open from 07:00-01:00 and is closed on Sunday. The cafe has a 4.6-star rating on Google Maps.
+Hannibal coffee kelibia is a tea room located in kelibia, Tunisia. It offers a variety of teas, coffees, and pastries. The tea room is located at 36.8363146, 11.1113262.
+Retaurant Bella Marina is a highly-rated restaurant located in Kelibia, Tunisia. It offers an extensive menu featuring pizzas, salads, pasta dishes, and more. The restaurant is known for its delicious food and friendly service. It is conveniently located near the beach, making it a great place to enjoy a meal after a day of sun and sand.
+Myriam Bel Air is a popular hotel located in Kelibia, Tunisia. It offers a comfortable and convenient stay for its guests, with a 4.2-star rating on Google. The hotel has 14 reviews, with an overall positive feedback from its guests. It provides a range of amenities, including comfortable rooms, a swimming pool, and a restaurant. The hotel's website features additional information and booking options, and it is well-connected with major tourist attractions in the area.
+Nestled in the picturesque Kelibia region, Cap-Bon Kelibia Beach Hotel &amp; Spa is an upscale resort offering 562 warmly designed rooms and suites. With its stunning beachfront location and serene ambiance, the hotel is an ideal destination for leisure and relaxation. It features an array of amenities, including a rejuvenating spa, three refined dining options, and an inviting swimming pool, ensuring an unforgettable stay in the heart of Kelibia.
+Dar Meriem - Maison d'hôtes is a guest house located in Kelibia, Tunisia. It offers comfortable accommodation and a warm and welcoming atmosphere. The guest house is perfectly situated for exploring the city and its surroundings, and is close to a variety of amenities. The guest house is managed by a friendly and helpful team of staff who are always on hand to assist guests with any queries or needs.
+Residence Asma is a 4.4-rated residence located in Kelibia, Tunisia. It is a great place to stay for tourists and business travelers alike. The residence offers a variety of amenities, including a swimming pool, a fitness center, and a restaurant. It is also conveniently located near the beach, the city center, and the airport. The residence has 14 reviews, all of which are positive. Guests praise the residence's cleanliness, comfort, and friendly staff.
+Pension Anis is a 4-star family-run guesthouse located in Kelibia, Tunisia. It features a prime location on Av du Dr Mongi Ben Hmida. Guests can enjoy comfortable accommodations with great value. The guesthouse offers a range of amenities to ensure a pleasant stay, including free Wi-Fi, laundry service, and a friendly atmosphere. Its central location provides easy access to local attractions and points of interest.
+The Casa Del Mar Residence is a 4.3-rated guesthouse located in Kelibia, Tunisia. It is situated near the beach and offers a relaxing getaway for guests. The Residence has received positive reviews for its comfortable accommodations and friendly staff.
+Dar Lebharr is a cozy accommodation located in Kelibia, Tunisia. It offers a comfortable stay with a rating of 4.1 out of 5. Situated at 36.835428078688 latitude and 11.091149597327 longitude, it's easily accessible. Contact them at +33 7 81 09 91 78 for bookings or inquiries.
+Luxus Apartements is a 5-star lodge located in Kelibia, Tunisia at (36.835428078688, 11.091149597327). It has a rating of 5.0 based on 1 review and is owned by Luxus Apartements (proprietaire). Luxus Apartements offers a variety of amenities and services, making it the perfect place to stay for both business and leisure travelers.
+Plage Kelibia, located at (36.84757, 11.09386), offers a picturesque beachfront experience in the city of Kelibia.
+Fort de Kelibia, located in Kelibia, is a historical fortress with an average rating of 4.4 out of 5 based on 460 reviews. It offers a stunning view of the sea, making it a great spot to enjoy the scenery. Visitors can also delve into the history of the fort or simply admire its architectural beauty. With its convenient opening hours from 9:00 AM to 6:00 PM, it's a perfect destination for tourists and history enthusiasts alike.
+Plage kelibia is a popular tourist attraction located in Kelibia, Tunisia. It offers a wide range of activities, including swimming, sunbathing, and windsurfing. The beach is also home to a number of restaurants and cafes.
+The beach is located just a short drive from the city center and is easily accessible by public transportation. The beach is well-maintained and features clear blue waters and soft white sand.
+Plage kelibia is a great place to relax and enjoy the beautiful weather of Tunisia. It is also a great location to enjoy some water sports.
+The Port of Kelibia is a maritime port located in Kelibia, Tunisia. The port offers a variety of services to its customers, including fishing, cargo, and passenger transport. It is also a popular tourist destination, with many visitors coming to enjoy the beautiful scenery and the fresh seafood. The port is located at (36.8351444, 11.1116178).
+Discover the stunning Phare de Kelibia, a captivating viewpoint located at (36.8363146, 11.1113262) in Kelibia, Tunisia. Immerse yourself in the breathtaking panoramic views from the lighthouse's vantage point, making it an ideal spot for photography enthusiasts and nature lovers alike.
+The Institut superieur des etudes technologiques de Kelibia is a higher education institute located in Kelibia, Tunisia. It offers a range of technological programs and has a rating of 4.4 stars. The institute is situated at the coordinates (36.8363146, 11.1113262) and can be contacted by phone at 72 277 090. Its website is http://www.isetkl.rnu.tn/.
+Kelibia is a place located in Kelibia, Tunisia. It has a bike rental service, with a 4.2 rating based on 6 reviews. It is located at coordinates (36.836660524289, 11.111146140921).
+Marbrerie Hafefh Kacem is a popular discotheque located in Kelibia, Tunisia. It has a rating of 4.0 out of 5 on Google Maps and is known for its vibrant atmosphere and lively music. The discotheque is located at (36.8472589, 11.091058) and offers a variety of music genres to cater to different tastes. It is a popular destination for locals and tourists alike, and is a great place to dance the night away.
+El Bahri Restaurant is a seafood restaurant located in Kelibia, Tunisia. It is a popular spot for tourists and locals alike, and it offers a variety of seafood dishes, including fresh fish, grilled octopus, and seafood platters. The restaurant is open 24 hours a day, and it is closed on Tuesdays. The average rating for El Bahri Restaurant is 4.7 stars, and it has received positive reviews for its delicious food, friendly staff, and reasonable prices.
+Del Capo is a 5-star rated pizzeria located in Kelibia, Tunisia. It is situated at the address: 8090 Av. de Martyrs with coordinates (36.842587762817, 11.099081841049). This highly-rated spot operates from 12:00 to 00:00 during the week and offers a delectable range of pizzas.
+Restaurant is a family-friendly restaurant located in Kelibia, Tunisia. It offers a variety of dishes, including traditional Tunisian cuisine and international fare. The restaurant is located at the coordinates (36.8472589, 11.091058) and has a rating of 5.0 out of 5 stars on Google Maps.
+Station Louage Kelibia is a taxi service located in Kelibia, Tunisia (36.84757, 11.09386). With a rating of 3.7 out of 5 based on 28 reviews, it offers reliable transportation services to its customers.
+SRTGN's station is located in Kelibia, Tunisia. It offers bus services to various destinations. The station is located at the coordinates (36.84757, 11.09386).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -8501,14 +12534,69 @@
       </c>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>If you're in kelibia and looking for something fun to do, check out TOGOO FOOD kelibia located at Rue zouhour, Kelibia 8090. 
-This top-rated destination is perfect for Restaurant lovers and offers a range to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 11:30-02:00. To get there, use these GPS coordinates: 36.84538736086, 11.088400125578. For more details, visit their website at  or call them at 48 006 303.</t>
+          <t>TOGOO FOOD kelibia is a restaurant located in Rue zouhour, Kelibia 8090. It offers a variety of dishes and is highly rated by customers. The restaurant is open from 11:30-02:00 and closed on Sundays. It offers a variety of dishes, including sandwiches, salads, and pizzas.</t>
         </is>
       </c>
       <c r="AA74" t="inlineStr">
         <is>
-          <t>What is the top-rated restaurant in Kelibia that offers a wide variety of choices for Restaurant lovers, located on Rue zouhour?</t>
+          <t>Day Plan:
+Morning: Exploring Fort de Kelibia
+Mid-Morning: Trying local cuisine at El Bahri Restaurant
+Midday: Relaxing at Plage Kelibia
+Afternoon: Engaging in outdoor activities at Kelibia Bike Rental
+Evening: Participating in an event or enjoying live music at Marbrerie Hafefh Kacem
+Night: Experiencing culinary delights at Pizzeria "La Luna"</t>
+        </is>
+      </c>
+      <c r="AB74" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CAFE CORNICHE is a cafe located in Kelibia, Tunisia. It has a 4.4-star rating on Google, with 5 reviews. The cafe is open during the week and closed on Sundays. It is located at R3QX+66M CAFE CORNICHE, Av. de l'environnement, Kelibia 8090.
+Hannibal coffee kelibia is a tea room located in kelibia, Tunisia. It offers a variety of teas, coffees, and pastries. The tea room is located at 36.8363146, 11.1113262.
+Welcome to Pizza Lool, a beloved restaurant in Kelibia, Tunisia, known for its delectable pizzas and its welcoming atmosphere. Located at R3VW+RCW, Pizza Lool offers an unforgettable dining experience with friendly service and a convenient location.
+Kelibia Paradise is a lodging facility located in Kelibia, Tunisia. It has a rating of 4.6 and has received 18 reviews. The facility offers accommodation with a main focus on comfort and relaxation. Its geolocation is at longitude 11.098431810317 and latitude 36.846063992403.
+Maison d'hotes / Restaurant L'Hirondelle de Kelibia offers a pleasant stay in a beautiful location just steps from the beach. The hotel features comfortable rooms, a relaxing atmosphere, and welcoming staff. Guests can enjoy delicious meals at the on-site restaurant while admiring the panoramic views of the Mediterranean Sea. With its convenient location and excellent amenities, Maison d'hotes / Restaurant L'Hirondelle de Kelibia is the perfect place for a memorable vacation.
+Dar Meriem - Maison d'hôtes is a guest house located in Kelibia, Tunisia. It offers comfortable accommodation and a warm and welcoming atmosphere. The guest house is perfectly situated for exploring the city and its surroundings, and is close to a variety of amenities. The guest house is managed by a friendly and helpful team of staff who are always on hand to assist guests with any queries or needs.
+Residence Asma is a 4.4-rated residence located in Kelibia, Tunisia. It is a great place to stay for tourists and business travelers alike. The residence offers a variety of amenities, including a swimming pool, a fitness center, and a restaurant. It is also conveniently located near the beach, the city center, and the airport. The residence has 14 reviews, all of which are positive. Guests praise the residence's cleanliness, comfort, and friendly staff.
+Pension Anis is a 4-star family-run guesthouse located in Kelibia, Tunisia. It features a prime location on Av du Dr Mongi Ben Hmida. Guests can enjoy comfortable accommodations with great value. The guesthouse offers a range of amenities to ensure a pleasant stay, including free Wi-Fi, laundry service, and a friendly atmosphere. Its central location provides easy access to local attractions and points of interest.
+The Casa Del Mar Residence is a 4.3-rated guesthouse located in Kelibia, Tunisia. It is situated near the beach and offers a relaxing getaway for guests. The Residence has received positive reviews for its comfortable accommodations and friendly staff.
+Dar Lebharr is a cozy accommodation located in Kelibia, Tunisia. It offers a comfortable stay with a rating of 4.1 out of 5. Situated at 36.835428078688 latitude and 11.091149597327 longitude, it's easily accessible. Contact them at +33 7 81 09 91 78 for bookings or inquiries.
+Luxus Apartements is a 5-star lodge located in Kelibia, Tunisia at (36.835428078688, 11.091149597327). It has a rating of 5.0 based on 1 review and is owned by Luxus Apartements (proprietaire). Luxus Apartements offers a variety of amenities and services, making it the perfect place to stay for both business and leisure travelers.
+Plage Kelibia, located at (36.84757, 11.09386), offers a picturesque beachfront experience in the city of Kelibia.
+Fort de Kelibia is a historical fortress located in Kelibia, Tunisia. It offers stunning views of the Mediterranean Sea and the port. The castle boasts a rich history and architectural significance. Visitors can explore the castle's ramparts, towers, and courtyards, and delve into the region's captivating past. With a 4.4-star rating, the fort is a popular destination for tourists and history enthusiasts alike. Its strategic location makes it a great spot to capture panoramic shots of the surrounding area.
+Plage Kelibia is a tourist attraction located at the coordinates (36.84757, 11.09386) in Kelibia, Tunisia. With a rating of 4.6 based on 37 reviews, it is a popular destination for tourists. The beach offers a range of activities and amenities, including swimming, sunbathing, and beach volleyball. It is also home to a number of restaurants and cafes, making it a great place to relax and enjoy the scenery.
+The Port of Kelibia is a maritime port located in Kelibia, Tunisia. The port offers a variety of services to its customers, including fishing, cargo, and passenger transport. It is also a popular tourist destination, with many visitors coming to enjoy the beautiful scenery and the fresh seafood. The port is located at (36.8351444, 11.1116178).
+Discover the stunning Phare de Kelibia, a captivating viewpoint located at (36.8363146, 11.1113262) in Kelibia, Tunisia. Immerse yourself in the breathtaking panoramic views from the lighthouse's vantage point, making it an ideal spot for photography enthusiasts and nature lovers alike.
+The Institut superieur des etudes technologiques de Kelibia is a higher education institute located in Kelibia, Tunisia. It offers a range of technological programs and has a rating of 4.4 stars. The institute is situated at the coordinates (36.8363146, 11.1113262) and can be contacted by phone at 72 277 090. Its website is http://www.isetkl.rnu.tn/.
+Kelibia is a place located in Kelibia, Tunisia. It has a bike rental service, with a 4.2 rating based on 6 reviews. It is located at coordinates (36.836660524289, 11.111146140921).
+Marbrerie Hafefh Kacem is a popular discotheque located in Kelibia, Tunisia. It has a rating of 4.0 out of 5 on Google Maps and is known for its vibrant atmosphere and lively music. The discotheque is located at (36.8472589, 11.091058) and offers a variety of music genres to cater to different tastes. It is a popular destination for locals and tourists alike, and is a great place to dance the night away.
+El Bahri Restaurant is a seafood restaurant located in Kelibia, Tunisia. It is a popular spot for tourists and locals alike, and it offers a variety of seafood dishes, including fresh fish, grilled octopus, and seafood platters. The restaurant is open 24 hours a day, and it is closed on Tuesdays. The average rating for El Bahri Restaurant is 4.7 stars, and it has received positive reviews for its delicious food, friendly staff, and reasonable prices.
+"La Luna", a 4-star Pizzeria, located in Kelibia, Tunisia. It's reachable by phone and has a website. It's open daily from 08:00-22:00, and its coordinates are (36.8472589, 11.091058).
+Restaurant is a family-friendly restaurant located in Kelibia, Tunisia. It offers a variety of dishes, including traditional Tunisian cuisine and international fare. The restaurant is located at the coordinates (36.8472589, 11.091058) and has a rating of 5.0 out of 5 stars on Google Maps.
+Station Louage Kelibia is a taxi service located in Kelibia, Tunisia (36.84757, 11.09386). With a rating of 3.7 out of 5 based on 28 reviews, it offers reliable transportation services to its customers.
+SRTGN (station Kelibia) is a bus station located in Kelibia, Tunisia. It offers basic amenities and services for travelers, and is conveniently situated at (36.84757, 11.09386).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -8610,12 +12698,69 @@
       </c>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>If you're in kelibia and looking for a top-rated restaurant, try Pizzaria Nino's, located at R3WM+CV3 Pizzaria Nino's, Unnamed Road, Kelibia. With a 5.0 rating, it's a must-visit spot for restaurant enthusiasts. Call them at 54 998 120 for more details.</t>
+          <t>Pizzaria Nino's is a restaurant located in kelibia, Tunisia at the coordinates (36.8472589, 11.091058). It has a rating of 5.0 out of 5 stars and offers a variety of pizzas.</t>
         </is>
       </c>
       <c r="AA75" t="inlineStr">
         <is>
-          <t>Which top-rated restaurant in Kelibia, located on an unnamed road, boasts a 5.0 rating and is a haven for restaurant enthusiasts?</t>
+          <t>Day Plan:
+Morning: Exploring Fort de Kelibia
+Mid-Morning: Trying local cuisine at El Bahri Restaurant
+Midday: Enjoying scenic views at Plage Kelibia
+Afternoon: Participating in a bike rental service in Kelibia
+Evening: Relaxing with a massage at a local spa
+Night: Experiencing cultural immersion at the Institut superieur des etudes technologiques de Kelibia</t>
+        </is>
+      </c>
+      <c r="AB75" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Charbabbou-Chez Jhonny in Kelibia (36.8363146, 11.1113262) is a highly-rated (4.8/5) cafe known for its warm and inviting atmosphere. Open daily from 7 AM to midnight, it's the perfect spot to relax and enjoy a delicious cup of coffee or tea. Cafe Charbabbou-Chez Jhonny welcomes you with open arms and awaits your visit!
+Hannibal coffee kelibia is a tea room located in kelibia, Tunisia. It offers a variety of teas, coffees, and pastries. The tea room is located at 36.8363146, 11.1113262.
+Clandestino is a highly-rated restaurant located in Kelibia, Tunisia. With a 4.2-star rating based on 11 reviews, it's a popular spot for locals and tourists alike. The restaurant is situated at Av. de Martyrs, making it easily accessible. Open from 7:00 AM to 8:00 PM, Clandestino serves a menu that is unfortunately not available online. Its main category is Restaurant, and it falls under the categories of Restaurants.
+Kelibia Paradise is a lodging facility located in Kelibia, Tunisia. It has a rating of 4.6 and has received 18 reviews. The facility offers accommodation with a main focus on comfort and relaxation. Its geolocation is at longitude 11.098431810317 and latitude 36.846063992403.
+Nestled in the picturesque Kelibia region, Cap-Bon Kelibia Beach Hotel &amp; Spa is an upscale resort offering 562 warmly designed rooms and suites. With its stunning beachfront location and serene ambiance, the hotel is an ideal destination for leisure and relaxation. It features an array of amenities, including a rejuvenating spa, three refined dining options, and an inviting swimming pool, ensuring an unforgettable stay in the heart of Kelibia.
+Dar Meriem - Maison d'hôtes is a guest house located in Kelibia, Tunisia. It offers comfortable accommodation and a warm and welcoming atmosphere. The guest house is perfectly situated for exploring the city and its surroundings, and is close to a variety of amenities. The guest house is managed by a friendly and helpful team of staff who are always on hand to assist guests with any queries or needs.
+Residence Asma is a 4.4-rated residence located in Kelibia, Tunisia. It is a great place to stay for tourists and business travelers alike. The residence offers a variety of amenities, including a swimming pool, a fitness center, and a restaurant. It is also conveniently located near the beach, the city center, and the airport. The residence has 14 reviews, all of which are positive. Guests praise the residence's cleanliness, comfort, and friendly staff.
+Pension Anis is a 4-star family-run guesthouse located in Kelibia, Tunisia. It features a prime location on Av du Dr Mongi Ben Hmida. Guests can enjoy comfortable accommodations with great value. The guesthouse offers a range of amenities to ensure a pleasant stay, including free Wi-Fi, laundry service, and a friendly atmosphere. Its central location provides easy access to local attractions and points of interest.
+The Casa Del Mar Residence is a 4.3-rated guesthouse located in Kelibia, Tunisia. It is situated near the beach and offers a relaxing getaway for guests. The Residence has received positive reviews for its comfortable accommodations and friendly staff.
+Dar Lebharr is a cozy accommodation located in Kelibia, Tunisia. It offers a comfortable stay with a rating of 4.1 out of 5. Situated at 36.835428078688 latitude and 11.091149597327 longitude, it's easily accessible. Contact them at +33 7 81 09 91 78 for bookings or inquiries.
+Luxus Apartements is a 5-star lodge located in Kelibia, Tunisia. It offers a luxurious and comfortable stay for its guests. The lodge is situated near the beach, making it a great place to relax and enjoy the beautiful scenery. Luxus Apartements is also close to many restaurants, shops, and attractions. The lodge's staff is friendly and helpful, and they are always willing to go the extra mile to make sure that their guests have a memorable stay.
+Plage Kelibia, located at (36.84757, 11.09386), offers a picturesque beachfront experience in the city of Kelibia.
+Fort de Kelibia, located in Kelibia, is a historical fortress with an average rating of 4.4 out of 5 based on 460 reviews. It offers a stunning view of the sea, making it a great spot to enjoy the scenery. Visitors can also delve into the history of the fort or simply admire its architectural beauty. With its convenient opening hours from 9:00 AM to 6:00 PM, it's a perfect destination for tourists and history enthusiasts alike.
+Plage Kelibia is a tourist attraction located at the coordinates (36.84757, 11.09386) in Kelibia, Tunisia. With a rating of 4.6 based on 37 reviews, it is a popular destination for tourists. The beach offers a range of activities and amenities, including swimming, sunbathing, and beach volleyball. It is also home to a number of restaurants and cafes, making it a great place to relax and enjoy the scenery.
+The Port of Kelibia is a maritime port located in Kelibia, Tunisia. The port offers a variety of services to its customers, including fishing, cargo, and passenger transport. It is also a popular tourist destination, with many visitors coming to enjoy the beautiful scenery and the fresh seafood. The port is located at (36.8351444, 11.1116178).
+Discover the stunning Phare de Kelibia, a captivating viewpoint located at (36.8363146, 11.1113262) in Kelibia, Tunisia. Immerse yourself in the breathtaking panoramic views from the lighthouse's vantage point, making it an ideal spot for photography enthusiasts and nature lovers alike.
+The Institut superieur des etudes technologiques de Kelibia is a higher education institute located in Kelibia, Tunisia. It offers a range of technological programs and has a rating of 4.4 stars. The institute is situated at the coordinates (36.8363146, 11.1113262) and can be contacted by phone at 72 277 090. Its website is http://www.isetkl.rnu.tn/.
+Kelibia is a place located in Kelibia, Tunisia. It has a bike rental service, with a 4.2 rating based on 6 reviews. It is located at coordinates (36.836660524289, 11.111146140921).
+Marbrerie Hafefh Kacem is a popular discotheque located in Kelibia, Tunisia. It has a rating of 4.0 out of 5 on Google Maps and is known for its vibrant atmosphere and lively music. The discotheque is located at (36.8472589, 11.091058) and offers a variety of music genres to cater to different tastes. It is a popular destination for locals and tourists alike, and is a great place to dance the night away.
+El Bahri Restaurant is a seafood restaurant located in Kelibia, Tunisia. It is a popular spot for tourists and locals alike, and it offers a variety of seafood dishes, including fresh fish, grilled octopus, and seafood platters. The restaurant is open 24 hours a day, and it is closed on Tuesdays. The average rating for El Bahri Restaurant is 4.7 stars, and it has received positive reviews for its delicious food, friendly staff, and reasonable prices.
+"La Luna", a 4-star Pizzeria, located in Kelibia, Tunisia. It's reachable by phone and has a website. It's open daily from 08:00-22:00, and its coordinates are (36.8472589, 11.091058).
+Restaurant is a family-friendly restaurant located in Kelibia, Tunisia. It offers a variety of dishes, including traditional Tunisian cuisine and international fare. The restaurant is located at the coordinates (36.8472589, 11.091058) and has a rating of 5.0 out of 5 stars on Google Maps.
+Station Louage Kelibia is a taxi service located in Kelibia, Tunisia (36.84757, 11.09386). With a rating of 3.7 out of 5 based on 28 reviews, it offers reliable transportation services to its customers.
+SRTGN (station Kelibia) is a bus station located in Kelibia with the coordinates (36.84757, 11.09386). It offers bus services to various destinations.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -8713,12 +12858,75 @@
       </c>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>If you're in kelibia and looking for a reliable taxi service, check out Station Louage Kelibia located at R3XP+7VH Station Louage Kelibia, Kelibia. This top-rated destination is perfect for those seeking a convenient transportation option. With a rating of 3.7, it's a must-visit spot. To get there, use these GPS coordinates: 36.84757, 11.09386.</t>
+          <t>Station Louage Kelibia is a taxi service located in Kelibia, Tunisia (36.84757, 11.09386). With a rating of 3.7 out of 5 based on 28 reviews, it offers reliable transportation services to its customers.</t>
         </is>
       </c>
       <c r="AA76" t="inlineStr">
         <is>
-          <t>What is the top-rated taxi service in Kelibia conveniently located with specific GPS coordinates?</t>
+          <t>**Day Plan:**
+**Morning:**
+* Explore the ancient Fort de Kelibia for stunning views of the Mediterranean Sea (30 minutes)
+**Mid-Morning:**
+* Visit the Institut superieur des etudes technologiques de Kelibia to learn about local technological advancements (20 minutes)
+**Midday:**
+* Lunch at El Bahri Restaurant, known for its delicious seafood dishes (60 minutes)
+**Afternoon:**
+* Relax on Plage Kelibia, enjoying swimming and sunbathing (90 minutes)
+**Evening:**
+* Attend the lively music and dancing at Marbrerie Hafefh Kacem (60 minutes)
+**Night:**
+* Dine at the family-friendly Restaurant for a taste of traditional Tunisian cuisine (90 minutes)</t>
+        </is>
+      </c>
+      <c r="AB76" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**El Barraka** is a popular cafe located in Kelibia, Tunisia. It offers a wide range of drinks and snacks, making it a great place to relax and unwind. The cafe is conveniently located on Av. de Martyrs, with coordinates (36.836660524289, 11.111146140921). With its cozy ambiance and friendly staff, El Barraka is a perfect spot to meet friends, catch up on work, or simply enjoy a cup of coffee.
+Hannibal coffee kelibia is a tea room located in kelibia, Tunisia. It offers a variety of teas, coffees, and pastries. The tea room is located at 36.8363146, 11.1113262.
+Located in the heart of Kelibia, "L'benna" is a highly-rated restaurant (4.6/5 stars) that delights locals and tourists alike. Open 24 hours a day, "L'benna" offers a convenient and welcoming atmosphere. Its precise location at (36.842587762817, 11.099081841049) makes it easily accessible.
+Myriam Bel Air is a popular hotel located in Kelibia, Tunisia. It offers a comfortable and convenient stay for its guests, with a 4.2-star rating on Google. The hotel has 14 reviews, with an overall positive feedback from its guests. It provides a range of amenities, including comfortable rooms, a swimming pool, and a restaurant. The hotel's website features additional information and booking options, and it is well-connected with major tourist attractions in the area.
+Maison d'hotes / Restaurant L'Hirondelle de Kelibia offers a pleasant stay in a beautiful location just steps from the beach. The hotel features comfortable rooms, a relaxing atmosphere, and welcoming staff. Guests can enjoy delicious meals at the on-site restaurant while admiring the panoramic views of the Mediterranean Sea. With its convenient location and excellent amenities, Maison d'hotes / Restaurant L'Hirondelle de Kelibia is the perfect place for a memorable vacation.
+Dar Meriem - Maison d'hôtes is a guest house located in Kelibia, Tunisia. It offers comfortable accommodation and a warm and welcoming atmosphere. The guest house is perfectly situated for exploring the city and its surroundings, and is close to a variety of amenities. The guest house is managed by a friendly and helpful team of staff who are always on hand to assist guests with any queries or needs.
+Residence Asma is a 4.4-rated residence located in Kelibia, Tunisia. It is a great place to stay for tourists and business travelers alike. The residence offers a variety of amenities, including a swimming pool, a fitness center, and a restaurant. It is also conveniently located near the beach, the city center, and the airport. The residence has 14 reviews, all of which are positive. Guests praise the residence's cleanliness, comfort, and friendly staff.
+Pension Anis is a 4-star family-run guesthouse located in Kelibia, Tunisia. It features a prime location on Av du Dr Mongi Ben Hmida. Guests can enjoy comfortable accommodations with great value. The guesthouse offers a range of amenities to ensure a pleasant stay, including free Wi-Fi, laundry service, and a friendly atmosphere. Its central location provides easy access to local attractions and points of interest.
+The Casa Del Mar Residence is a 4.3-rated guesthouse located in Kelibia, Tunisia. It is situated near the beach and offers a relaxing getaway for guests. The Residence has received positive reviews for its comfortable accommodations and friendly staff.
+Dar Lebharr is a cozy accommodation located in Kelibia, Tunisia. It offers a comfortable stay with a rating of 4.1 out of 5. Situated at 36.835428078688 latitude and 11.091149597327 longitude, it's easily accessible. Contact them at +33 7 81 09 91 78 for bookings or inquiries.
+Luxus Apartements is a 5-star lodge located in Kelibia, Tunisia at (36.835428078688, 11.091149597327). It has a rating of 5.0 based on 1 review and is owned by Luxus Apartements (proprietaire). Luxus Apartements offers a variety of amenities and services, making it the perfect place to stay for both business and leisure travelers.
+Plage Kelibia, located at (36.84757, 11.09386), offers a picturesque beachfront experience in the city of Kelibia.
+Fort de Kelibia is a historical fortress located in Kelibia, Tunisia. It offers stunning views of the Mediterranean Sea and the port. The castle boasts a rich history and architectural significance. Visitors can explore the castle's ramparts, towers, and courtyards, and delve into the region's captivating past. With a 4.4-star rating, the fort is a popular destination for tourists and history enthusiasts alike. Its strategic location makes it a great spot to capture panoramic shots of the surrounding area.
+Plage Kelibia is a tourist attraction located at the coordinates (36.84757, 11.09386) in Kelibia, Tunisia. With a rating of 4.6 based on 37 reviews, it is a popular destination for tourists. The beach offers a range of activities and amenities, including swimming, sunbathing, and beach volleyball. It is also home to a number of restaurants and cafes, making it a great place to relax and enjoy the scenery.
+The Port of Kelibia is a maritime port located in Kelibia, Tunisia. The port offers a variety of services to its customers, including fishing, cargo, and passenger transport. It is also a popular tourist destination, with many visitors coming to enjoy the beautiful scenery and the fresh seafood. The port is located at (36.8351444, 11.1116178).
+Discover the stunning Phare de Kelibia, a captivating viewpoint located at (36.8363146, 11.1113262) in Kelibia, Tunisia. Immerse yourself in the breathtaking panoramic views from the lighthouse's vantage point, making it an ideal spot for photography enthusiasts and nature lovers alike.
+The Institut superieur des etudes technologiques de Kelibia is a higher education institute located in Kelibia, Tunisia. It offers a range of technological programs and has a rating of 4.4 stars. The institute is situated at the coordinates (36.8363146, 11.1113262) and can be contacted by phone at 72 277 090. Its website is http://www.isetkl.rnu.tn/.
+Kelibia is a place located in Kelibia, Tunisia. It has a bike rental service, with a 4.2 rating based on 6 reviews. It is located at coordinates (36.836660524289, 11.111146140921).
+Marbrerie Hafefh Kacem is a popular discotheque located in Kelibia, Tunisia. It has a rating of 4.0 out of 5 on Google Maps and is known for its vibrant atmosphere and lively music. The discotheque is located at (36.8472589, 11.091058) and offers a variety of music genres to cater to different tastes. It is a popular destination for locals and tourists alike, and is a great place to dance the night away.
+El Bahri Restaurant is a seafood restaurant located in Kelibia, Tunisia. It is a popular spot for tourists and locals alike, and it offers a variety of seafood dishes, including fresh fish, grilled octopus, and seafood platters. The restaurant is open 24 hours a day, and it is closed on Tuesdays. The average rating for El Bahri Restaurant is 4.7 stars, and it has received positive reviews for its delicious food, friendly staff, and reasonable prices.
+"La Luna", a 4-star Pizzeria, located in Kelibia, Tunisia. It's reachable by phone and has a website. It's open daily from 08:00-22:00, and its coordinates are (36.8472589, 11.091058).
+Restaurant is a family-friendly restaurant located in Kelibia, Tunisia. It offers a variety of dishes, including traditional Tunisian cuisine and international fare. The restaurant is located at the coordinates (36.8472589, 11.091058) and has a rating of 5.0 out of 5 stars on Google Maps.
+Station Louage Kelibia is a taxi service located in Kelibia, Tunisia (36.84757, 11.09386). With a rating of 3.7 out of 5 based on 28 reviews, it offers reliable transportation services to its customers.
+SRTGN (station Kelibia) is a bus station located in Kelibia, Tunisia. It offers basic amenities and services for travelers, and is conveniently situated at (36.84757, 11.09386).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -8816,14 +13024,71 @@
       </c>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>If you're in Kelibia and need to travel somewhere, visit SRTGN (station Kelibia) located at C27, Kelibia. 
-This transportation hub is perfect for travellers and offers bus services. 
-With a rating of 3.4, it's a popular spot. To get there, use these GPS coordinates: 36.84757, 11.09386.</t>
+          <t>SRTGN's station is located in Kelibia, Tunisia. It offers bus services to various destinations. The station is located at the coordinates (36.84757, 11.09386).</t>
         </is>
       </c>
       <c r="AA77" t="inlineStr">
         <is>
-          <t>Where is the popular transportation hub in Kelibia that offers bus services and is located at specific GPS coordinates?</t>
+          <t>Day Plan:
+Morning: Explore the historical Fort de Kelibia
+Mid-Morning: Try local seafood cuisine at El Bahri Restaurant
+Midday: Visit the Phare de Kelibia for panoramic views
+Afternoon: Enjoy a relaxing hammam and massage at DAR COLIBRI
+Evening: Explore the vibrant atmosphere and lively music at Marbrerie Hafefh Kacem
+Night: End the day with a delicious pizza dinner at Pizzeria LOFT ROMA</t>
+        </is>
+      </c>
+      <c r="AB77" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Located in the heart of Kelibia, Tunisia (36.847461866537, 11.083275342698), Cafe Farabi is a popular spot for locals and tourists alike. Serving delicious coffee, pastries, and a variety of snacks, the cafe offers a cozy and inviting atmosphere. With a rating of 4.6 stars and numerous positive reviews, Cafe Farabi is highly recommended for anyone seeking a great cup of coffee and a relaxing ambiance.
+Located in Kelibia (latitude 36.836660524289, and longitude 11.111146140921), Big Ben is a teahouse offering a pleasant setting to relax and enjoy a break.
+La Padella Kelibia is a reputable restaurant located in Kelibia. It boasts an impressive 4.6 rating based on 8 reviews, indicating its popularity and high quality. Open from 8 AM to midnight every day, La Padella Kelibia offers a wide range of dishes to cater to its diverse clientele. The restaurant's prime location at 36.8363146 latitude and 11.1113262 longitude makes it easily accessible to both locals and tourists. With its convenient hours and delicious offerings, La Padella Kelibia is the go-to destination for dining in Kelibia.
+Kelibia Paradise is a lodging facility located in Kelibia, Tunisia. It has a rating of 4.6 and has received 18 reviews. The facility offers accommodation with a main focus on comfort and relaxation. Its geolocation is at longitude 11.098431810317 and latitude 36.846063992403.
+Nestled in the picturesque Kelibia region, Cap-Bon Kelibia Beach Hotel &amp; Spa is an upscale resort offering 562 warmly designed rooms and suites. With its stunning beachfront location and serene ambiance, the hotel is an ideal destination for leisure and relaxation. It features an array of amenities, including a rejuvenating spa, three refined dining options, and an inviting swimming pool, ensuring an unforgettable stay in the heart of Kelibia.
+DAR COLIBRI, a 4.6-rated guesthouse located in Kelibia (36.8363146, 11.1113262), offers a unique stay in a charming setting. It features a swimming pool, hammam, and massage services, promising a relaxing and rejuvenating experience. With its proximity to the beautiful beaches of Kelibia, this guesthouse is an ideal base for exploring the region's natural wonders.
+Residence Asma is a 4.4-rated residence located in Kelibia, Tunisia. It is a great place to stay for tourists and business travelers alike. The residence offers a variety of amenities, including a swimming pool, a fitness center, and a restaurant. It is also conveniently located near the beach, the city center, and the airport. The residence has 14 reviews, all of which are positive. Guests praise the residence's cleanliness, comfort, and friendly staff.
+Pension Anis is a 4-star family-run guesthouse located in Kelibia, Tunisia. It features a prime location on Av du Dr Mongi Ben Hmida. Guests can enjoy comfortable accommodations with great value. The guesthouse offers a range of amenities to ensure a pleasant stay, including free Wi-Fi, laundry service, and a friendly atmosphere. Its central location provides easy access to local attractions and points of interest.
+The Casa Del Mar Residence is a 4.3-rated guesthouse located in Kelibia, Tunisia. It is situated near the beach and offers a relaxing getaway for guests. The Residence has received positive reviews for its comfortable accommodations and friendly staff.
+Dar Lebharr is a cozy accommodation located in Kelibia, Tunisia. It offers a comfortable stay with a rating of 4.1 out of 5. Situated at 36.835428078688 latitude and 11.091149597327 longitude, it's easily accessible. Contact them at +33 7 81 09 91 78 for bookings or inquiries.
+Luxus Apartements is a 5-star lodge located in Kelibia, Tunisia. It offers a luxurious and comfortable stay for its guests. The lodge is situated near the beach, making it a great place to relax and enjoy the beautiful scenery. Luxus Apartements is also close to many restaurants, shops, and attractions. The lodge's staff is friendly and helpful, and they are always willing to go the extra mile to make sure that their guests have a memorable stay.
+Plage Kelibia, located at (36.84757, 11.09386), offers a picturesque beachfront experience in the city of Kelibia.
+Fort de Kelibia, located in Kelibia, is a historical fortress with an average rating of 4.4 out of 5 based on 460 reviews. It offers a stunning view of the sea, making it a great spot to enjoy the scenery. Visitors can also delve into the history of the fort or simply admire its architectural beauty. With its convenient opening hours from 9:00 AM to 6:00 PM, it's a perfect destination for tourists and history enthusiasts alike.
+Plage kelibia is a popular tourist attraction located in Kelibia, Tunisia. It offers a wide range of activities, including swimming, sunbathing, and windsurfing. The beach is also home to a number of restaurants and cafes.
+The beach is located just a short drive from the city center and is easily accessible by public transportation. The beach is well-maintained and features clear blue waters and soft white sand.
+Plage kelibia is a great place to relax and enjoy the beautiful weather of Tunisia. It is also a great location to enjoy some water sports.
+The Port of Kelibia is a maritime port located in Kelibia, Tunisia. The port offers a variety of services to its customers, including fishing, cargo, and passenger transport. It is also a popular tourist destination, with many visitors coming to enjoy the beautiful scenery and the fresh seafood. The port is located at (36.8351444, 11.1116178).
+Discover the stunning Phare de Kelibia, a captivating viewpoint located at (36.8363146, 11.1113262) in Kelibia, Tunisia. Immerse yourself in the breathtaking panoramic views from the lighthouse's vantage point, making it an ideal spot for photography enthusiasts and nature lovers alike.
+The Institut superieur des etudes technologiques de Kelibia is a higher education institute located in Kelibia, Tunisia. It offers a range of technological programs and has a rating of 4.4 stars. The institute is situated at the coordinates (36.8363146, 11.1113262) and can be contacted by phone at 72 277 090. Its website is http://www.isetkl.rnu.tn/.
+Kelibia is a place located in Kelibia, Tunisia. It has a bike rental service, with a 4.2 rating based on 6 reviews. It is located at coordinates (36.836660524289, 11.111146140921).
+Marbrerie Hafefh Kacem is a popular discotheque located in Kelibia, Tunisia. It has a rating of 4.0 out of 5 on Google Maps and is known for its vibrant atmosphere and lively music. The discotheque is located at (36.8472589, 11.091058) and offers a variety of music genres to cater to different tastes. It is a popular destination for locals and tourists alike, and is a great place to dance the night away.
+El Bahri Restaurant is a seafood restaurant located in Kelibia, Tunisia. It is a popular spot for tourists and locals alike, and it offers a variety of seafood dishes, including fresh fish, grilled octopus, and seafood platters. The restaurant is open 24 hours a day, and it is closed on Tuesdays. The average rating for El Bahri Restaurant is 4.7 stars, and it has received positive reviews for its delicious food, friendly staff, and reasonable prices.
+Pizzeria LOFT ROMA is a 4.2-rated pizzeria located in kelibia, Tunisia. It operates from 08:00 to 00:00 every day and offers a wide range of pizzas. Its exact location is at R3VW+83Q Rue de Tripoli, Kelibia, Tunisia.
+Restaurant is a family-friendly restaurant located in Kelibia, Tunisia. It offers a variety of dishes, including traditional Tunisian cuisine and international fare. The restaurant is located at the coordinates (36.8472589, 11.091058) and has a rating of 5.0 out of 5 stars on Google Maps.
+Station Louage Kelibia is a taxi service located in Kelibia, Tunisia (36.84757, 11.09386). With a rating of 3.7 out of 5 based on 28 reviews, it offers reliable transportation services to its customers.
+SRTGN (station Kelibia) is a bus station located in Kelibia with the coordinates (36.84757, 11.09386). It offers bus services to various destinations.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -8921,12 +13186,69 @@
       </c>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>If you're in kelibia and looking for the top-rated Gare routiere, head to SRTGN (station Kelibia) located at SRTGN (station Kelibia), C27, Kelibia. This must-visit spot offers a rating of 3.4. For more details, visit their website at https://www.google.com/maps/place/SRTGN+%28station+K%C3%A9libia%29/data=!4m7!3m6!1s0x131d33eeb0c84b83:0x4e0519a956b88c3c!8m2!3d36.8482343!4d11.0875747!16s%2Fg%2F1ydpk1bkr!19sChIJg0vIsO4zHRMRPIy4VqkZBU4?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>SRTGN (station Kelibia) is a bus station located in Kelibia with the coordinates (36.84757, 11.09386). It offers bus services to various destinations.</t>
         </is>
       </c>
       <c r="AA78" t="inlineStr">
         <is>
-          <t>Where in Kelibia can you find the highest-rated Gare routiere called SRTGN (station Kelibia) with a 3.4 rating?</t>
+          <t>Day Plan:
+Morning: Explore the historic Fort de Kelibia for stunning sea views.
+Mid-Morning: Indulge in traditional Tunisian cuisine at the highly-rated El Bahri Restaurant.
+Midday: Relax on the picturesque Plage Kelibia, enjoying the sandy beach, swimming, or trying beach volleyball.
+Afternoon: Take a guided tour of the Port of Kelibia, discovering its maritime significance.
+Evening: Enjoy a breathtaking sunset at Phare de Kelibia, capturing panoramic views.
+Night: Dance the night away at Marbrerie Hafefh Kacem, a lively discotheque with vibrant music.</t>
+        </is>
+      </c>
+      <c r="AB78" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Story coffee kelibia is a popular cafe in kelibia, located at the coordinates (36.848013989197, 11.098336416111). Open 24 hours a day, it offers a welcoming atmosphere with a rating of 5.0 based on 4 reviews.
+Located in Kelibia (latitude 36.836660524289, and longitude 11.111146140921), Big Ben is a teahouse offering a pleasant setting to relax and enjoy a break.
+Street Food Kelibia is a restaurant located in Kelibia, Tunisia at the following coordinates: (36.848013989197, 11.098336416111). The restaurant serves a variety of dishes and is rated 4.0 out of 5 stars based on 1 review. It is open from 09:00 to 00:00 and closed on .
+Kelibia Paradise is a lodging facility located in Kelibia, Tunisia. It has a rating of 4.6 and has received 18 reviews. The facility offers accommodation with a main focus on comfort and relaxation. Its geolocation is at longitude 11.098431810317 and latitude 36.846063992403.
+The Cap-Bon Kelibia Beach Hotel &amp; Spa is a 4-star hotel located in Kelibia, Tunisia. It is a luxury seaside hotel offering comfortable rooms and suites, a spa and 3 refined restaurants. It is known for its beautiful beach, its large swimming pool and its animations.
+Dar Meriem - Maison d'hôtes is a guest house located in Kelibia, Tunisia. It offers comfortable accommodation and a warm and welcoming atmosphere. The guest house is perfectly situated for exploring the city and its surroundings, and is close to a variety of amenities. The guest house is managed by a friendly and helpful team of staff who are always on hand to assist guests with any queries or needs.
+Residence Asma is a 4.4-rated residence located in Kelibia, Tunisia. It is a great place to stay for tourists and business travelers alike. The residence offers a variety of amenities, including a swimming pool, a fitness center, and a restaurant. It is also conveniently located near the beach, the city center, and the airport. The residence has 14 reviews, all of which are positive. Guests praise the residence's cleanliness, comfort, and friendly staff.
+Pension Anis is a 4-star family-run guesthouse located in Kelibia, Tunisia. It features a prime location on Av du Dr Mongi Ben Hmida. Guests can enjoy comfortable accommodations with great value. The guesthouse offers a range of amenities to ensure a pleasant stay, including free Wi-Fi, laundry service, and a friendly atmosphere. Its central location provides easy access to local attractions and points of interest.
+The Casa Del Mar Residence is a 4.3-rated guesthouse located in Kelibia, Tunisia. It is situated near the beach and offers a relaxing getaway for guests. The Residence has received positive reviews for its comfortable accommodations and friendly staff.
+Dar Lebharr is a cozy accommodation located in Kelibia, Tunisia. It offers a comfortable stay with a rating of 4.1 out of 5. Situated at 36.835428078688 latitude and 11.091149597327 longitude, it's easily accessible. Contact them at +33 7 81 09 91 78 for bookings or inquiries.
+Luxus Apartements is a 5-star lodge located in Kelibia, Tunisia at (36.835428078688, 11.091149597327). It has a rating of 5.0 based on 1 review and is owned by Luxus Apartements (proprietaire). Luxus Apartements offers a variety of amenities and services, making it the perfect place to stay for both business and leisure travelers.
+Plage Kelibia, located at (36.84757, 11.09386), offers a picturesque beachfront experience in the city of Kelibia.
+Fort de Kelibia, located in Kelibia, is a historical fortress with an average rating of 4.4 out of 5 based on 460 reviews. It offers a stunning view of the sea, making it a great spot to enjoy the scenery. Visitors can also delve into the history of the fort or simply admire its architectural beauty. With its convenient opening hours from 9:00 AM to 6:00 PM, it's a perfect destination for tourists and history enthusiasts alike.
+Plage Kelibia is a tourist attraction located at the coordinates (36.84757, 11.09386) in Kelibia, Tunisia. With a rating of 4.6 based on 37 reviews, it is a popular destination for tourists. The beach offers a range of activities and amenities, including swimming, sunbathing, and beach volleyball. It is also home to a number of restaurants and cafes, making it a great place to relax and enjoy the scenery.
+The Port of Kelibia is a maritime port located in Kelibia, Tunisia. The port offers a variety of services to its customers, including fishing, cargo, and passenger transport. It is also a popular tourist destination, with many visitors coming to enjoy the beautiful scenery and the fresh seafood. The port is located at (36.8351444, 11.1116178).
+Discover the stunning Phare de Kelibia, a captivating viewpoint located at (36.8363146, 11.1113262) in Kelibia, Tunisia. Immerse yourself in the breathtaking panoramic views from the lighthouse's vantage point, making it an ideal spot for photography enthusiasts and nature lovers alike.
+The Institut superieur des etudes technologiques de Kelibia is a higher education institute located in Kelibia, Tunisia. It offers a range of technological programs and has a rating of 4.4 stars. The institute is situated at the coordinates (36.8363146, 11.1113262) and can be contacted by phone at 72 277 090. Its website is http://www.isetkl.rnu.tn/.
+Kelibia is a place located in Kelibia, Tunisia. It has a bike rental service, with a 4.2 rating based on 6 reviews. It is located at coordinates (36.836660524289, 11.111146140921).
+Marbrerie Hafefh Kacem is a popular discotheque located in Kelibia, Tunisia. It has a rating of 4.0 out of 5 on Google Maps and is known for its vibrant atmosphere and lively music. The discotheque is located at (36.8472589, 11.091058) and offers a variety of music genres to cater to different tastes. It is a popular destination for locals and tourists alike, and is a great place to dance the night away.
+El Bahri Restaurant is a seafood restaurant located in Kelibia, Tunisia. It is a popular spot for tourists and locals alike, and it offers a variety of seafood dishes, including fresh fish, grilled octopus, and seafood platters. The restaurant is open 24 hours a day, and it is closed on Tuesdays. The average rating for El Bahri Restaurant is 4.7 stars, and it has received positive reviews for its delicious food, friendly staff, and reasonable prices.
+Del Capo is a 5-star rated pizzeria located in Kelibia, Tunisia. It is situated at the address: 8090 Av. de Martyrs with coordinates (36.842587762817, 11.099081841049). This highly-rated spot operates from 12:00 to 00:00 during the week and offers a delectable range of pizzas.
+Restaurant is a family-friendly restaurant located in Kelibia, Tunisia. It offers a variety of dishes, including traditional Tunisian cuisine and international fare. The restaurant is located at the coordinates (36.8472589, 11.091058) and has a rating of 5.0 out of 5 stars on Google Maps.
+Station Louage Kelibia is a taxi service located in Kelibia, Tunisia (36.84757, 11.09386). With a rating of 3.7 out of 5 based on 28 reviews, it offers reliable transportation services to its customers.
+SRTGN's station is located in Kelibia, Tunisia. It offers bus services to various destinations. The station is located at the coordinates (36.84757, 11.09386).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -9024,12 +13346,71 @@
       </c>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>If you're in kelibia and looking for a Gare routiere, check out SRTGN (station Kelibia) located at SRTGN (station Kelibia), C27, Kelibia. This top-rated destination is perfect for Gare routiere lovers and offers a range of categories to choose from. With a rating of 3.4, it's a must-visit spot. To get there, use these GPS coordinates: 36.84757, 11.09386. For more details, visit their website at https://www.google.com/maps/place/SRTGN+%28station+K%C3%A9libia%29/data=!4m7!3m6!1s0x131d33eeb0c84b83:0x4e0519a956b88c3c!8m2!3d36.8482343!4d11.0875747!16s%2Fg%2F1ydpk1bkr!19sChIJg0vIsO4zHRMRPIy4VqkZBU4?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>SRTGN (station Kelibia) is a bus station located in Kelibia, Tunisia. It offers basic amenities and services for travelers, and is conveniently situated at (36.84757, 11.09386).</t>
         </is>
       </c>
       <c r="AA79" t="inlineStr">
         <is>
-          <t>Question: Where in Kelibia can you find a highly-rated destination for Gare routiere lovers, complete with GPS coordinates and a website link?</t>
+          <t>Day Plan:
+Morning: Exploring the historical Fort de Kelibia and capturing panoramic shots of the surrounding area.
+Mid-Morning: Trying local cuisine at El Bahri Restaurant for its delicious seafood and ambiance.
+Midday: Visiting the Institut superieur des etudes technologiques de Kelibia to gain insights into Tunisia's higher education system.
+Afternoon: Enjoying Plage kelibia's beautiful scenery and engaging in water sports like windsurfing.
+Evening: Relaxing with a massage at DAR COLIBRI's hammam for a rejuvenating experience.
+Night: Experiencing the vibrant atmosphere and lively music at Marbrerie Hafefh Kacem discotheque.</t>
+        </is>
+      </c>
+      <c r="AB79" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Café Duplex is a popular café located in Kelibia, known for its cozy atmosphere and delicious coffee. Café Duplex is a popular destination for locals and tourists alike, and it offers a variety of coffees, teas, and snacks. The café is located at 58 Rue Taieb Sardouk, Kelibia, and it is open from 8am to 10pm, seven days a week.
+Located in Kelibia (latitude 36.836660524289, and longitude 11.111146140921), Big Ben is a teahouse offering a pleasant setting to relax and enjoy a break.
+TOGOO FOOD kelibia is a restaurant located in Rue zouhour, Kelibia 8090. It offers a variety of dishes and is highly rated by customers. The restaurant is open from 11:30-02:00 and closed on Sundays. It offers a variety of dishes, including sandwiches, salads, and pizzas.
+Kelibia Paradise is a popular accommodation option in Kelibia, Tunisia. It is located at 47 Rue d'orange Cite Ezzouhour, 8090, Kelibia, and offers a range of amenities to its guests. These include a restaurant, bar, and swimming pool, as well as free Wi-Fi and parking. The hotel is situated within easy reach of the beach and other local attractions, making it an ideal base for exploring the area.
+Nestled in the picturesque Kelibia region, Cap-Bon Kelibia Beach Hotel &amp; Spa is an upscale resort offering 562 warmly designed rooms and suites. With its stunning beachfront location and serene ambiance, the hotel is an ideal destination for leisure and relaxation. It features an array of amenities, including a rejuvenating spa, three refined dining options, and an inviting swimming pool, ensuring an unforgettable stay in the heart of Kelibia.
+DAR COLIBRI, a 4.6-rated guesthouse located in Kelibia (36.8363146, 11.1113262), offers a unique stay in a charming setting. It features a swimming pool, hammam, and massage services, promising a relaxing and rejuvenating experience. With its proximity to the beautiful beaches of Kelibia, this guesthouse is an ideal base for exploring the region's natural wonders.
+Residence Asma is a 4.4-rated residence located in Kelibia, Tunisia. It is a great place to stay for tourists and business travelers alike. The residence offers a variety of amenities, including a swimming pool, a fitness center, and a restaurant. It is also conveniently located near the beach, the city center, and the airport. The residence has 14 reviews, all of which are positive. Guests praise the residence's cleanliness, comfort, and friendly staff.
+Pension Anis is a 4-star family-run guesthouse located in Kelibia, Tunisia. It features a prime location on Av du Dr Mongi Ben Hmida. Guests can enjoy comfortable accommodations with great value. The guesthouse offers a range of amenities to ensure a pleasant stay, including free Wi-Fi, laundry service, and a friendly atmosphere. Its central location provides easy access to local attractions and points of interest.
+The Casa Del Mar Residence is a 4.3-rated guesthouse located in Kelibia, Tunisia. It is situated near the beach and offers a relaxing getaway for guests. The Residence has received positive reviews for its comfortable accommodations and friendly staff.
+Dar Lebharr is a cozy accommodation located in Kelibia, Tunisia. It offers a comfortable stay with a rating of 4.1 out of 5. Situated at 36.835428078688 latitude and 11.091149597327 longitude, it's easily accessible. Contact them at +33 7 81 09 91 78 for bookings or inquiries.
+Luxus Apartements is a 5-star lodge located in Kelibia, Tunisia. It offers a luxurious and comfortable stay for its guests. The lodge is situated near the beach, making it a great place to relax and enjoy the beautiful scenery. Luxus Apartements is also close to many restaurants, shops, and attractions. The lodge's staff is friendly and helpful, and they are always willing to go the extra mile to make sure that their guests have a memorable stay.
+Plage Kelibia, located at (36.84757, 11.09386), offers a picturesque beachfront experience in the city of Kelibia.
+Fort de Kelibia is a historical fortress located in Kelibia, Tunisia. It offers stunning views of the Mediterranean Sea and the port. The castle boasts a rich history and architectural significance. Visitors can explore the castle's ramparts, towers, and courtyards, and delve into the region's captivating past. With a 4.4-star rating, the fort is a popular destination for tourists and history enthusiasts alike. Its strategic location makes it a great spot to capture panoramic shots of the surrounding area.
+Plage kelibia is a popular tourist attraction located in Kelibia, Tunisia. It offers a wide range of activities, including swimming, sunbathing, and windsurfing. The beach is also home to a number of restaurants and cafes.
+The beach is located just a short drive from the city center and is easily accessible by public transportation. The beach is well-maintained and features clear blue waters and soft white sand.
+Plage kelibia is a great place to relax and enjoy the beautiful weather of Tunisia. It is also a great location to enjoy some water sports.
+The Port of Kelibia is a maritime port located in Kelibia, Tunisia. The port offers a variety of services to its customers, including fishing, cargo, and passenger transport. It is also a popular tourist destination, with many visitors coming to enjoy the beautiful scenery and the fresh seafood. The port is located at (36.8351444, 11.1116178).
+Discover the stunning Phare de Kelibia, a captivating viewpoint located at (36.8363146, 11.1113262) in Kelibia, Tunisia. Immerse yourself in the breathtaking panoramic views from the lighthouse's vantage point, making it an ideal spot for photography enthusiasts and nature lovers alike.
+The Institut superieur des etudes technologiques de Kelibia is a higher education institute located in Kelibia, Tunisia. It offers a range of technological programs and has a rating of 4.4 stars. The institute is situated at the coordinates (36.8363146, 11.1113262) and can be contacted by phone at 72 277 090. Its website is http://www.isetkl.rnu.tn/.
+Kelibia is a place located in Kelibia, Tunisia. It has a bike rental service, with a 4.2 rating based on 6 reviews. It is located at coordinates (36.836660524289, 11.111146140921).
+Marbrerie Hafefh Kacem is a popular discotheque located in Kelibia, Tunisia. It has a rating of 4.0 out of 5 on Google Maps and is known for its vibrant atmosphere and lively music. The discotheque is located at (36.8472589, 11.091058) and offers a variety of music genres to cater to different tastes. It is a popular destination for locals and tourists alike, and is a great place to dance the night away.
+El Bahri Restaurant is a seafood restaurant located in Kelibia, Tunisia. It is a popular spot for tourists and locals alike, and it offers a variety of seafood dishes, including fresh fish, grilled octopus, and seafood platters. The restaurant is open 24 hours a day, and it is closed on Tuesdays. The average rating for El Bahri Restaurant is 4.7 stars, and it has received positive reviews for its delicious food, friendly staff, and reasonable prices.
+Pizzeria LOFT ROMA is a 4.2-rated pizzeria located in kelibia, Tunisia. It operates from 08:00 to 00:00 every day and offers a wide range of pizzas. Its exact location is at R3VW+83Q Rue de Tripoli, Kelibia, Tunisia.
+Restaurant is a family-friendly restaurant located in Kelibia, Tunisia. It offers a variety of dishes, including traditional Tunisian cuisine and international fare. The restaurant is located at the coordinates (36.8472589, 11.091058) and has a rating of 5.0 out of 5 stars on Google Maps.
+Station Louage Kelibia is a taxi service located in Kelibia, Tunisia (36.84757, 11.09386). With a rating of 3.7 out of 5 based on 28 reviews, it offers reliable transportation services to its customers.
+SRTGN's station is located in Kelibia, Tunisia. It offers bus services to various destinations. The station is located at the coordinates (36.84757, 11.09386).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
